--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newhope_ghost/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="23000" windowHeight="21220" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25620" windowHeight="21080"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
     <sheet name="情绪数据" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -453,10 +448,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="182" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -806,35 +801,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,34 +846,34 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -894,35 +889,35 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -946,7 +941,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1084,10 +1079,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$280</c:f>
+              <c:f>情绪数据!$A$2:$A$325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -1924,16 +1919,151 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>44581.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44582.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44585.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44586.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44587.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44588.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44589.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44599.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44600.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44601.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44602.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44603.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44606.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44607.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44608.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44609.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44610.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44613.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44614.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44615.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44616.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44617.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44620.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44621.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44622.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44623.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44624.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44627.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44628.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44629.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44630.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44631.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44634.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44635.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44636.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44637.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44638.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44641.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44642.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44643.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44644.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44645.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44648.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44649.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44650.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44651.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$321</c:f>
+              <c:f>情绪数据!$T$2:$T$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2805,94 +2935,106 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.0</c:v>
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,8 +3049,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1106980080"/>
-        <c:axId val="1106982128"/>
+        <c:axId val="2109244792"/>
+        <c:axId val="2109361464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2998,10 +3140,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$291</c:f>
+              <c:f>情绪数据!$A$2:$A$325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -3871,16 +4013,118 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>44603.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44606.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44607.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44608.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44609.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44610.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44613.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44614.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44615.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44616.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44617.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44620.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44621.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44622.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44623.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44624.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44627.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44628.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44629.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44630.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44631.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44634.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44635.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44636.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44637.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44638.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44641.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44642.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44643.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44644.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44645.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44648.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44649.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44650.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44651.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$321</c:f>
+              <c:f>情绪数据!$U$2:$U$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -4752,94 +4996,106 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.0</c:v>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,8 +5112,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1106980080"/>
-        <c:axId val="1106982128"/>
+        <c:axId val="2109244792"/>
+        <c:axId val="2109361464"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5871,10 +6127,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$321</c:f>
+              <c:f>情绪数据!$J$2:$J$325</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -6834,6 +7090,18 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.03</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7863,10 +8131,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$321</c:f>
+              <c:f>情绪数据!$K$2:$K$325</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -8826,6 +9094,18 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-1.16</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8842,11 +9122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1106984448"/>
-        <c:axId val="1106605776"/>
+        <c:axId val="2108710376"/>
+        <c:axId val="2108763928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1106980080"/>
+        <c:axId val="2109244792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8914,7 +9194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106982128"/>
+        <c:crossAx val="2109361464"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8922,7 +9202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1106982128"/>
+        <c:axId val="2109361464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8973,13 +9253,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106980080"/>
+        <c:crossAx val="2109244792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1106984448"/>
+        <c:axId val="2108710376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8989,7 +9269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1106605776"/>
+        <c:crossAx val="2108763928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8997,7 +9277,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1106605776"/>
+        <c:axId val="2108763928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9034,7 +9314,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106984448"/>
+        <c:crossAx val="2108710376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9138,10 +9418,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$323</c:f>
+              <c:f>情绪数据!$A$2:$A$325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10107,16 +10387,22 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>44649.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44650.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44651.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$323</c:f>
+              <c:f>情绪数据!$B$2:$B$325</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11082,6 +11368,12 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="General">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="General">
+                  <c:v>55.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11115,10 +11407,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$323</c:f>
+              <c:f>情绪数据!$A$2:$A$325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12084,16 +12376,22 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>44649.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44650.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44651.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$323</c:f>
+              <c:f>情绪数据!$C$2:$C$325</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13059,6 +13357,12 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="General">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="General">
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13072,8 +13376,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="995050560"/>
-        <c:axId val="924426928"/>
+        <c:axId val="2140862104"/>
+        <c:axId val="2140404216"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -13171,10 +13475,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$323</c:f>
+              <c:f>情绪数据!$D$2:$D$325</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -14140,6 +14444,12 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>-18.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-8.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14239,10 +14549,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$323</c:f>
+              <c:f>情绪数据!$F$2:$F$325</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -15208,6 +15518,12 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>-268.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-164.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-274.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15221,8 +15537,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="994499152"/>
-        <c:axId val="994806528"/>
+        <c:axId val="2140882664"/>
+        <c:axId val="2140901400"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16134,10 +16450,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$323</c:f>
+              <c:f>情绪数据!$AF$2:$AF$325</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -17103,6 +17419,12 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>66.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>64.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>66.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17119,11 +17441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="995050560"/>
-        <c:axId val="924426928"/>
+        <c:axId val="2140862104"/>
+        <c:axId val="2140404216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="995050560"/>
+        <c:axId val="2140862104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17191,7 +17513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924426928"/>
+        <c:crossAx val="2140404216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -17199,7 +17521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="924426928"/>
+        <c:axId val="2140404216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -17248,12 +17570,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995050560"/>
+        <c:crossAx val="2140862104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="994499152"/>
+        <c:axId val="2140882664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17263,7 +17585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="994806528"/>
+        <c:crossAx val="2140901400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -17271,7 +17593,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994806528"/>
+        <c:axId val="2140901400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -17307,7 +17629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994499152"/>
+        <c:crossAx val="2140882664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18464,15 +18786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40443</xdr:rowOff>
+      <xdr:colOff>172204</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>127438</xdr:rowOff>
+      <xdr:colOff>438269</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>52098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18784,31 +19106,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BX37" sqref="BX37"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BY41" sqref="BY41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="33" spans="97:104" x14ac:dyDescent="0.2">
+    <row r="33" spans="97:104">
       <c r="CY33" s="118"/>
     </row>
-    <row r="34" spans="97:104" x14ac:dyDescent="0.2">
+    <row r="34" spans="97:104">
       <c r="CS34" s="118"/>
     </row>
-    <row r="37" spans="97:104" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="97:104" ht="15">
       <c r="CZ37" s="119"/>
     </row>
-    <row r="51" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="51" spans="98:103">
       <c r="CT51" s="118"/>
     </row>
-    <row r="53" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="53" spans="98:103">
       <c r="CT53" s="120"/>
     </row>
-    <row r="60" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="60" spans="98:103">
       <c r="CY60" s="121"/>
     </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="20:20">
       <c r="T70" t="s">
         <v>0</v>
       </c>
@@ -18818,6 +19140,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18825,14 +19152,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="19" customWidth="1"/>
     <col min="2" max="8" width="8" style="20" customWidth="1"/>
     <col min="9" max="11" width="8" style="21" customWidth="1"/>
     <col min="12" max="19" width="8" style="21" hidden="1" customWidth="1"/>
@@ -18844,12 +19171,12 @@
     <col min="25" max="29" width="8" style="23" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="8" style="25" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="26" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="27" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" style="27" customWidth="1"/>
     <col min="34" max="34" width="10" style="23" customWidth="1"/>
     <col min="35" max="16384" width="8" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="18" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -18940,7 +19267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="15">
       <c r="A2" s="19">
         <v>44165</v>
       </c>
@@ -18990,7 +19317,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="15">
       <c r="A3" s="19">
         <v>44166</v>
       </c>
@@ -19040,7 +19367,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15">
       <c r="A4" s="19">
         <v>44167</v>
       </c>
@@ -19090,7 +19417,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15">
       <c r="A5" s="19">
         <v>44168</v>
       </c>
@@ -19140,7 +19467,7 @@
         <v>9.5652173913043412E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15">
       <c r="A6" s="19">
         <v>44169</v>
       </c>
@@ -19190,7 +19517,7 @@
         <v>-0.24427480916030531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="15">
       <c r="A7" s="19">
         <v>44172</v>
       </c>
@@ -19240,7 +19567,7 @@
         <v>-0.21311475409836061</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15">
       <c r="A8" s="19">
         <v>44173</v>
       </c>
@@ -19290,7 +19617,7 @@
         <v>-0.15887850467289713</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15">
       <c r="A9" s="19">
         <v>44174</v>
       </c>
@@ -19340,7 +19667,7 @@
         <v>-5.263157894736846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="15">
       <c r="A10" s="19">
         <v>44175</v>
       </c>
@@ -19390,7 +19717,7 @@
         <v>-8.6956521739130474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15">
       <c r="A11" s="19">
         <v>44176</v>
       </c>
@@ -19440,7 +19767,7 @@
         <v>-0.35227272727272724</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15">
       <c r="A12" s="19">
         <v>44179</v>
       </c>
@@ -19490,7 +19817,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="15">
       <c r="A13" s="19">
         <v>44180</v>
       </c>
@@ -19540,7 +19867,7 @@
         <v>-4.3956043956043918E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="15">
       <c r="A14" s="19">
         <v>44181</v>
       </c>
@@ -19590,7 +19917,7 @@
         <v>-0.28260869565217395</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15">
       <c r="A15" s="19">
         <v>44182</v>
       </c>
@@ -19640,7 +19967,7 @@
         <v>0.42105263157894729</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15">
       <c r="A16" s="19">
         <v>44183</v>
       </c>
@@ -19690,7 +20017,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15">
       <c r="A17" s="19">
         <v>44186</v>
       </c>
@@ -19740,7 +20067,7 @@
         <v>0.4423076923076924</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15">
       <c r="A18" s="19">
         <v>44187</v>
       </c>
@@ -19790,7 +20117,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="15">
       <c r="A19" s="19">
         <v>44188</v>
       </c>
@@ -19840,7 +20167,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="15">
       <c r="A20" s="19">
         <v>44189</v>
       </c>
@@ -19890,7 +20217,7 @@
         <v>-0.19402985074626861</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15">
       <c r="A21" s="19">
         <v>44190</v>
       </c>
@@ -19940,7 +20267,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15">
       <c r="A22" s="19">
         <v>44193</v>
       </c>
@@ -19990,7 +20317,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15">
       <c r="A23" s="19">
         <v>44194</v>
       </c>
@@ -20040,7 +20367,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="15">
       <c r="A24" s="19">
         <v>44195</v>
       </c>
@@ -20090,7 +20417,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="15">
       <c r="A25" s="19">
         <v>44196</v>
       </c>
@@ -20140,7 +20467,7 @@
         <v>-5.5248618784530426E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="15">
       <c r="A26" s="19">
         <v>44200</v>
       </c>
@@ -20190,7 +20517,7 @@
         <v>0.8033707865168539</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15">
       <c r="A27" s="19">
         <v>44201</v>
       </c>
@@ -20240,7 +20567,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15">
       <c r="A28" s="19">
         <v>44202</v>
       </c>
@@ -20290,7 +20617,7 @@
         <v>-0.42738589211618255</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="15">
       <c r="A29" s="19">
         <v>44203</v>
       </c>
@@ -20340,7 +20667,7 @@
         <v>-0.58260869565217399</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="15">
       <c r="A30" s="19">
         <v>44204</v>
       </c>
@@ -20390,7 +20717,7 @@
         <v>-5.161290322580641E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="15">
       <c r="A31" s="19">
         <v>44207</v>
       </c>
@@ -20440,7 +20767,7 @@
         <v>-5.5118110236220527E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="15">
       <c r="A32" s="19">
         <v>44208</v>
       </c>
@@ -20490,7 +20817,7 @@
         <v>0.73553719008264451</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="15">
       <c r="A33" s="19">
         <v>44209</v>
       </c>
@@ -20540,7 +20867,7 @@
         <v>-0.26415094339622641</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="15">
       <c r="A34" s="19">
         <v>44210</v>
       </c>
@@ -20590,7 +20917,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="15">
       <c r="A35" s="19">
         <v>44211</v>
       </c>
@@ -20640,7 +20967,7 @@
         <v>0.31460674157303364</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="15">
       <c r="A36" s="19">
         <v>44214</v>
       </c>
@@ -20690,7 +21017,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="15">
       <c r="A37" s="19">
         <v>44215</v>
       </c>
@@ -20740,7 +21067,7 @@
         <v>-7.2033898305084804E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="15">
       <c r="A38" s="19">
         <v>44216</v>
       </c>
@@ -20790,7 +21117,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="15">
       <c r="A39" s="19">
         <v>44217</v>
       </c>
@@ -20840,7 +21167,7 @@
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="15">
       <c r="A40" s="19">
         <v>44218</v>
       </c>
@@ -20890,7 +21217,7 @@
         <v>-0.34955752212389374</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="15">
       <c r="A41" s="19">
         <v>44221</v>
       </c>
@@ -20940,7 +21267,7 @@
         <v>-0.31683168316831678</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="15">
       <c r="A42" s="19">
         <v>44222</v>
       </c>
@@ -20990,7 +21317,7 @@
         <v>-0.11560693641618494</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="15">
       <c r="A43" s="19">
         <v>44223</v>
       </c>
@@ -21040,7 +21367,7 @@
         <v>0.27397260273972607</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="15">
       <c r="A44" s="19">
         <v>44224</v>
       </c>
@@ -21090,7 +21417,7 @@
         <v>-0.20754716981132076</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="15">
       <c r="A45" s="19">
         <v>44225</v>
       </c>
@@ -21140,7 +21467,7 @@
         <v>-0.38064516129032255</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="15">
       <c r="A46" s="19">
         <v>44228</v>
       </c>
@@ -21190,7 +21517,7 @@
         <v>0.80882352941176461</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="15">
       <c r="A47" s="19">
         <v>44229</v>
       </c>
@@ -21240,7 +21567,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="15">
       <c r="A48" s="19">
         <v>44230</v>
       </c>
@@ -21290,7 +21617,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="15">
       <c r="A49" s="19">
         <v>44231</v>
       </c>
@@ -21340,7 +21667,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="15">
       <c r="A50" s="19">
         <v>44232</v>
       </c>
@@ -21390,7 +21717,7 @@
         <v>-0.11184210526315785</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="15">
       <c r="A51" s="19">
         <v>44235</v>
       </c>
@@ -21440,7 +21767,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="15">
       <c r="A52" s="19">
         <v>44236</v>
       </c>
@@ -21490,7 +21817,7 @@
         <v>0.34482758620689646</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="15">
       <c r="A53" s="19">
         <v>44237</v>
       </c>
@@ -21540,7 +21867,7 @@
         <v>-0.29090909090909089</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="15">
       <c r="A54" s="19">
         <v>44245</v>
       </c>
@@ -21590,7 +21917,7 @@
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="15">
       <c r="A55" s="19">
         <v>44246</v>
       </c>
@@ -21640,7 +21967,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="15">
       <c r="A56" s="19">
         <v>44249</v>
       </c>
@@ -21690,7 +22017,7 @@
         <v>4.1841004184099825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="15">
       <c r="A57" s="19">
         <v>44250</v>
       </c>
@@ -21740,7 +22067,7 @@
         <v>-0.43214285714285711</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="15">
       <c r="A58" s="19">
         <v>44251</v>
       </c>
@@ -21790,7 +22117,7 @@
         <v>-0.45922746781115881</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="15">
       <c r="A59" s="19">
         <v>44252</v>
       </c>
@@ -21840,7 +22167,7 @@
         <v>-0.29714285714285715</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="15">
       <c r="A60" s="19">
         <v>44253</v>
       </c>
@@ -21890,7 +22217,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="15">
       <c r="A61" s="31">
         <v>44256</v>
       </c>
@@ -21958,7 +22285,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="15">
       <c r="A62" s="33">
         <v>44257</v>
       </c>
@@ -22026,7 +22353,7 @@
         <v>-0.32317073170731703</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="15">
       <c r="A63" s="19">
         <v>44258</v>
       </c>
@@ -22076,7 +22403,7 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="15">
       <c r="A64" s="19">
         <v>44259</v>
       </c>
@@ -22126,7 +22453,7 @@
         <v>-0.37623762376237618</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="15">
       <c r="A65" s="19">
         <v>44260</v>
       </c>
@@ -22176,7 +22503,7 @@
         <v>0.14374999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="15">
       <c r="A66" s="19">
         <v>44263</v>
       </c>
@@ -22226,7 +22553,7 @@
         <v>-0.13586956521739132</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="15">
       <c r="A67" s="19">
         <v>44264</v>
       </c>
@@ -22276,7 +22603,7 @@
         <v>-0.34615384615384615</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="15">
       <c r="A68" s="19">
         <v>44265</v>
       </c>
@@ -22326,7 +22653,7 @@
         <v>-0.33108108108108109</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="15">
       <c r="A69" s="19">
         <v>44266</v>
       </c>
@@ -22376,7 +22703,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="15">
       <c r="A70" s="19">
         <v>44267</v>
       </c>
@@ -22426,7 +22753,7 @@
         <v>3.6764705882352887E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="15">
       <c r="A71" s="19">
         <v>44270</v>
       </c>
@@ -22476,7 +22803,7 @@
         <v>-7.3825503355704647E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="15">
       <c r="A72" s="19">
         <v>44271</v>
       </c>
@@ -22526,7 +22853,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="15">
       <c r="A73" s="19">
         <v>44272</v>
       </c>
@@ -22576,7 +22903,7 @@
         <v>7.006369426751588E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="15">
       <c r="A74" s="19">
         <v>44273</v>
       </c>
@@ -22626,7 +22953,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="15">
       <c r="A75" s="19">
         <v>44274</v>
       </c>
@@ -22676,7 +23003,7 @@
         <v>-9.4972067039106114E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="15">
       <c r="A76" s="19">
         <v>44277</v>
       </c>
@@ -22726,7 +23053,7 @@
         <v>0.4201183431952662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="15">
       <c r="A77" s="19">
         <v>44278</v>
       </c>
@@ -22776,7 +23103,7 @@
         <v>-0.26943005181347146</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="15">
       <c r="A78" s="19">
         <v>44279</v>
       </c>
@@ -22826,7 +23153,7 @@
         <v>-7.1823204419889541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="15">
       <c r="A79" s="19">
         <v>44280</v>
       </c>
@@ -22876,7 +23203,7 @@
         <v>-0.29508196721311475</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="15">
       <c r="A80" s="19">
         <v>44281</v>
       </c>
@@ -22926,7 +23253,7 @@
         <v>0.47945205479452063</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="15">
       <c r="A81" s="19">
         <v>44284</v>
       </c>
@@ -22976,7 +23303,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="15">
       <c r="A82" s="19">
         <v>44285</v>
       </c>
@@ -23026,7 +23353,7 @@
         <v>-2.7932960893854709E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="15">
       <c r="A83" s="19">
         <v>44286</v>
       </c>
@@ -23076,7 +23403,7 @@
         <v>0.12886597938144323</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="15">
       <c r="A84" s="19">
         <v>44287</v>
       </c>
@@ -23126,7 +23453,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="15">
       <c r="A85" s="19">
         <v>44288</v>
       </c>
@@ -23176,7 +23503,7 @@
         <v>4.9261083743841663E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="15">
       <c r="A86" s="19">
         <v>44292</v>
       </c>
@@ -23227,7 +23554,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="15">
       <c r="A87" s="19">
         <v>44293</v>
       </c>
@@ -23278,7 +23605,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="15">
       <c r="A88" s="60">
         <v>44294</v>
       </c>
@@ -23347,7 +23674,7 @@
         <v>-0.52564102564102566</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="15">
       <c r="A89" s="19">
         <v>44295</v>
       </c>
@@ -23398,7 +23725,7 @@
         <v>-0.18719211822660103</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="15">
       <c r="A90" s="19">
         <v>44298</v>
       </c>
@@ -23449,7 +23776,7 @@
         <v>5.4945054945054986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="15">
       <c r="A91" s="19">
         <v>44299</v>
       </c>
@@ -23500,7 +23827,7 @@
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="15">
       <c r="A92" s="19">
         <v>44300</v>
       </c>
@@ -23550,7 +23877,7 @@
         <v>0.12941176470588239</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="15">
       <c r="A93" s="60">
         <v>44301</v>
       </c>
@@ -23618,7 +23945,7 @@
         <v>-0.27932960893854747</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="15">
       <c r="A94" s="19">
         <v>44302</v>
       </c>
@@ -23668,7 +23995,7 @@
         <v>0.40506329113924056</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="15">
       <c r="A95" s="19">
         <v>44305</v>
       </c>
@@ -23718,7 +24045,7 @@
         <v>0.27624309392265189</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="15">
       <c r="A96" s="19">
         <v>44306</v>
       </c>
@@ -23768,7 +24095,7 @@
         <v>-0.365979381443299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="15">
       <c r="A97" s="19">
         <v>44307</v>
       </c>
@@ -23818,7 +24145,7 @@
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="15">
       <c r="A98" s="19">
         <v>44308</v>
       </c>
@@ -23868,7 +24195,7 @@
         <v>-0.21052631578947364</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="15">
       <c r="A99" s="19">
         <v>44309</v>
       </c>
@@ -23918,7 +24245,7 @@
         <v>-8.6956521739130488E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="15">
       <c r="A100" s="19">
         <v>44312</v>
       </c>
@@ -23968,7 +24295,7 @@
         <v>0.26605504587155954</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="15">
       <c r="A101" s="62">
         <v>44313</v>
       </c>
@@ -24036,7 +24363,7 @@
         <v>-5.7851239669421545E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="15">
       <c r="A102" s="19">
         <v>44314</v>
       </c>
@@ -24086,7 +24413,7 @@
         <v>0.51260504201680679</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" ht="15">
       <c r="A103" s="19">
         <v>44315</v>
       </c>
@@ -24136,7 +24463,7 @@
         <v>-8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" ht="15">
       <c r="A104" s="19">
         <v>44316</v>
       </c>
@@ -24186,7 +24513,7 @@
         <v>-0.15492957746478878</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" ht="15">
       <c r="A105" s="19">
         <v>44322</v>
       </c>
@@ -24236,7 +24563,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="15">
       <c r="A106" s="19">
         <v>44323</v>
       </c>
@@ -24286,7 +24613,7 @@
         <v>-9.1549295774647932E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="15">
       <c r="A107" s="64">
         <v>44326</v>
       </c>
@@ -24354,7 +24681,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="15">
       <c r="A108" s="19">
         <v>44327</v>
       </c>
@@ -24404,7 +24731,7 @@
         <v>-0.11475409836065574</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="15">
       <c r="A109" s="19">
         <v>44328</v>
       </c>
@@ -24454,7 +24781,7 @@
         <v>-0.2960893854748603</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" ht="15">
       <c r="A110" s="19">
         <v>44329</v>
       </c>
@@ -24504,7 +24831,7 @@
         <v>0.297752808988764</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" ht="15">
       <c r="A111" s="60">
         <v>44333</v>
       </c>
@@ -24572,7 +24899,7 @@
         <v>-0.44508670520231214</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" ht="15">
       <c r="A112" s="19">
         <v>44334</v>
       </c>
@@ -24622,7 +24949,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="15">
       <c r="A113" s="19">
         <v>44335</v>
       </c>
@@ -24672,7 +24999,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="15">
       <c r="A114" s="19">
         <v>44336</v>
       </c>
@@ -24722,7 +25049,7 @@
         <v>-0.10389610389610393</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="15">
       <c r="A115" s="19">
         <v>44337</v>
       </c>
@@ -24772,7 +25099,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="15">
       <c r="A116" s="19">
         <v>44340</v>
       </c>
@@ -24822,7 +25149,7 @@
         <v>4.3478260869565265E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="15">
       <c r="A117" s="19">
         <v>44341</v>
       </c>
@@ -24872,7 +25199,7 @@
         <v>-0.12195121951219508</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="15">
       <c r="A118" s="19">
         <v>44342</v>
       </c>
@@ -24922,7 +25249,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="15">
       <c r="A119" s="19">
         <v>44343</v>
       </c>
@@ -24972,7 +25299,7 @@
         <v>0.19631901840490792</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="15">
       <c r="A120" s="19">
         <v>44344</v>
       </c>
@@ -25022,7 +25349,7 @@
         <v>-0.16279069767441864</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="15">
       <c r="A121" s="19">
         <v>44347</v>
       </c>
@@ -25072,7 +25399,7 @@
         <v>0.48255813953488363</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="15">
       <c r="A122" s="19">
         <v>44348</v>
       </c>
@@ -25128,7 +25455,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="15">
       <c r="A123" s="62">
         <v>44349</v>
       </c>
@@ -25196,7 +25523,7 @@
         <v>-0.19000000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="15">
       <c r="A124" s="19">
         <v>44350</v>
       </c>
@@ -25246,7 +25573,7 @@
         <v>-8.2524271844660255E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="15">
       <c r="A125" s="19">
         <v>44351</v>
       </c>
@@ -25296,7 +25623,7 @@
         <v>-0.20108695652173916</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="15">
       <c r="A126" s="19">
         <v>44354</v>
       </c>
@@ -25346,7 +25673,7 @@
         <v>8.4337349397590314E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="15">
       <c r="A127" s="19">
         <v>44355</v>
       </c>
@@ -25396,7 +25723,7 @@
         <v>-7.5581395348837246E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="15">
       <c r="A128" s="19">
         <v>44356</v>
       </c>
@@ -25446,7 +25773,7 @@
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="15">
       <c r="A129" s="19">
         <v>44357</v>
       </c>
@@ -25496,7 +25823,7 @@
         <v>0.15243902439024395</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="15">
       <c r="A130" s="19">
         <v>44358</v>
       </c>
@@ -25546,7 +25873,7 @@
         <v>7.7844311377245554E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="15">
       <c r="A131" s="62">
         <v>44362</v>
       </c>
@@ -25614,7 +25941,7 @@
         <v>-0.34482758620689657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="15">
       <c r="A132" s="62">
         <v>44363</v>
       </c>
@@ -25664,7 +25991,7 @@
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="15">
       <c r="A133" s="19">
         <v>44364</v>
       </c>
@@ -25714,7 +26041,7 @@
         <v>0.10526315789473678</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="15">
       <c r="A134" s="19">
         <v>44365</v>
       </c>
@@ -25764,7 +26091,7 @@
         <v>0.4262295081967214</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="15">
       <c r="A135" s="19">
         <v>44368</v>
       </c>
@@ -25814,7 +26141,7 @@
         <v>0.45774647887323938</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="15">
       <c r="A136" s="19">
         <v>44369</v>
       </c>
@@ -25864,7 +26191,7 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="15">
       <c r="A137" s="19">
         <v>44370</v>
       </c>
@@ -25914,7 +26241,7 @@
         <v>-0.20725388601036263</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="15">
       <c r="A138" s="19">
         <v>44371</v>
       </c>
@@ -25964,7 +26291,7 @@
         <v>-0.11290322580645161</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="15">
       <c r="A139" s="19">
         <v>44372</v>
       </c>
@@ -26014,7 +26341,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="15">
       <c r="A140" s="19">
         <v>44375</v>
       </c>
@@ -26064,7 +26391,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="15">
       <c r="A141" s="19">
         <v>44376</v>
       </c>
@@ -26114,7 +26441,7 @@
         <v>-0.25433526011560692</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="15">
       <c r="A142" s="19">
         <v>44377</v>
       </c>
@@ -26164,7 +26491,7 @@
         <v>-4.9689440993788775E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="15">
       <c r="A143" s="19">
         <v>44378</v>
       </c>
@@ -26214,7 +26541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="15">
       <c r="A144" s="19">
         <v>44379</v>
       </c>
@@ -26264,7 +26591,7 @@
         <v>-0.26027397260273971</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" ht="15">
       <c r="A145" s="19">
         <v>44382</v>
       </c>
@@ -26314,7 +26641,7 @@
         <v>0.51079136690647475</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="15">
       <c r="A146" s="19">
         <v>44383</v>
       </c>
@@ -26364,7 +26691,7 @@
         <v>-0.27848101265822783</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" ht="15">
       <c r="A147" s="19">
         <v>44384</v>
       </c>
@@ -26414,7 +26741,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" ht="15">
       <c r="A148" s="19">
         <v>44385</v>
       </c>
@@ -26464,7 +26791,7 @@
         <v>-0.19298245614035087</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="15">
       <c r="A149" s="19">
         <v>44386</v>
       </c>
@@ -26514,7 +26841,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" ht="15">
       <c r="A150" s="19">
         <v>44389</v>
       </c>
@@ -26564,7 +26891,7 @@
         <v>0.43930635838150295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" ht="15">
       <c r="A151" s="19">
         <v>44390</v>
       </c>
@@ -26614,7 +26941,7 @@
         <v>-2.0725388601036197E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" ht="15">
       <c r="A152" s="19">
         <v>44391</v>
       </c>
@@ -26664,7 +26991,7 @@
         <v>-0.25714285714285712</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" ht="15">
       <c r="A153" s="19">
         <v>44392</v>
       </c>
@@ -26714,7 +27041,7 @@
         <v>-0.31818181818181818</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" ht="15">
       <c r="A154" s="19">
         <v>44393</v>
       </c>
@@ -26764,7 +27091,7 @@
         <v>-0.34375000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" ht="15">
       <c r="A155" s="19">
         <v>44396</v>
       </c>
@@ -26814,7 +27141,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" ht="15">
       <c r="A156" s="19">
         <v>44397</v>
       </c>
@@ -26864,7 +27191,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" ht="15">
       <c r="A157" s="19">
         <v>44398</v>
       </c>
@@ -26914,7 +27241,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="15">
       <c r="A158" s="19">
         <v>44399</v>
       </c>
@@ -26964,7 +27291,7 @@
         <v>-7.6923076923076886E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" ht="15">
       <c r="A159" s="19">
         <v>44400</v>
       </c>
@@ -27014,7 +27341,7 @@
         <v>-0.24193548387096775</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="15">
       <c r="A160" s="19">
         <v>44403</v>
       </c>
@@ -27064,7 +27391,7 @@
         <v>-0.40641711229946526</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" ht="15">
       <c r="A161" s="19">
         <v>44404</v>
       </c>
@@ -27114,7 +27441,7 @@
         <v>-0.44285714285714284</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" ht="15">
       <c r="A162" s="19">
         <v>44405</v>
       </c>
@@ -27164,7 +27491,7 @@
         <v>9.0909090909091564E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" ht="15">
       <c r="A163" s="19">
         <v>44406</v>
       </c>
@@ -27214,7 +27541,7 @@
         <v>2.4499999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" ht="15">
       <c r="A164" s="19">
         <v>44407</v>
       </c>
@@ -27264,7 +27591,7 @@
         <v>0.36516853932584264</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" ht="15">
       <c r="A165" s="19">
         <v>44410</v>
       </c>
@@ -27314,7 +27641,7 @@
         <v>0.23605150214592266</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" ht="15">
       <c r="A166" s="19">
         <v>44411</v>
       </c>
@@ -27364,7 +27691,7 @@
         <v>-0.45547945205479451</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" ht="15">
       <c r="A167" s="19">
         <v>44412</v>
       </c>
@@ -27414,7 +27741,7 @@
         <v>0.13478260869565212</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" ht="15">
       <c r="A168" s="19">
         <v>44413</v>
       </c>
@@ -27464,7 +27791,7 @@
         <v>-0.36440677966101698</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" ht="15">
       <c r="A169" s="19">
         <v>44414</v>
       </c>
@@ -27514,7 +27841,7 @@
         <v>-6.842105263157898E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" ht="15">
       <c r="A170" s="19">
         <v>44417</v>
       </c>
@@ -27564,7 +27891,7 @@
         <v>0.20918367346938785</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" ht="15">
       <c r="A171" s="19">
         <v>44418</v>
       </c>
@@ -27614,7 +27941,7 @@
         <v>0.11702127659574472</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" ht="15">
       <c r="A172" s="19">
         <v>44419</v>
       </c>
@@ -27664,7 +27991,7 @@
         <v>0.29807692307692318</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" ht="15">
       <c r="A173" s="19">
         <v>44420</v>
       </c>
@@ -27714,7 +28041,7 @@
         <v>-0.17154811715481177</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" ht="15">
       <c r="A174" s="19">
         <v>44423</v>
       </c>
@@ -27764,7 +28091,7 @@
         <v>-0.13716814159292029</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" ht="15">
       <c r="A175" s="19">
         <v>44424</v>
       </c>
@@ -27814,7 +28141,7 @@
         <v>-3.6199095022624493E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" ht="15">
       <c r="A176" s="19">
         <v>44425</v>
       </c>
@@ -27864,7 +28191,7 @@
         <v>-0.59900990099009899</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" ht="15">
       <c r="A177" s="19">
         <v>44426</v>
       </c>
@@ -27914,7 +28241,7 @@
         <v>0.26993865030674841</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" ht="15">
       <c r="A178" s="19">
         <v>44427</v>
       </c>
@@ -27964,7 +28291,7 @@
         <v>-0.1736526946107784</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" ht="15">
       <c r="A179" s="98">
         <v>44428</v>
       </c>
@@ -28032,7 +28359,7 @@
         <v>-2.8169014084507091E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" ht="15">
       <c r="A180" s="19">
         <v>44431</v>
       </c>
@@ -28082,7 +28409,7 @@
         <v>1.2732919254658388</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" ht="15">
       <c r="A181" s="19">
         <v>44432</v>
       </c>
@@ -28132,7 +28459,7 @@
         <v>-7.4766355140186855E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" ht="15">
       <c r="A182" s="19">
         <v>44433</v>
       </c>
@@ -28182,7 +28509,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" ht="15">
       <c r="A183" s="19">
         <v>44434</v>
       </c>
@@ -28232,7 +28559,7 @@
         <v>-0.39776951672862459</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" ht="15">
       <c r="A184" s="19">
         <v>44435</v>
       </c>
@@ -28282,7 +28609,7 @@
         <v>8.9552238805970144E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" ht="15">
       <c r="A185" s="19">
         <v>44438</v>
       </c>
@@ -28332,7 +28659,7 @@
         <v>0.11057692307692316</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" ht="15">
       <c r="A186" s="19">
         <v>44439</v>
       </c>
@@ -28382,7 +28709,7 @@
         <v>0.16176470588235295</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" ht="15">
       <c r="A187" s="19">
         <v>44440</v>
       </c>
@@ -28432,7 +28759,7 @@
         <v>-0.14847161572052398</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" ht="15">
       <c r="A188" s="19">
         <v>44441</v>
       </c>
@@ -28482,7 +28809,7 @@
         <v>0.47963800904977366</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" ht="15">
       <c r="A189" s="19">
         <v>44442</v>
       </c>
@@ -28532,7 +28859,7 @@
         <v>-0.38339920948616596</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" ht="15">
       <c r="A190" s="19">
         <v>44445</v>
       </c>
@@ -28582,7 +28909,7 @@
         <v>4.8672566371681485E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" ht="15">
       <c r="A191" s="19">
         <v>44446</v>
       </c>
@@ -28632,7 +28959,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" ht="15">
       <c r="A192" s="19">
         <v>44447</v>
       </c>
@@ -28682,7 +29009,7 @@
         <v>0.18141592920353991</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" ht="15">
       <c r="A193" s="19">
         <v>44448</v>
       </c>
@@ -28732,7 +29059,7 @@
         <v>-0.19011406844106468</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" ht="15">
       <c r="A194" s="19">
         <v>44449</v>
       </c>
@@ -28782,7 +29109,7 @@
         <v>-0.37647058823529411</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" ht="15">
       <c r="A195" s="19">
         <v>44452</v>
       </c>
@@ -28832,7 +29159,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" ht="15">
       <c r="A196" s="19">
         <v>44453</v>
       </c>
@@ -28882,7 +29209,7 @@
         <v>-9.5693779904306275E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" ht="15">
       <c r="A197" s="19">
         <v>44454</v>
       </c>
@@ -28932,7 +29259,7 @@
         <v>0.34328358208955223</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:33" ht="15">
       <c r="A198" s="98">
         <v>44455</v>
       </c>
@@ -29000,7 +29327,7 @@
         <v>-0.42016806722689071</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:33" ht="15">
       <c r="A199" s="98">
         <v>44456</v>
       </c>
@@ -29068,7 +29395,7 @@
         <v>-0.29145728643216073</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:33" ht="15">
       <c r="A200" s="19">
         <v>44461</v>
       </c>
@@ -29118,7 +29445,7 @@
         <v>0.57377049180327866</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:33" ht="15">
       <c r="A201" s="19">
         <v>44462</v>
       </c>
@@ -29168,7 +29495,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:33" ht="15">
       <c r="A202" s="19">
         <v>44463</v>
       </c>
@@ -29218,7 +29545,7 @@
         <v>-0.419811320754717</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:33" ht="15">
       <c r="A203" s="98">
         <v>44466</v>
       </c>
@@ -29269,7 +29596,7 @@
         <v>-0.41747572815533984</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:33" ht="15">
       <c r="A204" s="19">
         <v>44467</v>
       </c>
@@ -29319,7 +29646,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:33" ht="15">
       <c r="A205" s="98">
         <v>44468</v>
       </c>
@@ -29370,7 +29697,7 @@
         <v>-0.64473684210526316</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:33" ht="15">
       <c r="A206" s="19">
         <v>44469</v>
       </c>
@@ -29420,7 +29747,7 @@
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:33" ht="15">
       <c r="A207" s="19">
         <v>44477</v>
       </c>
@@ -29470,7 +29797,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" ht="15">
       <c r="A208" s="19">
         <v>44480</v>
       </c>
@@ -29520,7 +29847,7 @@
         <v>-0.10967741935483867</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:33" ht="15">
       <c r="A209" s="19">
         <v>44481</v>
       </c>
@@ -29570,7 +29897,7 @@
         <v>-0.42622950819672129</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:33" ht="15">
       <c r="A210" s="19">
         <v>44482</v>
       </c>
@@ -29620,7 +29947,7 @@
         <v>0.17931034482758615</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:33" ht="15">
       <c r="A211" s="19">
         <v>44483</v>
       </c>
@@ -29670,7 +29997,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:33" ht="15">
       <c r="A212" s="19">
         <v>44484</v>
       </c>
@@ -29720,7 +30047,7 @@
         <v>-0.47590361445783136</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" ht="15">
       <c r="A213" s="19">
         <v>44487</v>
       </c>
@@ -29770,7 +30097,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:33">
       <c r="A214" s="19">
         <v>44488</v>
       </c>
@@ -29820,7 +30147,7 @@
         <v>0.11235955056179771</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:33">
       <c r="A215" s="19">
         <v>44489</v>
       </c>
@@ -29870,7 +30197,7 @@
         <v>-0.15294117647058819</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33">
       <c r="A216" s="19">
         <v>44490</v>
       </c>
@@ -29920,7 +30247,7 @@
         <v>-0.36507936507936506</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:33">
       <c r="A217" s="19">
         <v>44491</v>
       </c>
@@ -29970,7 +30297,7 @@
         <v>-0.24025974025974028</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:33">
       <c r="A218" s="19">
         <v>44494</v>
       </c>
@@ -30020,7 +30347,7 @@
         <v>0.51181102362204711</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:33">
       <c r="A219" s="19">
         <v>44495</v>
       </c>
@@ -30070,7 +30397,7 @@
         <v>-0.34965034965034963</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:33">
       <c r="A220" s="19">
         <v>44496</v>
       </c>
@@ -30120,7 +30447,7 @@
         <v>-8.2089552238805916E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:33">
       <c r="A221" s="19">
         <v>44497</v>
       </c>
@@ -30170,7 +30497,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33">
       <c r="A222" s="19">
         <v>44498</v>
       </c>
@@ -30220,7 +30547,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33">
       <c r="A223" s="19">
         <v>44501</v>
       </c>
@@ -30270,7 +30597,7 @@
         <v>0.84459459459459452</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33">
       <c r="A224" s="19">
         <v>44502</v>
       </c>
@@ -30320,7 +30647,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:33">
       <c r="A225" s="19">
         <v>44503</v>
       </c>
@@ -30370,7 +30697,7 @@
         <v>-0.30541871921182273</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:33">
       <c r="A226" s="19">
         <v>44504</v>
       </c>
@@ -30420,7 +30747,7 @@
         <v>0.59890109890109899</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:33">
       <c r="A227" s="19">
         <v>44505</v>
       </c>
@@ -30470,7 +30797,7 @@
         <v>-0.20212765957446804</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:33">
       <c r="A228" s="19">
         <v>44508</v>
       </c>
@@ -30520,7 +30847,7 @@
         <v>-0.1185567010309279</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:33">
       <c r="A229" s="19">
         <v>44509</v>
       </c>
@@ -30570,7 +30897,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:33">
       <c r="A230" s="19">
         <v>44510</v>
       </c>
@@ -30620,7 +30947,7 @@
         <v>-0.15568862275449097</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:33">
       <c r="A231" s="19">
         <v>44511</v>
       </c>
@@ -30670,7 +30997,7 @@
         <v>0.29878048780487809</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:33">
       <c r="A232" s="19">
         <v>44512</v>
       </c>
@@ -30720,7 +31047,7 @@
         <v>0.41573033707865165</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:33">
       <c r="A233" s="19">
         <v>44515</v>
       </c>
@@ -30770,7 +31097,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:33">
       <c r="A234" s="19">
         <v>44516</v>
       </c>
@@ -30820,7 +31147,7 @@
         <v>-0.22413793103448271</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:33">
       <c r="A235" s="19">
         <v>44517</v>
       </c>
@@ -30870,7 +31197,7 @@
         <v>0.27601809954751122</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:33">
       <c r="A236" s="19">
         <v>44518</v>
       </c>
@@ -30920,7 +31247,7 @@
         <v>-0.33766233766233766</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:33">
       <c r="A237" s="19">
         <v>44519</v>
       </c>
@@ -30970,7 +31297,7 @@
         <v>9.7560975609756791E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:33">
       <c r="A238" s="19">
         <v>44522</v>
       </c>
@@ -31020,7 +31347,7 @@
         <v>0.21962616822429915</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:33">
       <c r="A239" s="19">
         <v>44523</v>
       </c>
@@ -31070,7 +31397,7 @@
         <v>-0.14492753623188406</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:33">
       <c r="A240" s="19">
         <v>44524</v>
       </c>
@@ -31120,7 +31447,7 @@
         <v>8.8372093023255743E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:33">
       <c r="A241" s="19">
         <v>44525</v>
       </c>
@@ -31170,7 +31497,7 @@
         <v>-0.22321428571428575</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:33">
       <c r="A242" s="19">
         <v>44526</v>
       </c>
@@ -31220,7 +31547,7 @@
         <v>-0.2153846153846154</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:33">
       <c r="A243" s="19">
         <v>44529</v>
       </c>
@@ -31270,7 +31597,7 @@
         <v>0.12299465240641708</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:33">
       <c r="A244" s="19">
         <v>44530</v>
       </c>
@@ -31320,7 +31647,7 @@
         <v>0.17318435754189948</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:33">
       <c r="A245" s="19">
         <v>44531</v>
       </c>
@@ -31370,7 +31697,7 @@
         <v>0.33507853403141369</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:33">
       <c r="A246" s="19">
         <v>44532</v>
       </c>
@@ -31420,7 +31747,7 @@
         <v>-0.30666666666666664</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:33">
       <c r="A247" s="19">
         <v>44533</v>
       </c>
@@ -31470,7 +31797,7 @@
         <v>-0.20289855072463769</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:33">
       <c r="A248" s="19">
         <v>44536</v>
       </c>
@@ -31520,7 +31847,7 @@
         <v>-0.390625</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:33">
       <c r="A249" s="19">
         <v>44537</v>
       </c>
@@ -31570,7 +31897,7 @@
         <v>4.7945205479452108E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:33">
       <c r="A250" s="19">
         <v>44538</v>
       </c>
@@ -31620,7 +31947,7 @@
         <v>0.69655172413793098</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:33">
       <c r="A251" s="19">
         <v>44539</v>
       </c>
@@ -31670,7 +31997,7 @@
         <v>0.18604651162790692</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:33">
       <c r="A252" s="19">
         <v>44540</v>
       </c>
@@ -31720,7 +32047,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:33">
       <c r="A253" s="19">
         <v>44543</v>
       </c>
@@ -31770,7 +32097,7 @@
         <v>8.7155963302752229E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:33">
       <c r="A254" s="19">
         <v>44544</v>
       </c>
@@ -31820,7 +32147,7 @@
         <v>0.2976744186046511</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:33">
       <c r="A255" s="19">
         <v>44545</v>
       </c>
@@ -31870,7 +32197,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:33">
       <c r="A256" s="19">
         <v>44546</v>
       </c>
@@ -31920,7 +32247,7 @@
         <v>5.1792828685258904E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:33">
       <c r="A257" s="19">
         <v>44547</v>
       </c>
@@ -31970,7 +32297,7 @@
         <v>-1.9230769230769284E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:33">
       <c r="A258" s="19">
         <v>44550</v>
       </c>
@@ -32020,7 +32347,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:33">
       <c r="A259" s="19">
         <v>44551</v>
       </c>
@@ -32070,7 +32397,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33">
       <c r="A260" s="19">
         <v>44552</v>
       </c>
@@ -32112,15 +32439,15 @@
         <v>6</v>
       </c>
       <c r="AF260" s="26">
-        <f t="shared" ref="AF260:AF325" si="24">(B257+B258+B259)/3</f>
+        <f t="shared" ref="AF260:AF291" si="24">(B257+B258+B259)/3</f>
         <v>106.66666666666667</v>
       </c>
       <c r="AG260" s="27">
-        <f t="shared" ref="AG260:AG325" si="25">(B260-AF260)/AF260</f>
+        <f t="shared" ref="AG260:AG291" si="25">(B260-AF260)/AF260</f>
         <v>-0.27812500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33">
       <c r="A261" s="19">
         <v>44553</v>
       </c>
@@ -32170,7 +32497,7 @@
         <v>-0.32692307692307693</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33">
       <c r="A262" s="19">
         <v>44554</v>
       </c>
@@ -32220,7 +32547,7 @@
         <v>-0.45936395759717313</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:33">
       <c r="A263" s="19">
         <v>44557</v>
       </c>
@@ -32270,7 +32597,7 @@
         <v>-6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33">
       <c r="A264" s="19">
         <v>44558</v>
       </c>
@@ -32320,7 +32647,7 @@
         <v>-3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33">
       <c r="A265" s="19">
         <v>44559</v>
       </c>
@@ -32370,7 +32697,7 @@
         <v>9.8837209302325535E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33">
       <c r="A266" s="19">
         <v>44560</v>
       </c>
@@ -32420,7 +32747,7 @@
         <v>0.40217391304347822</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33">
       <c r="A267" s="19">
         <v>44561</v>
       </c>
@@ -32470,7 +32797,7 @@
         <v>-0.16346153846153841</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33">
       <c r="A268" s="19">
         <v>44565</v>
       </c>
@@ -32520,7 +32847,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:33">
       <c r="A269" s="19">
         <v>44566</v>
       </c>
@@ -32570,7 +32897,7 @@
         <v>-0.39240506329113922</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:33">
       <c r="A270" s="19">
         <v>44567</v>
       </c>
@@ -32620,7 +32947,7 @@
         <v>0.25125628140703526</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:33">
       <c r="A271" s="19">
         <v>44568</v>
       </c>
@@ -32670,7 +32997,7 @@
         <v>-0.4241071428571429</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:33">
       <c r="A272" s="108">
         <v>44571</v>
       </c>
@@ -32738,7 +33065,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:33">
       <c r="A273" s="108">
         <v>44572</v>
       </c>
@@ -32806,7 +33133,7 @@
         <v>-0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:33">
       <c r="A274" s="108">
         <v>44573</v>
       </c>
@@ -32856,7 +33183,7 @@
         <v>0.63313609467455612</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:33">
       <c r="A275" s="108">
         <v>44574</v>
       </c>
@@ -32924,7 +33251,7 @@
         <v>-0.22935779816513766</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:33">
       <c r="A276" s="108">
         <v>44575</v>
       </c>
@@ -32992,7 +33319,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:33">
       <c r="A277" s="108">
         <v>44578</v>
       </c>
@@ -33060,7 +33387,7 @@
         <v>0.47297297297297297</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:33">
       <c r="A278" s="19">
         <v>44579</v>
       </c>
@@ -33110,7 +33437,7 @@
         <v>-0.4853556485355649</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:33">
       <c r="A279" s="19">
         <v>44580</v>
       </c>
@@ -33160,7 +33487,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:33">
       <c r="A280" s="19">
         <v>44581</v>
       </c>
@@ -33210,7 +33537,7 @@
         <v>-0.38834951456310685</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:33">
       <c r="A281" s="19">
         <v>44582</v>
       </c>
@@ -33260,7 +33587,7 @@
         <v>3.5971223021582684E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:33">
       <c r="A282" s="19">
         <v>44585</v>
       </c>
@@ -33310,7 +33637,7 @@
         <v>0.10958904109589046</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:33">
       <c r="A283" s="19">
         <v>44586</v>
       </c>
@@ -33360,7 +33687,7 @@
         <v>-0.47916666666666669</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:33">
       <c r="A284" s="19">
         <v>44587</v>
       </c>
@@ -33410,7 +33737,7 @@
         <v>0.20472440944881884</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:33">
       <c r="A285" s="19">
         <v>44588</v>
       </c>
@@ -33460,7 +33787,7 @@
         <v>-0.70000000000000007</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:33">
       <c r="A286" s="19">
         <v>44589</v>
       </c>
@@ -33510,7 +33837,7 @@
         <v>0.88764044943820219</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:33">
       <c r="A287" s="19">
         <v>44599</v>
       </c>
@@ -33560,7 +33887,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:33">
       <c r="A288" s="19">
         <v>44600</v>
       </c>
@@ -33610,7 +33937,7 @@
         <v>0.87741935483870981</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:33">
       <c r="A289" s="19">
         <v>44601</v>
       </c>
@@ -33660,7 +33987,7 @@
         <v>0.20502092050209197</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:33">
       <c r="A290" s="19">
         <v>44602</v>
       </c>
@@ -33710,7 +34037,7 @@
         <v>-0.39784946236559138</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:33">
       <c r="A291" s="19">
         <v>44603</v>
       </c>
@@ -33760,7 +34087,7 @@
         <v>-0.38554216867469882</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:33" ht="18">
       <c r="A292" s="19">
         <v>44606</v>
       </c>
@@ -33795,11 +34122,11 @@
       <c r="K292" s="21">
         <v>1</v>
       </c>
-      <c r="T292" s="22">
-        <v>1</v>
-      </c>
-      <c r="U292" s="22">
-        <v>1</v>
+      <c r="T292" s="114">
+        <v>6</v>
+      </c>
+      <c r="U292" s="114">
+        <v>3</v>
       </c>
       <c r="V292" s="123"/>
       <c r="W292" s="122"/>
@@ -33820,7 +34147,7 @@
         <v>0.24137931034482749</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:33" ht="18">
       <c r="A293" s="19">
         <v>44607</v>
       </c>
@@ -33855,11 +34182,11 @@
       <c r="K293" s="21">
         <v>1</v>
       </c>
-      <c r="T293" s="22">
-        <v>1</v>
-      </c>
-      <c r="U293" s="22">
-        <v>1</v>
+      <c r="T293" s="114">
+        <v>4</v>
+      </c>
+      <c r="U293" s="114">
+        <v>2</v>
       </c>
       <c r="V293" s="123"/>
       <c r="W293" s="122"/>
@@ -33880,7 +34207,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:33" ht="18">
       <c r="A294" s="19">
         <v>44608</v>
       </c>
@@ -33915,11 +34242,11 @@
       <c r="K294" s="21">
         <v>1</v>
       </c>
-      <c r="T294" s="22">
-        <v>1</v>
-      </c>
-      <c r="U294" s="22">
-        <v>1</v>
+      <c r="T294" s="114">
+        <v>5</v>
+      </c>
+      <c r="U294" s="114">
+        <v>3</v>
       </c>
       <c r="V294" s="123"/>
       <c r="W294" s="122"/>
@@ -33940,7 +34267,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:33" ht="18">
       <c r="A295" s="19">
         <v>44609</v>
       </c>
@@ -33975,11 +34302,11 @@
       <c r="K295" s="21">
         <v>1</v>
       </c>
-      <c r="T295" s="22">
-        <v>1</v>
-      </c>
-      <c r="U295" s="22">
-        <v>1</v>
+      <c r="T295" s="114">
+        <v>4</v>
+      </c>
+      <c r="U295" s="114">
+        <v>2</v>
       </c>
       <c r="V295" s="123"/>
       <c r="W295" s="122"/>
@@ -34000,7 +34327,7 @@
         <v>-0.36320754716981135</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:33" ht="18">
       <c r="A296" s="19">
         <v>44610</v>
       </c>
@@ -34035,11 +34362,11 @@
       <c r="K296" s="21">
         <v>1</v>
       </c>
-      <c r="T296" s="22">
-        <v>1</v>
-      </c>
-      <c r="U296" s="22">
-        <v>1</v>
+      <c r="T296" s="114">
+        <v>5</v>
+      </c>
+      <c r="U296" s="114">
+        <v>3</v>
       </c>
       <c r="V296" s="123"/>
       <c r="W296" s="122"/>
@@ -34060,7 +34387,7 @@
         <v>-9.826589595375719E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:33" ht="18">
       <c r="A297" s="19">
         <v>44613</v>
       </c>
@@ -34095,11 +34422,11 @@
       <c r="K297" s="21">
         <v>1</v>
       </c>
-      <c r="T297" s="22">
-        <v>1</v>
-      </c>
-      <c r="U297" s="22">
-        <v>1</v>
+      <c r="T297" s="114">
+        <v>6</v>
+      </c>
+      <c r="U297" s="114">
+        <v>4</v>
       </c>
       <c r="V297" s="123"/>
       <c r="W297" s="122"/>
@@ -34120,7 +34447,7 @@
         <v>0.7751479289940828</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:33" ht="18">
       <c r="A298" s="19">
         <v>44614</v>
       </c>
@@ -34155,11 +34482,11 @@
       <c r="K298" s="21">
         <v>1</v>
       </c>
-      <c r="T298" s="22">
-        <v>1</v>
-      </c>
-      <c r="U298" s="22">
-        <v>1</v>
+      <c r="T298" s="114">
+        <v>7</v>
+      </c>
+      <c r="U298" s="114">
+        <v>5</v>
       </c>
       <c r="V298" s="123"/>
       <c r="W298" s="122"/>
@@ -34180,7 +34507,7 @@
         <v>-0.22335025380710666</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:33" ht="18">
       <c r="A299" s="19">
         <v>44615</v>
       </c>
@@ -34215,11 +34542,11 @@
       <c r="K299" s="21">
         <v>1</v>
       </c>
-      <c r="T299" s="22">
-        <v>1</v>
-      </c>
-      <c r="U299" s="22">
-        <v>1</v>
+      <c r="T299" s="114">
+        <v>6</v>
+      </c>
+      <c r="U299" s="114">
+        <v>4</v>
       </c>
       <c r="V299" s="123"/>
       <c r="W299" s="122"/>
@@ -34240,7 +34567,7 @@
         <v>0.31527093596059103</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:33" ht="18">
       <c r="A300" s="19">
         <v>44616</v>
       </c>
@@ -34275,11 +34602,11 @@
       <c r="K300" s="21">
         <v>1</v>
       </c>
-      <c r="T300" s="22">
-        <v>1</v>
-      </c>
-      <c r="U300" s="22">
-        <v>1</v>
+      <c r="T300" s="114">
+        <v>7</v>
+      </c>
+      <c r="U300" s="114">
+        <v>5</v>
       </c>
       <c r="V300" s="123"/>
       <c r="W300" s="122"/>
@@ -34300,7 +34627,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:33" ht="18">
       <c r="A301" s="19">
         <v>44617</v>
       </c>
@@ -34335,11 +34662,11 @@
       <c r="K301" s="21">
         <v>1</v>
       </c>
-      <c r="T301" s="22">
-        <v>1</v>
-      </c>
-      <c r="U301" s="22">
-        <v>1</v>
+      <c r="T301" s="114">
+        <v>6</v>
+      </c>
+      <c r="U301" s="114">
+        <v>5</v>
       </c>
       <c r="V301" s="123"/>
       <c r="W301" s="122"/>
@@ -34360,7 +34687,7 @@
         <v>1.1235955056179735E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:33" ht="18">
       <c r="A302" s="19">
         <v>44620</v>
       </c>
@@ -34395,11 +34722,11 @@
       <c r="K302" s="21">
         <v>1</v>
       </c>
-      <c r="T302" s="22">
-        <v>1</v>
-      </c>
-      <c r="U302" s="22">
-        <v>1</v>
+      <c r="T302" s="114">
+        <v>7</v>
+      </c>
+      <c r="U302" s="114">
+        <v>4</v>
       </c>
       <c r="V302" s="123"/>
       <c r="W302" s="122"/>
@@ -34420,7 +34747,7 @@
         <v>-0.27807486631016043</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:33" ht="18">
       <c r="A303" s="19">
         <v>44621</v>
       </c>
@@ -34455,11 +34782,11 @@
       <c r="K303" s="21">
         <v>1</v>
       </c>
-      <c r="T303" s="22">
-        <v>1</v>
-      </c>
-      <c r="U303" s="22">
-        <v>1</v>
+      <c r="T303" s="114">
+        <v>4</v>
+      </c>
+      <c r="U303" s="114">
+        <v>3</v>
       </c>
       <c r="V303" s="123"/>
       <c r="W303" s="122"/>
@@ -34480,7 +34807,7 @@
         <v>0.11188811188811194</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:33" ht="18">
       <c r="A304" s="19">
         <v>44622</v>
       </c>
@@ -34515,11 +34842,11 @@
       <c r="K304" s="21">
         <v>1</v>
       </c>
-      <c r="T304" s="22">
-        <v>1</v>
-      </c>
-      <c r="U304" s="22">
-        <v>1</v>
+      <c r="T304" s="114">
+        <v>5</v>
+      </c>
+      <c r="U304" s="114">
+        <v>4</v>
       </c>
       <c r="V304" s="123"/>
       <c r="W304" s="122"/>
@@ -34540,7 +34867,7 @@
         <v>0.21518987341772158</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:33" ht="18">
       <c r="A305" s="19">
         <v>44623</v>
       </c>
@@ -34575,11 +34902,11 @@
       <c r="K305" s="21">
         <v>1</v>
       </c>
-      <c r="T305" s="22">
-        <v>1</v>
-      </c>
-      <c r="U305" s="22">
-        <v>1</v>
+      <c r="T305" s="114">
+        <v>6</v>
+      </c>
+      <c r="U305" s="114">
+        <v>5</v>
       </c>
       <c r="V305" s="123"/>
       <c r="W305" s="122"/>
@@ -34600,7 +34927,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:33" ht="18">
       <c r="A306" s="19">
         <v>44624</v>
       </c>
@@ -34635,11 +34962,11 @@
       <c r="K306" s="21">
         <v>1</v>
       </c>
-      <c r="T306" s="22">
-        <v>1</v>
-      </c>
-      <c r="U306" s="22">
-        <v>1</v>
+      <c r="T306" s="114">
+        <v>7</v>
+      </c>
+      <c r="U306" s="114">
+        <v>6</v>
       </c>
       <c r="V306" s="123"/>
       <c r="W306" s="122"/>
@@ -34660,7 +34987,7 @@
         <v>-0.30051813471502586</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:33" ht="18">
       <c r="A307" s="19">
         <v>44627</v>
       </c>
@@ -34695,11 +35022,11 @@
       <c r="K307" s="21">
         <v>1</v>
       </c>
-      <c r="T307" s="22">
-        <v>1</v>
-      </c>
-      <c r="U307" s="22">
-        <v>1</v>
+      <c r="T307" s="114">
+        <v>7</v>
+      </c>
+      <c r="U307" s="114">
+        <v>5</v>
       </c>
       <c r="V307" s="123"/>
       <c r="W307" s="122"/>
@@ -34720,7 +35047,7 @@
         <v>-0.15675675675675674</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:33" ht="18">
       <c r="A308" s="19">
         <v>44628</v>
       </c>
@@ -34755,11 +35082,11 @@
       <c r="K308" s="21">
         <v>1</v>
       </c>
-      <c r="T308" s="22">
-        <v>1</v>
-      </c>
-      <c r="U308" s="22">
-        <v>1</v>
+      <c r="T308" s="114">
+        <v>6</v>
+      </c>
+      <c r="U308" s="114">
+        <v>3</v>
       </c>
       <c r="V308" s="123"/>
       <c r="W308" s="122"/>
@@ -34780,7 +35107,7 @@
         <v>-0.63583815028901736</v>
       </c>
     </row>
-    <row r="309" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:33" ht="18">
       <c r="A309" s="19">
         <v>44629</v>
       </c>
@@ -34815,11 +35142,11 @@
       <c r="K309" s="21">
         <v>1</v>
       </c>
-      <c r="T309" s="22">
-        <v>1</v>
-      </c>
-      <c r="U309" s="22">
-        <v>1</v>
+      <c r="T309" s="114">
+        <v>4</v>
+      </c>
+      <c r="U309" s="114">
+        <v>3</v>
       </c>
       <c r="V309" s="123"/>
       <c r="W309" s="122"/>
@@ -34840,7 +35167,7 @@
         <v>0.16949152542372875</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:33" ht="18">
       <c r="A310" s="19">
         <v>44630</v>
       </c>
@@ -34875,11 +35202,11 @@
       <c r="K310" s="21">
         <v>1</v>
       </c>
-      <c r="T310" s="22">
-        <v>1</v>
-      </c>
-      <c r="U310" s="22">
-        <v>1</v>
+      <c r="T310" s="114">
+        <v>5</v>
+      </c>
+      <c r="U310" s="114">
+        <v>4</v>
       </c>
       <c r="V310" s="123"/>
       <c r="W310" s="122"/>
@@ -34900,7 +35227,7 @@
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:33" ht="18">
       <c r="A311" s="19">
         <v>44631</v>
       </c>
@@ -34935,11 +35262,11 @@
       <c r="K311" s="21">
         <v>1</v>
       </c>
-      <c r="T311" s="22">
-        <v>1</v>
-      </c>
-      <c r="U311" s="22">
-        <v>1</v>
+      <c r="T311" s="114">
+        <v>6</v>
+      </c>
+      <c r="U311" s="114">
+        <v>5</v>
       </c>
       <c r="V311" s="123"/>
       <c r="W311" s="122"/>
@@ -34960,7 +35287,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:33" ht="18">
       <c r="A312" s="19">
         <v>44634</v>
       </c>
@@ -34995,11 +35322,11 @@
       <c r="K312" s="21">
         <v>1</v>
       </c>
-      <c r="T312" s="22">
-        <v>1</v>
-      </c>
-      <c r="U312" s="22">
-        <v>1</v>
+      <c r="T312" s="114">
+        <v>4</v>
+      </c>
+      <c r="U312" s="114">
+        <v>3</v>
       </c>
       <c r="V312" s="123"/>
       <c r="W312" s="122"/>
@@ -35020,7 +35347,7 @@
         <v>-0.35175879396984921</v>
       </c>
     </row>
-    <row r="313" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:33" ht="18">
       <c r="A313" s="19">
         <v>44635</v>
       </c>
@@ -35055,11 +35382,11 @@
       <c r="K313" s="21">
         <v>1</v>
       </c>
-      <c r="T313" s="22">
-        <v>1</v>
-      </c>
-      <c r="U313" s="22">
-        <v>1</v>
+      <c r="T313" s="114">
+        <v>5</v>
+      </c>
+      <c r="U313" s="114">
+        <v>3</v>
       </c>
       <c r="V313" s="123"/>
       <c r="W313" s="122"/>
@@ -35080,7 +35407,7 @@
         <v>-0.54081632653061218</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:33" ht="18">
       <c r="A314" s="19">
         <v>44636</v>
       </c>
@@ -35115,11 +35442,11 @@
       <c r="K314" s="21">
         <v>1</v>
       </c>
-      <c r="T314" s="22">
-        <v>1</v>
-      </c>
-      <c r="U314" s="22">
-        <v>1</v>
+      <c r="T314" s="114">
+        <v>6</v>
+      </c>
+      <c r="U314" s="114">
+        <v>4</v>
       </c>
       <c r="V314" s="123"/>
       <c r="W314" s="122"/>
@@ -35140,7 +35467,7 @@
         <v>1.7464788732394363</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:33" ht="18">
       <c r="A315" s="19">
         <v>44637</v>
       </c>
@@ -35175,11 +35502,11 @@
       <c r="K315" s="21">
         <v>1</v>
       </c>
-      <c r="T315" s="22">
-        <v>1</v>
-      </c>
-      <c r="U315" s="22">
-        <v>1</v>
+      <c r="T315" s="114">
+        <v>5</v>
+      </c>
+      <c r="U315" s="114">
+        <v>4</v>
       </c>
       <c r="V315" s="123"/>
       <c r="W315" s="122"/>
@@ -35200,7 +35527,7 @@
         <v>0.46305418719211811</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:33" ht="18">
       <c r="A316" s="19">
         <v>44638</v>
       </c>
@@ -35235,11 +35562,11 @@
       <c r="K316" s="21">
         <v>1</v>
       </c>
-      <c r="T316" s="22">
-        <v>1</v>
-      </c>
-      <c r="U316" s="22">
-        <v>1</v>
+      <c r="T316" s="114">
+        <v>6</v>
+      </c>
+      <c r="U316" s="114">
+        <v>5</v>
       </c>
       <c r="V316" s="123"/>
       <c r="W316" s="122"/>
@@ -35260,7 +35587,7 @@
         <v>0.22779922779922787</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:33" ht="18">
       <c r="A317" s="19">
         <v>44641</v>
       </c>
@@ -35295,11 +35622,11 @@
       <c r="K317" s="21">
         <v>1</v>
       </c>
-      <c r="T317" s="22">
-        <v>1</v>
-      </c>
-      <c r="U317" s="22">
-        <v>1</v>
+      <c r="T317" s="114">
+        <v>6</v>
+      </c>
+      <c r="U317" s="114">
+        <v>5</v>
       </c>
       <c r="V317" s="123"/>
       <c r="W317" s="122"/>
@@ -35320,7 +35647,7 @@
         <v>3.8805970149253688E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:33" ht="18">
       <c r="A318" s="19">
         <v>44642</v>
       </c>
@@ -35355,11 +35682,11 @@
       <c r="K318" s="21">
         <v>1</v>
       </c>
-      <c r="T318" s="22">
-        <v>1</v>
-      </c>
-      <c r="U318" s="22">
-        <v>1</v>
+      <c r="T318" s="114">
+        <v>7</v>
+      </c>
+      <c r="U318" s="114">
+        <v>6</v>
       </c>
       <c r="V318" s="123"/>
       <c r="W318" s="122"/>
@@ -35380,7 +35707,7 @@
         <v>-0.26168224299065418</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:33" ht="18">
       <c r="A319" s="19">
         <v>44643</v>
       </c>
@@ -35415,11 +35742,11 @@
       <c r="K319" s="21">
         <v>1</v>
       </c>
-      <c r="T319" s="22">
-        <v>1</v>
-      </c>
-      <c r="U319" s="22">
-        <v>1</v>
+      <c r="T319" s="114">
+        <v>7</v>
+      </c>
+      <c r="U319" s="114">
+        <v>6</v>
       </c>
       <c r="V319" s="123"/>
       <c r="W319" s="122"/>
@@ -35440,7 +35767,7 @@
         <v>-0.3122923588039867</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:33" ht="18">
       <c r="A320" s="19">
         <v>44644</v>
       </c>
@@ -35475,11 +35802,11 @@
       <c r="K320" s="21">
         <v>1</v>
       </c>
-      <c r="T320" s="22">
-        <v>1</v>
-      </c>
-      <c r="U320" s="22">
-        <v>1</v>
+      <c r="T320" s="114">
+        <v>8</v>
+      </c>
+      <c r="U320" s="114">
+        <v>7</v>
       </c>
       <c r="V320" s="123"/>
       <c r="W320" s="122"/>
@@ -35500,7 +35827,7 @@
         <v>-0.28409090909090912</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:33" ht="18">
       <c r="A321" s="19">
         <v>44645</v>
       </c>
@@ -35535,11 +35862,11 @@
       <c r="K321" s="21">
         <v>1</v>
       </c>
-      <c r="T321" s="22">
-        <v>1</v>
-      </c>
-      <c r="U321" s="22">
-        <v>1</v>
+      <c r="T321" s="114">
+        <v>9</v>
+      </c>
+      <c r="U321" s="114">
+        <v>8</v>
       </c>
       <c r="V321" s="123"/>
       <c r="W321" s="122"/>
@@ -35560,7 +35887,7 @@
         <v>6.6350710900474008E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:33" ht="18">
       <c r="A322" s="19">
         <v>44648</v>
       </c>
@@ -35595,10 +35922,10 @@
       <c r="K322" s="21">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="T322" s="22">
+      <c r="T322" s="114">
         <v>9</v>
       </c>
-      <c r="U322" s="22">
+      <c r="U322" s="114">
         <v>4</v>
       </c>
       <c r="V322" s="123"/>
@@ -35620,7 +35947,7 @@
         <v>-0.10144927536231885</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:33" ht="18">
       <c r="A323" s="19">
         <v>44649</v>
       </c>
@@ -35655,10 +35982,10 @@
       <c r="K323" s="21">
         <v>-0.48</v>
       </c>
-      <c r="T323" s="22">
+      <c r="T323" s="114">
         <v>5</v>
       </c>
-      <c r="U323" s="22">
+      <c r="U323" s="114">
         <v>4</v>
       </c>
       <c r="V323" s="123"/>
@@ -35680,15 +36007,47 @@
         <v>-0.16000000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:33" ht="18">
       <c r="A324" s="19">
         <v>44650</v>
       </c>
-      <c r="I324" s="21" t="e">
+      <c r="B324" s="114">
+        <v>80</v>
+      </c>
+      <c r="C324" s="114">
+        <v>28</v>
+      </c>
+      <c r="D324" s="20">
+        <v>-8</v>
+      </c>
+      <c r="E324" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F324" s="20">
+        <v>-164</v>
+      </c>
+      <c r="G324" s="20">
+        <v>-39</v>
+      </c>
+      <c r="H324" s="20">
+        <v>-250</v>
+      </c>
+      <c r="I324" s="21">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U324" s="22"/>
+        <v>74.074074074074076</v>
+      </c>
+      <c r="J324" s="21">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K324" s="21">
+        <v>1.06</v>
+      </c>
+      <c r="T324" s="22">
+        <v>5</v>
+      </c>
+      <c r="U324" s="22">
+        <v>4</v>
+      </c>
       <c r="V324" s="123"/>
       <c r="W324" s="122"/>
       <c r="X324" s="123"/>
@@ -35705,18 +36064,50 @@
       </c>
       <c r="AG324" s="27">
         <f t="shared" si="30"/>
-        <v>-1</v>
+        <v>0.24352331606217625</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:33" ht="18">
       <c r="A325" s="19">
         <v>44651</v>
       </c>
-      <c r="I325" s="21" t="e">
+      <c r="B325" s="114">
+        <v>55</v>
+      </c>
+      <c r="C325" s="114">
+        <v>48</v>
+      </c>
+      <c r="D325" s="20">
+        <v>-10</v>
+      </c>
+      <c r="E325" s="20">
+        <v>-5</v>
+      </c>
+      <c r="F325" s="20">
+        <v>-274</v>
+      </c>
+      <c r="G325" s="20">
+        <v>-139</v>
+      </c>
+      <c r="H325" s="20">
+        <v>-250</v>
+      </c>
+      <c r="I325" s="21">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U325" s="22"/>
+        <v>53.398058252427184</v>
+      </c>
+      <c r="J325" s="21">
+        <v>1.89</v>
+      </c>
+      <c r="K325" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="T325" s="114">
+        <v>6</v>
+      </c>
+      <c r="U325" s="114">
+        <v>5</v>
+      </c>
       <c r="V325" s="123"/>
       <c r="W325" s="122"/>
       <c r="X325" s="123"/>
@@ -35729,17 +36120,22 @@
       <c r="AE325" s="122"/>
       <c r="AF325" s="26">
         <f t="shared" si="29"/>
-        <v>39.333333333333336</v>
+        <v>66</v>
       </c>
       <c r="AG325" s="27">
         <f t="shared" si="30"/>
-        <v>-1</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -35747,39 +36143,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="ZA6150" sqref="ZA6150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="7" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="24.85546875" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" customWidth="1"/>
-    <col min="22" max="22" width="22.1640625" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" customWidth="1"/>
-    <col min="24" max="24" width="32.1640625" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" customWidth="1"/>
-    <col min="26" max="26" width="29.5" customWidth="1"/>
-    <col min="27" max="27" width="23.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.140625" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" customWidth="1"/>
+    <col min="27" max="27" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="22">
       <c r="A2" s="1">
         <v>44305</v>
       </c>
@@ -35862,7 +36258,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="27">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -35945,7 +36341,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="27">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>43</v>
@@ -36026,7 +36422,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="27">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -36105,7 +36501,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="27">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -36182,7 +36578,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="27">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -36253,7 +36649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="27">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -36324,7 +36720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="22">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -36369,7 +36765,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="22">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -36416,7 +36812,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="22">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -36463,7 +36859,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="27">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -36516,7 +36912,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="22">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -36567,7 +36963,7 @@
       </c>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="22">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -36616,7 +37012,7 @@
         <v>-5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="22">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -36663,7 +37059,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="22">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -36702,7 +37098,7 @@
         <v>-2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="22">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -36741,7 +37137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="22">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -36781,5 +37177,10 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newhope_ghost/Documents/codeDir/github/stockDetailQuery/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25620" windowHeight="21080"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="25620" windowHeight="21080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
     <sheet name="情绪数据" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -465,12 +470,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -478,6 +485,7 @@
       <sz val="20"/>
       <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -485,6 +493,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -492,12 +501,14 @@
       <sz val="16"/>
       <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -506,6 +517,7 @@
       <sz val="16"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -513,12 +525,14 @@
       <sz val="16"/>
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -526,12 +540,13 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -539,6 +554,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -546,12 +562,13 @@
       <sz val="12"/>
       <color theme="4"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -559,12 +576,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -572,12 +591,13 @@
       <sz val="12"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -586,18 +606,19 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -606,6 +627,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -613,6 +635,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,7 +965,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3049,8 +3073,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2109244792"/>
-        <c:axId val="2109361464"/>
+        <c:axId val="1090248672"/>
+        <c:axId val="1090250992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5112,8 +5136,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109244792"/>
-        <c:axId val="2109361464"/>
+        <c:axId val="1090248672"/>
+        <c:axId val="1090250992"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7002,22 +7026,22 @@
                   <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.0</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.0</c:v>
+                  <c:v>3.31</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.0</c:v>
+                  <c:v>2.49</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.0</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.0</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.0</c:v>
+                  <c:v>7.36</c:v>
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>1.0</c:v>
@@ -7035,61 +7059,61 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.0</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.0</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.0</c:v>
+                  <c:v>-5.64</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.0</c:v>
+                  <c:v>-5.64</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.0</c:v>
+                  <c:v>-4.82</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.0</c:v>
+                  <c:v>-5.32</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.0</c:v>
+                  <c:v>-4.63</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.0</c:v>
+                  <c:v>-2.38</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.0</c:v>
+                  <c:v>-2.48</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.0</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.56</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.0</c:v>
+                  <c:v>-1.72</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.73</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.54</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.0</c:v>
+                  <c:v>-1.36</c:v>
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>-0.18</c:v>
@@ -9006,22 +9030,22 @@
                   <c:v>-0.64</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.0</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.0</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.0</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.0</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.0</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>1.0</c:v>
@@ -9039,61 +9063,61 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.0</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.0</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.0</c:v>
+                  <c:v>-5.36</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.0</c:v>
+                  <c:v>-5.52</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.0</c:v>
+                  <c:v>-4.54</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.0</c:v>
+                  <c:v>-5.29</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.0</c:v>
+                  <c:v>-4.42</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.0</c:v>
+                  <c:v>-3.04</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.0</c:v>
+                  <c:v>-2.85</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.0</c:v>
+                  <c:v>-2.31</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.0</c:v>
+                  <c:v>-2.88</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.83</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.28</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.32</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.59</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.0</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.0</c:v>
+                  <c:v>-0.14</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.0</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.0</c:v>
+                  <c:v>-1.15</c:v>
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>-1.16</c:v>
@@ -9122,11 +9146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108710376"/>
-        <c:axId val="2108763928"/>
+        <c:axId val="1090380400"/>
+        <c:axId val="1089706496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109244792"/>
+        <c:axId val="1090248672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9194,7 +9218,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109361464"/>
+        <c:crossAx val="1090250992"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9202,7 +9226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109361464"/>
+        <c:axId val="1090250992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9253,13 +9277,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109244792"/>
+        <c:crossAx val="1090248672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2108710376"/>
+        <c:axId val="1090380400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9269,7 +9293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108763928"/>
+        <c:crossAx val="1089706496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9277,7 +9301,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108763928"/>
+        <c:axId val="1089706496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9314,7 +9338,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108710376"/>
+        <c:crossAx val="1090380400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13376,8 +13400,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140862104"/>
-        <c:axId val="2140404216"/>
+        <c:axId val="714779744"/>
+        <c:axId val="841964832"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -15537,8 +15561,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140882664"/>
-        <c:axId val="2140901400"/>
+        <c:axId val="841707824"/>
+        <c:axId val="1100997264"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17441,11 +17465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140862104"/>
-        <c:axId val="2140404216"/>
+        <c:axId val="714779744"/>
+        <c:axId val="841964832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140862104"/>
+        <c:axId val="714779744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17513,7 +17537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140404216"/>
+        <c:crossAx val="841964832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -17521,7 +17545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140404216"/>
+        <c:axId val="841964832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -17570,12 +17594,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140862104"/>
+        <c:crossAx val="714779744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2140882664"/>
+        <c:axId val="841707824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17585,7 +17609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140901400"/>
+        <c:crossAx val="1100997264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -17593,7 +17617,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140901400"/>
+        <c:axId val="1100997264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -17629,7 +17653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140882664"/>
+        <c:crossAx val="841707824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19106,31 +19130,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="BY41" sqref="BY41"/>
+    <sheetView topLeftCell="BK13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BZ19" sqref="BZ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="33" spans="97:104">
+    <row r="33" spans="97:104" x14ac:dyDescent="0.2">
       <c r="CY33" s="118"/>
     </row>
-    <row r="34" spans="97:104">
+    <row r="34" spans="97:104" x14ac:dyDescent="0.2">
       <c r="CS34" s="118"/>
     </row>
-    <row r="37" spans="97:104" ht="15">
+    <row r="37" spans="97:104" ht="18" x14ac:dyDescent="0.2">
       <c r="CZ37" s="119"/>
     </row>
-    <row r="51" spans="98:103">
+    <row r="51" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT51" s="118"/>
     </row>
-    <row r="53" spans="98:103">
+    <row r="53" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT53" s="120"/>
     </row>
-    <row r="60" spans="98:103">
+    <row r="60" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CY60" s="121"/>
     </row>
-    <row r="70" spans="20:20">
+    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T70" t="s">
         <v>0</v>
       </c>
@@ -19140,26 +19164,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG325"/>
+  <dimension ref="A1:AG326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="19" customWidth="1"/>
     <col min="2" max="8" width="8" style="20" customWidth="1"/>
     <col min="9" max="11" width="8" style="21" customWidth="1"/>
     <col min="12" max="19" width="8" style="21" hidden="1" customWidth="1"/>
@@ -19171,12 +19190,12 @@
     <col min="25" max="29" width="8" style="23" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="8" style="25" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="26" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="27" customWidth="1"/>
     <col min="34" max="34" width="10" style="23" customWidth="1"/>
     <col min="35" max="16384" width="8" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="105.75" customHeight="1">
+    <row r="1" spans="1:33" s="18" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -19267,7 +19286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>44165</v>
       </c>
@@ -19317,7 +19336,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>44166</v>
       </c>
@@ -19367,7 +19386,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>44167</v>
       </c>
@@ -19417,7 +19436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>44168</v>
       </c>
@@ -19467,7 +19486,7 @@
         <v>9.5652173913043412E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>44169</v>
       </c>
@@ -19517,7 +19536,7 @@
         <v>-0.24427480916030531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>44172</v>
       </c>
@@ -19567,7 +19586,7 @@
         <v>-0.21311475409836061</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>44173</v>
       </c>
@@ -19617,7 +19636,7 @@
         <v>-0.15887850467289713</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>44174</v>
       </c>
@@ -19667,7 +19686,7 @@
         <v>-5.263157894736846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>44175</v>
       </c>
@@ -19717,7 +19736,7 @@
         <v>-8.6956521739130474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>44176</v>
       </c>
@@ -19767,7 +19786,7 @@
         <v>-0.35227272727272724</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>44179</v>
       </c>
@@ -19817,7 +19836,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>44180</v>
       </c>
@@ -19867,7 +19886,7 @@
         <v>-4.3956043956043918E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>44181</v>
       </c>
@@ -19917,7 +19936,7 @@
         <v>-0.28260869565217395</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>44182</v>
       </c>
@@ -19967,7 +19986,7 @@
         <v>0.42105263157894729</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>44183</v>
       </c>
@@ -20017,7 +20036,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>44186</v>
       </c>
@@ -20067,7 +20086,7 @@
         <v>0.4423076923076924</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>44187</v>
       </c>
@@ -20117,7 +20136,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>44188</v>
       </c>
@@ -20167,7 +20186,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>44189</v>
       </c>
@@ -20217,7 +20236,7 @@
         <v>-0.19402985074626861</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>44190</v>
       </c>
@@ -20267,7 +20286,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>44193</v>
       </c>
@@ -20317,7 +20336,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>44194</v>
       </c>
@@ -20367,7 +20386,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>44195</v>
       </c>
@@ -20417,7 +20436,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>44196</v>
       </c>
@@ -20467,7 +20486,7 @@
         <v>-5.5248618784530426E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>44200</v>
       </c>
@@ -20517,7 +20536,7 @@
         <v>0.8033707865168539</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>44201</v>
       </c>
@@ -20567,7 +20586,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>44202</v>
       </c>
@@ -20617,7 +20636,7 @@
         <v>-0.42738589211618255</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>44203</v>
       </c>
@@ -20667,7 +20686,7 @@
         <v>-0.58260869565217399</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>44204</v>
       </c>
@@ -20717,7 +20736,7 @@
         <v>-5.161290322580641E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>44207</v>
       </c>
@@ -20767,7 +20786,7 @@
         <v>-5.5118110236220527E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>44208</v>
       </c>
@@ -20817,7 +20836,7 @@
         <v>0.73553719008264451</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>44209</v>
       </c>
@@ -20867,7 +20886,7 @@
         <v>-0.26415094339622641</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>44210</v>
       </c>
@@ -20917,7 +20936,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>44211</v>
       </c>
@@ -20967,7 +20986,7 @@
         <v>0.31460674157303364</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>44214</v>
       </c>
@@ -21017,7 +21036,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>44215</v>
       </c>
@@ -21067,7 +21086,7 @@
         <v>-7.2033898305084804E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>44216</v>
       </c>
@@ -21117,7 +21136,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>44217</v>
       </c>
@@ -21167,7 +21186,7 @@
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>44218</v>
       </c>
@@ -21217,7 +21236,7 @@
         <v>-0.34955752212389374</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>44221</v>
       </c>
@@ -21267,7 +21286,7 @@
         <v>-0.31683168316831678</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>44222</v>
       </c>
@@ -21317,7 +21336,7 @@
         <v>-0.11560693641618494</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>44223</v>
       </c>
@@ -21367,7 +21386,7 @@
         <v>0.27397260273972607</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44224</v>
       </c>
@@ -21417,7 +21436,7 @@
         <v>-0.20754716981132076</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>44225</v>
       </c>
@@ -21467,7 +21486,7 @@
         <v>-0.38064516129032255</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>44228</v>
       </c>
@@ -21517,7 +21536,7 @@
         <v>0.80882352941176461</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>44229</v>
       </c>
@@ -21567,7 +21586,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="15">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>44230</v>
       </c>
@@ -21617,7 +21636,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>44231</v>
       </c>
@@ -21667,7 +21686,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>44232</v>
       </c>
@@ -21717,7 +21736,7 @@
         <v>-0.11184210526315785</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>44235</v>
       </c>
@@ -21767,7 +21786,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>44236</v>
       </c>
@@ -21817,7 +21836,7 @@
         <v>0.34482758620689646</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>44237</v>
       </c>
@@ -21867,7 +21886,7 @@
         <v>-0.29090909090909089</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>44245</v>
       </c>
@@ -21917,7 +21936,7 @@
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>44246</v>
       </c>
@@ -21967,7 +21986,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>44249</v>
       </c>
@@ -22017,7 +22036,7 @@
         <v>4.1841004184099825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>44250</v>
       </c>
@@ -22067,7 +22086,7 @@
         <v>-0.43214285714285711</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>44251</v>
       </c>
@@ -22117,7 +22136,7 @@
         <v>-0.45922746781115881</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>44252</v>
       </c>
@@ -22167,7 +22186,7 @@
         <v>-0.29714285714285715</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>44253</v>
       </c>
@@ -22217,7 +22236,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="31">
         <v>44256</v>
       </c>
@@ -22285,7 +22304,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
         <v>44257</v>
       </c>
@@ -22353,7 +22372,7 @@
         <v>-0.32317073170731703</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>44258</v>
       </c>
@@ -22403,7 +22422,7 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>44259</v>
       </c>
@@ -22453,7 +22472,7 @@
         <v>-0.37623762376237618</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>44260</v>
       </c>
@@ -22503,7 +22522,7 @@
         <v>0.14374999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>44263</v>
       </c>
@@ -22553,7 +22572,7 @@
         <v>-0.13586956521739132</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>44264</v>
       </c>
@@ -22603,7 +22622,7 @@
         <v>-0.34615384615384615</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>44265</v>
       </c>
@@ -22653,7 +22672,7 @@
         <v>-0.33108108108108109</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>44266</v>
       </c>
@@ -22703,7 +22722,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>44267</v>
       </c>
@@ -22753,7 +22772,7 @@
         <v>3.6764705882352887E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>44270</v>
       </c>
@@ -22803,7 +22822,7 @@
         <v>-7.3825503355704647E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>44271</v>
       </c>
@@ -22853,7 +22872,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="15">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>44272</v>
       </c>
@@ -22903,7 +22922,7 @@
         <v>7.006369426751588E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>44273</v>
       </c>
@@ -22953,7 +22972,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>44274</v>
       </c>
@@ -23003,7 +23022,7 @@
         <v>-9.4972067039106114E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>44277</v>
       </c>
@@ -23053,7 +23072,7 @@
         <v>0.4201183431952662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>44278</v>
       </c>
@@ -23103,7 +23122,7 @@
         <v>-0.26943005181347146</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>44279</v>
       </c>
@@ -23153,7 +23172,7 @@
         <v>-7.1823204419889541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="15">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>44280</v>
       </c>
@@ -23203,7 +23222,7 @@
         <v>-0.29508196721311475</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>44281</v>
       </c>
@@ -23253,7 +23272,7 @@
         <v>0.47945205479452063</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="15">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>44284</v>
       </c>
@@ -23303,7 +23322,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>44285</v>
       </c>
@@ -23353,7 +23372,7 @@
         <v>-2.7932960893854709E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="15">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>44286</v>
       </c>
@@ -23403,7 +23422,7 @@
         <v>0.12886597938144323</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="15">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>44287</v>
       </c>
@@ -23453,7 +23472,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="15">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>44288</v>
       </c>
@@ -23503,7 +23522,7 @@
         <v>4.9261083743841663E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="15">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>44292</v>
       </c>
@@ -23554,7 +23573,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="15">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>44293</v>
       </c>
@@ -23605,7 +23624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="15">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="60">
         <v>44294</v>
       </c>
@@ -23674,7 +23693,7 @@
         <v>-0.52564102564102566</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="15">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>44295</v>
       </c>
@@ -23725,7 +23744,7 @@
         <v>-0.18719211822660103</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="15">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>44298</v>
       </c>
@@ -23776,7 +23795,7 @@
         <v>5.4945054945054986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="15">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>44299</v>
       </c>
@@ -23827,7 +23846,7 @@
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="15">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>44300</v>
       </c>
@@ -23877,7 +23896,7 @@
         <v>0.12941176470588239</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="15">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="60">
         <v>44301</v>
       </c>
@@ -23945,7 +23964,7 @@
         <v>-0.27932960893854747</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="15">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>44302</v>
       </c>
@@ -23995,7 +24014,7 @@
         <v>0.40506329113924056</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="15">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>44305</v>
       </c>
@@ -24045,7 +24064,7 @@
         <v>0.27624309392265189</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="15">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>44306</v>
       </c>
@@ -24095,7 +24114,7 @@
         <v>-0.365979381443299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="15">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>44307</v>
       </c>
@@ -24145,7 +24164,7 @@
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="15">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>44308</v>
       </c>
@@ -24195,7 +24214,7 @@
         <v>-0.21052631578947364</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="15">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>44309</v>
       </c>
@@ -24245,7 +24264,7 @@
         <v>-8.6956521739130488E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="15">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>44312</v>
       </c>
@@ -24295,7 +24314,7 @@
         <v>0.26605504587155954</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="15">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" s="62">
         <v>44313</v>
       </c>
@@ -24363,7 +24382,7 @@
         <v>-5.7851239669421545E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="15">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>44314</v>
       </c>
@@ -24413,7 +24432,7 @@
         <v>0.51260504201680679</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="15">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>44315</v>
       </c>
@@ -24463,7 +24482,7 @@
         <v>-8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="15">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>44316</v>
       </c>
@@ -24513,7 +24532,7 @@
         <v>-0.15492957746478878</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="15">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>44322</v>
       </c>
@@ -24563,7 +24582,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="15">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>44323</v>
       </c>
@@ -24613,7 +24632,7 @@
         <v>-9.1549295774647932E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="15">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" s="64">
         <v>44326</v>
       </c>
@@ -24681,7 +24700,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="15">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>44327</v>
       </c>
@@ -24731,7 +24750,7 @@
         <v>-0.11475409836065574</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="15">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>44328</v>
       </c>
@@ -24781,7 +24800,7 @@
         <v>-0.2960893854748603</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="15">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>44329</v>
       </c>
@@ -24831,7 +24850,7 @@
         <v>0.297752808988764</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" s="60">
         <v>44333</v>
       </c>
@@ -24899,7 +24918,7 @@
         <v>-0.44508670520231214</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="15">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>44334</v>
       </c>
@@ -24949,7 +24968,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="15">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>44335</v>
       </c>
@@ -24999,7 +25018,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="15">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>44336</v>
       </c>
@@ -25049,7 +25068,7 @@
         <v>-0.10389610389610393</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="15">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>44337</v>
       </c>
@@ -25099,7 +25118,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="15">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>44340</v>
       </c>
@@ -25149,7 +25168,7 @@
         <v>4.3478260869565265E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="15">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>44341</v>
       </c>
@@ -25199,7 +25218,7 @@
         <v>-0.12195121951219508</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="15">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>44342</v>
       </c>
@@ -25249,7 +25268,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="15">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>44343</v>
       </c>
@@ -25299,7 +25318,7 @@
         <v>0.19631901840490792</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>44344</v>
       </c>
@@ -25349,7 +25368,7 @@
         <v>-0.16279069767441864</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="15">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>44347</v>
       </c>
@@ -25399,7 +25418,7 @@
         <v>0.48255813953488363</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="15">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>44348</v>
       </c>
@@ -25455,7 +25474,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="15">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" s="62">
         <v>44349</v>
       </c>
@@ -25523,7 +25542,7 @@
         <v>-0.19000000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="15">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>44350</v>
       </c>
@@ -25573,7 +25592,7 @@
         <v>-8.2524271844660255E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>44351</v>
       </c>
@@ -25623,7 +25642,7 @@
         <v>-0.20108695652173916</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>44354</v>
       </c>
@@ -25673,7 +25692,7 @@
         <v>8.4337349397590314E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>44355</v>
       </c>
@@ -25723,7 +25742,7 @@
         <v>-7.5581395348837246E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="15">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>44356</v>
       </c>
@@ -25773,7 +25792,7 @@
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="15">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>44357</v>
       </c>
@@ -25823,7 +25842,7 @@
         <v>0.15243902439024395</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="15">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>44358</v>
       </c>
@@ -25873,7 +25892,7 @@
         <v>7.7844311377245554E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="15">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" s="62">
         <v>44362</v>
       </c>
@@ -25941,7 +25960,7 @@
         <v>-0.34482758620689657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="15">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" s="62">
         <v>44363</v>
       </c>
@@ -25991,7 +26010,7 @@
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="15">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>44364</v>
       </c>
@@ -26041,7 +26060,7 @@
         <v>0.10526315789473678</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="15">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>44365</v>
       </c>
@@ -26091,7 +26110,7 @@
         <v>0.4262295081967214</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="15">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>44368</v>
       </c>
@@ -26141,7 +26160,7 @@
         <v>0.45774647887323938</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="15">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>44369</v>
       </c>
@@ -26191,7 +26210,7 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="15">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>44370</v>
       </c>
@@ -26241,7 +26260,7 @@
         <v>-0.20725388601036263</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="15">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>44371</v>
       </c>
@@ -26291,7 +26310,7 @@
         <v>-0.11290322580645161</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="15">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>44372</v>
       </c>
@@ -26341,7 +26360,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="15">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>44375</v>
       </c>
@@ -26391,7 +26410,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="15">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>44376</v>
       </c>
@@ -26441,7 +26460,7 @@
         <v>-0.25433526011560692</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="15">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>44377</v>
       </c>
@@ -26491,7 +26510,7 @@
         <v>-4.9689440993788775E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="15">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>44378</v>
       </c>
@@ -26541,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="15">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>44379</v>
       </c>
@@ -26591,7 +26610,7 @@
         <v>-0.26027397260273971</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="15">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>44382</v>
       </c>
@@ -26641,7 +26660,7 @@
         <v>0.51079136690647475</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="15">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>44383</v>
       </c>
@@ -26691,7 +26710,7 @@
         <v>-0.27848101265822783</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="15">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>44384</v>
       </c>
@@ -26741,7 +26760,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="15">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>44385</v>
       </c>
@@ -26791,7 +26810,7 @@
         <v>-0.19298245614035087</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="15">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>44386</v>
       </c>
@@ -26841,7 +26860,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="15">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>44389</v>
       </c>
@@ -26891,7 +26910,7 @@
         <v>0.43930635838150295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" ht="15">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>44390</v>
       </c>
@@ -26941,7 +26960,7 @@
         <v>-2.0725388601036197E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="15">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>44391</v>
       </c>
@@ -26991,7 +27010,7 @@
         <v>-0.25714285714285712</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="15">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>44392</v>
       </c>
@@ -27041,7 +27060,7 @@
         <v>-0.31818181818181818</v>
       </c>
     </row>
-    <row r="154" spans="1:33" ht="15">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>44393</v>
       </c>
@@ -27091,7 +27110,7 @@
         <v>-0.34375000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="15">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>44396</v>
       </c>
@@ -27141,7 +27160,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="15">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>44397</v>
       </c>
@@ -27191,7 +27210,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="15">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>44398</v>
       </c>
@@ -27241,7 +27260,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="15">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>44399</v>
       </c>
@@ -27291,7 +27310,7 @@
         <v>-7.6923076923076886E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="15">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>44400</v>
       </c>
@@ -27341,7 +27360,7 @@
         <v>-0.24193548387096775</v>
       </c>
     </row>
-    <row r="160" spans="1:33" ht="15">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>44403</v>
       </c>
@@ -27391,7 +27410,7 @@
         <v>-0.40641711229946526</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="15">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>44404</v>
       </c>
@@ -27441,7 +27460,7 @@
         <v>-0.44285714285714284</v>
       </c>
     </row>
-    <row r="162" spans="1:33" ht="15">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>44405</v>
       </c>
@@ -27491,7 +27510,7 @@
         <v>9.0909090909091564E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="15">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>44406</v>
       </c>
@@ -27541,7 +27560,7 @@
         <v>2.4499999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="15">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>44407</v>
       </c>
@@ -27591,7 +27610,7 @@
         <v>0.36516853932584264</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="15">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>44410</v>
       </c>
@@ -27641,7 +27660,7 @@
         <v>0.23605150214592266</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="15">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>44411</v>
       </c>
@@ -27691,7 +27710,7 @@
         <v>-0.45547945205479451</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="15">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>44412</v>
       </c>
@@ -27741,7 +27760,7 @@
         <v>0.13478260869565212</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="15">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>44413</v>
       </c>
@@ -27791,7 +27810,7 @@
         <v>-0.36440677966101698</v>
       </c>
     </row>
-    <row r="169" spans="1:33" ht="15">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>44414</v>
       </c>
@@ -27841,7 +27860,7 @@
         <v>-6.842105263157898E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" ht="15">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>44417</v>
       </c>
@@ -27891,7 +27910,7 @@
         <v>0.20918367346938785</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="15">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>44418</v>
       </c>
@@ -27941,7 +27960,7 @@
         <v>0.11702127659574472</v>
       </c>
     </row>
-    <row r="172" spans="1:33" ht="15">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>44419</v>
       </c>
@@ -27991,7 +28010,7 @@
         <v>0.29807692307692318</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="15">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>44420</v>
       </c>
@@ -28041,7 +28060,7 @@
         <v>-0.17154811715481177</v>
       </c>
     </row>
-    <row r="174" spans="1:33" ht="15">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>44423</v>
       </c>
@@ -28091,7 +28110,7 @@
         <v>-0.13716814159292029</v>
       </c>
     </row>
-    <row r="175" spans="1:33" ht="15">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>44424</v>
       </c>
@@ -28141,7 +28160,7 @@
         <v>-3.6199095022624493E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:33" ht="15">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>44425</v>
       </c>
@@ -28191,7 +28210,7 @@
         <v>-0.59900990099009899</v>
       </c>
     </row>
-    <row r="177" spans="1:33" ht="15">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>44426</v>
       </c>
@@ -28241,7 +28260,7 @@
         <v>0.26993865030674841</v>
       </c>
     </row>
-    <row r="178" spans="1:33" ht="15">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>44427</v>
       </c>
@@ -28291,7 +28310,7 @@
         <v>-0.1736526946107784</v>
       </c>
     </row>
-    <row r="179" spans="1:33" ht="15">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" s="98">
         <v>44428</v>
       </c>
@@ -28359,7 +28378,7 @@
         <v>-2.8169014084507091E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" ht="15">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>44431</v>
       </c>
@@ -28409,7 +28428,7 @@
         <v>1.2732919254658388</v>
       </c>
     </row>
-    <row r="181" spans="1:33" ht="15">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>44432</v>
       </c>
@@ -28459,7 +28478,7 @@
         <v>-7.4766355140186855E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:33" ht="15">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>44433</v>
       </c>
@@ -28509,7 +28528,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:33" ht="15">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>44434</v>
       </c>
@@ -28559,7 +28578,7 @@
         <v>-0.39776951672862459</v>
       </c>
     </row>
-    <row r="184" spans="1:33" ht="15">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>44435</v>
       </c>
@@ -28609,7 +28628,7 @@
         <v>8.9552238805970144E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:33" ht="15">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>44438</v>
       </c>
@@ -28659,7 +28678,7 @@
         <v>0.11057692307692316</v>
       </c>
     </row>
-    <row r="186" spans="1:33" ht="15">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>44439</v>
       </c>
@@ -28709,7 +28728,7 @@
         <v>0.16176470588235295</v>
       </c>
     </row>
-    <row r="187" spans="1:33" ht="15">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
         <v>44440</v>
       </c>
@@ -28759,7 +28778,7 @@
         <v>-0.14847161572052398</v>
       </c>
     </row>
-    <row r="188" spans="1:33" ht="15">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>44441</v>
       </c>
@@ -28809,7 +28828,7 @@
         <v>0.47963800904977366</v>
       </c>
     </row>
-    <row r="189" spans="1:33" ht="15">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>44442</v>
       </c>
@@ -28859,7 +28878,7 @@
         <v>-0.38339920948616596</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="15">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>44445</v>
       </c>
@@ -28909,7 +28928,7 @@
         <v>4.8672566371681485E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="15">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>44446</v>
       </c>
@@ -28959,7 +28978,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="192" spans="1:33" ht="15">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>44447</v>
       </c>
@@ -29009,7 +29028,7 @@
         <v>0.18141592920353991</v>
       </c>
     </row>
-    <row r="193" spans="1:33" ht="15">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>44448</v>
       </c>
@@ -29059,7 +29078,7 @@
         <v>-0.19011406844106468</v>
       </c>
     </row>
-    <row r="194" spans="1:33" ht="15">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>44449</v>
       </c>
@@ -29109,7 +29128,7 @@
         <v>-0.37647058823529411</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="15">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>44452</v>
       </c>
@@ -29159,7 +29178,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="15">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>44453</v>
       </c>
@@ -29209,7 +29228,7 @@
         <v>-9.5693779904306275E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:33" ht="15">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>44454</v>
       </c>
@@ -29259,7 +29278,7 @@
         <v>0.34328358208955223</v>
       </c>
     </row>
-    <row r="198" spans="1:33" ht="15">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" s="98">
         <v>44455</v>
       </c>
@@ -29327,7 +29346,7 @@
         <v>-0.42016806722689071</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="15">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" s="98">
         <v>44456</v>
       </c>
@@ -29395,7 +29414,7 @@
         <v>-0.29145728643216073</v>
       </c>
     </row>
-    <row r="200" spans="1:33" ht="15">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>44461</v>
       </c>
@@ -29445,7 +29464,7 @@
         <v>0.57377049180327866</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="15">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>44462</v>
       </c>
@@ -29495,7 +29514,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:33" ht="15">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>44463</v>
       </c>
@@ -29545,7 +29564,7 @@
         <v>-0.419811320754717</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="15">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" s="98">
         <v>44466</v>
       </c>
@@ -29596,7 +29615,7 @@
         <v>-0.41747572815533984</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="15">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>44467</v>
       </c>
@@ -29646,7 +29665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="15">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" s="98">
         <v>44468</v>
       </c>
@@ -29697,7 +29716,7 @@
         <v>-0.64473684210526316</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="15">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>44469</v>
       </c>
@@ -29747,7 +29766,7 @@
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="207" spans="1:33" ht="15">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>44477</v>
       </c>
@@ -29797,7 +29816,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="208" spans="1:33" ht="15">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>44480</v>
       </c>
@@ -29847,7 +29866,7 @@
         <v>-0.10967741935483867</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="15">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>44481</v>
       </c>
@@ -29897,7 +29916,7 @@
         <v>-0.42622950819672129</v>
       </c>
     </row>
-    <row r="210" spans="1:33" ht="15">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>44482</v>
       </c>
@@ -29947,7 +29966,7 @@
         <v>0.17931034482758615</v>
       </c>
     </row>
-    <row r="211" spans="1:33" ht="15">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>44483</v>
       </c>
@@ -29997,7 +30016,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="212" spans="1:33" ht="15">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>44484</v>
       </c>
@@ -30047,7 +30066,7 @@
         <v>-0.47590361445783136</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="15">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>44487</v>
       </c>
@@ -30097,7 +30116,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:33">
+    <row r="214" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>44488</v>
       </c>
@@ -30147,7 +30166,7 @@
         <v>0.11235955056179771</v>
       </c>
     </row>
-    <row r="215" spans="1:33">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>44489</v>
       </c>
@@ -30197,7 +30216,7 @@
         <v>-0.15294117647058819</v>
       </c>
     </row>
-    <row r="216" spans="1:33">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>44490</v>
       </c>
@@ -30247,7 +30266,7 @@
         <v>-0.36507936507936506</v>
       </c>
     </row>
-    <row r="217" spans="1:33">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>44491</v>
       </c>
@@ -30297,7 +30316,7 @@
         <v>-0.24025974025974028</v>
       </c>
     </row>
-    <row r="218" spans="1:33">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>44494</v>
       </c>
@@ -30347,7 +30366,7 @@
         <v>0.51181102362204711</v>
       </c>
     </row>
-    <row r="219" spans="1:33">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>44495</v>
       </c>
@@ -30397,7 +30416,7 @@
         <v>-0.34965034965034963</v>
       </c>
     </row>
-    <row r="220" spans="1:33">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>44496</v>
       </c>
@@ -30447,7 +30466,7 @@
         <v>-8.2089552238805916E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>44497</v>
       </c>
@@ -30497,7 +30516,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="222" spans="1:33">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>44498</v>
       </c>
@@ -30547,7 +30566,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="223" spans="1:33">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>44501</v>
       </c>
@@ -30597,7 +30616,7 @@
         <v>0.84459459459459452</v>
       </c>
     </row>
-    <row r="224" spans="1:33">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>44502</v>
       </c>
@@ -30647,7 +30666,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:33">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>44503</v>
       </c>
@@ -30697,7 +30716,7 @@
         <v>-0.30541871921182273</v>
       </c>
     </row>
-    <row r="226" spans="1:33">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>44504</v>
       </c>
@@ -30747,7 +30766,7 @@
         <v>0.59890109890109899</v>
       </c>
     </row>
-    <row r="227" spans="1:33">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A227" s="19">
         <v>44505</v>
       </c>
@@ -30797,7 +30816,7 @@
         <v>-0.20212765957446804</v>
       </c>
     </row>
-    <row r="228" spans="1:33">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>44508</v>
       </c>
@@ -30847,7 +30866,7 @@
         <v>-0.1185567010309279</v>
       </c>
     </row>
-    <row r="229" spans="1:33">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>44509</v>
       </c>
@@ -30897,7 +30916,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="230" spans="1:33">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>44510</v>
       </c>
@@ -30947,7 +30966,7 @@
         <v>-0.15568862275449097</v>
       </c>
     </row>
-    <row r="231" spans="1:33">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>44511</v>
       </c>
@@ -30997,7 +31016,7 @@
         <v>0.29878048780487809</v>
       </c>
     </row>
-    <row r="232" spans="1:33">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>44512</v>
       </c>
@@ -31047,7 +31066,7 @@
         <v>0.41573033707865165</v>
       </c>
     </row>
-    <row r="233" spans="1:33">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>44515</v>
       </c>
@@ -31097,7 +31116,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="234" spans="1:33">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>44516</v>
       </c>
@@ -31147,7 +31166,7 @@
         <v>-0.22413793103448271</v>
       </c>
     </row>
-    <row r="235" spans="1:33">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>44517</v>
       </c>
@@ -31197,7 +31216,7 @@
         <v>0.27601809954751122</v>
       </c>
     </row>
-    <row r="236" spans="1:33">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>44518</v>
       </c>
@@ -31247,7 +31266,7 @@
         <v>-0.33766233766233766</v>
       </c>
     </row>
-    <row r="237" spans="1:33">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>44519</v>
       </c>
@@ -31297,7 +31316,7 @@
         <v>9.7560975609756791E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:33">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>44522</v>
       </c>
@@ -31347,7 +31366,7 @@
         <v>0.21962616822429915</v>
       </c>
     </row>
-    <row r="239" spans="1:33">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>44523</v>
       </c>
@@ -31397,7 +31416,7 @@
         <v>-0.14492753623188406</v>
       </c>
     </row>
-    <row r="240" spans="1:33">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A240" s="19">
         <v>44524</v>
       </c>
@@ -31447,7 +31466,7 @@
         <v>8.8372093023255743E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:33">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>44525</v>
       </c>
@@ -31497,7 +31516,7 @@
         <v>-0.22321428571428575</v>
       </c>
     </row>
-    <row r="242" spans="1:33">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>44526</v>
       </c>
@@ -31547,7 +31566,7 @@
         <v>-0.2153846153846154</v>
       </c>
     </row>
-    <row r="243" spans="1:33">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A243" s="19">
         <v>44529</v>
       </c>
@@ -31597,7 +31616,7 @@
         <v>0.12299465240641708</v>
       </c>
     </row>
-    <row r="244" spans="1:33">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A244" s="19">
         <v>44530</v>
       </c>
@@ -31647,7 +31666,7 @@
         <v>0.17318435754189948</v>
       </c>
     </row>
-    <row r="245" spans="1:33">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A245" s="19">
         <v>44531</v>
       </c>
@@ -31697,7 +31716,7 @@
         <v>0.33507853403141369</v>
       </c>
     </row>
-    <row r="246" spans="1:33">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A246" s="19">
         <v>44532</v>
       </c>
@@ -31747,7 +31766,7 @@
         <v>-0.30666666666666664</v>
       </c>
     </row>
-    <row r="247" spans="1:33">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A247" s="19">
         <v>44533</v>
       </c>
@@ -31797,7 +31816,7 @@
         <v>-0.20289855072463769</v>
       </c>
     </row>
-    <row r="248" spans="1:33">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A248" s="19">
         <v>44536</v>
       </c>
@@ -31847,7 +31866,7 @@
         <v>-0.390625</v>
       </c>
     </row>
-    <row r="249" spans="1:33">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A249" s="19">
         <v>44537</v>
       </c>
@@ -31897,7 +31916,7 @@
         <v>4.7945205479452108E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:33">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A250" s="19">
         <v>44538</v>
       </c>
@@ -31947,7 +31966,7 @@
         <v>0.69655172413793098</v>
       </c>
     </row>
-    <row r="251" spans="1:33">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A251" s="19">
         <v>44539</v>
       </c>
@@ -31997,7 +32016,7 @@
         <v>0.18604651162790692</v>
       </c>
     </row>
-    <row r="252" spans="1:33">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A252" s="19">
         <v>44540</v>
       </c>
@@ -32047,7 +32066,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:33">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A253" s="19">
         <v>44543</v>
       </c>
@@ -32097,7 +32116,7 @@
         <v>8.7155963302752229E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:33">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A254" s="19">
         <v>44544</v>
       </c>
@@ -32147,7 +32166,7 @@
         <v>0.2976744186046511</v>
       </c>
     </row>
-    <row r="255" spans="1:33">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A255" s="19">
         <v>44545</v>
       </c>
@@ -32197,7 +32216,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:33">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
         <v>44546</v>
       </c>
@@ -32247,7 +32266,7 @@
         <v>5.1792828685258904E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:33">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A257" s="19">
         <v>44547</v>
       </c>
@@ -32297,7 +32316,7 @@
         <v>-1.9230769230769284E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:33">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A258" s="19">
         <v>44550</v>
       </c>
@@ -32347,7 +32366,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:33">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" s="19">
         <v>44551</v>
       </c>
@@ -32397,7 +32416,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:33">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" s="19">
         <v>44552</v>
       </c>
@@ -32447,7 +32466,7 @@
         <v>-0.27812500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:33">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" s="19">
         <v>44553</v>
       </c>
@@ -32497,7 +32516,7 @@
         <v>-0.32692307692307693</v>
       </c>
     </row>
-    <row r="262" spans="1:33">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" s="19">
         <v>44554</v>
       </c>
@@ -32547,7 +32566,7 @@
         <v>-0.45936395759717313</v>
       </c>
     </row>
-    <row r="263" spans="1:33">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" s="19">
         <v>44557</v>
       </c>
@@ -32597,7 +32616,7 @@
         <v>-6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:33">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" s="19">
         <v>44558</v>
       </c>
@@ -32647,7 +32666,7 @@
         <v>-3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:33">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" s="19">
         <v>44559</v>
       </c>
@@ -32697,7 +32716,7 @@
         <v>9.8837209302325535E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:33">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" s="19">
         <v>44560</v>
       </c>
@@ -32747,7 +32766,7 @@
         <v>0.40217391304347822</v>
       </c>
     </row>
-    <row r="267" spans="1:33">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" s="19">
         <v>44561</v>
       </c>
@@ -32797,7 +32816,7 @@
         <v>-0.16346153846153841</v>
       </c>
     </row>
-    <row r="268" spans="1:33">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" s="19">
         <v>44565</v>
       </c>
@@ -32847,7 +32866,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="269" spans="1:33">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A269" s="19">
         <v>44566</v>
       </c>
@@ -32897,7 +32916,7 @@
         <v>-0.39240506329113922</v>
       </c>
     </row>
-    <row r="270" spans="1:33">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A270" s="19">
         <v>44567</v>
       </c>
@@ -32947,7 +32966,7 @@
         <v>0.25125628140703526</v>
       </c>
     </row>
-    <row r="271" spans="1:33">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A271" s="19">
         <v>44568</v>
       </c>
@@ -32997,7 +33016,7 @@
         <v>-0.4241071428571429</v>
       </c>
     </row>
-    <row r="272" spans="1:33">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A272" s="108">
         <v>44571</v>
       </c>
@@ -33023,7 +33042,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="110">
-        <f t="shared" ref="I272:I325" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I326" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="110">
@@ -33065,7 +33084,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="273" spans="1:33">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A273" s="108">
         <v>44572</v>
       </c>
@@ -33133,7 +33152,7 @@
         <v>-0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:33">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A274" s="108">
         <v>44573</v>
       </c>
@@ -33183,7 +33202,7 @@
         <v>0.63313609467455612</v>
       </c>
     </row>
-    <row r="275" spans="1:33">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A275" s="108">
         <v>44574</v>
       </c>
@@ -33251,7 +33270,7 @@
         <v>-0.22935779816513766</v>
       </c>
     </row>
-    <row r="276" spans="1:33">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A276" s="108">
         <v>44575</v>
       </c>
@@ -33319,7 +33338,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:33">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A277" s="108">
         <v>44578</v>
       </c>
@@ -33387,7 +33406,7 @@
         <v>0.47297297297297297</v>
       </c>
     </row>
-    <row r="278" spans="1:33">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A278" s="19">
         <v>44579</v>
       </c>
@@ -33437,7 +33456,7 @@
         <v>-0.4853556485355649</v>
       </c>
     </row>
-    <row r="279" spans="1:33">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A279" s="19">
         <v>44580</v>
       </c>
@@ -33487,7 +33506,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="280" spans="1:33">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A280" s="19">
         <v>44581</v>
       </c>
@@ -33537,7 +33556,7 @@
         <v>-0.38834951456310685</v>
       </c>
     </row>
-    <row r="281" spans="1:33">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A281" s="19">
         <v>44582</v>
       </c>
@@ -33587,7 +33606,7 @@
         <v>3.5971223021582684E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:33">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A282" s="19">
         <v>44585</v>
       </c>
@@ -33637,7 +33656,7 @@
         <v>0.10958904109589046</v>
       </c>
     </row>
-    <row r="283" spans="1:33">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A283" s="19">
         <v>44586</v>
       </c>
@@ -33687,7 +33706,7 @@
         <v>-0.47916666666666669</v>
       </c>
     </row>
-    <row r="284" spans="1:33">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A284" s="19">
         <v>44587</v>
       </c>
@@ -33737,7 +33756,7 @@
         <v>0.20472440944881884</v>
       </c>
     </row>
-    <row r="285" spans="1:33">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A285" s="19">
         <v>44588</v>
       </c>
@@ -33787,7 +33806,7 @@
         <v>-0.70000000000000007</v>
       </c>
     </row>
-    <row r="286" spans="1:33">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A286" s="19">
         <v>44589</v>
       </c>
@@ -33837,7 +33856,7 @@
         <v>0.88764044943820219</v>
       </c>
     </row>
-    <row r="287" spans="1:33">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A287" s="19">
         <v>44599</v>
       </c>
@@ -33887,7 +33906,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:33">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A288" s="19">
         <v>44600</v>
       </c>
@@ -33937,7 +33956,7 @@
         <v>0.87741935483870981</v>
       </c>
     </row>
-    <row r="289" spans="1:33">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A289" s="19">
         <v>44601</v>
       </c>
@@ -33987,7 +34006,7 @@
         <v>0.20502092050209197</v>
       </c>
     </row>
-    <row r="290" spans="1:33">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A290" s="19">
         <v>44602</v>
       </c>
@@ -34037,7 +34056,7 @@
         <v>-0.39784946236559138</v>
       </c>
     </row>
-    <row r="291" spans="1:33">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>44603</v>
       </c>
@@ -34087,7 +34106,7 @@
         <v>-0.38554216867469882</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="18">
+    <row r="292" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="19">
         <v>44606</v>
       </c>
@@ -34117,10 +34136,10 @@
         <v>75</v>
       </c>
       <c r="J292" s="21">
-        <v>1</v>
+        <v>2.83</v>
       </c>
       <c r="K292" s="21">
-        <v>1</v>
+        <v>2.58</v>
       </c>
       <c r="T292" s="114">
         <v>6</v>
@@ -34147,7 +34166,7 @@
         <v>0.24137931034482749</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="18">
+    <row r="293" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="19">
         <v>44607</v>
       </c>
@@ -34177,10 +34196,10 @@
         <v>64.367816091954026</v>
       </c>
       <c r="J293" s="21">
-        <v>1</v>
+        <v>3.31</v>
       </c>
       <c r="K293" s="21">
-        <v>1</v>
+        <v>2.88</v>
       </c>
       <c r="T293" s="114">
         <v>4</v>
@@ -34207,7 +34226,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="18">
+    <row r="294" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="19">
         <v>44608</v>
       </c>
@@ -34237,10 +34256,10 @@
         <v>73.469387755102048</v>
       </c>
       <c r="J294" s="21">
-        <v>1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K294" s="21">
-        <v>1</v>
+        <v>2.39</v>
       </c>
       <c r="T294" s="114">
         <v>5</v>
@@ -34267,7 +34286,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="18">
+    <row r="295" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="19">
         <v>44609</v>
       </c>
@@ -34297,10 +34316,10 @@
         <v>52.325581395348841</v>
       </c>
       <c r="J295" s="21">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="K295" s="21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="T295" s="114">
         <v>4</v>
@@ -34327,7 +34346,7 @@
         <v>-0.36320754716981135</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="18">
+    <row r="296" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>44610</v>
       </c>
@@ -34357,10 +34376,10 @@
         <v>73.239436619718319</v>
       </c>
       <c r="J296" s="21">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="K296" s="21">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="T296" s="114">
         <v>5</v>
@@ -34387,7 +34406,7 @@
         <v>-9.826589595375719E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="18">
+    <row r="297" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>44613</v>
       </c>
@@ -34417,10 +34436,10 @@
         <v>85.470085470085465</v>
       </c>
       <c r="J297" s="21">
-        <v>1</v>
+        <v>7.36</v>
       </c>
       <c r="K297" s="21">
-        <v>1</v>
+        <v>5.28</v>
       </c>
       <c r="T297" s="114">
         <v>6</v>
@@ -34447,7 +34466,7 @@
         <v>0.7751479289940828</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="18">
+    <row r="298" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="19">
         <v>44614</v>
       </c>
@@ -34507,7 +34526,7 @@
         <v>-0.22335025380710666</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="18">
+    <row r="299" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>44615</v>
       </c>
@@ -34567,7 +34586,7 @@
         <v>0.31527093596059103</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="18">
+    <row r="300" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A300" s="19">
         <v>44616</v>
       </c>
@@ -34627,7 +34646,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="18">
+    <row r="301" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="19">
         <v>44617</v>
       </c>
@@ -34687,7 +34706,7 @@
         <v>1.1235955056179735E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="18">
+    <row r="302" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>44620</v>
       </c>
@@ -34747,7 +34766,7 @@
         <v>-0.27807486631016043</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="18">
+    <row r="303" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="19">
         <v>44621</v>
       </c>
@@ -34777,10 +34796,10 @@
         <v>76.811594202898547</v>
       </c>
       <c r="J303" s="21">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="K303" s="21">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="T303" s="114">
         <v>4</v>
@@ -34807,7 +34826,7 @@
         <v>0.11188811188811194</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="18">
+    <row r="304" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="19">
         <v>44622</v>
       </c>
@@ -34837,10 +34856,10 @@
         <v>83.116883116883116</v>
       </c>
       <c r="J304" s="21">
-        <v>1</v>
+        <v>3.74</v>
       </c>
       <c r="K304" s="21">
-        <v>1</v>
+        <v>2.46</v>
       </c>
       <c r="T304" s="114">
         <v>5</v>
@@ -34867,7 +34886,7 @@
         <v>0.21518987341772158</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="18">
+    <row r="305" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="19">
         <v>44623</v>
       </c>
@@ -34897,10 +34916,10 @@
         <v>76</v>
       </c>
       <c r="J305" s="21">
-        <v>1</v>
+        <v>-5.64</v>
       </c>
       <c r="K305" s="21">
-        <v>1</v>
+        <v>-5.36</v>
       </c>
       <c r="T305" s="114">
         <v>6</v>
@@ -34927,7 +34946,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="18">
+    <row r="306" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="19">
         <v>44624</v>
       </c>
@@ -34957,10 +34976,10 @@
         <v>64.285714285714292</v>
       </c>
       <c r="J306" s="21">
-        <v>1</v>
+        <v>-5.64</v>
       </c>
       <c r="K306" s="21">
-        <v>1</v>
+        <v>-5.52</v>
       </c>
       <c r="T306" s="114">
         <v>7</v>
@@ -34987,7 +35006,7 @@
         <v>-0.30051813471502586</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="18">
+    <row r="307" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="19">
         <v>44627</v>
       </c>
@@ -35017,10 +35036,10 @@
         <v>73.239436619718319</v>
       </c>
       <c r="J307" s="21">
-        <v>1</v>
+        <v>-4.82</v>
       </c>
       <c r="K307" s="21">
-        <v>1</v>
+        <v>-4.54</v>
       </c>
       <c r="T307" s="114">
         <v>7</v>
@@ -35047,7 +35066,7 @@
         <v>-0.15675675675675674</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="18">
+    <row r="308" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="19">
         <v>44628</v>
       </c>
@@ -35077,10 +35096,10 @@
         <v>38.888888888888893</v>
       </c>
       <c r="J308" s="21">
-        <v>1</v>
+        <v>-5.32</v>
       </c>
       <c r="K308" s="21">
-        <v>1</v>
+        <v>-5.29</v>
       </c>
       <c r="T308" s="114">
         <v>6</v>
@@ -35107,7 +35126,7 @@
         <v>-0.63583815028901736</v>
       </c>
     </row>
-    <row r="309" spans="1:33" ht="18">
+    <row r="309" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="19">
         <v>44629</v>
       </c>
@@ -35137,10 +35156,10 @@
         <v>67.64705882352942</v>
       </c>
       <c r="J309" s="21">
-        <v>1</v>
+        <v>-4.63</v>
       </c>
       <c r="K309" s="21">
-        <v>1</v>
+        <v>-4.42</v>
       </c>
       <c r="T309" s="114">
         <v>4</v>
@@ -35167,7 +35186,7 @@
         <v>0.16949152542372875</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="18">
+    <row r="310" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="19">
         <v>44630</v>
       </c>
@@ -35197,10 +35216,10 @@
         <v>68.292682926829272</v>
       </c>
       <c r="J310" s="21">
-        <v>1</v>
+        <v>-2.38</v>
       </c>
       <c r="K310" s="21">
-        <v>1</v>
+        <v>-3.04</v>
       </c>
       <c r="T310" s="114">
         <v>5</v>
@@ -35227,7 +35246,7 @@
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="18">
+    <row r="311" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="19">
         <v>44631</v>
       </c>
@@ -35257,10 +35276,10 @@
         <v>79.310344827586206</v>
       </c>
       <c r="J311" s="21">
-        <v>1</v>
+        <v>-2.48</v>
       </c>
       <c r="K311" s="21">
-        <v>1</v>
+        <v>-2.85</v>
       </c>
       <c r="T311" s="114">
         <v>6</v>
@@ -35287,7 +35306,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="18">
+    <row r="312" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="19">
         <v>44634</v>
       </c>
@@ -35317,10 +35336,10 @@
         <v>63.235294117647058</v>
       </c>
       <c r="J312" s="21">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="K312" s="21">
-        <v>1</v>
+        <v>-2.31</v>
       </c>
       <c r="T312" s="114">
         <v>4</v>
@@ -35347,7 +35366,7 @@
         <v>-0.35175879396984921</v>
       </c>
     </row>
-    <row r="313" spans="1:33" ht="18">
+    <row r="313" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="19">
         <v>44635</v>
       </c>
@@ -35377,10 +35396,10 @@
         <v>60</v>
       </c>
       <c r="J313" s="21">
-        <v>1</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="K313" s="21">
-        <v>1</v>
+        <v>-2.88</v>
       </c>
       <c r="T313" s="114">
         <v>5</v>
@@ -35407,7 +35426,7 @@
         <v>-0.54081632653061218</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="18">
+    <row r="314" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="19">
         <v>44636</v>
       </c>
@@ -35437,10 +35456,10 @@
         <v>86.092715231788077</v>
       </c>
       <c r="J314" s="21">
-        <v>1</v>
+        <v>-1.72</v>
       </c>
       <c r="K314" s="21">
-        <v>1</v>
+        <v>-0.83</v>
       </c>
       <c r="T314" s="114">
         <v>6</v>
@@ -35467,7 +35486,7 @@
         <v>1.7464788732394363</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="18">
+    <row r="315" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="19">
         <v>44637</v>
       </c>
@@ -35497,10 +35516,10 @@
         <v>62.658227848101269</v>
       </c>
       <c r="J315" s="21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="K315" s="21">
-        <v>1</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="T315" s="114">
         <v>5</v>
@@ -35527,7 +35546,7 @@
         <v>0.46305418719211811</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="18">
+    <row r="316" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="19">
         <v>44638</v>
       </c>
@@ -35557,10 +35576,10 @@
         <v>91.379310344827587</v>
       </c>
       <c r="J316" s="21">
-        <v>1</v>
+        <v>-0.35</v>
       </c>
       <c r="K316" s="21">
-        <v>1</v>
+        <v>-0.32</v>
       </c>
       <c r="T316" s="114">
         <v>6</v>
@@ -35587,7 +35606,7 @@
         <v>0.22779922779922787</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="18">
+    <row r="317" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="19">
         <v>44641</v>
       </c>
@@ -35617,10 +35636,10 @@
         <v>83.453237410071949</v>
       </c>
       <c r="J317" s="21">
-        <v>1</v>
+        <v>-0.73</v>
       </c>
       <c r="K317" s="21">
-        <v>1</v>
+        <v>-0.59</v>
       </c>
       <c r="T317" s="114">
         <v>6</v>
@@ -35647,7 +35666,7 @@
         <v>3.8805970149253688E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="18">
+    <row r="318" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="19">
         <v>44642</v>
       </c>
@@ -35677,10 +35696,10 @@
         <v>74.528301886792448</v>
       </c>
       <c r="J318" s="21">
-        <v>1</v>
+        <v>-0.27</v>
       </c>
       <c r="K318" s="21">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="T318" s="114">
         <v>7</v>
@@ -35707,7 +35726,7 @@
         <v>-0.26168224299065418</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="18">
+    <row r="319" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A319" s="19">
         <v>44643</v>
       </c>
@@ -35737,10 +35756,10 @@
         <v>66.34615384615384</v>
       </c>
       <c r="J319" s="21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="K319" s="21">
-        <v>1</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="T319" s="114">
         <v>7</v>
@@ -35767,7 +35786,7 @@
         <v>-0.3122923588039867</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="18">
+    <row r="320" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A320" s="19">
         <v>44644</v>
       </c>
@@ -35797,10 +35816,10 @@
         <v>70</v>
       </c>
       <c r="J320" s="21">
-        <v>1</v>
+        <v>-0.54</v>
       </c>
       <c r="K320" s="21">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="T320" s="114">
         <v>8</v>
@@ -35827,7 +35846,7 @@
         <v>-0.28409090909090912</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="18">
+    <row r="321" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A321" s="19">
         <v>44645</v>
       </c>
@@ -35857,10 +35876,10 @@
         <v>66.371681415929203</v>
       </c>
       <c r="J321" s="21">
-        <v>1</v>
+        <v>-1.36</v>
       </c>
       <c r="K321" s="21">
-        <v>1</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="T321" s="114">
         <v>9</v>
@@ -35887,7 +35906,7 @@
         <v>6.6350710900474008E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="18">
+    <row r="322" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A322" s="19">
         <v>44648</v>
       </c>
@@ -35947,7 +35966,7 @@
         <v>-0.10144927536231885</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="18">
+    <row r="323" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A323" s="19">
         <v>44649</v>
       </c>
@@ -36007,7 +36026,7 @@
         <v>-0.16000000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="18">
+    <row r="324" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A324" s="19">
         <v>44650</v>
       </c>
@@ -36067,7 +36086,7 @@
         <v>0.24352331606217625</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="18">
+    <row r="325" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A325" s="19">
         <v>44651</v>
       </c>
@@ -36127,15 +36146,66 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
+    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A326" s="19">
+        <v>44652</v>
+      </c>
+      <c r="B326" s="114">
+        <v>72</v>
+      </c>
+      <c r="C326" s="114">
+        <v>12</v>
+      </c>
+      <c r="D326" s="20">
+        <v>-19</v>
+      </c>
+      <c r="E326" s="20">
+        <v>-10</v>
+      </c>
+      <c r="F326" s="20">
+        <v>-276</v>
+      </c>
+      <c r="G326" s="20">
+        <v>-154</v>
+      </c>
+      <c r="H326" s="20">
+        <v>-250</v>
+      </c>
+      <c r="I326" s="21">
+        <f t="shared" si="26"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="J326" s="114">
+        <v>2.27</v>
+      </c>
+      <c r="K326" s="114">
+        <v>0.03</v>
+      </c>
+      <c r="L326" s="114">
+        <v>6</v>
+      </c>
+      <c r="M326" s="114">
+        <v>4</v>
+      </c>
+      <c r="T326" s="22">
+        <v>6</v>
+      </c>
+      <c r="U326" s="23">
+        <v>4</v>
+      </c>
+      <c r="AF326" s="26">
+        <f t="shared" ref="AF326" si="31">(B323+B324+B325)/3</f>
+        <v>63.666666666666664</v>
+      </c>
+      <c r="AG326" s="27">
+        <f t="shared" ref="AG326" si="32">(B326-AF326)/AF326</f>
+        <v>0.130890052356021</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -36147,35 +36217,35 @@
       <selection activeCell="ZA6150" sqref="ZA6150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="7" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="24.83203125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.140625" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" customWidth="1"/>
+    <col min="24" max="24" width="32.1640625" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" customWidth="1"/>
+    <col min="26" max="26" width="29.5" customWidth="1"/>
+    <col min="27" max="27" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="22">
+    <row r="2" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44305</v>
       </c>
@@ -36258,7 +36328,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="27">
+    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -36341,7 +36411,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="27">
+    <row r="4" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>43</v>
@@ -36422,7 +36492,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="27">
+    <row r="5" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -36501,7 +36571,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="27">
+    <row r="6" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -36578,7 +36648,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="27">
+    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -36649,7 +36719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="27">
+    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -36720,7 +36790,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="22">
+    <row r="9" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -36765,7 +36835,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="22">
+    <row r="10" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -36812,7 +36882,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="22">
+    <row r="11" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -36859,7 +36929,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="27">
+    <row r="12" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -36912,7 +36982,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="22">
+    <row r="13" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -36963,7 +37033,7 @@
       </c>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="22">
+    <row r="14" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -37012,7 +37082,7 @@
         <v>-5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="22">
+    <row r="15" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -37059,7 +37129,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="22">
+    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -37098,7 +37168,7 @@
         <v>-2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="22">
+    <row r="17" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -37137,7 +37207,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="22">
+    <row r="18" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -37177,10 +37247,5 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newhope_ghost/Documents/codeDir/github/stockDetailQuery/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1320" windowWidth="27040" windowHeight="21120"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="28120" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
     <sheet name="情绪数据" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1006,7 +1001,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2131,10 +2126,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$327</c:f>
+              <c:f>情绪数据!$T$2:$T$328</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3112,6 +3107,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,8 +3124,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099669840"/>
-        <c:axId val="2099672160"/>
+        <c:axId val="-2127557400"/>
+        <c:axId val="-2127553672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4204,10 +4202,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$327</c:f>
+              <c:f>情绪数据!$U$2:$U$328</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5184,6 +5182,9 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5201,8 +5202,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099669840"/>
-        <c:axId val="2099672160"/>
+        <c:axId val="-2127557400"/>
+        <c:axId val="-2127553672"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5235,10 +5236,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$328</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -6216,16 +6217,19 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$327</c:f>
+              <c:f>情绪数据!$J$2:$J$328</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7203,6 +7207,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7251,10 +7258,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$328</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -8232,16 +8239,19 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$327</c:f>
+              <c:f>情绪数据!$K$2:$K$328</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9219,6 +9229,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-2.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9235,11 +9248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099674480"/>
-        <c:axId val="2099677424"/>
+        <c:axId val="-2127549896"/>
+        <c:axId val="-2127546920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099669840"/>
+        <c:axId val="-2127557400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9307,7 +9320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099672160"/>
+        <c:crossAx val="-2127553672"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9315,7 +9328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099672160"/>
+        <c:axId val="-2127553672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9366,13 +9379,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099669840"/>
+        <c:crossAx val="-2127557400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2099674480"/>
+        <c:axId val="-2127549896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9382,7 +9395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099677424"/>
+        <c:crossAx val="-2127546920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9390,7 +9403,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099677424"/>
+        <c:axId val="-2127546920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9427,7 +9440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099674480"/>
+        <c:crossAx val="-2127549896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9531,10 +9544,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$328</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10512,16 +10525,19 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$327</c:f>
+              <c:f>情绪数据!$B$2:$B$328</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11499,6 +11515,9 @@
                 </c:pt>
                 <c:pt idx="325" formatCode="General">
                   <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11532,10 +11551,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$328</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12513,16 +12532,19 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$327</c:f>
+              <c:f>情绪数据!$C$2:$C$328</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13500,6 +13522,9 @@
                 </c:pt>
                 <c:pt idx="325" formatCode="General">
                   <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13513,8 +13538,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1656434752"/>
-        <c:axId val="1656437504"/>
+        <c:axId val="2107595880"/>
+        <c:axId val="-2126590280"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14533,10 +14558,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$327</c:f>
+              <c:f>情绪数据!$D$2:$D$328</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15514,6 +15539,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16534,10 +16562,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$327</c:f>
+              <c:f>情绪数据!$F$2:$F$328</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17515,6 +17543,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>-254.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-568.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17528,8 +17559,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1656439984"/>
-        <c:axId val="1656442464"/>
+        <c:axId val="-2126586536"/>
+        <c:axId val="-2126543112"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18549,10 +18580,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$327</c:f>
+              <c:f>情绪数据!$AF$2:$AF$328</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19530,6 +19561,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>69.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19546,11 +19580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1656434752"/>
-        <c:axId val="1656437504"/>
+        <c:axId val="2107595880"/>
+        <c:axId val="-2126590280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1656434752"/>
+        <c:axId val="2107595880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19618,7 +19652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656437504"/>
+        <c:crossAx val="-2126590280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19626,7 +19660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1656437504"/>
+        <c:axId val="-2126590280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -19675,12 +19709,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656434752"/>
+        <c:crossAx val="2107595880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1656439984"/>
+        <c:axId val="-2126586536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19690,7 +19724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1656442464"/>
+        <c:crossAx val="-2126543112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19698,7 +19732,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1656442464"/>
+        <c:axId val="-2126543112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -19734,7 +19768,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656439984"/>
+        <c:crossAx val="-2126586536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21211,31 +21245,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="BZ27" sqref="BZ27"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BZ35" sqref="BZ35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="33" spans="97:104" x14ac:dyDescent="0.2">
+    <row r="33" spans="97:104">
       <c r="CY33" s="18"/>
     </row>
-    <row r="34" spans="97:104" x14ac:dyDescent="0.2">
+    <row r="34" spans="97:104">
       <c r="CS34" s="18"/>
     </row>
-    <row r="37" spans="97:104" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="97:104" ht="15">
       <c r="CZ37" s="19"/>
     </row>
-    <row r="51" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="51" spans="98:103">
       <c r="CT51" s="18"/>
     </row>
-    <row r="53" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="53" spans="98:103">
       <c r="CT53" s="20"/>
     </row>
-    <row r="60" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="60" spans="98:103">
       <c r="CY60" s="21"/>
     </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="20:20">
       <c r="T70" t="s">
         <v>0</v>
       </c>
@@ -21245,27 +21279,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG329"/>
+  <dimension ref="A1:AG328"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H313" sqref="H313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="37" customWidth="1"/>
     <col min="2" max="3" width="8" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="38" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="38" customWidth="1"/>
     <col min="8" max="8" width="8" style="38" customWidth="1"/>
-    <col min="9" max="19" width="8" style="39" customWidth="1"/>
+    <col min="9" max="11" width="8" style="39" customWidth="1"/>
+    <col min="12" max="19" width="8" style="39" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="8" style="94"/>
     <col min="21" max="21" width="8" style="43" customWidth="1"/>
     <col min="22" max="22" width="8" style="42" hidden="1" customWidth="1"/>
@@ -21274,12 +21314,12 @@
     <col min="25" max="29" width="8" style="43" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="8" style="108" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="109" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="110" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" style="110" customWidth="1"/>
     <col min="34" max="34" width="10" style="43" customWidth="1"/>
     <col min="35" max="16384" width="8" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -21370,7 +21410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="15">
       <c r="A2" s="37">
         <v>44165</v>
       </c>
@@ -21420,7 +21460,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="15">
       <c r="A3" s="37">
         <v>44166</v>
       </c>
@@ -21470,7 +21510,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15">
       <c r="A4" s="37">
         <v>44167</v>
       </c>
@@ -21520,7 +21560,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15">
       <c r="A5" s="37">
         <v>44168</v>
       </c>
@@ -21570,7 +21610,7 @@
         <v>9.5652173913043412E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15">
       <c r="A6" s="37">
         <v>44169</v>
       </c>
@@ -21620,7 +21660,7 @@
         <v>-0.24427480916030531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="15">
       <c r="A7" s="37">
         <v>44172</v>
       </c>
@@ -21670,7 +21710,7 @@
         <v>-0.21311475409836061</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15">
       <c r="A8" s="37">
         <v>44173</v>
       </c>
@@ -21720,7 +21760,7 @@
         <v>-0.15887850467289713</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15">
       <c r="A9" s="37">
         <v>44174</v>
       </c>
@@ -21770,7 +21810,7 @@
         <v>-5.263157894736846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="15">
       <c r="A10" s="37">
         <v>44175</v>
       </c>
@@ -21820,7 +21860,7 @@
         <v>-8.6956521739130474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15">
       <c r="A11" s="37">
         <v>44176</v>
       </c>
@@ -21870,7 +21910,7 @@
         <v>-0.35227272727272724</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15">
       <c r="A12" s="37">
         <v>44179</v>
       </c>
@@ -21920,7 +21960,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="15">
       <c r="A13" s="37">
         <v>44180</v>
       </c>
@@ -21970,7 +22010,7 @@
         <v>-4.3956043956043918E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="15">
       <c r="A14" s="37">
         <v>44181</v>
       </c>
@@ -22020,7 +22060,7 @@
         <v>-0.28260869565217395</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15">
       <c r="A15" s="37">
         <v>44182</v>
       </c>
@@ -22070,7 +22110,7 @@
         <v>0.42105263157894729</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15">
       <c r="A16" s="37">
         <v>44183</v>
       </c>
@@ -22120,7 +22160,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15">
       <c r="A17" s="37">
         <v>44186</v>
       </c>
@@ -22170,7 +22210,7 @@
         <v>0.4423076923076924</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15">
       <c r="A18" s="37">
         <v>44187</v>
       </c>
@@ -22220,7 +22260,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="15">
       <c r="A19" s="37">
         <v>44188</v>
       </c>
@@ -22270,7 +22310,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="15">
       <c r="A20" s="37">
         <v>44189</v>
       </c>
@@ -22320,7 +22360,7 @@
         <v>-0.19402985074626861</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15">
       <c r="A21" s="37">
         <v>44190</v>
       </c>
@@ -22370,7 +22410,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15">
       <c r="A22" s="37">
         <v>44193</v>
       </c>
@@ -22420,7 +22460,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15">
       <c r="A23" s="37">
         <v>44194</v>
       </c>
@@ -22470,7 +22510,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="15">
       <c r="A24" s="37">
         <v>44195</v>
       </c>
@@ -22520,7 +22560,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="15">
       <c r="A25" s="37">
         <v>44196</v>
       </c>
@@ -22570,7 +22610,7 @@
         <v>-5.5248618784530426E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="15">
       <c r="A26" s="37">
         <v>44200</v>
       </c>
@@ -22620,7 +22660,7 @@
         <v>0.8033707865168539</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15">
       <c r="A27" s="37">
         <v>44201</v>
       </c>
@@ -22670,7 +22710,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15">
       <c r="A28" s="37">
         <v>44202</v>
       </c>
@@ -22720,7 +22760,7 @@
         <v>-0.42738589211618255</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="15">
       <c r="A29" s="37">
         <v>44203</v>
       </c>
@@ -22770,7 +22810,7 @@
         <v>-0.58260869565217399</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="15">
       <c r="A30" s="37">
         <v>44204</v>
       </c>
@@ -22820,7 +22860,7 @@
         <v>-5.161290322580641E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="15">
       <c r="A31" s="37">
         <v>44207</v>
       </c>
@@ -22870,7 +22910,7 @@
         <v>-5.5118110236220527E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="15">
       <c r="A32" s="37">
         <v>44208</v>
       </c>
@@ -22920,7 +22960,7 @@
         <v>0.73553719008264451</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="15">
       <c r="A33" s="37">
         <v>44209</v>
       </c>
@@ -22970,7 +23010,7 @@
         <v>-0.26415094339622641</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="15">
       <c r="A34" s="37">
         <v>44210</v>
       </c>
@@ -23020,7 +23060,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="15">
       <c r="A35" s="37">
         <v>44211</v>
       </c>
@@ -23070,7 +23110,7 @@
         <v>0.31460674157303364</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="15">
       <c r="A36" s="37">
         <v>44214</v>
       </c>
@@ -23120,7 +23160,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="15">
       <c r="A37" s="37">
         <v>44215</v>
       </c>
@@ -23170,7 +23210,7 @@
         <v>-7.2033898305084804E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="15">
       <c r="A38" s="37">
         <v>44216</v>
       </c>
@@ -23220,7 +23260,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="15">
       <c r="A39" s="37">
         <v>44217</v>
       </c>
@@ -23270,7 +23310,7 @@
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="15">
       <c r="A40" s="37">
         <v>44218</v>
       </c>
@@ -23320,7 +23360,7 @@
         <v>-0.34955752212389374</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="15">
       <c r="A41" s="37">
         <v>44221</v>
       </c>
@@ -23370,7 +23410,7 @@
         <v>-0.31683168316831678</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="15">
       <c r="A42" s="37">
         <v>44222</v>
       </c>
@@ -23420,7 +23460,7 @@
         <v>-0.11560693641618494</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="15">
       <c r="A43" s="37">
         <v>44223</v>
       </c>
@@ -23470,7 +23510,7 @@
         <v>0.27397260273972607</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="15">
       <c r="A44" s="37">
         <v>44224</v>
       </c>
@@ -23520,7 +23560,7 @@
         <v>-0.20754716981132076</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="15">
       <c r="A45" s="37">
         <v>44225</v>
       </c>
@@ -23570,7 +23610,7 @@
         <v>-0.38064516129032255</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="15">
       <c r="A46" s="37">
         <v>44228</v>
       </c>
@@ -23620,7 +23660,7 @@
         <v>0.80882352941176461</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="15">
       <c r="A47" s="37">
         <v>44229</v>
       </c>
@@ -23670,7 +23710,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="15">
       <c r="A48" s="37">
         <v>44230</v>
       </c>
@@ -23720,7 +23760,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="15">
       <c r="A49" s="37">
         <v>44231</v>
       </c>
@@ -23770,7 +23810,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="15">
       <c r="A50" s="37">
         <v>44232</v>
       </c>
@@ -23820,7 +23860,7 @@
         <v>-0.11184210526315785</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="15">
       <c r="A51" s="37">
         <v>44235</v>
       </c>
@@ -23870,7 +23910,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="15">
       <c r="A52" s="37">
         <v>44236</v>
       </c>
@@ -23920,7 +23960,7 @@
         <v>0.34482758620689646</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="15">
       <c r="A53" s="37">
         <v>44237</v>
       </c>
@@ -23970,7 +24010,7 @@
         <v>-0.29090909090909089</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="15">
       <c r="A54" s="37">
         <v>44245</v>
       </c>
@@ -24020,7 +24060,7 @@
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="15">
       <c r="A55" s="37">
         <v>44246</v>
       </c>
@@ -24070,7 +24110,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="15">
       <c r="A56" s="37">
         <v>44249</v>
       </c>
@@ -24120,7 +24160,7 @@
         <v>4.1841004184099825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="15">
       <c r="A57" s="37">
         <v>44250</v>
       </c>
@@ -24170,7 +24210,7 @@
         <v>-0.43214285714285711</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="15">
       <c r="A58" s="37">
         <v>44251</v>
       </c>
@@ -24220,7 +24260,7 @@
         <v>-0.45922746781115881</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="15">
       <c r="A59" s="37">
         <v>44252</v>
       </c>
@@ -24270,7 +24310,7 @@
         <v>-0.29714285714285715</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="15">
       <c r="A60" s="37">
         <v>44253</v>
       </c>
@@ -24320,7 +24360,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="15">
       <c r="A61" s="44">
         <v>44256</v>
       </c>
@@ -24388,7 +24428,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="15">
       <c r="A62" s="51">
         <v>44257</v>
       </c>
@@ -24456,7 +24496,7 @@
         <v>-0.32317073170731703</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="15">
       <c r="A63" s="37">
         <v>44258</v>
       </c>
@@ -24506,7 +24546,7 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="15">
       <c r="A64" s="37">
         <v>44259</v>
       </c>
@@ -24556,7 +24596,7 @@
         <v>-0.37623762376237618</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="15">
       <c r="A65" s="37">
         <v>44260</v>
       </c>
@@ -24606,7 +24646,7 @@
         <v>0.14374999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="15">
       <c r="A66" s="37">
         <v>44263</v>
       </c>
@@ -24656,7 +24696,7 @@
         <v>-0.13586956521739132</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="15">
       <c r="A67" s="37">
         <v>44264</v>
       </c>
@@ -24706,7 +24746,7 @@
         <v>-0.34615384615384615</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="15">
       <c r="A68" s="37">
         <v>44265</v>
       </c>
@@ -24756,7 +24796,7 @@
         <v>-0.33108108108108109</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="15">
       <c r="A69" s="37">
         <v>44266</v>
       </c>
@@ -24806,7 +24846,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="15">
       <c r="A70" s="37">
         <v>44267</v>
       </c>
@@ -24856,7 +24896,7 @@
         <v>3.6764705882352887E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="15">
       <c r="A71" s="37">
         <v>44270</v>
       </c>
@@ -24906,7 +24946,7 @@
         <v>-7.3825503355704647E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="15">
       <c r="A72" s="37">
         <v>44271</v>
       </c>
@@ -24956,7 +24996,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="15">
       <c r="A73" s="37">
         <v>44272</v>
       </c>
@@ -25006,7 +25046,7 @@
         <v>7.006369426751588E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="15">
       <c r="A74" s="37">
         <v>44273</v>
       </c>
@@ -25056,7 +25096,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="15">
       <c r="A75" s="37">
         <v>44274</v>
       </c>
@@ -25106,7 +25146,7 @@
         <v>-9.4972067039106114E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="15">
       <c r="A76" s="37">
         <v>44277</v>
       </c>
@@ -25156,7 +25196,7 @@
         <v>0.4201183431952662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="15">
       <c r="A77" s="37">
         <v>44278</v>
       </c>
@@ -25206,7 +25246,7 @@
         <v>-0.26943005181347146</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="15">
       <c r="A78" s="37">
         <v>44279</v>
       </c>
@@ -25256,7 +25296,7 @@
         <v>-7.1823204419889541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="15">
       <c r="A79" s="37">
         <v>44280</v>
       </c>
@@ -25306,7 +25346,7 @@
         <v>-0.29508196721311475</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="15">
       <c r="A80" s="37">
         <v>44281</v>
       </c>
@@ -25356,7 +25396,7 @@
         <v>0.47945205479452063</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="15">
       <c r="A81" s="37">
         <v>44284</v>
       </c>
@@ -25406,7 +25446,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="15">
       <c r="A82" s="37">
         <v>44285</v>
       </c>
@@ -25456,7 +25496,7 @@
         <v>-2.7932960893854709E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="15">
       <c r="A83" s="37">
         <v>44286</v>
       </c>
@@ -25506,7 +25546,7 @@
         <v>0.12886597938144323</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="15">
       <c r="A84" s="37">
         <v>44287</v>
       </c>
@@ -25556,7 +25596,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="15">
       <c r="A85" s="37">
         <v>44288</v>
       </c>
@@ -25606,7 +25646,7 @@
         <v>4.9261083743841663E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="15">
       <c r="A86" s="37">
         <v>44292</v>
       </c>
@@ -25657,7 +25697,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="15">
       <c r="A87" s="37">
         <v>44293</v>
       </c>
@@ -25708,7 +25748,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="15">
       <c r="A88" s="58">
         <v>44294</v>
       </c>
@@ -25777,7 +25817,7 @@
         <v>-0.52564102564102566</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="15">
       <c r="A89" s="37">
         <v>44295</v>
       </c>
@@ -25828,7 +25868,7 @@
         <v>-0.18719211822660103</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="15">
       <c r="A90" s="37">
         <v>44298</v>
       </c>
@@ -25879,7 +25919,7 @@
         <v>5.4945054945054986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="15">
       <c r="A91" s="37">
         <v>44299</v>
       </c>
@@ -25930,7 +25970,7 @@
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="15">
       <c r="A92" s="37">
         <v>44300</v>
       </c>
@@ -25980,7 +26020,7 @@
         <v>0.12941176470588239</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="15">
       <c r="A93" s="58">
         <v>44301</v>
       </c>
@@ -26048,7 +26088,7 @@
         <v>-0.27932960893854747</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="15">
       <c r="A94" s="37">
         <v>44302</v>
       </c>
@@ -26098,7 +26138,7 @@
         <v>0.40506329113924056</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="15">
       <c r="A95" s="37">
         <v>44305</v>
       </c>
@@ -26148,7 +26188,7 @@
         <v>0.27624309392265189</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="15">
       <c r="A96" s="37">
         <v>44306</v>
       </c>
@@ -26198,7 +26238,7 @@
         <v>-0.365979381443299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="15">
       <c r="A97" s="37">
         <v>44307</v>
       </c>
@@ -26248,7 +26288,7 @@
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="15">
       <c r="A98" s="37">
         <v>44308</v>
       </c>
@@ -26298,7 +26338,7 @@
         <v>-0.21052631578947364</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="15">
       <c r="A99" s="37">
         <v>44309</v>
       </c>
@@ -26348,7 +26388,7 @@
         <v>-8.6956521739130488E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="15">
       <c r="A100" s="37">
         <v>44312</v>
       </c>
@@ -26398,7 +26438,7 @@
         <v>0.26605504587155954</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="15">
       <c r="A101" s="65">
         <v>44313</v>
       </c>
@@ -26466,7 +26506,7 @@
         <v>-5.7851239669421545E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="15">
       <c r="A102" s="37">
         <v>44314</v>
       </c>
@@ -26516,7 +26556,7 @@
         <v>0.51260504201680679</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" ht="15">
       <c r="A103" s="37">
         <v>44315</v>
       </c>
@@ -26566,7 +26606,7 @@
         <v>-8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" ht="15">
       <c r="A104" s="37">
         <v>44316</v>
       </c>
@@ -26616,7 +26656,7 @@
         <v>-0.15492957746478878</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" ht="15">
       <c r="A105" s="37">
         <v>44322</v>
       </c>
@@ -26666,7 +26706,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="15">
       <c r="A106" s="37">
         <v>44323</v>
       </c>
@@ -26716,7 +26756,7 @@
         <v>-9.1549295774647932E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="15">
       <c r="A107" s="72">
         <v>44326</v>
       </c>
@@ -26784,7 +26824,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="15">
       <c r="A108" s="37">
         <v>44327</v>
       </c>
@@ -26834,7 +26874,7 @@
         <v>-0.11475409836065574</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="15">
       <c r="A109" s="37">
         <v>44328</v>
       </c>
@@ -26884,7 +26924,7 @@
         <v>-0.2960893854748603</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" ht="15">
       <c r="A110" s="37">
         <v>44329</v>
       </c>
@@ -26934,7 +26974,7 @@
         <v>0.297752808988764</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" ht="15">
       <c r="A111" s="58">
         <v>44333</v>
       </c>
@@ -27002,7 +27042,7 @@
         <v>-0.44508670520231214</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" ht="15">
       <c r="A112" s="37">
         <v>44334</v>
       </c>
@@ -27052,7 +27092,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="15">
       <c r="A113" s="37">
         <v>44335</v>
       </c>
@@ -27102,7 +27142,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="15">
       <c r="A114" s="37">
         <v>44336</v>
       </c>
@@ -27152,7 +27192,7 @@
         <v>-0.10389610389610393</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="15">
       <c r="A115" s="37">
         <v>44337</v>
       </c>
@@ -27202,7 +27242,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="15">
       <c r="A116" s="37">
         <v>44340</v>
       </c>
@@ -27252,7 +27292,7 @@
         <v>4.3478260869565265E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="15">
       <c r="A117" s="37">
         <v>44341</v>
       </c>
@@ -27302,7 +27342,7 @@
         <v>-0.12195121951219508</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="15">
       <c r="A118" s="37">
         <v>44342</v>
       </c>
@@ -27352,7 +27392,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="15">
       <c r="A119" s="37">
         <v>44343</v>
       </c>
@@ -27402,7 +27442,7 @@
         <v>0.19631901840490792</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="15">
       <c r="A120" s="37">
         <v>44344</v>
       </c>
@@ -27452,7 +27492,7 @@
         <v>-0.16279069767441864</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="15">
       <c r="A121" s="37">
         <v>44347</v>
       </c>
@@ -27502,7 +27542,7 @@
         <v>0.48255813953488363</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="15">
       <c r="A122" s="37">
         <v>44348</v>
       </c>
@@ -27556,7 +27596,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="15">
       <c r="A123" s="65">
         <v>44349</v>
       </c>
@@ -27624,7 +27664,7 @@
         <v>-0.19000000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="15">
       <c r="A124" s="37">
         <v>44350</v>
       </c>
@@ -27674,7 +27714,7 @@
         <v>-8.2524271844660255E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="15">
       <c r="A125" s="37">
         <v>44351</v>
       </c>
@@ -27724,7 +27764,7 @@
         <v>-0.20108695652173916</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="15">
       <c r="A126" s="37">
         <v>44354</v>
       </c>
@@ -27774,7 +27814,7 @@
         <v>8.4337349397590314E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="15">
       <c r="A127" s="37">
         <v>44355</v>
       </c>
@@ -27824,7 +27864,7 @@
         <v>-7.5581395348837246E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="15">
       <c r="A128" s="37">
         <v>44356</v>
       </c>
@@ -27874,7 +27914,7 @@
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="15">
       <c r="A129" s="37">
         <v>44357</v>
       </c>
@@ -27924,7 +27964,7 @@
         <v>0.15243902439024395</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="15">
       <c r="A130" s="37">
         <v>44358</v>
       </c>
@@ -27974,7 +28014,7 @@
         <v>7.7844311377245554E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="15">
       <c r="A131" s="65">
         <v>44362</v>
       </c>
@@ -28042,7 +28082,7 @@
         <v>-0.34482758620689657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="15">
       <c r="A132" s="65">
         <v>44363</v>
       </c>
@@ -28092,7 +28132,7 @@
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="15">
       <c r="A133" s="37">
         <v>44364</v>
       </c>
@@ -28142,7 +28182,7 @@
         <v>0.10526315789473678</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="15">
       <c r="A134" s="37">
         <v>44365</v>
       </c>
@@ -28192,7 +28232,7 @@
         <v>0.4262295081967214</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="15">
       <c r="A135" s="37">
         <v>44368</v>
       </c>
@@ -28242,7 +28282,7 @@
         <v>0.45774647887323938</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="15">
       <c r="A136" s="37">
         <v>44369</v>
       </c>
@@ -28292,7 +28332,7 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="15">
       <c r="A137" s="37">
         <v>44370</v>
       </c>
@@ -28342,7 +28382,7 @@
         <v>-0.20725388601036263</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="15">
       <c r="A138" s="37">
         <v>44371</v>
       </c>
@@ -28392,7 +28432,7 @@
         <v>-0.11290322580645161</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="15">
       <c r="A139" s="37">
         <v>44372</v>
       </c>
@@ -28442,7 +28482,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="15">
       <c r="A140" s="37">
         <v>44375</v>
       </c>
@@ -28492,7 +28532,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="15">
       <c r="A141" s="37">
         <v>44376</v>
       </c>
@@ -28542,7 +28582,7 @@
         <v>-0.25433526011560692</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="15">
       <c r="A142" s="37">
         <v>44377</v>
       </c>
@@ -28592,7 +28632,7 @@
         <v>-4.9689440993788775E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="15">
       <c r="A143" s="37">
         <v>44378</v>
       </c>
@@ -28642,7 +28682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="15">
       <c r="A144" s="37">
         <v>44379</v>
       </c>
@@ -28692,7 +28732,7 @@
         <v>-0.26027397260273971</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" ht="15">
       <c r="A145" s="37">
         <v>44382</v>
       </c>
@@ -28742,7 +28782,7 @@
         <v>0.51079136690647475</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="15">
       <c r="A146" s="37">
         <v>44383</v>
       </c>
@@ -28792,7 +28832,7 @@
         <v>-0.27848101265822783</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" ht="15">
       <c r="A147" s="37">
         <v>44384</v>
       </c>
@@ -28842,7 +28882,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" ht="15">
       <c r="A148" s="37">
         <v>44385</v>
       </c>
@@ -28892,7 +28932,7 @@
         <v>-0.19298245614035087</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="15">
       <c r="A149" s="37">
         <v>44386</v>
       </c>
@@ -28942,7 +28982,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" ht="15">
       <c r="A150" s="37">
         <v>44389</v>
       </c>
@@ -28992,7 +29032,7 @@
         <v>0.43930635838150295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" ht="15">
       <c r="A151" s="37">
         <v>44390</v>
       </c>
@@ -29042,7 +29082,7 @@
         <v>-2.0725388601036197E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" ht="15">
       <c r="A152" s="37">
         <v>44391</v>
       </c>
@@ -29092,7 +29132,7 @@
         <v>-0.25714285714285712</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" ht="15">
       <c r="A153" s="37">
         <v>44392</v>
       </c>
@@ -29142,7 +29182,7 @@
         <v>-0.31818181818181818</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" ht="15">
       <c r="A154" s="37">
         <v>44393</v>
       </c>
@@ -29192,7 +29232,7 @@
         <v>-0.34375000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" ht="15">
       <c r="A155" s="37">
         <v>44396</v>
       </c>
@@ -29242,7 +29282,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" ht="15">
       <c r="A156" s="37">
         <v>44397</v>
       </c>
@@ -29292,7 +29332,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" ht="15">
       <c r="A157" s="37">
         <v>44398</v>
       </c>
@@ -29342,7 +29382,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="15">
       <c r="A158" s="37">
         <v>44399</v>
       </c>
@@ -29392,7 +29432,7 @@
         <v>-7.6923076923076886E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" ht="15">
       <c r="A159" s="37">
         <v>44400</v>
       </c>
@@ -29442,7 +29482,7 @@
         <v>-0.24193548387096775</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="15">
       <c r="A160" s="37">
         <v>44403</v>
       </c>
@@ -29492,7 +29532,7 @@
         <v>-0.40641711229946526</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" ht="15">
       <c r="A161" s="37">
         <v>44404</v>
       </c>
@@ -29542,7 +29582,7 @@
         <v>-0.44285714285714284</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" ht="15">
       <c r="A162" s="37">
         <v>44405</v>
       </c>
@@ -29592,7 +29632,7 @@
         <v>9.0909090909091564E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" ht="15">
       <c r="A163" s="37">
         <v>44406</v>
       </c>
@@ -29642,7 +29682,7 @@
         <v>2.4499999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" ht="15">
       <c r="A164" s="37">
         <v>44407</v>
       </c>
@@ -29692,7 +29732,7 @@
         <v>0.36516853932584264</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" ht="15">
       <c r="A165" s="37">
         <v>44410</v>
       </c>
@@ -29742,7 +29782,7 @@
         <v>0.23605150214592266</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" ht="15">
       <c r="A166" s="37">
         <v>44411</v>
       </c>
@@ -29792,7 +29832,7 @@
         <v>-0.45547945205479451</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" ht="15">
       <c r="A167" s="37">
         <v>44412</v>
       </c>
@@ -29842,7 +29882,7 @@
         <v>0.13478260869565212</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" ht="15">
       <c r="A168" s="37">
         <v>44413</v>
       </c>
@@ -29892,7 +29932,7 @@
         <v>-0.36440677966101698</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" ht="15">
       <c r="A169" s="37">
         <v>44414</v>
       </c>
@@ -29942,7 +29982,7 @@
         <v>-6.842105263157898E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" ht="15">
       <c r="A170" s="37">
         <v>44417</v>
       </c>
@@ -29992,7 +30032,7 @@
         <v>0.20918367346938785</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" ht="15">
       <c r="A171" s="37">
         <v>44418</v>
       </c>
@@ -30042,7 +30082,7 @@
         <v>0.11702127659574472</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" ht="15">
       <c r="A172" s="37">
         <v>44419</v>
       </c>
@@ -30092,7 +30132,7 @@
         <v>0.29807692307692318</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" ht="15">
       <c r="A173" s="37">
         <v>44420</v>
       </c>
@@ -30142,7 +30182,7 @@
         <v>-0.17154811715481177</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" ht="15">
       <c r="A174" s="37">
         <v>44423</v>
       </c>
@@ -30192,7 +30232,7 @@
         <v>-0.13716814159292029</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" ht="15">
       <c r="A175" s="37">
         <v>44424</v>
       </c>
@@ -30242,7 +30282,7 @@
         <v>-3.6199095022624493E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" ht="15">
       <c r="A176" s="37">
         <v>44425</v>
       </c>
@@ -30292,7 +30332,7 @@
         <v>-0.59900990099009899</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" ht="15">
       <c r="A177" s="37">
         <v>44426</v>
       </c>
@@ -30342,7 +30382,7 @@
         <v>0.26993865030674841</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" ht="15">
       <c r="A178" s="37">
         <v>44427</v>
       </c>
@@ -30400,7 +30440,7 @@
         <v>-0.1736526946107784</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" ht="15">
       <c r="A179" s="87">
         <v>44428</v>
       </c>
@@ -30468,7 +30508,7 @@
         <v>-2.8169014084507091E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" ht="15">
       <c r="A180" s="37">
         <v>44431</v>
       </c>
@@ -30526,7 +30566,7 @@
         <v>1.2732919254658388</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" ht="15">
       <c r="A181" s="37">
         <v>44432</v>
       </c>
@@ -30584,7 +30624,7 @@
         <v>-7.4766355140186855E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" ht="15">
       <c r="A182" s="37">
         <v>44433</v>
       </c>
@@ -30634,7 +30674,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" ht="15">
       <c r="A183" s="37">
         <v>44434</v>
       </c>
@@ -30684,7 +30724,7 @@
         <v>-0.39776951672862459</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" ht="15">
       <c r="A184" s="37">
         <v>44435</v>
       </c>
@@ -30734,7 +30774,7 @@
         <v>8.9552238805970144E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" ht="15">
       <c r="A185" s="37">
         <v>44438</v>
       </c>
@@ -30784,7 +30824,7 @@
         <v>0.11057692307692316</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" ht="15">
       <c r="A186" s="37">
         <v>44439</v>
       </c>
@@ -30834,7 +30874,7 @@
         <v>0.16176470588235295</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" ht="15">
       <c r="A187" s="37">
         <v>44440</v>
       </c>
@@ -30884,7 +30924,7 @@
         <v>-0.14847161572052398</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" ht="15">
       <c r="A188" s="37">
         <v>44441</v>
       </c>
@@ -30934,7 +30974,7 @@
         <v>0.47963800904977366</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" ht="15">
       <c r="A189" s="37">
         <v>44442</v>
       </c>
@@ -30984,7 +31024,7 @@
         <v>-0.38339920948616596</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" ht="15">
       <c r="A190" s="37">
         <v>44445</v>
       </c>
@@ -31034,7 +31074,7 @@
         <v>4.8672566371681485E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" ht="15">
       <c r="A191" s="37">
         <v>44446</v>
       </c>
@@ -31084,7 +31124,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" ht="15">
       <c r="A192" s="37">
         <v>44447</v>
       </c>
@@ -31134,7 +31174,7 @@
         <v>0.18141592920353991</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" ht="15">
       <c r="A193" s="37">
         <v>44448</v>
       </c>
@@ -31184,7 +31224,7 @@
         <v>-0.19011406844106468</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" ht="15">
       <c r="A194" s="37">
         <v>44449</v>
       </c>
@@ -31234,7 +31274,7 @@
         <v>-0.37647058823529411</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" ht="15">
       <c r="A195" s="37">
         <v>44452</v>
       </c>
@@ -31284,7 +31324,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" ht="15">
       <c r="A196" s="37">
         <v>44453</v>
       </c>
@@ -31334,7 +31374,7 @@
         <v>-9.5693779904306275E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" ht="15">
       <c r="A197" s="37">
         <v>44454</v>
       </c>
@@ -31392,7 +31432,7 @@
         <v>0.34328358208955223</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:33" ht="15">
       <c r="A198" s="87">
         <v>44455</v>
       </c>
@@ -31460,7 +31500,7 @@
         <v>-0.42016806722689071</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:33" ht="15">
       <c r="A199" s="87">
         <v>44456</v>
       </c>
@@ -31528,7 +31568,7 @@
         <v>-0.29145728643216073</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:33" ht="15">
       <c r="A200" s="37">
         <v>44461</v>
       </c>
@@ -31586,7 +31626,7 @@
         <v>0.57377049180327866</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:33" ht="15">
       <c r="A201" s="37">
         <v>44462</v>
       </c>
@@ -31644,7 +31684,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:33" ht="15">
       <c r="A202" s="37">
         <v>44463</v>
       </c>
@@ -31694,7 +31734,7 @@
         <v>-0.419811320754717</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:33" ht="15">
       <c r="A203" s="87">
         <v>44466</v>
       </c>
@@ -31745,7 +31785,7 @@
         <v>-0.41747572815533984</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:33" ht="15">
       <c r="A204" s="37">
         <v>44467</v>
       </c>
@@ -31795,7 +31835,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:33" ht="15">
       <c r="A205" s="87">
         <v>44468</v>
       </c>
@@ -31846,7 +31886,7 @@
         <v>-0.64473684210526316</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:33" ht="15">
       <c r="A206" s="37">
         <v>44469</v>
       </c>
@@ -31896,7 +31936,7 @@
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:33" ht="15">
       <c r="A207" s="37">
         <v>44477</v>
       </c>
@@ -31946,7 +31986,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" ht="15">
       <c r="A208" s="37">
         <v>44480</v>
       </c>
@@ -31996,7 +32036,7 @@
         <v>-0.10967741935483867</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:33" ht="15">
       <c r="A209" s="37">
         <v>44481</v>
       </c>
@@ -32046,7 +32086,7 @@
         <v>-0.42622950819672129</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:33" ht="15">
       <c r="A210" s="37">
         <v>44482</v>
       </c>
@@ -32096,7 +32136,7 @@
         <v>0.17931034482758615</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:33" ht="15">
       <c r="A211" s="37">
         <v>44483</v>
       </c>
@@ -32146,7 +32186,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:33" ht="15">
       <c r="A212" s="37">
         <v>44484</v>
       </c>
@@ -32196,7 +32236,7 @@
         <v>-0.47590361445783136</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" ht="15">
       <c r="A213" s="37">
         <v>44487</v>
       </c>
@@ -32246,7 +32286,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:33">
       <c r="A214" s="37">
         <v>44488</v>
       </c>
@@ -32296,7 +32336,7 @@
         <v>0.11235955056179771</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:33">
       <c r="A215" s="37">
         <v>44489</v>
       </c>
@@ -32346,7 +32386,7 @@
         <v>-0.15294117647058819</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33">
       <c r="A216" s="37">
         <v>44490</v>
       </c>
@@ -32396,7 +32436,7 @@
         <v>-0.36507936507936506</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:33">
       <c r="A217" s="37">
         <v>44491</v>
       </c>
@@ -32446,7 +32486,7 @@
         <v>-0.24025974025974028</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:33">
       <c r="A218" s="37">
         <v>44494</v>
       </c>
@@ -32496,7 +32536,7 @@
         <v>0.51181102362204711</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:33">
       <c r="A219" s="37">
         <v>44495</v>
       </c>
@@ -32546,7 +32586,7 @@
         <v>-0.34965034965034963</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:33">
       <c r="A220" s="37">
         <v>44496</v>
       </c>
@@ -32596,7 +32636,7 @@
         <v>-8.2089552238805916E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:33">
       <c r="A221" s="37">
         <v>44497</v>
       </c>
@@ -32646,7 +32686,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33">
       <c r="A222" s="37">
         <v>44498</v>
       </c>
@@ -32696,7 +32736,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33">
       <c r="A223" s="37">
         <v>44501</v>
       </c>
@@ -32746,7 +32786,7 @@
         <v>0.84459459459459452</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33">
       <c r="A224" s="37">
         <v>44502</v>
       </c>
@@ -32796,7 +32836,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:33">
       <c r="A225" s="37">
         <v>44503</v>
       </c>
@@ -32846,7 +32886,7 @@
         <v>-0.30541871921182273</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:33">
       <c r="A226" s="37">
         <v>44504</v>
       </c>
@@ -32896,7 +32936,7 @@
         <v>0.59890109890109899</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:33">
       <c r="A227" s="37">
         <v>44505</v>
       </c>
@@ -32946,7 +32986,7 @@
         <v>-0.20212765957446804</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:33">
       <c r="A228" s="37">
         <v>44508</v>
       </c>
@@ -32996,7 +33036,7 @@
         <v>-0.1185567010309279</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:33">
       <c r="A229" s="37">
         <v>44509</v>
       </c>
@@ -33046,7 +33086,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:33">
       <c r="A230" s="37">
         <v>44510</v>
       </c>
@@ -33096,7 +33136,7 @@
         <v>-0.15568862275449097</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:33">
       <c r="A231" s="37">
         <v>44511</v>
       </c>
@@ -33146,7 +33186,7 @@
         <v>0.29878048780487809</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:33">
       <c r="A232" s="37">
         <v>44512</v>
       </c>
@@ -33196,7 +33236,7 @@
         <v>0.41573033707865165</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:33">
       <c r="A233" s="37">
         <v>44515</v>
       </c>
@@ -33246,7 +33286,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:33">
       <c r="A234" s="37">
         <v>44516</v>
       </c>
@@ -33296,7 +33336,7 @@
         <v>-0.22413793103448271</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:33">
       <c r="A235" s="37">
         <v>44517</v>
       </c>
@@ -33346,7 +33386,7 @@
         <v>0.27601809954751122</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:33">
       <c r="A236" s="37">
         <v>44518</v>
       </c>
@@ -33396,7 +33436,7 @@
         <v>-0.33766233766233766</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:33">
       <c r="A237" s="37">
         <v>44519</v>
       </c>
@@ -33446,7 +33486,7 @@
         <v>9.7560975609756791E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:33">
       <c r="A238" s="37">
         <v>44522</v>
       </c>
@@ -33496,7 +33536,7 @@
         <v>0.21962616822429915</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:33">
       <c r="A239" s="37">
         <v>44523</v>
       </c>
@@ -33546,7 +33586,7 @@
         <v>-0.14492753623188406</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:33">
       <c r="A240" s="37">
         <v>44524</v>
       </c>
@@ -33596,7 +33636,7 @@
         <v>8.8372093023255743E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:33">
       <c r="A241" s="37">
         <v>44525</v>
       </c>
@@ -33646,7 +33686,7 @@
         <v>-0.22321428571428575</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:33">
       <c r="A242" s="37">
         <v>44526</v>
       </c>
@@ -33696,7 +33736,7 @@
         <v>-0.2153846153846154</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:33">
       <c r="A243" s="37">
         <v>44529</v>
       </c>
@@ -33746,7 +33786,7 @@
         <v>0.12299465240641708</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:33">
       <c r="A244" s="37">
         <v>44530</v>
       </c>
@@ -33796,7 +33836,7 @@
         <v>0.17318435754189948</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:33">
       <c r="A245" s="37">
         <v>44531</v>
       </c>
@@ -33846,7 +33886,7 @@
         <v>0.33507853403141369</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:33">
       <c r="A246" s="37">
         <v>44532</v>
       </c>
@@ -33896,7 +33936,7 @@
         <v>-0.30666666666666664</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:33">
       <c r="A247" s="37">
         <v>44533</v>
       </c>
@@ -33946,7 +33986,7 @@
         <v>-0.20289855072463769</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:33">
       <c r="A248" s="37">
         <v>44536</v>
       </c>
@@ -33996,7 +34036,7 @@
         <v>-0.390625</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:33">
       <c r="A249" s="37">
         <v>44537</v>
       </c>
@@ -34046,7 +34086,7 @@
         <v>4.7945205479452108E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:33">
       <c r="A250" s="37">
         <v>44538</v>
       </c>
@@ -34096,7 +34136,7 @@
         <v>0.69655172413793098</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:33">
       <c r="A251" s="37">
         <v>44539</v>
       </c>
@@ -34146,7 +34186,7 @@
         <v>0.18604651162790692</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:33">
       <c r="A252" s="37">
         <v>44540</v>
       </c>
@@ -34196,7 +34236,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:33">
       <c r="A253" s="37">
         <v>44543</v>
       </c>
@@ -34246,7 +34286,7 @@
         <v>8.7155963302752229E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:33">
       <c r="A254" s="37">
         <v>44544</v>
       </c>
@@ -34296,7 +34336,7 @@
         <v>0.2976744186046511</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:33">
       <c r="A255" s="37">
         <v>44545</v>
       </c>
@@ -34346,7 +34386,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:33">
       <c r="A256" s="37">
         <v>44546</v>
       </c>
@@ -34396,7 +34436,7 @@
         <v>5.1792828685258904E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:33">
       <c r="A257" s="37">
         <v>44547</v>
       </c>
@@ -34446,7 +34486,7 @@
         <v>-1.9230769230769284E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:33">
       <c r="A258" s="37">
         <v>44550</v>
       </c>
@@ -34496,7 +34536,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:33">
       <c r="A259" s="37">
         <v>44551</v>
       </c>
@@ -34546,7 +34586,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33">
       <c r="A260" s="37">
         <v>44552</v>
       </c>
@@ -34596,7 +34636,7 @@
         <v>-0.27812500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33">
       <c r="A261" s="37">
         <v>44553</v>
       </c>
@@ -34646,7 +34686,7 @@
         <v>-0.32692307692307693</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33">
       <c r="A262" s="37">
         <v>44554</v>
       </c>
@@ -34696,7 +34736,7 @@
         <v>-0.45936395759717313</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:33">
       <c r="A263" s="37">
         <v>44557</v>
       </c>
@@ -34746,7 +34786,7 @@
         <v>-6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33">
       <c r="A264" s="37">
         <v>44558</v>
       </c>
@@ -34796,7 +34836,7 @@
         <v>-3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33">
       <c r="A265" s="37">
         <v>44559</v>
       </c>
@@ -34846,7 +34886,7 @@
         <v>9.8837209302325535E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33">
       <c r="A266" s="37">
         <v>44560</v>
       </c>
@@ -34896,7 +34936,7 @@
         <v>0.40217391304347822</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33">
       <c r="A267" s="37">
         <v>44561</v>
       </c>
@@ -34946,7 +34986,7 @@
         <v>-0.16346153846153841</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33">
       <c r="A268" s="37">
         <v>44565</v>
       </c>
@@ -34996,7 +35036,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:33">
       <c r="A269" s="37">
         <v>44566</v>
       </c>
@@ -35046,7 +35086,7 @@
         <v>-0.39240506329113922</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:33">
       <c r="A270" s="37">
         <v>44567</v>
       </c>
@@ -35096,7 +35136,7 @@
         <v>0.25125628140703526</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:33">
       <c r="A271" s="37">
         <v>44568</v>
       </c>
@@ -35146,7 +35186,7 @@
         <v>-0.4241071428571429</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:33">
       <c r="A272" s="95">
         <v>44571</v>
       </c>
@@ -35172,7 +35212,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I327" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I328" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -35214,7 +35254,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:33">
       <c r="A273" s="95">
         <v>44572</v>
       </c>
@@ -35282,7 +35322,7 @@
         <v>-0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:33">
       <c r="A274" s="95">
         <v>44573</v>
       </c>
@@ -35332,7 +35372,7 @@
         <v>0.63313609467455612</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:33">
       <c r="A275" s="95">
         <v>44574</v>
       </c>
@@ -35400,7 +35440,7 @@
         <v>-0.22935779816513766</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:33">
       <c r="A276" s="95">
         <v>44575</v>
       </c>
@@ -35468,7 +35508,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:33">
       <c r="A277" s="95">
         <v>44578</v>
       </c>
@@ -35536,7 +35576,7 @@
         <v>0.47297297297297297</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:33">
       <c r="A278" s="37">
         <v>44579</v>
       </c>
@@ -35586,7 +35626,7 @@
         <v>-0.4853556485355649</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:33">
       <c r="A279" s="37">
         <v>44580</v>
       </c>
@@ -35636,7 +35676,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:33">
       <c r="A280" s="37">
         <v>44581</v>
       </c>
@@ -35686,7 +35726,7 @@
         <v>-0.38834951456310685</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:33">
       <c r="A281" s="37">
         <v>44582</v>
       </c>
@@ -35736,7 +35776,7 @@
         <v>3.5971223021582684E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:33">
       <c r="A282" s="37">
         <v>44585</v>
       </c>
@@ -35786,7 +35826,7 @@
         <v>0.10958904109589046</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:33">
       <c r="A283" s="37">
         <v>44586</v>
       </c>
@@ -35836,7 +35876,7 @@
         <v>-0.47916666666666669</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:33">
       <c r="A284" s="37">
         <v>44587</v>
       </c>
@@ -35886,7 +35926,7 @@
         <v>0.20472440944881884</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:33">
       <c r="A285" s="37">
         <v>44588</v>
       </c>
@@ -35936,7 +35976,7 @@
         <v>-0.70000000000000007</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:33">
       <c r="A286" s="37">
         <v>44589</v>
       </c>
@@ -35986,7 +36026,7 @@
         <v>0.88764044943820219</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:33">
       <c r="A287" s="37">
         <v>44599</v>
       </c>
@@ -36036,7 +36076,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:33">
       <c r="A288" s="37">
         <v>44600</v>
       </c>
@@ -36086,7 +36126,7 @@
         <v>0.87741935483870981</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:33">
       <c r="A289" s="37">
         <v>44601</v>
       </c>
@@ -36136,7 +36176,7 @@
         <v>0.20502092050209197</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:33">
       <c r="A290" s="37">
         <v>44602</v>
       </c>
@@ -36186,7 +36226,7 @@
         <v>-0.39784946236559138</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:33">
       <c r="A291" s="37">
         <v>44603</v>
       </c>
@@ -36236,7 +36276,7 @@
         <v>-0.38554216867469882</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:33" ht="18">
       <c r="A292" s="37">
         <v>44606</v>
       </c>
@@ -36296,7 +36336,7 @@
         <v>0.24137931034482749</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:33" ht="18">
       <c r="A293" s="37">
         <v>44607</v>
       </c>
@@ -36356,7 +36396,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:33" ht="18">
       <c r="A294" s="37">
         <v>44608</v>
       </c>
@@ -36416,7 +36456,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:33" ht="18">
       <c r="A295" s="37">
         <v>44609</v>
       </c>
@@ -36476,7 +36516,7 @@
         <v>-0.36320754716981135</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:33" ht="18">
       <c r="A296" s="37">
         <v>44610</v>
       </c>
@@ -36536,7 +36576,7 @@
         <v>-9.826589595375719E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:33" ht="18">
       <c r="A297" s="37">
         <v>44613</v>
       </c>
@@ -36596,7 +36636,7 @@
         <v>0.7751479289940828</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:33" ht="18">
       <c r="A298" s="37">
         <v>44614</v>
       </c>
@@ -36656,7 +36696,7 @@
         <v>-0.22335025380710666</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:33" ht="18">
       <c r="A299" s="37">
         <v>44615</v>
       </c>
@@ -36716,7 +36756,7 @@
         <v>0.31527093596059103</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:33" ht="18">
       <c r="A300" s="37">
         <v>44616</v>
       </c>
@@ -36776,7 +36816,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:33" ht="18">
       <c r="A301" s="37">
         <v>44617</v>
       </c>
@@ -36836,7 +36876,7 @@
         <v>1.1235955056179735E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:33" ht="18">
       <c r="A302" s="37">
         <v>44620</v>
       </c>
@@ -36896,7 +36936,7 @@
         <v>-0.27807486631016043</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:33" ht="18">
       <c r="A303" s="37">
         <v>44621</v>
       </c>
@@ -36956,7 +36996,7 @@
         <v>0.11188811188811194</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:33" ht="18">
       <c r="A304" s="37">
         <v>44622</v>
       </c>
@@ -37016,7 +37056,7 @@
         <v>0.21518987341772158</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:33" ht="18">
       <c r="A305" s="37">
         <v>44623</v>
       </c>
@@ -37076,7 +37116,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:33" ht="18">
       <c r="A306" s="37">
         <v>44624</v>
       </c>
@@ -37136,7 +37176,7 @@
         <v>-0.30051813471502586</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:33" ht="18">
       <c r="A307" s="37">
         <v>44627</v>
       </c>
@@ -37196,7 +37236,7 @@
         <v>-0.15675675675675674</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:33" ht="18">
       <c r="A308" s="37">
         <v>44628</v>
       </c>
@@ -37256,7 +37296,7 @@
         <v>-0.63583815028901736</v>
       </c>
     </row>
-    <row r="309" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:33" s="23" customFormat="1" ht="18">
       <c r="A309" s="22">
         <v>44629</v>
       </c>
@@ -37324,7 +37364,7 @@
         <v>0.16949152542372875</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:33" ht="18">
       <c r="A310" s="37">
         <v>44630</v>
       </c>
@@ -37384,7 +37424,7 @@
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:33" ht="18">
       <c r="A311" s="37">
         <v>44631</v>
       </c>
@@ -37444,7 +37484,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:33" ht="18">
       <c r="A312" s="37">
         <v>44634</v>
       </c>
@@ -37504,7 +37544,7 @@
         <v>-0.35175879396984921</v>
       </c>
     </row>
-    <row r="313" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:33" s="23" customFormat="1" ht="18">
       <c r="A313" s="22">
         <v>44635</v>
       </c>
@@ -37572,7 +37612,7 @@
         <v>-0.54081632653061218</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:33" ht="18">
       <c r="A314" s="37">
         <v>44636</v>
       </c>
@@ -37632,7 +37672,7 @@
         <v>1.7464788732394363</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:33" ht="18">
       <c r="A315" s="37">
         <v>44637</v>
       </c>
@@ -37692,7 +37732,7 @@
         <v>0.46305418719211811</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:33" ht="18">
       <c r="A316" s="37">
         <v>44638</v>
       </c>
@@ -37752,7 +37792,7 @@
         <v>0.22779922779922787</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:33" ht="18">
       <c r="A317" s="37">
         <v>44641</v>
       </c>
@@ -37812,7 +37852,7 @@
         <v>3.8805970149253688E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:33" ht="18">
       <c r="A318" s="37">
         <v>44642</v>
       </c>
@@ -37872,7 +37912,7 @@
         <v>-0.26168224299065418</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:33" ht="18">
       <c r="A319" s="37">
         <v>44643</v>
       </c>
@@ -37932,7 +37972,7 @@
         <v>-0.3122923588039867</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:33" ht="18">
       <c r="A320" s="37">
         <v>44644</v>
       </c>
@@ -37992,7 +38032,7 @@
         <v>-0.28409090909090912</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:33" ht="18">
       <c r="A321" s="37">
         <v>44645</v>
       </c>
@@ -38052,7 +38092,7 @@
         <v>6.6350710900474008E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:33" ht="18">
       <c r="A322" s="37">
         <v>44648</v>
       </c>
@@ -38112,7 +38152,7 @@
         <v>-0.10144927536231885</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:33" ht="18">
       <c r="A323" s="37">
         <v>44649</v>
       </c>
@@ -38172,7 +38212,7 @@
         <v>-0.16000000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:33" ht="18">
       <c r="A324" s="37">
         <v>44650</v>
       </c>
@@ -38232,7 +38272,7 @@
         <v>0.24352331606217625</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:33" ht="18">
       <c r="A325" s="37">
         <v>44651</v>
       </c>
@@ -38292,7 +38332,7 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:33">
       <c r="A326" s="37">
         <v>44652</v>
       </c>
@@ -38344,7 +38384,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="327" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:33">
       <c r="A327" s="37">
         <v>44657</v>
       </c>
@@ -38394,37 +38434,54 @@
         <v>0.18840579710144928</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:33">
       <c r="A328" s="37">
         <v>44658</v>
       </c>
-    </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B329" s="39"/>
-      <c r="C329" s="39"/>
-      <c r="D329" s="39">
-        <f t="shared" ref="C329:H329" si="35">SUM(D2:D327)/326</f>
-        <v>-24.377300613496931</v>
-      </c>
-      <c r="E329" s="39">
-        <f t="shared" si="35"/>
-        <v>-11.334355828220859</v>
-      </c>
-      <c r="F329" s="39">
-        <f t="shared" si="35"/>
-        <v>-335.71779141104292</v>
-      </c>
-      <c r="G329" s="39">
-        <f t="shared" si="35"/>
-        <v>-172.32822085889572</v>
-      </c>
-      <c r="H329" s="39">
-        <f t="shared" si="35"/>
+      <c r="B328" s="38">
+        <v>32</v>
+      </c>
+      <c r="C328" s="38">
+        <v>32</v>
+      </c>
+      <c r="D328" s="38">
+        <v>-38</v>
+      </c>
+      <c r="E328" s="38">
+        <v>-28</v>
+      </c>
+      <c r="F328" s="38">
+        <v>-568</v>
+      </c>
+      <c r="G328" s="38">
+        <v>-381</v>
+      </c>
+      <c r="H328" s="38">
         <v>-250</v>
       </c>
-      <c r="I329" s="39">
-        <f>SUM(I2:I327)/326</f>
-        <v>69.227696668530712</v>
+      <c r="I328" s="39">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="J328" s="39">
+        <v>-1.18</v>
+      </c>
+      <c r="K328" s="39">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="T328" s="94">
+        <v>5</v>
+      </c>
+      <c r="U328" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF328" s="109">
+        <f t="shared" ref="AF328" si="35">(B325+B326+B327)/3</f>
+        <v>69.666666666666671</v>
+      </c>
+      <c r="AG328" s="110">
+        <f t="shared" ref="AG328" si="36">(B328-AF328)/AF328</f>
+        <v>-0.54066985645933019</v>
       </c>
     </row>
   </sheetData>
@@ -38498,10 +38555,10 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>-20</xm:f>
+                <xm:f>-19</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>-4</xm:f>
+                <xm:f>-3</xm:f>
               </x14:cfvo>
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
               <x14:cfIcon iconSet="NoIcons" iconId="0"/>
@@ -38550,6 +38607,9 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -38562,35 +38622,35 @@
       <selection activeCell="ZA6150" sqref="ZA6150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="7" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="24.85546875" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" customWidth="1"/>
-    <col min="22" max="22" width="22.1640625" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" customWidth="1"/>
-    <col min="24" max="24" width="32.1640625" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" customWidth="1"/>
-    <col min="26" max="26" width="29.5" customWidth="1"/>
-    <col min="27" max="27" width="23.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.140625" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" customWidth="1"/>
+    <col min="27" max="27" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="22">
       <c r="A2" s="1">
         <v>44305</v>
       </c>
@@ -38673,7 +38733,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="27">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -38756,7 +38816,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="27">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>40</v>
@@ -38837,7 +38897,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="27">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -38916,7 +38976,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="27">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -38993,7 +39053,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="27">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -39064,7 +39124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="27">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -39135,7 +39195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="22">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -39180,7 +39240,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="22">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -39227,7 +39287,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="22">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -39274,7 +39334,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="27">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -39327,7 +39387,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="22">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -39378,7 +39438,7 @@
       </c>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="22">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -39427,7 +39487,7 @@
         <v>-5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="22">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -39474,7 +39534,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="22">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -39513,7 +39573,7 @@
         <v>-2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="22">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -39552,7 +39612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="22">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -39592,5 +39652,10 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newhope_ghost/Documents/codeDir/github/stockDetailQuery/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="28120" windowHeight="19500" activeTab="1"/>
+    <workbookView xWindow="1240" yWindow="1020" windowWidth="22260" windowHeight="21380"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
     <sheet name="情绪数据" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -56,12 +61,6 @@
     <t>打板当日封板率</t>
   </si>
   <si>
-    <t>昨日所有涨停收益率（不包含炸板）</t>
-  </si>
-  <si>
-    <t>昨日所有涨停真实收益率（包含炸板）</t>
-  </si>
-  <si>
     <t>昨日二板真实收益率（包含炸板）</t>
   </si>
   <si>
@@ -69,9 +68,6 @@
   </si>
   <si>
     <t>昨日三板真实收益率（包含炸板）</t>
-  </si>
-  <si>
-    <t>昨日最高板真实收益率（封死涨停）</t>
   </si>
   <si>
     <t>昨日最高板理想收益率（包含炸板）</t>
@@ -445,18 +441,32 @@
     <t>昨日二板理想收益率（封死涨停）</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
+  <si>
+    <t>昨日所有涨停收益率（不包含炸板）</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日所有涨停真实收益率（包含炸板）</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日最高板真实收益率（封死涨停）</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +679,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -783,15 +811,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,10 +1045,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1139,10 +1194,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$330</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -2120,16 +2175,25 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$328</c:f>
+              <c:f>情绪数据!$T$2:$T$330</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3110,6 +3174,12 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,8 +3194,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127557400"/>
-        <c:axId val="-2127553672"/>
+        <c:axId val="-725467136"/>
+        <c:axId val="-725465360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4202,10 +4272,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$328</c:f>
+              <c:f>情绪数据!$U$2:$U$330</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5185,6 +5255,12 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5202,8 +5278,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127557400"/>
-        <c:axId val="-2127553672"/>
+        <c:axId val="-725467136"/>
+        <c:axId val="-725465360"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5236,10 +5312,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$328</c:f>
+              <c:f>情绪数据!$A$2:$A$330</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -6220,16 +6296,22 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$328</c:f>
+              <c:f>情绪数据!$J$2:$J$330</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7209,7 +7291,13 @@
                   <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-1.18</c:v>
+                  <c:v>-2.31</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7258,10 +7346,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$328</c:f>
+              <c:f>情绪数据!$A$2:$A$330</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -8242,16 +8330,22 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$328</c:f>
+              <c:f>情绪数据!$K$2:$K$330</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9231,7 +9325,13 @@
                   <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-2.22</c:v>
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9248,11 +9348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127549896"/>
-        <c:axId val="-2127546920"/>
+        <c:axId val="-725463312"/>
+        <c:axId val="-725460992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127557400"/>
+        <c:axId val="-725467136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9320,7 +9420,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127553672"/>
+        <c:crossAx val="-725465360"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9328,7 +9428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127553672"/>
+        <c:axId val="-725465360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9379,13 +9479,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127557400"/>
+        <c:crossAx val="-725467136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2127549896"/>
+        <c:axId val="-725463312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9395,7 +9495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127546920"/>
+        <c:crossAx val="-725460992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9403,7 +9503,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127546920"/>
+        <c:axId val="-725460992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9440,7 +9540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127549896"/>
+        <c:crossAx val="-725463312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9544,10 +9644,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$328</c:f>
+              <c:f>情绪数据!$A$2:$A$330</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10528,16 +10628,22 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$328</c:f>
+              <c:f>情绪数据!$B$2:$B$330</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11393,85 +11499,85 @@
                 <c:pt idx="284">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="285" formatCode="General">
+                <c:pt idx="285">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="286" formatCode="General">
+                <c:pt idx="286">
                   <c:v>97.0</c:v>
                 </c:pt>
-                <c:pt idx="287" formatCode="General">
+                <c:pt idx="287">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="288" formatCode="General">
+                <c:pt idx="288">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="289" formatCode="General">
+                <c:pt idx="289">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="290" formatCode="General">
+                <c:pt idx="290">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="291" formatCode="General">
+                <c:pt idx="291">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="292" formatCode="General">
+                <c:pt idx="292">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="293" formatCode="General">
+                <c:pt idx="293">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="294" formatCode="General">
+                <c:pt idx="294">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="295" formatCode="General">
+                <c:pt idx="295">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="296" formatCode="General">
+                <c:pt idx="296">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="297" formatCode="General">
+                <c:pt idx="297">
                   <c:v>89.0</c:v>
                 </c:pt>
-                <c:pt idx="298" formatCode="General">
+                <c:pt idx="298">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="299" formatCode="General">
+                <c:pt idx="299">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="300" formatCode="General">
+                <c:pt idx="300">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="301" formatCode="General">
+                <c:pt idx="301">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="302" formatCode="General">
+                <c:pt idx="302">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="303" formatCode="General">
+                <c:pt idx="303">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="304" formatCode="General">
+                <c:pt idx="304">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="305" formatCode="General">
+                <c:pt idx="305">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="306" formatCode="General">
+                <c:pt idx="306">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="307" formatCode="General">
+                <c:pt idx="307">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="308" formatCode="General">
+                <c:pt idx="308">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="309" formatCode="General">
+                <c:pt idx="309">
                   <c:v>69.0</c:v>
                 </c:pt>
-                <c:pt idx="310" formatCode="General">
+                <c:pt idx="310">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="311" formatCode="General">
+                <c:pt idx="311">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -11504,20 +11610,26 @@
                 <c:pt idx="321">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="322" formatCode="General">
+                <c:pt idx="322">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="323" formatCode="General">
+                <c:pt idx="323">
                   <c:v>55.0</c:v>
                 </c:pt>
-                <c:pt idx="324" formatCode="General">
+                <c:pt idx="324">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="325" formatCode="General">
+                <c:pt idx="325">
                   <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11551,10 +11663,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$328</c:f>
+              <c:f>情绪数据!$A$2:$A$330</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12535,16 +12647,22 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$328</c:f>
+              <c:f>情绪数据!$C$2:$C$330</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13400,85 +13518,85 @@
                 <c:pt idx="284">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="285" formatCode="General">
+                <c:pt idx="285">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="286" formatCode="General">
+                <c:pt idx="286">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="287" formatCode="General">
+                <c:pt idx="287">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="288" formatCode="General">
+                <c:pt idx="288">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="289" formatCode="General">
+                <c:pt idx="289">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="290" formatCode="General">
+                <c:pt idx="290">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="291" formatCode="General">
+                <c:pt idx="291">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="292" formatCode="General">
+                <c:pt idx="292">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="293" formatCode="General">
+                <c:pt idx="293">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="294" formatCode="General">
+                <c:pt idx="294">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="295" formatCode="General">
+                <c:pt idx="295">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="296" formatCode="General">
+                <c:pt idx="296">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="297" formatCode="General">
+                <c:pt idx="297">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="298" formatCode="General">
+                <c:pt idx="298">
                   <c:v>36.0</c:v>
                 </c:pt>
-                <c:pt idx="299" formatCode="General">
+                <c:pt idx="299">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="300" formatCode="General">
+                <c:pt idx="300">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="301" formatCode="General">
+                <c:pt idx="301">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="302" formatCode="General">
+                <c:pt idx="302">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="303" formatCode="General">
+                <c:pt idx="303">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="304" formatCode="General">
+                <c:pt idx="304">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="305" formatCode="General">
+                <c:pt idx="305">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="306" formatCode="General">
+                <c:pt idx="306">
                   <c:v>33.0</c:v>
                 </c:pt>
-                <c:pt idx="307" formatCode="General">
+                <c:pt idx="307">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="308" formatCode="General">
+                <c:pt idx="308">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="309" formatCode="General">
+                <c:pt idx="309">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="310" formatCode="General">
+                <c:pt idx="310">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="311" formatCode="General">
+                <c:pt idx="311">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -13511,20 +13629,26 @@
                 <c:pt idx="321">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="322" formatCode="General">
+                <c:pt idx="322">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="323" formatCode="General">
+                <c:pt idx="323">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="324" formatCode="General">
+                <c:pt idx="324">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="325" formatCode="General">
+                <c:pt idx="325">
                   <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>43.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13538,8 +13662,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107595880"/>
-        <c:axId val="-2126590280"/>
+        <c:axId val="-634289248"/>
+        <c:axId val="-633415472"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14558,10 +14682,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$328</c:f>
+              <c:f>情绪数据!$D$2:$D$330</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15542,6 +15666,12 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>-38.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-24.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-62.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16562,10 +16692,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$328</c:f>
+              <c:f>情绪数据!$F$2:$F$330</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17546,6 +17676,12 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>-568.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-444.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1589.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17559,8 +17695,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126586536"/>
-        <c:axId val="-2126543112"/>
+        <c:axId val="-633413696"/>
+        <c:axId val="-633959616"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18580,10 +18716,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$328</c:f>
+              <c:f>情绪数据!$AF$2:$AF$330</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="327"/>
+                <c:ptCount val="329"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19564,6 +19700,12 @@
                 </c:pt>
                 <c:pt idx="326">
                   <c:v>69.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>59.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19580,11 +19722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107595880"/>
-        <c:axId val="-2126590280"/>
+        <c:axId val="-634289248"/>
+        <c:axId val="-633415472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107595880"/>
+        <c:axId val="-634289248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19652,7 +19794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126590280"/>
+        <c:crossAx val="-633415472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19660,7 +19802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126590280"/>
+        <c:axId val="-633415472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -19709,12 +19851,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107595880"/>
+        <c:crossAx val="-634289248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2126586536"/>
+        <c:axId val="-633413696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19724,7 +19866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126543112"/>
+        <c:crossAx val="-633959616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19732,7 +19874,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126543112"/>
+        <c:axId val="-633959616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -19768,7 +19910,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126586536"/>
+        <c:crossAx val="-633413696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20926,14 +21068,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>172204</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>115781</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>438269</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>52098</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>185041</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20955,15 +21097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>149860</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:colOff>223520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21245,31 +21387,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BZ35" sqref="BZ35"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="86" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="CA25" sqref="CA25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="33" spans="97:104">
+    <row r="33" spans="97:104" x14ac:dyDescent="0.2">
       <c r="CY33" s="18"/>
     </row>
-    <row r="34" spans="97:104">
+    <row r="34" spans="97:104" x14ac:dyDescent="0.2">
       <c r="CS34" s="18"/>
     </row>
-    <row r="37" spans="97:104" ht="15">
+    <row r="37" spans="97:104" ht="18" x14ac:dyDescent="0.2">
       <c r="CZ37" s="19"/>
     </row>
-    <row r="51" spans="98:103">
+    <row r="51" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT51" s="18"/>
     </row>
-    <row r="53" spans="98:103">
+    <row r="53" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT53" s="20"/>
     </row>
-    <row r="60" spans="98:103">
+    <row r="60" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CY60" s="21"/>
     </row>
-    <row r="70" spans="20:20">
+    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T70" t="s">
         <v>0</v>
       </c>
@@ -21279,30 +21421,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG328"/>
+  <dimension ref="A1:AG330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H313" sqref="H313"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U330" sqref="U330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="37" customWidth="1"/>
     <col min="2" max="3" width="8" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
-    <col min="5" max="6" width="9.42578125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="38" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="38" customWidth="1"/>
     <col min="8" max="8" width="8" style="38" customWidth="1"/>
     <col min="9" max="11" width="8" style="39" customWidth="1"/>
     <col min="12" max="19" width="8" style="39" hidden="1" customWidth="1"/>
@@ -21314,12 +21451,12 @@
     <col min="25" max="29" width="8" style="43" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="8" style="108" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="109" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" style="110" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="110" customWidth="1"/>
     <col min="34" max="34" width="10" style="43" customWidth="1"/>
     <col min="35" max="16384" width="8" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1">
+    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -21348,69 +21485,69 @@
         <v>9</v>
       </c>
       <c r="J1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="P1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="32" t="s">
+      <c r="S1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="T1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="U1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="V1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="W1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="X1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="Z1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="AA1" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>24</v>
       </c>
       <c r="AD1" s="105"/>
       <c r="AE1" s="105"/>
       <c r="AF1" s="106" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG1" s="107" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="37">
         <v>44165</v>
       </c>
@@ -21460,7 +21597,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="37">
         <v>44166</v>
       </c>
@@ -21510,7 +21647,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="37">
         <v>44167</v>
       </c>
@@ -21560,7 +21697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="37">
         <v>44168</v>
       </c>
@@ -21610,7 +21747,7 @@
         <v>9.5652173913043412E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>44169</v>
       </c>
@@ -21660,7 +21797,7 @@
         <v>-0.24427480916030531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <v>44172</v>
       </c>
@@ -21710,7 +21847,7 @@
         <v>-0.21311475409836061</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <v>44173</v>
       </c>
@@ -21760,7 +21897,7 @@
         <v>-0.15887850467289713</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <v>44174</v>
       </c>
@@ -21810,7 +21947,7 @@
         <v>-5.263157894736846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <v>44175</v>
       </c>
@@ -21860,7 +21997,7 @@
         <v>-8.6956521739130474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <v>44176</v>
       </c>
@@ -21910,7 +22047,7 @@
         <v>-0.35227272727272724</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <v>44179</v>
       </c>
@@ -21960,7 +22097,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <v>44180</v>
       </c>
@@ -22010,7 +22147,7 @@
         <v>-4.3956043956043918E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <v>44181</v>
       </c>
@@ -22060,7 +22197,7 @@
         <v>-0.28260869565217395</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <v>44182</v>
       </c>
@@ -22110,7 +22247,7 @@
         <v>0.42105263157894729</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <v>44183</v>
       </c>
@@ -22160,7 +22297,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="37">
         <v>44186</v>
       </c>
@@ -22210,7 +22347,7 @@
         <v>0.4423076923076924</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <v>44187</v>
       </c>
@@ -22260,7 +22397,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="37">
         <v>44188</v>
       </c>
@@ -22310,7 +22447,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="37">
         <v>44189</v>
       </c>
@@ -22360,7 +22497,7 @@
         <v>-0.19402985074626861</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="37">
         <v>44190</v>
       </c>
@@ -22410,7 +22547,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="37">
         <v>44193</v>
       </c>
@@ -22460,7 +22597,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="37">
         <v>44194</v>
       </c>
@@ -22510,7 +22647,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="37">
         <v>44195</v>
       </c>
@@ -22560,7 +22697,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="37">
         <v>44196</v>
       </c>
@@ -22610,7 +22747,7 @@
         <v>-5.5248618784530426E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="37">
         <v>44200</v>
       </c>
@@ -22660,7 +22797,7 @@
         <v>0.8033707865168539</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="37">
         <v>44201</v>
       </c>
@@ -22710,7 +22847,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="37">
         <v>44202</v>
       </c>
@@ -22760,7 +22897,7 @@
         <v>-0.42738589211618255</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="37">
         <v>44203</v>
       </c>
@@ -22810,7 +22947,7 @@
         <v>-0.58260869565217399</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="37">
         <v>44204</v>
       </c>
@@ -22860,7 +22997,7 @@
         <v>-5.161290322580641E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
         <v>44207</v>
       </c>
@@ -22910,7 +23047,7 @@
         <v>-5.5118110236220527E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="37">
         <v>44208</v>
       </c>
@@ -22960,7 +23097,7 @@
         <v>0.73553719008264451</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="37">
         <v>44209</v>
       </c>
@@ -23010,7 +23147,7 @@
         <v>-0.26415094339622641</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="37">
         <v>44210</v>
       </c>
@@ -23060,7 +23197,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="37">
         <v>44211</v>
       </c>
@@ -23110,7 +23247,7 @@
         <v>0.31460674157303364</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="37">
         <v>44214</v>
       </c>
@@ -23160,7 +23297,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="37">
         <v>44215</v>
       </c>
@@ -23210,7 +23347,7 @@
         <v>-7.2033898305084804E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="37">
         <v>44216</v>
       </c>
@@ -23260,7 +23397,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="37">
         <v>44217</v>
       </c>
@@ -23310,7 +23447,7 @@
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="37">
         <v>44218</v>
       </c>
@@ -23360,7 +23497,7 @@
         <v>-0.34955752212389374</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="37">
         <v>44221</v>
       </c>
@@ -23410,7 +23547,7 @@
         <v>-0.31683168316831678</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="37">
         <v>44222</v>
       </c>
@@ -23460,7 +23597,7 @@
         <v>-0.11560693641618494</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="37">
         <v>44223</v>
       </c>
@@ -23510,7 +23647,7 @@
         <v>0.27397260273972607</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="37">
         <v>44224</v>
       </c>
@@ -23560,7 +23697,7 @@
         <v>-0.20754716981132076</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
         <v>44225</v>
       </c>
@@ -23610,7 +23747,7 @@
         <v>-0.38064516129032255</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="37">
         <v>44228</v>
       </c>
@@ -23660,7 +23797,7 @@
         <v>0.80882352941176461</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="37">
         <v>44229</v>
       </c>
@@ -23710,7 +23847,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="15">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="37">
         <v>44230</v>
       </c>
@@ -23760,7 +23897,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="37">
         <v>44231</v>
       </c>
@@ -23810,7 +23947,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="37">
         <v>44232</v>
       </c>
@@ -23860,7 +23997,7 @@
         <v>-0.11184210526315785</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="37">
         <v>44235</v>
       </c>
@@ -23910,7 +24047,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="37">
         <v>44236</v>
       </c>
@@ -23960,7 +24097,7 @@
         <v>0.34482758620689646</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="37">
         <v>44237</v>
       </c>
@@ -24010,7 +24147,7 @@
         <v>-0.29090909090909089</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="37">
         <v>44245</v>
       </c>
@@ -24060,7 +24197,7 @@
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="37">
         <v>44246</v>
       </c>
@@ -24110,7 +24247,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="37">
         <v>44249</v>
       </c>
@@ -24160,7 +24297,7 @@
         <v>4.1841004184099825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="37">
         <v>44250</v>
       </c>
@@ -24210,7 +24347,7 @@
         <v>-0.43214285714285711</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="37">
         <v>44251</v>
       </c>
@@ -24260,7 +24397,7 @@
         <v>-0.45922746781115881</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="37">
         <v>44252</v>
       </c>
@@ -24310,7 +24447,7 @@
         <v>-0.29714285714285715</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="37">
         <v>44253</v>
       </c>
@@ -24360,7 +24497,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="44">
         <v>44256</v>
       </c>
@@ -24428,7 +24565,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="51">
         <v>44257</v>
       </c>
@@ -24496,7 +24633,7 @@
         <v>-0.32317073170731703</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="37">
         <v>44258</v>
       </c>
@@ -24546,7 +24683,7 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="37">
         <v>44259</v>
       </c>
@@ -24596,7 +24733,7 @@
         <v>-0.37623762376237618</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="37">
         <v>44260</v>
       </c>
@@ -24646,7 +24783,7 @@
         <v>0.14374999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="37">
         <v>44263</v>
       </c>
@@ -24696,7 +24833,7 @@
         <v>-0.13586956521739132</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="37">
         <v>44264</v>
       </c>
@@ -24746,7 +24883,7 @@
         <v>-0.34615384615384615</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="37">
         <v>44265</v>
       </c>
@@ -24796,7 +24933,7 @@
         <v>-0.33108108108108109</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="37">
         <v>44266</v>
       </c>
@@ -24846,7 +24983,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="37">
         <v>44267</v>
       </c>
@@ -24896,7 +25033,7 @@
         <v>3.6764705882352887E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="37">
         <v>44270</v>
       </c>
@@ -24946,7 +25083,7 @@
         <v>-7.3825503355704647E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="37">
         <v>44271</v>
       </c>
@@ -24996,7 +25133,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="15">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="37">
         <v>44272</v>
       </c>
@@ -25046,7 +25183,7 @@
         <v>7.006369426751588E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="37">
         <v>44273</v>
       </c>
@@ -25096,7 +25233,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="37">
         <v>44274</v>
       </c>
@@ -25146,7 +25283,7 @@
         <v>-9.4972067039106114E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="37">
         <v>44277</v>
       </c>
@@ -25196,7 +25333,7 @@
         <v>0.4201183431952662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="37">
         <v>44278</v>
       </c>
@@ -25246,7 +25383,7 @@
         <v>-0.26943005181347146</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="37">
         <v>44279</v>
       </c>
@@ -25296,7 +25433,7 @@
         <v>-7.1823204419889541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="15">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="37">
         <v>44280</v>
       </c>
@@ -25346,7 +25483,7 @@
         <v>-0.29508196721311475</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="37">
         <v>44281</v>
       </c>
@@ -25396,7 +25533,7 @@
         <v>0.47945205479452063</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="15">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="37">
         <v>44284</v>
       </c>
@@ -25446,7 +25583,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" s="37">
         <v>44285</v>
       </c>
@@ -25496,7 +25633,7 @@
         <v>-2.7932960893854709E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="15">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="37">
         <v>44286</v>
       </c>
@@ -25546,7 +25683,7 @@
         <v>0.12886597938144323</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="15">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="37">
         <v>44287</v>
       </c>
@@ -25596,7 +25733,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="15">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="37">
         <v>44288</v>
       </c>
@@ -25646,7 +25783,7 @@
         <v>4.9261083743841663E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="15">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="37">
         <v>44292</v>
       </c>
@@ -25697,7 +25834,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="15">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="37">
         <v>44293</v>
       </c>
@@ -25748,7 +25885,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="15">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="58">
         <v>44294</v>
       </c>
@@ -25817,7 +25954,7 @@
         <v>-0.52564102564102566</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="15">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="37">
         <v>44295</v>
       </c>
@@ -25868,7 +26005,7 @@
         <v>-0.18719211822660103</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="15">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="37">
         <v>44298</v>
       </c>
@@ -25919,7 +26056,7 @@
         <v>5.4945054945054986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="15">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="37">
         <v>44299</v>
       </c>
@@ -25970,7 +26107,7 @@
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="15">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="37">
         <v>44300</v>
       </c>
@@ -26020,7 +26157,7 @@
         <v>0.12941176470588239</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="15">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="58">
         <v>44301</v>
       </c>
@@ -26088,7 +26225,7 @@
         <v>-0.27932960893854747</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="15">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="37">
         <v>44302</v>
       </c>
@@ -26138,7 +26275,7 @@
         <v>0.40506329113924056</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="15">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="37">
         <v>44305</v>
       </c>
@@ -26188,7 +26325,7 @@
         <v>0.27624309392265189</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="15">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="37">
         <v>44306</v>
       </c>
@@ -26238,7 +26375,7 @@
         <v>-0.365979381443299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="15">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="37">
         <v>44307</v>
       </c>
@@ -26288,7 +26425,7 @@
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="15">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="37">
         <v>44308</v>
       </c>
@@ -26338,7 +26475,7 @@
         <v>-0.21052631578947364</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="15">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="37">
         <v>44309</v>
       </c>
@@ -26388,7 +26525,7 @@
         <v>-8.6956521739130488E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="15">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" s="37">
         <v>44312</v>
       </c>
@@ -26438,7 +26575,7 @@
         <v>0.26605504587155954</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="15">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" s="65">
         <v>44313</v>
       </c>
@@ -26506,7 +26643,7 @@
         <v>-5.7851239669421545E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="15">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" s="37">
         <v>44314</v>
       </c>
@@ -26556,7 +26693,7 @@
         <v>0.51260504201680679</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="15">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" s="37">
         <v>44315</v>
       </c>
@@ -26606,7 +26743,7 @@
         <v>-8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="15">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" s="37">
         <v>44316</v>
       </c>
@@ -26656,7 +26793,7 @@
         <v>-0.15492957746478878</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="15">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" s="37">
         <v>44322</v>
       </c>
@@ -26706,7 +26843,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="15">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" s="37">
         <v>44323</v>
       </c>
@@ -26756,7 +26893,7 @@
         <v>-9.1549295774647932E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="15">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" s="72">
         <v>44326</v>
       </c>
@@ -26824,7 +26961,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="15">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" s="37">
         <v>44327</v>
       </c>
@@ -26874,7 +27011,7 @@
         <v>-0.11475409836065574</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="15">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" s="37">
         <v>44328</v>
       </c>
@@ -26924,7 +27061,7 @@
         <v>-0.2960893854748603</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="15">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" s="37">
         <v>44329</v>
       </c>
@@ -26974,7 +27111,7 @@
         <v>0.297752808988764</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" s="58">
         <v>44333</v>
       </c>
@@ -27042,7 +27179,7 @@
         <v>-0.44508670520231214</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="15">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" s="37">
         <v>44334</v>
       </c>
@@ -27092,7 +27229,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="15">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" s="37">
         <v>44335</v>
       </c>
@@ -27142,7 +27279,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="15">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" s="37">
         <v>44336</v>
       </c>
@@ -27192,7 +27329,7 @@
         <v>-0.10389610389610393</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="15">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" s="37">
         <v>44337</v>
       </c>
@@ -27242,7 +27379,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="15">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" s="37">
         <v>44340</v>
       </c>
@@ -27292,7 +27429,7 @@
         <v>4.3478260869565265E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="15">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" s="37">
         <v>44341</v>
       </c>
@@ -27342,7 +27479,7 @@
         <v>-0.12195121951219508</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="15">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" s="37">
         <v>44342</v>
       </c>
@@ -27392,7 +27529,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="15">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" s="37">
         <v>44343</v>
       </c>
@@ -27442,7 +27579,7 @@
         <v>0.19631901840490792</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" s="37">
         <v>44344</v>
       </c>
@@ -27492,7 +27629,7 @@
         <v>-0.16279069767441864</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="15">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" s="37">
         <v>44347</v>
       </c>
@@ -27542,7 +27679,7 @@
         <v>0.48255813953488363</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="15">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" s="37">
         <v>44348</v>
       </c>
@@ -27596,7 +27733,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="15">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" s="65">
         <v>44349</v>
       </c>
@@ -27664,7 +27801,7 @@
         <v>-0.19000000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="15">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" s="37">
         <v>44350</v>
       </c>
@@ -27714,7 +27851,7 @@
         <v>-8.2524271844660255E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" s="37">
         <v>44351</v>
       </c>
@@ -27764,7 +27901,7 @@
         <v>-0.20108695652173916</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" s="37">
         <v>44354</v>
       </c>
@@ -27814,7 +27951,7 @@
         <v>8.4337349397590314E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" s="37">
         <v>44355</v>
       </c>
@@ -27864,7 +28001,7 @@
         <v>-7.5581395348837246E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="15">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A128" s="37">
         <v>44356</v>
       </c>
@@ -27914,7 +28051,7 @@
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="15">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" s="37">
         <v>44357</v>
       </c>
@@ -27964,7 +28101,7 @@
         <v>0.15243902439024395</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="15">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" s="37">
         <v>44358</v>
       </c>
@@ -28014,7 +28151,7 @@
         <v>7.7844311377245554E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="15">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" s="65">
         <v>44362</v>
       </c>
@@ -28082,7 +28219,7 @@
         <v>-0.34482758620689657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="15">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" s="65">
         <v>44363</v>
       </c>
@@ -28132,7 +28269,7 @@
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="15">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" s="37">
         <v>44364</v>
       </c>
@@ -28182,7 +28319,7 @@
         <v>0.10526315789473678</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="15">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" s="37">
         <v>44365</v>
       </c>
@@ -28232,7 +28369,7 @@
         <v>0.4262295081967214</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="15">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" s="37">
         <v>44368</v>
       </c>
@@ -28282,7 +28419,7 @@
         <v>0.45774647887323938</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="15">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" s="37">
         <v>44369</v>
       </c>
@@ -28332,7 +28469,7 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="15">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" s="37">
         <v>44370</v>
       </c>
@@ -28382,7 +28519,7 @@
         <v>-0.20725388601036263</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="15">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" s="37">
         <v>44371</v>
       </c>
@@ -28432,7 +28569,7 @@
         <v>-0.11290322580645161</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="15">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" s="37">
         <v>44372</v>
       </c>
@@ -28482,7 +28619,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="15">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" s="37">
         <v>44375</v>
       </c>
@@ -28532,7 +28669,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="15">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" s="37">
         <v>44376</v>
       </c>
@@ -28582,7 +28719,7 @@
         <v>-0.25433526011560692</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="15">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" s="37">
         <v>44377</v>
       </c>
@@ -28632,7 +28769,7 @@
         <v>-4.9689440993788775E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="15">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" s="37">
         <v>44378</v>
       </c>
@@ -28682,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="15">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" s="37">
         <v>44379</v>
       </c>
@@ -28732,7 +28869,7 @@
         <v>-0.26027397260273971</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="15">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" s="37">
         <v>44382</v>
       </c>
@@ -28782,7 +28919,7 @@
         <v>0.51079136690647475</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="15">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" s="37">
         <v>44383</v>
       </c>
@@ -28832,7 +28969,7 @@
         <v>-0.27848101265822783</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="15">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" s="37">
         <v>44384</v>
       </c>
@@ -28882,7 +29019,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="15">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" s="37">
         <v>44385</v>
       </c>
@@ -28932,7 +29069,7 @@
         <v>-0.19298245614035087</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="15">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" s="37">
         <v>44386</v>
       </c>
@@ -28982,7 +29119,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="15">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" s="37">
         <v>44389</v>
       </c>
@@ -29032,7 +29169,7 @@
         <v>0.43930635838150295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" ht="15">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" s="37">
         <v>44390</v>
       </c>
@@ -29082,7 +29219,7 @@
         <v>-2.0725388601036197E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="15">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" s="37">
         <v>44391</v>
       </c>
@@ -29132,7 +29269,7 @@
         <v>-0.25714285714285712</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="15">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" s="37">
         <v>44392</v>
       </c>
@@ -29182,7 +29319,7 @@
         <v>-0.31818181818181818</v>
       </c>
     </row>
-    <row r="154" spans="1:33" ht="15">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" s="37">
         <v>44393</v>
       </c>
@@ -29232,7 +29369,7 @@
         <v>-0.34375000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="15">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" s="37">
         <v>44396</v>
       </c>
@@ -29282,7 +29419,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="15">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" s="37">
         <v>44397</v>
       </c>
@@ -29332,7 +29469,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="15">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" s="37">
         <v>44398</v>
       </c>
@@ -29382,7 +29519,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="15">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" s="37">
         <v>44399</v>
       </c>
@@ -29432,7 +29569,7 @@
         <v>-7.6923076923076886E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="15">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" s="37">
         <v>44400</v>
       </c>
@@ -29482,7 +29619,7 @@
         <v>-0.24193548387096775</v>
       </c>
     </row>
-    <row r="160" spans="1:33" ht="15">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" s="37">
         <v>44403</v>
       </c>
@@ -29532,7 +29669,7 @@
         <v>-0.40641711229946526</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="15">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" s="37">
         <v>44404</v>
       </c>
@@ -29582,7 +29719,7 @@
         <v>-0.44285714285714284</v>
       </c>
     </row>
-    <row r="162" spans="1:33" ht="15">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" s="37">
         <v>44405</v>
       </c>
@@ -29632,7 +29769,7 @@
         <v>9.0909090909091564E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="15">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" s="37">
         <v>44406</v>
       </c>
@@ -29682,7 +29819,7 @@
         <v>2.4499999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="15">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" s="37">
         <v>44407</v>
       </c>
@@ -29732,7 +29869,7 @@
         <v>0.36516853932584264</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="15">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" s="37">
         <v>44410</v>
       </c>
@@ -29782,7 +29919,7 @@
         <v>0.23605150214592266</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="15">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" s="37">
         <v>44411</v>
       </c>
@@ -29832,7 +29969,7 @@
         <v>-0.45547945205479451</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="15">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" s="37">
         <v>44412</v>
       </c>
@@ -29882,7 +30019,7 @@
         <v>0.13478260869565212</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="15">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A168" s="37">
         <v>44413</v>
       </c>
@@ -29932,7 +30069,7 @@
         <v>-0.36440677966101698</v>
       </c>
     </row>
-    <row r="169" spans="1:33" ht="15">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" s="37">
         <v>44414</v>
       </c>
@@ -29982,7 +30119,7 @@
         <v>-6.842105263157898E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" ht="15">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" s="37">
         <v>44417</v>
       </c>
@@ -30032,7 +30169,7 @@
         <v>0.20918367346938785</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="15">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" s="37">
         <v>44418</v>
       </c>
@@ -30082,7 +30219,7 @@
         <v>0.11702127659574472</v>
       </c>
     </row>
-    <row r="172" spans="1:33" ht="15">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" s="37">
         <v>44419</v>
       </c>
@@ -30132,7 +30269,7 @@
         <v>0.29807692307692318</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="15">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" s="37">
         <v>44420</v>
       </c>
@@ -30182,7 +30319,7 @@
         <v>-0.17154811715481177</v>
       </c>
     </row>
-    <row r="174" spans="1:33" ht="15">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" s="37">
         <v>44423</v>
       </c>
@@ -30232,7 +30369,7 @@
         <v>-0.13716814159292029</v>
       </c>
     </row>
-    <row r="175" spans="1:33" ht="15">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" s="37">
         <v>44424</v>
       </c>
@@ -30282,7 +30419,7 @@
         <v>-3.6199095022624493E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:33" ht="15">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" s="37">
         <v>44425</v>
       </c>
@@ -30332,7 +30469,7 @@
         <v>-0.59900990099009899</v>
       </c>
     </row>
-    <row r="177" spans="1:33" ht="15">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" s="37">
         <v>44426</v>
       </c>
@@ -30382,7 +30519,7 @@
         <v>0.26993865030674841</v>
       </c>
     </row>
-    <row r="178" spans="1:33" ht="15">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" s="37">
         <v>44427</v>
       </c>
@@ -30440,7 +30577,7 @@
         <v>-0.1736526946107784</v>
       </c>
     </row>
-    <row r="179" spans="1:33" ht="15">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" s="87">
         <v>44428</v>
       </c>
@@ -30508,7 +30645,7 @@
         <v>-2.8169014084507091E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" ht="15">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" s="37">
         <v>44431</v>
       </c>
@@ -30566,7 +30703,7 @@
         <v>1.2732919254658388</v>
       </c>
     </row>
-    <row r="181" spans="1:33" ht="15">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" s="37">
         <v>44432</v>
       </c>
@@ -30624,7 +30761,7 @@
         <v>-7.4766355140186855E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:33" ht="15">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" s="37">
         <v>44433</v>
       </c>
@@ -30674,7 +30811,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:33" ht="15">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" s="37">
         <v>44434</v>
       </c>
@@ -30724,7 +30861,7 @@
         <v>-0.39776951672862459</v>
       </c>
     </row>
-    <row r="184" spans="1:33" ht="15">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" s="37">
         <v>44435</v>
       </c>
@@ -30774,7 +30911,7 @@
         <v>8.9552238805970144E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:33" ht="15">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" s="37">
         <v>44438</v>
       </c>
@@ -30824,7 +30961,7 @@
         <v>0.11057692307692316</v>
       </c>
     </row>
-    <row r="186" spans="1:33" ht="15">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" s="37">
         <v>44439</v>
       </c>
@@ -30874,7 +31011,7 @@
         <v>0.16176470588235295</v>
       </c>
     </row>
-    <row r="187" spans="1:33" ht="15">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" s="37">
         <v>44440</v>
       </c>
@@ -30924,7 +31061,7 @@
         <v>-0.14847161572052398</v>
       </c>
     </row>
-    <row r="188" spans="1:33" ht="15">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" s="37">
         <v>44441</v>
       </c>
@@ -30974,7 +31111,7 @@
         <v>0.47963800904977366</v>
       </c>
     </row>
-    <row r="189" spans="1:33" ht="15">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" s="37">
         <v>44442</v>
       </c>
@@ -31024,7 +31161,7 @@
         <v>-0.38339920948616596</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="15">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" s="37">
         <v>44445</v>
       </c>
@@ -31074,7 +31211,7 @@
         <v>4.8672566371681485E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="15">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" s="37">
         <v>44446</v>
       </c>
@@ -31124,7 +31261,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="192" spans="1:33" ht="15">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" s="37">
         <v>44447</v>
       </c>
@@ -31174,7 +31311,7 @@
         <v>0.18141592920353991</v>
       </c>
     </row>
-    <row r="193" spans="1:33" ht="15">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" s="37">
         <v>44448</v>
       </c>
@@ -31224,7 +31361,7 @@
         <v>-0.19011406844106468</v>
       </c>
     </row>
-    <row r="194" spans="1:33" ht="15">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" s="37">
         <v>44449</v>
       </c>
@@ -31274,7 +31411,7 @@
         <v>-0.37647058823529411</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="15">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" s="37">
         <v>44452</v>
       </c>
@@ -31324,7 +31461,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="15">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" s="37">
         <v>44453</v>
       </c>
@@ -31374,7 +31511,7 @@
         <v>-9.5693779904306275E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:33" ht="15">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" s="37">
         <v>44454</v>
       </c>
@@ -31432,7 +31569,7 @@
         <v>0.34328358208955223</v>
       </c>
     </row>
-    <row r="198" spans="1:33" ht="15">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" s="87">
         <v>44455</v>
       </c>
@@ -31500,7 +31637,7 @@
         <v>-0.42016806722689071</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="15">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" s="87">
         <v>44456</v>
       </c>
@@ -31568,7 +31705,7 @@
         <v>-0.29145728643216073</v>
       </c>
     </row>
-    <row r="200" spans="1:33" ht="15">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" s="37">
         <v>44461</v>
       </c>
@@ -31626,7 +31763,7 @@
         <v>0.57377049180327866</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="15">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" s="37">
         <v>44462</v>
       </c>
@@ -31684,7 +31821,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:33" ht="15">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" s="37">
         <v>44463</v>
       </c>
@@ -31734,7 +31871,7 @@
         <v>-0.419811320754717</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="15">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" s="87">
         <v>44466</v>
       </c>
@@ -31785,7 +31922,7 @@
         <v>-0.41747572815533984</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="15">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" s="37">
         <v>44467</v>
       </c>
@@ -31835,7 +31972,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="15">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" s="87">
         <v>44468</v>
       </c>
@@ -31886,7 +32023,7 @@
         <v>-0.64473684210526316</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="15">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" s="37">
         <v>44469</v>
       </c>
@@ -31936,7 +32073,7 @@
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="207" spans="1:33" ht="15">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" s="37">
         <v>44477</v>
       </c>
@@ -31986,7 +32123,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="208" spans="1:33" ht="15">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" s="37">
         <v>44480</v>
       </c>
@@ -32036,7 +32173,7 @@
         <v>-0.10967741935483867</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="15">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" s="37">
         <v>44481</v>
       </c>
@@ -32086,7 +32223,7 @@
         <v>-0.42622950819672129</v>
       </c>
     </row>
-    <row r="210" spans="1:33" ht="15">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A210" s="37">
         <v>44482</v>
       </c>
@@ -32136,7 +32273,7 @@
         <v>0.17931034482758615</v>
       </c>
     </row>
-    <row r="211" spans="1:33" ht="15">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A211" s="37">
         <v>44483</v>
       </c>
@@ -32186,7 +32323,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="212" spans="1:33" ht="15">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" s="37">
         <v>44484</v>
       </c>
@@ -32236,7 +32373,7 @@
         <v>-0.47590361445783136</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="15">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" s="37">
         <v>44487</v>
       </c>
@@ -32286,7 +32423,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:33">
+    <row r="214" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="37">
         <v>44488</v>
       </c>
@@ -32336,7 +32473,7 @@
         <v>0.11235955056179771</v>
       </c>
     </row>
-    <row r="215" spans="1:33">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" s="37">
         <v>44489</v>
       </c>
@@ -32386,7 +32523,7 @@
         <v>-0.15294117647058819</v>
       </c>
     </row>
-    <row r="216" spans="1:33">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" s="37">
         <v>44490</v>
       </c>
@@ -32436,7 +32573,7 @@
         <v>-0.36507936507936506</v>
       </c>
     </row>
-    <row r="217" spans="1:33">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" s="37">
         <v>44491</v>
       </c>
@@ -32486,7 +32623,7 @@
         <v>-0.24025974025974028</v>
       </c>
     </row>
-    <row r="218" spans="1:33">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" s="37">
         <v>44494</v>
       </c>
@@ -32536,7 +32673,7 @@
         <v>0.51181102362204711</v>
       </c>
     </row>
-    <row r="219" spans="1:33">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" s="37">
         <v>44495</v>
       </c>
@@ -32586,7 +32723,7 @@
         <v>-0.34965034965034963</v>
       </c>
     </row>
-    <row r="220" spans="1:33">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" s="37">
         <v>44496</v>
       </c>
@@ -32636,7 +32773,7 @@
         <v>-8.2089552238805916E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" s="37">
         <v>44497</v>
       </c>
@@ -32686,7 +32823,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="222" spans="1:33">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" s="37">
         <v>44498</v>
       </c>
@@ -32736,7 +32873,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="223" spans="1:33">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" s="37">
         <v>44501</v>
       </c>
@@ -32786,7 +32923,7 @@
         <v>0.84459459459459452</v>
       </c>
     </row>
-    <row r="224" spans="1:33">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" s="37">
         <v>44502</v>
       </c>
@@ -32836,7 +32973,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:33">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A225" s="37">
         <v>44503</v>
       </c>
@@ -32886,7 +33023,7 @@
         <v>-0.30541871921182273</v>
       </c>
     </row>
-    <row r="226" spans="1:33">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A226" s="37">
         <v>44504</v>
       </c>
@@ -32936,7 +33073,7 @@
         <v>0.59890109890109899</v>
       </c>
     </row>
-    <row r="227" spans="1:33">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A227" s="37">
         <v>44505</v>
       </c>
@@ -32986,7 +33123,7 @@
         <v>-0.20212765957446804</v>
       </c>
     </row>
-    <row r="228" spans="1:33">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A228" s="37">
         <v>44508</v>
       </c>
@@ -33036,7 +33173,7 @@
         <v>-0.1185567010309279</v>
       </c>
     </row>
-    <row r="229" spans="1:33">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A229" s="37">
         <v>44509</v>
       </c>
@@ -33086,7 +33223,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="230" spans="1:33">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A230" s="37">
         <v>44510</v>
       </c>
@@ -33136,7 +33273,7 @@
         <v>-0.15568862275449097</v>
       </c>
     </row>
-    <row r="231" spans="1:33">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A231" s="37">
         <v>44511</v>
       </c>
@@ -33186,7 +33323,7 @@
         <v>0.29878048780487809</v>
       </c>
     </row>
-    <row r="232" spans="1:33">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A232" s="37">
         <v>44512</v>
       </c>
@@ -33236,7 +33373,7 @@
         <v>0.41573033707865165</v>
       </c>
     </row>
-    <row r="233" spans="1:33">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A233" s="37">
         <v>44515</v>
       </c>
@@ -33286,7 +33423,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="234" spans="1:33">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A234" s="37">
         <v>44516</v>
       </c>
@@ -33336,7 +33473,7 @@
         <v>-0.22413793103448271</v>
       </c>
     </row>
-    <row r="235" spans="1:33">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A235" s="37">
         <v>44517</v>
       </c>
@@ -33386,7 +33523,7 @@
         <v>0.27601809954751122</v>
       </c>
     </row>
-    <row r="236" spans="1:33">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A236" s="37">
         <v>44518</v>
       </c>
@@ -33436,7 +33573,7 @@
         <v>-0.33766233766233766</v>
       </c>
     </row>
-    <row r="237" spans="1:33">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A237" s="37">
         <v>44519</v>
       </c>
@@ -33486,7 +33623,7 @@
         <v>9.7560975609756791E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:33">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A238" s="37">
         <v>44522</v>
       </c>
@@ -33536,7 +33673,7 @@
         <v>0.21962616822429915</v>
       </c>
     </row>
-    <row r="239" spans="1:33">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A239" s="37">
         <v>44523</v>
       </c>
@@ -33586,7 +33723,7 @@
         <v>-0.14492753623188406</v>
       </c>
     </row>
-    <row r="240" spans="1:33">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A240" s="37">
         <v>44524</v>
       </c>
@@ -33636,7 +33773,7 @@
         <v>8.8372093023255743E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:33">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A241" s="37">
         <v>44525</v>
       </c>
@@ -33686,7 +33823,7 @@
         <v>-0.22321428571428575</v>
       </c>
     </row>
-    <row r="242" spans="1:33">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A242" s="37">
         <v>44526</v>
       </c>
@@ -33736,7 +33873,7 @@
         <v>-0.2153846153846154</v>
       </c>
     </row>
-    <row r="243" spans="1:33">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A243" s="37">
         <v>44529</v>
       </c>
@@ -33786,7 +33923,7 @@
         <v>0.12299465240641708</v>
       </c>
     </row>
-    <row r="244" spans="1:33">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A244" s="37">
         <v>44530</v>
       </c>
@@ -33836,7 +33973,7 @@
         <v>0.17318435754189948</v>
       </c>
     </row>
-    <row r="245" spans="1:33">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A245" s="37">
         <v>44531</v>
       </c>
@@ -33886,7 +34023,7 @@
         <v>0.33507853403141369</v>
       </c>
     </row>
-    <row r="246" spans="1:33">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A246" s="37">
         <v>44532</v>
       </c>
@@ -33936,7 +34073,7 @@
         <v>-0.30666666666666664</v>
       </c>
     </row>
-    <row r="247" spans="1:33">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A247" s="37">
         <v>44533</v>
       </c>
@@ -33986,7 +34123,7 @@
         <v>-0.20289855072463769</v>
       </c>
     </row>
-    <row r="248" spans="1:33">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A248" s="37">
         <v>44536</v>
       </c>
@@ -34036,7 +34173,7 @@
         <v>-0.390625</v>
       </c>
     </row>
-    <row r="249" spans="1:33">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A249" s="37">
         <v>44537</v>
       </c>
@@ -34086,7 +34223,7 @@
         <v>4.7945205479452108E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:33">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A250" s="37">
         <v>44538</v>
       </c>
@@ -34136,7 +34273,7 @@
         <v>0.69655172413793098</v>
       </c>
     </row>
-    <row r="251" spans="1:33">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A251" s="37">
         <v>44539</v>
       </c>
@@ -34186,7 +34323,7 @@
         <v>0.18604651162790692</v>
       </c>
     </row>
-    <row r="252" spans="1:33">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A252" s="37">
         <v>44540</v>
       </c>
@@ -34236,7 +34373,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:33">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A253" s="37">
         <v>44543</v>
       </c>
@@ -34286,7 +34423,7 @@
         <v>8.7155963302752229E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:33">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A254" s="37">
         <v>44544</v>
       </c>
@@ -34336,7 +34473,7 @@
         <v>0.2976744186046511</v>
       </c>
     </row>
-    <row r="255" spans="1:33">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A255" s="37">
         <v>44545</v>
       </c>
@@ -34386,7 +34523,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:33">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A256" s="37">
         <v>44546</v>
       </c>
@@ -34436,7 +34573,7 @@
         <v>5.1792828685258904E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:33">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A257" s="37">
         <v>44547</v>
       </c>
@@ -34486,7 +34623,7 @@
         <v>-1.9230769230769284E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:33">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A258" s="37">
         <v>44550</v>
       </c>
@@ -34536,7 +34673,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:33">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" s="37">
         <v>44551</v>
       </c>
@@ -34586,7 +34723,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:33">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" s="37">
         <v>44552</v>
       </c>
@@ -34636,7 +34773,7 @@
         <v>-0.27812500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:33">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" s="37">
         <v>44553</v>
       </c>
@@ -34686,7 +34823,7 @@
         <v>-0.32692307692307693</v>
       </c>
     </row>
-    <row r="262" spans="1:33">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" s="37">
         <v>44554</v>
       </c>
@@ -34736,7 +34873,7 @@
         <v>-0.45936395759717313</v>
       </c>
     </row>
-    <row r="263" spans="1:33">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" s="37">
         <v>44557</v>
       </c>
@@ -34786,7 +34923,7 @@
         <v>-6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:33">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" s="37">
         <v>44558</v>
       </c>
@@ -34836,7 +34973,7 @@
         <v>-3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:33">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" s="37">
         <v>44559</v>
       </c>
@@ -34886,7 +35023,7 @@
         <v>9.8837209302325535E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:33">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" s="37">
         <v>44560</v>
       </c>
@@ -34936,7 +35073,7 @@
         <v>0.40217391304347822</v>
       </c>
     </row>
-    <row r="267" spans="1:33">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" s="37">
         <v>44561</v>
       </c>
@@ -34986,7 +35123,7 @@
         <v>-0.16346153846153841</v>
       </c>
     </row>
-    <row r="268" spans="1:33">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" s="37">
         <v>44565</v>
       </c>
@@ -35036,7 +35173,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="269" spans="1:33">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A269" s="37">
         <v>44566</v>
       </c>
@@ -35086,7 +35223,7 @@
         <v>-0.39240506329113922</v>
       </c>
     </row>
-    <row r="270" spans="1:33">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A270" s="37">
         <v>44567</v>
       </c>
@@ -35136,7 +35273,7 @@
         <v>0.25125628140703526</v>
       </c>
     </row>
-    <row r="271" spans="1:33">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A271" s="37">
         <v>44568</v>
       </c>
@@ -35186,7 +35323,7 @@
         <v>-0.4241071428571429</v>
       </c>
     </row>
-    <row r="272" spans="1:33">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A272" s="95">
         <v>44571</v>
       </c>
@@ -35212,7 +35349,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I328" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I330" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -35254,7 +35391,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="273" spans="1:33">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A273" s="95">
         <v>44572</v>
       </c>
@@ -35322,7 +35459,7 @@
         <v>-0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:33">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A274" s="95">
         <v>44573</v>
       </c>
@@ -35372,7 +35509,7 @@
         <v>0.63313609467455612</v>
       </c>
     </row>
-    <row r="275" spans="1:33">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A275" s="95">
         <v>44574</v>
       </c>
@@ -35440,7 +35577,7 @@
         <v>-0.22935779816513766</v>
       </c>
     </row>
-    <row r="276" spans="1:33">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A276" s="95">
         <v>44575</v>
       </c>
@@ -35508,7 +35645,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:33">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A277" s="95">
         <v>44578</v>
       </c>
@@ -35576,7 +35713,7 @@
         <v>0.47297297297297297</v>
       </c>
     </row>
-    <row r="278" spans="1:33">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A278" s="37">
         <v>44579</v>
       </c>
@@ -35626,7 +35763,7 @@
         <v>-0.4853556485355649</v>
       </c>
     </row>
-    <row r="279" spans="1:33">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A279" s="37">
         <v>44580</v>
       </c>
@@ -35676,7 +35813,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="280" spans="1:33">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A280" s="37">
         <v>44581</v>
       </c>
@@ -35726,7 +35863,7 @@
         <v>-0.38834951456310685</v>
       </c>
     </row>
-    <row r="281" spans="1:33">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A281" s="37">
         <v>44582</v>
       </c>
@@ -35776,7 +35913,7 @@
         <v>3.5971223021582684E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:33">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A282" s="37">
         <v>44585</v>
       </c>
@@ -35826,7 +35963,7 @@
         <v>0.10958904109589046</v>
       </c>
     </row>
-    <row r="283" spans="1:33">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A283" s="37">
         <v>44586</v>
       </c>
@@ -35876,7 +36013,7 @@
         <v>-0.47916666666666669</v>
       </c>
     </row>
-    <row r="284" spans="1:33">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A284" s="37">
         <v>44587</v>
       </c>
@@ -35926,7 +36063,7 @@
         <v>0.20472440944881884</v>
       </c>
     </row>
-    <row r="285" spans="1:33">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A285" s="37">
         <v>44588</v>
       </c>
@@ -35976,7 +36113,7 @@
         <v>-0.70000000000000007</v>
       </c>
     </row>
-    <row r="286" spans="1:33">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A286" s="37">
         <v>44589</v>
       </c>
@@ -36026,7 +36163,7 @@
         <v>0.88764044943820219</v>
       </c>
     </row>
-    <row r="287" spans="1:33">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A287" s="37">
         <v>44599</v>
       </c>
@@ -36076,7 +36213,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:33">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A288" s="37">
         <v>44600</v>
       </c>
@@ -36126,7 +36263,7 @@
         <v>0.87741935483870981</v>
       </c>
     </row>
-    <row r="289" spans="1:33">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A289" s="37">
         <v>44601</v>
       </c>
@@ -36176,7 +36313,7 @@
         <v>0.20502092050209197</v>
       </c>
     </row>
-    <row r="290" spans="1:33">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A290" s="37">
         <v>44602</v>
       </c>
@@ -36226,7 +36363,7 @@
         <v>-0.39784946236559138</v>
       </c>
     </row>
-    <row r="291" spans="1:33">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A291" s="37">
         <v>44603</v>
       </c>
@@ -36276,7 +36413,7 @@
         <v>-0.38554216867469882</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="18">
+    <row r="292" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="37">
         <v>44606</v>
       </c>
@@ -36336,7 +36473,7 @@
         <v>0.24137931034482749</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="18">
+    <row r="293" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="37">
         <v>44607</v>
       </c>
@@ -36396,7 +36533,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="18">
+    <row r="294" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="37">
         <v>44608</v>
       </c>
@@ -36456,7 +36593,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="18">
+    <row r="295" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="37">
         <v>44609</v>
       </c>
@@ -36516,7 +36653,7 @@
         <v>-0.36320754716981135</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="18">
+    <row r="296" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="37">
         <v>44610</v>
       </c>
@@ -36576,7 +36713,7 @@
         <v>-9.826589595375719E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="18">
+    <row r="297" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="37">
         <v>44613</v>
       </c>
@@ -36636,7 +36773,7 @@
         <v>0.7751479289940828</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="18">
+    <row r="298" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="37">
         <v>44614</v>
       </c>
@@ -36696,7 +36833,7 @@
         <v>-0.22335025380710666</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="18">
+    <row r="299" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A299" s="37">
         <v>44615</v>
       </c>
@@ -36756,7 +36893,7 @@
         <v>0.31527093596059103</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="18">
+    <row r="300" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A300" s="37">
         <v>44616</v>
       </c>
@@ -36816,7 +36953,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="18">
+    <row r="301" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="37">
         <v>44617</v>
       </c>
@@ -36876,7 +37013,7 @@
         <v>1.1235955056179735E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="18">
+    <row r="302" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="37">
         <v>44620</v>
       </c>
@@ -36936,7 +37073,7 @@
         <v>-0.27807486631016043</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="18">
+    <row r="303" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="37">
         <v>44621</v>
       </c>
@@ -36996,7 +37133,7 @@
         <v>0.11188811188811194</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="18">
+    <row r="304" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="37">
         <v>44622</v>
       </c>
@@ -37056,7 +37193,7 @@
         <v>0.21518987341772158</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="18">
+    <row r="305" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="37">
         <v>44623</v>
       </c>
@@ -37116,7 +37253,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="18">
+    <row r="306" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="37">
         <v>44624</v>
       </c>
@@ -37176,7 +37313,7 @@
         <v>-0.30051813471502586</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="18">
+    <row r="307" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="37">
         <v>44627</v>
       </c>
@@ -37236,7 +37373,7 @@
         <v>-0.15675675675675674</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="18">
+    <row r="308" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="37">
         <v>44628</v>
       </c>
@@ -37296,7 +37433,7 @@
         <v>-0.63583815028901736</v>
       </c>
     </row>
-    <row r="309" spans="1:33" s="23" customFormat="1" ht="18">
+    <row r="309" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="22">
         <v>44629</v>
       </c>
@@ -37364,7 +37501,7 @@
         <v>0.16949152542372875</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="18">
+    <row r="310" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="37">
         <v>44630</v>
       </c>
@@ -37424,7 +37561,7 @@
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="18">
+    <row r="311" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="37">
         <v>44631</v>
       </c>
@@ -37484,7 +37621,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="18">
+    <row r="312" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="37">
         <v>44634</v>
       </c>
@@ -37544,7 +37681,7 @@
         <v>-0.35175879396984921</v>
       </c>
     </row>
-    <row r="313" spans="1:33" s="23" customFormat="1" ht="18">
+    <row r="313" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="22">
         <v>44635</v>
       </c>
@@ -37612,7 +37749,7 @@
         <v>-0.54081632653061218</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="18">
+    <row r="314" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="37">
         <v>44636</v>
       </c>
@@ -37672,7 +37809,7 @@
         <v>1.7464788732394363</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="18">
+    <row r="315" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="37">
         <v>44637</v>
       </c>
@@ -37732,7 +37869,7 @@
         <v>0.46305418719211811</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="18">
+    <row r="316" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="37">
         <v>44638</v>
       </c>
@@ -37792,7 +37929,7 @@
         <v>0.22779922779922787</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="18">
+    <row r="317" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="37">
         <v>44641</v>
       </c>
@@ -37852,7 +37989,7 @@
         <v>3.8805970149253688E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="18">
+    <row r="318" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="37">
         <v>44642</v>
       </c>
@@ -37912,7 +38049,7 @@
         <v>-0.26168224299065418</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="18">
+    <row r="319" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A319" s="37">
         <v>44643</v>
       </c>
@@ -37972,7 +38109,7 @@
         <v>-0.3122923588039867</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="18">
+    <row r="320" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A320" s="37">
         <v>44644</v>
       </c>
@@ -38032,7 +38169,7 @@
         <v>-0.28409090909090912</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="18">
+    <row r="321" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A321" s="37">
         <v>44645</v>
       </c>
@@ -38092,7 +38229,7 @@
         <v>6.6350710900474008E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="18">
+    <row r="322" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A322" s="37">
         <v>44648</v>
       </c>
@@ -38152,7 +38289,7 @@
         <v>-0.10144927536231885</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="18">
+    <row r="323" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A323" s="37">
         <v>44649</v>
       </c>
@@ -38212,7 +38349,7 @@
         <v>-0.16000000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="18">
+    <row r="324" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A324" s="37">
         <v>44650</v>
       </c>
@@ -38272,7 +38409,7 @@
         <v>0.24352331606217625</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="18">
+    <row r="325" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A325" s="37">
         <v>44651</v>
       </c>
@@ -38332,7 +38469,7 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="326" spans="1:33">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A326" s="37">
         <v>44652</v>
       </c>
@@ -38384,7 +38521,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="327" spans="1:33">
+    <row r="327" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="37">
         <v>44657</v>
       </c>
@@ -38426,15 +38563,15 @@
         <v>4</v>
       </c>
       <c r="AF327" s="109">
-        <f t="shared" ref="AF327" si="33">(B324+B325+B326)/3</f>
+        <f t="shared" ref="AF327:AF329" si="33">(B324+B325+B326)/3</f>
         <v>69</v>
       </c>
       <c r="AG327" s="110">
-        <f t="shared" ref="AG327" si="34">(B327-AF327)/AF327</f>
+        <f t="shared" ref="AG327:AG329" si="34">(B327-AF327)/AF327</f>
         <v>0.18840579710144928</v>
       </c>
     </row>
-    <row r="328" spans="1:33">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A328" s="37">
         <v>44658</v>
       </c>
@@ -38464,10 +38601,10 @@
         <v>50</v>
       </c>
       <c r="J328" s="39">
-        <v>-1.18</v>
+        <v>-2.31</v>
       </c>
       <c r="K328" s="39">
-        <v>-2.2200000000000002</v>
+        <v>-2.1</v>
       </c>
       <c r="T328" s="94">
         <v>5</v>
@@ -38476,12 +38613,112 @@
         <v>4</v>
       </c>
       <c r="AF328" s="109">
-        <f t="shared" ref="AF328" si="35">(B325+B326+B327)/3</f>
+        <f t="shared" si="33"/>
         <v>69.666666666666671</v>
       </c>
       <c r="AG328" s="110">
-        <f t="shared" ref="AG328" si="36">(B328-AF328)/AF328</f>
+        <f t="shared" si="34"/>
         <v>-0.54066985645933019</v>
+      </c>
+    </row>
+    <row r="329" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A329" s="37">
+        <v>44659</v>
+      </c>
+      <c r="B329" s="38">
+        <v>64</v>
+      </c>
+      <c r="C329" s="134">
+        <v>20</v>
+      </c>
+      <c r="D329" s="38">
+        <v>-24</v>
+      </c>
+      <c r="E329" s="38">
+        <v>-13</v>
+      </c>
+      <c r="F329" s="38">
+        <v>-444</v>
+      </c>
+      <c r="G329" s="38">
+        <v>-221</v>
+      </c>
+      <c r="H329" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I329" s="39">
+        <f t="shared" si="26"/>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="J329" s="39">
+        <v>3.59</v>
+      </c>
+      <c r="K329" s="39">
+        <v>1.81</v>
+      </c>
+      <c r="T329" s="94">
+        <v>6</v>
+      </c>
+      <c r="U329" s="43">
+        <v>5</v>
+      </c>
+      <c r="AF329" s="109">
+        <f t="shared" si="33"/>
+        <v>62</v>
+      </c>
+      <c r="AG329" s="110">
+        <f t="shared" si="34"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A330" s="37">
+        <v>44662</v>
+      </c>
+      <c r="B330" s="38">
+        <v>53</v>
+      </c>
+      <c r="C330" s="38">
+        <v>43</v>
+      </c>
+      <c r="D330" s="38">
+        <v>-62</v>
+      </c>
+      <c r="E330" s="38">
+        <v>-41</v>
+      </c>
+      <c r="F330" s="38">
+        <v>-1589</v>
+      </c>
+      <c r="G330" s="38">
+        <v>-958</v>
+      </c>
+      <c r="H330" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I330" s="39">
+        <f t="shared" si="26"/>
+        <v>55.208333333333336</v>
+      </c>
+      <c r="J330" s="39">
+        <v>-0.3</v>
+      </c>
+      <c r="K330" s="39">
+        <v>-1.02</v>
+      </c>
+      <c r="T330" s="94">
+        <v>6</v>
+      </c>
+      <c r="U330" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF330" s="109">
+        <f t="shared" ref="AF330" si="35">(B327+B328+B329)/3</f>
+        <v>59.333333333333336</v>
+      </c>
+      <c r="AG330" s="110">
+        <f t="shared" ref="AG330" si="36">(B330-AF330)/AF330</f>
+        <v>-0.1067415730337079</v>
       </c>
     </row>
   </sheetData>
@@ -38492,7 +38729,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{AA3D4853-DFC7-A44C-AAF4-ED502B2966F5}">
+          <x14:cfRule type="iconSet" priority="8" id="{AA3D4853-DFC7-A44C-AAF4-ED502B2966F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -38511,7 +38748,7 @@
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{5668E6E0-C4AC-C442-9BCB-A9B3CB042970}">
+          <x14:cfRule type="iconSet" priority="7" id="{5668E6E0-C4AC-C442-9BCB-A9B3CB042970}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -38527,10 +38764,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1:B327 B330:B1048576 C328</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{CC481063-6BD0-3947-B031-AA136F500496}">
+          <x14:cfRule type="iconSet" priority="5" id="{CC481063-6BD0-3947-B031-AA136F500496}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -38546,29 +38783,29 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:D327 D330:D1048576 E328</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
+          <x14:cfRule type="iconSet" priority="4" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>-19</xm:f>
+                <xm:f>-20</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>-3</xm:f>
+                <xm:f>-4</xm:f>
               </x14:cfvo>
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
               <x14:cfIcon iconSet="NoIcons" iconId="0"/>
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E1:E327 E330:E1048576 F328</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
+          <x14:cfRule type="iconSet" priority="3" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -38584,10 +38821,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F327 F330:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">
+          <x14:cfRule type="iconSet" priority="2" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -38603,12 +38840,28 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G328 G330:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{39F9903C-C6F9-E74E-A92D-D03599FF392A}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-38</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-10</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D329:H329</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -38622,35 +38875,35 @@
       <selection activeCell="ZA6150" sqref="ZA6150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="7" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="24.83203125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.140625" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" customWidth="1"/>
+    <col min="24" max="24" width="32.1640625" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" customWidth="1"/>
+    <col min="26" max="26" width="29.5" customWidth="1"/>
+    <col min="27" max="27" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="22">
+    <row r="2" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44305</v>
       </c>
@@ -38733,48 +38986,48 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="27">
+    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4">
         <v>-0.1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="4">
         <v>-6.2799999999999995E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" s="11">
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O3" s="11">
         <v>3.27E-2</v>
@@ -38789,13 +39042,13 @@
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T3" s="10">
         <v>-3.7699999999999997E-2</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V3" s="11">
         <v>6.9999999999999999E-4</v>
@@ -38816,16 +39069,16 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="27">
+    <row r="4" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8">
         <v>-2.5999999999999999E-2</v>
@@ -38834,10 +39087,10 @@
         <v>1.29E-2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="10">
         <v>-4.02E-2</v>
@@ -38846,10 +39099,10 @@
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M4" s="11">
         <v>1.84E-2</v>
@@ -38858,7 +39111,7 @@
         <v>-9.7999999999999997E-3</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P4" s="4">
         <v>-5.0299999999999997E-2</v>
@@ -38897,32 +39150,32 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="27">
+    <row r="5" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K5" s="10">
         <v>-3.3399999999999999E-2</v>
@@ -38931,13 +39184,13 @@
         <v>-3.85E-2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P5" s="11">
         <v>6.4699999999999994E-2</v>
@@ -38976,42 +39229,42 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="27">
+    <row r="6" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10">
         <v>-2.86E-2</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="L6" s="10">
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O6" s="11">
         <v>3.39E-2</v>
@@ -39026,10 +39279,10 @@
         <v>-9.3899999999999997E-2</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U6" s="4">
         <v>-5.3100000000000001E-2</v>
@@ -39053,7 +39306,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="27">
+    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -39061,31 +39314,31 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="N7" s="4">
         <v>-6.4000000000000001E-2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P7" s="11">
         <v>2.0299999999999999E-2</v>
@@ -39118,13 +39371,13 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="27">
+    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -39132,22 +39385,22 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="L8" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="M8" s="11">
         <v>0</v>
@@ -39156,13 +39409,13 @@
         <v>-4.4400000000000002E-2</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R8" s="11">
         <v>5.8900000000000001E-2</v>
@@ -39171,7 +39424,7 @@
         <v>-2.7799999999999998E-2</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U8" s="4">
         <v>-6.9699999999999998E-2</v>
@@ -39180,10 +39433,10 @@
         <v>3.1800000000000002E-2</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Y8" s="10">
         <v>-4.1999999999999997E-3</v>
@@ -39192,10 +39445,10 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="22">
+    <row r="9" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -39208,22 +39461,22 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="P9" s="10">
         <v>-2.47E-2</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R9" s="9">
         <v>3.3000000000000002E-2</v>
@@ -39240,7 +39493,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="22">
+    <row r="10" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -39255,22 +39508,22 @@
       <c r="L10" s="6"/>
       <c r="M10" s="15"/>
       <c r="N10" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R10" s="4">
         <v>-7.0300000000000001E-2</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T10" s="10">
         <v>-3.4599999999999999E-2</v>
@@ -39287,7 +39540,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="22">
+    <row r="11" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -39302,19 +39555,19 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="R11" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="S11" s="11">
         <v>0</v>
@@ -39334,7 +39587,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="27">
+    <row r="12" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -39351,22 +39604,22 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="V12" s="10">
         <v>-4.3799999999999999E-2</v>
@@ -39375,19 +39628,19 @@
         <v>-1.23E-2</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA12" s="10">
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="22">
+    <row r="13" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -39404,28 +39657,28 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="T13" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="U13" s="4">
         <v>-7.6600000000000001E-2</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X13" s="11">
         <v>1.35E-2</v>
@@ -39438,7 +39691,7 @@
       </c>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="22">
+    <row r="14" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -39457,37 +39710,37 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T14" s="11">
         <v>1.21E-2</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V14" s="11">
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA14" s="4">
         <v>-5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="22">
+    <row r="15" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -39507,13 +39760,13 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V15" s="10">
         <v>-4.1000000000000002E-2</v>
@@ -39525,7 +39778,7 @@
         <v>0.03</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z15" s="10">
         <v>4.5100000000000001E-2</v>
@@ -39534,7 +39787,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="22">
+    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -39558,22 +39811,22 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AA16" s="10">
         <v>-2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="22">
+    <row r="17" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -39597,22 +39850,22 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="10">
         <v>-1.89E-2</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="22">
+    <row r="18" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -39637,25 +39890,20 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA18" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1020" windowWidth="22260" windowHeight="21380"/>
+    <workbookView xWindow="1240" yWindow="3000" windowWidth="22320" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
@@ -2190,10 +2190,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$330</c:f>
+              <c:f>情绪数据!$T$2:$T$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3180,6 +3180,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,8 +3197,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-725467136"/>
-        <c:axId val="-725465360"/>
+        <c:axId val="-899714160"/>
+        <c:axId val="-899711840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4272,10 +4275,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$330</c:f>
+              <c:f>情绪数据!$U$2:$U$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5261,6 +5264,9 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5278,8 +5284,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-725467136"/>
-        <c:axId val="-725465360"/>
+        <c:axId val="-899714160"/>
+        <c:axId val="-899711840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6308,10 +6314,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$330</c:f>
+              <c:f>情绪数据!$J$2:$J$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7298,6 +7304,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,10 +8351,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$330</c:f>
+              <c:f>情绪数据!$K$2:$K$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9332,6 +9341,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>-1.02</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9348,11 +9360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-725463312"/>
-        <c:axId val="-725460992"/>
+        <c:axId val="-899709520"/>
+        <c:axId val="-899707200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-725467136"/>
+        <c:axId val="-899714160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9420,7 +9432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725465360"/>
+        <c:crossAx val="-899711840"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9428,7 +9440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-725465360"/>
+        <c:axId val="-899711840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9479,13 +9491,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725467136"/>
+        <c:crossAx val="-899714160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-725463312"/>
+        <c:axId val="-899709520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9495,7 +9507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-725460992"/>
+        <c:crossAx val="-899707200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9503,7 +9515,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-725460992"/>
+        <c:axId val="-899707200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9540,7 +9552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725463312"/>
+        <c:crossAx val="-899709520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9644,10 +9656,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$330</c:f>
+              <c:f>情绪数据!$A$2:$A$331</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10634,16 +10646,19 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$330</c:f>
+              <c:f>情绪数据!$B$2:$B$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11630,6 +11645,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11663,10 +11681,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$330</c:f>
+              <c:f>情绪数据!$A$2:$A$331</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12653,16 +12671,19 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$330</c:f>
+              <c:f>情绪数据!$C$2:$C$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13649,6 +13670,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13662,8 +13686,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-634289248"/>
-        <c:axId val="-633415472"/>
+        <c:axId val="-728829296"/>
+        <c:axId val="-728826976"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14682,10 +14706,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$330</c:f>
+              <c:f>情绪数据!$D$2:$D$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15672,6 +15696,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>-62.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-37.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16692,10 +16719,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$330</c:f>
+              <c:f>情绪数据!$F$2:$F$331</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17682,6 +17709,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>-1589.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-326.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17695,8 +17725,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-633413696"/>
-        <c:axId val="-633959616"/>
+        <c:axId val="-728824656"/>
+        <c:axId val="-728822336"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18716,10 +18746,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$330</c:f>
+              <c:f>情绪数据!$AF$2:$AF$331</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="330"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19706,6 +19736,9 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>59.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>49.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19722,11 +19755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-634289248"/>
-        <c:axId val="-633415472"/>
+        <c:axId val="-728829296"/>
+        <c:axId val="-728826976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-634289248"/>
+        <c:axId val="-728829296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19794,7 +19827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633415472"/>
+        <c:crossAx val="-728826976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19802,7 +19835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633415472"/>
+        <c:axId val="-728826976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -19851,12 +19884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-634289248"/>
+        <c:crossAx val="-728829296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-633413696"/>
+        <c:axId val="-728824656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19866,7 +19899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-633959616"/>
+        <c:crossAx val="-728822336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19874,7 +19907,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633959616"/>
+        <c:axId val="-728822336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -19910,7 +19943,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633413696"/>
+        <c:crossAx val="-728824656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21388,7 +21421,7 @@
   <dimension ref="T33:CZ70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="86" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="CA25" sqref="CA25"/>
+      <selection activeCell="BZ20" sqref="BZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21426,11 +21459,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG330"/>
+  <dimension ref="A1:AG331"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U330" sqref="U330"/>
+      <selection pane="bottomLeft" activeCell="U332" sqref="U332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35349,7 +35382,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I330" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I331" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -38719,6 +38752,56 @@
       <c r="AG330" s="110">
         <f t="shared" ref="AG330" si="36">(B330-AF330)/AF330</f>
         <v>-0.1067415730337079</v>
+      </c>
+    </row>
+    <row r="331" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A331" s="37">
+        <v>44663</v>
+      </c>
+      <c r="B331" s="38">
+        <v>96</v>
+      </c>
+      <c r="C331" s="38">
+        <v>32</v>
+      </c>
+      <c r="D331" s="38">
+        <v>-37</v>
+      </c>
+      <c r="E331" s="38">
+        <v>-14</v>
+      </c>
+      <c r="F331" s="38">
+        <v>-326</v>
+      </c>
+      <c r="G331" s="38">
+        <v>-66</v>
+      </c>
+      <c r="H331" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I331" s="39">
+        <f t="shared" si="26"/>
+        <v>75</v>
+      </c>
+      <c r="J331" s="39">
+        <v>3.46</v>
+      </c>
+      <c r="K331" s="39">
+        <v>0.89</v>
+      </c>
+      <c r="T331" s="94">
+        <v>5</v>
+      </c>
+      <c r="U331" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF331" s="109">
+        <f t="shared" ref="AF331" si="37">(B328+B329+B330)/3</f>
+        <v>49.666666666666664</v>
+      </c>
+      <c r="AG331" s="110">
+        <f t="shared" ref="AG331" si="38">(B331-AF331)/AF331</f>
+        <v>0.93288590604026855</v>
       </c>
     </row>
   </sheetData>

--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="3000" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="6240" yWindow="1320" windowWidth="22320" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
@@ -1194,10 +1194,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$330</c:f>
+              <c:f>情绪数据!$A$2:$A$332</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -2184,16 +2184,22 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$331</c:f>
+              <c:f>情绪数据!$T$2:$T$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3183,6 +3189,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,8 +3206,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-899714160"/>
-        <c:axId val="-899711840"/>
+        <c:axId val="-833308768"/>
+        <c:axId val="-833307136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4275,10 +4284,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$331</c:f>
+              <c:f>情绪数据!$U$2:$U$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5267,6 +5276,9 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5284,8 +5296,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-899714160"/>
-        <c:axId val="-899711840"/>
+        <c:axId val="-833308768"/>
+        <c:axId val="-833307136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5318,10 +5330,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$330</c:f>
+              <c:f>情绪数据!$A$2:$A$332</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -6308,16 +6320,22 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$331</c:f>
+              <c:f>情绪数据!$J$2:$J$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7307,6 +7325,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7355,10 +7376,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$330</c:f>
+              <c:f>情绪数据!$A$2:$A$332</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="329"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -8345,16 +8366,22 @@
                 </c:pt>
                 <c:pt idx="328">
                   <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$331</c:f>
+              <c:f>情绪数据!$K$2:$K$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9344,6 +9371,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9360,11 +9390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-899709520"/>
-        <c:axId val="-899707200"/>
+        <c:axId val="-832965008"/>
+        <c:axId val="-832822688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-899714160"/>
+        <c:axId val="-833308768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9432,7 +9462,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-899711840"/>
+        <c:crossAx val="-833307136"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9440,7 +9470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-899711840"/>
+        <c:axId val="-833307136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9491,13 +9521,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-899714160"/>
+        <c:crossAx val="-833308768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-899709520"/>
+        <c:axId val="-832965008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9507,7 +9537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-899707200"/>
+        <c:crossAx val="-832822688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9515,7 +9545,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-899707200"/>
+        <c:axId val="-832822688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9552,7 +9582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-899709520"/>
+        <c:crossAx val="-832965008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9656,10 +9686,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$331</c:f>
+              <c:f>情绪数据!$A$2:$A$332</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10649,16 +10679,19 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$331</c:f>
+              <c:f>情绪数据!$B$2:$B$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11648,6 +11681,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11681,10 +11717,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$331</c:f>
+              <c:f>情绪数据!$A$2:$A$332</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12674,16 +12710,19 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$331</c:f>
+              <c:f>情绪数据!$C$2:$C$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13673,6 +13712,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13686,8 +13728,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-728829296"/>
-        <c:axId val="-728826976"/>
+        <c:axId val="-837635040"/>
+        <c:axId val="-837632992"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14706,10 +14748,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$331</c:f>
+              <c:f>情绪数据!$D$2:$D$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15699,6 +15741,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>-37.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-54.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16719,10 +16764,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$331</c:f>
+              <c:f>情绪数据!$F$2:$F$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17712,6 +17757,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>-326.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-732.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17725,8 +17773,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-728824656"/>
-        <c:axId val="-728822336"/>
+        <c:axId val="-837630672"/>
+        <c:axId val="-837628352"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18746,10 +18794,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$331</c:f>
+              <c:f>情绪数据!$AF$2:$AF$332</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="330"/>
+                <c:ptCount val="331"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19739,6 +19787,9 @@
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>49.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>71.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19755,11 +19806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-728829296"/>
-        <c:axId val="-728826976"/>
+        <c:axId val="-837635040"/>
+        <c:axId val="-837632992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-728829296"/>
+        <c:axId val="-837635040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19827,7 +19878,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728826976"/>
+        <c:crossAx val="-837632992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19835,7 +19886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-728826976"/>
+        <c:axId val="-837632992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -19884,12 +19935,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728829296"/>
+        <c:crossAx val="-837635040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-728824656"/>
+        <c:axId val="-837630672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19899,7 +19950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-728822336"/>
+        <c:crossAx val="-837628352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19907,7 +19958,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-728822336"/>
+        <c:axId val="-837628352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -19943,7 +19994,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728824656"/>
+        <c:crossAx val="-837630672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21420,8 +21471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="86" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="BZ20" sqref="BZ20"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="86" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BZ18" sqref="BZ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21459,11 +21510,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG331"/>
+  <dimension ref="A1:AG332"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U332" sqref="U332"/>
+      <selection pane="bottomLeft" activeCell="J331" sqref="J331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35382,7 +35433,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I331" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I332" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -38802,6 +38853,56 @@
       <c r="AG331" s="110">
         <f t="shared" ref="AG331" si="38">(B331-AF331)/AF331</f>
         <v>0.93288590604026855</v>
+      </c>
+    </row>
+    <row r="332" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A332" s="37">
+        <v>44664</v>
+      </c>
+      <c r="B332" s="38">
+        <v>53</v>
+      </c>
+      <c r="C332" s="38">
+        <v>40</v>
+      </c>
+      <c r="D332" s="38">
+        <v>-54</v>
+      </c>
+      <c r="E332" s="38">
+        <v>-42</v>
+      </c>
+      <c r="F332" s="38">
+        <v>-732</v>
+      </c>
+      <c r="G332" s="38">
+        <v>-498</v>
+      </c>
+      <c r="H332" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I332" s="39">
+        <f t="shared" si="26"/>
+        <v>56.98924731182796</v>
+      </c>
+      <c r="J332" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="K332" s="39">
+        <v>-0.76</v>
+      </c>
+      <c r="T332" s="94">
+        <v>6</v>
+      </c>
+      <c r="U332" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF332" s="109">
+        <f t="shared" ref="AF332" si="39">(B329+B330+B331)/3</f>
+        <v>71</v>
+      </c>
+      <c r="AG332" s="110">
+        <f t="shared" ref="AG332" si="40">(B332-AF332)/AF332</f>
+        <v>-0.25352112676056338</v>
       </c>
     </row>
   </sheetData>

--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1320" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="12160" yWindow="560" windowWidth="22320" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
@@ -2196,10 +2196,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$332</c:f>
+              <c:f>情绪数据!$T$2:$T$333</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3192,6 +3192,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,8 +3209,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-833308768"/>
-        <c:axId val="-833307136"/>
+        <c:axId val="-725334688"/>
+        <c:axId val="-725332912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4284,10 +4287,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$332</c:f>
+              <c:f>情绪数据!$U$2:$U$333</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5279,6 +5282,9 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5296,8 +5302,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-833308768"/>
-        <c:axId val="-833307136"/>
+        <c:axId val="-725334688"/>
+        <c:axId val="-725332912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6332,10 +6338,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$332</c:f>
+              <c:f>情绪数据!$J$2:$J$333</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7328,6 +7334,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8378,10 +8387,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$332</c:f>
+              <c:f>情绪数据!$K$2:$K$333</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9374,6 +9383,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-0.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9390,11 +9402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-832965008"/>
-        <c:axId val="-832822688"/>
+        <c:axId val="-725167216"/>
+        <c:axId val="-725327664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-833308768"/>
+        <c:axId val="-725334688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9462,7 +9474,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-833307136"/>
+        <c:crossAx val="-725332912"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9470,7 +9482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-833307136"/>
+        <c:axId val="-725332912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9521,13 +9533,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-833308768"/>
+        <c:crossAx val="-725334688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-832965008"/>
+        <c:axId val="-725167216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9537,7 +9549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-832822688"/>
+        <c:crossAx val="-725327664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9545,7 +9557,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-832822688"/>
+        <c:axId val="-725327664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9582,7 +9594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-832965008"/>
+        <c:crossAx val="-725167216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9686,10 +9698,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$332</c:f>
+              <c:f>情绪数据!$A$2:$A$333</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10682,16 +10694,19 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>44664.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44665.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$332</c:f>
+              <c:f>情绪数据!$B$2:$B$333</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11547,85 +11562,85 @@
                 <c:pt idx="284">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="285" formatCode="General">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="286" formatCode="General">
                   <c:v>97.0</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="287" formatCode="General">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="288" formatCode="General">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="289" formatCode="General">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="290" formatCode="General">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="291" formatCode="General">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="292" formatCode="General">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="293" formatCode="General">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="294">
+                <c:pt idx="294" formatCode="General">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="295">
+                <c:pt idx="295" formatCode="General">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="296" formatCode="General">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="297">
+                <c:pt idx="297" formatCode="General">
                   <c:v>89.0</c:v>
                 </c:pt>
-                <c:pt idx="298">
+                <c:pt idx="298" formatCode="General">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="299">
+                <c:pt idx="299" formatCode="General">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="300">
+                <c:pt idx="300" formatCode="General">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="301">
+                <c:pt idx="301" formatCode="General">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="302">
+                <c:pt idx="302" formatCode="General">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="303">
+                <c:pt idx="303" formatCode="General">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="304">
+                <c:pt idx="304" formatCode="General">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="305">
+                <c:pt idx="305" formatCode="General">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="306">
+                <c:pt idx="306" formatCode="General">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="307">
+                <c:pt idx="307" formatCode="General">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="308">
+                <c:pt idx="308" formatCode="General">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="309">
+                <c:pt idx="309" formatCode="General">
                   <c:v>69.0</c:v>
                 </c:pt>
-                <c:pt idx="310">
+                <c:pt idx="310" formatCode="General">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="311">
+                <c:pt idx="311" formatCode="General">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -11658,16 +11673,16 @@
                 <c:pt idx="321">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="322">
+                <c:pt idx="322" formatCode="General">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="323">
+                <c:pt idx="323" formatCode="General">
                   <c:v>55.0</c:v>
                 </c:pt>
-                <c:pt idx="324">
+                <c:pt idx="324" formatCode="General">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="325">
+                <c:pt idx="325" formatCode="General">
                   <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -11684,6 +11699,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>77.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11717,10 +11735,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$332</c:f>
+              <c:f>情绪数据!$A$2:$A$333</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12713,16 +12731,19 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>44664.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44665.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$332</c:f>
+              <c:f>情绪数据!$C$2:$C$333</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13578,85 +13599,85 @@
                 <c:pt idx="284">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="285" formatCode="General">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="286" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="287" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="288" formatCode="General">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="289" formatCode="General">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="290" formatCode="General">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="291" formatCode="General">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="292" formatCode="General">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="293" formatCode="General">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="294">
+                <c:pt idx="294" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="295">
+                <c:pt idx="295" formatCode="General">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="296" formatCode="General">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="297">
+                <c:pt idx="297" formatCode="General">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="298">
+                <c:pt idx="298" formatCode="General">
                   <c:v>36.0</c:v>
                 </c:pt>
-                <c:pt idx="299">
+                <c:pt idx="299" formatCode="General">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="300">
+                <c:pt idx="300" formatCode="General">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="301">
+                <c:pt idx="301" formatCode="General">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="302">
+                <c:pt idx="302" formatCode="General">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="303">
+                <c:pt idx="303" formatCode="General">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="304">
+                <c:pt idx="304" formatCode="General">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="305">
+                <c:pt idx="305" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="306">
+                <c:pt idx="306" formatCode="General">
                   <c:v>33.0</c:v>
                 </c:pt>
-                <c:pt idx="307">
+                <c:pt idx="307" formatCode="General">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="308">
+                <c:pt idx="308" formatCode="General">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="309">
+                <c:pt idx="309" formatCode="General">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="310">
+                <c:pt idx="310" formatCode="General">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="311">
+                <c:pt idx="311" formatCode="General">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -13689,16 +13710,16 @@
                 <c:pt idx="321">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="322">
+                <c:pt idx="322" formatCode="General">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="323">
+                <c:pt idx="323" formatCode="General">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="324">
+                <c:pt idx="324" formatCode="General">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="325">
+                <c:pt idx="325" formatCode="General">
                   <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -13715,6 +13736,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13728,8 +13752,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-837635040"/>
-        <c:axId val="-837632992"/>
+        <c:axId val="-725361120"/>
+        <c:axId val="-725162976"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14748,10 +14772,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$332</c:f>
+              <c:f>情绪数据!$D$2:$D$333</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15744,6 +15768,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>-54.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16764,10 +16791,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$332</c:f>
+              <c:f>情绪数据!$F$2:$F$333</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17760,6 +17787,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>-732.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-188.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17773,8 +17803,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-837630672"/>
-        <c:axId val="-837628352"/>
+        <c:axId val="-725160656"/>
+        <c:axId val="-725158336"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18794,10 +18824,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$332</c:f>
+              <c:f>情绪数据!$AF$2:$AF$333</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="332"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19790,6 +19820,9 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>67.33333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19806,11 +19839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-837635040"/>
-        <c:axId val="-837632992"/>
+        <c:axId val="-725361120"/>
+        <c:axId val="-725162976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-837635040"/>
+        <c:axId val="-725361120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19878,7 +19911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-837632992"/>
+        <c:crossAx val="-725162976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19886,7 +19919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-837632992"/>
+        <c:axId val="-725162976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -19935,12 +19968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-837635040"/>
+        <c:crossAx val="-725361120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-837630672"/>
+        <c:axId val="-725160656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19950,7 +19983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-837628352"/>
+        <c:crossAx val="-725158336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19958,7 +19991,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-837628352"/>
+        <c:axId val="-725158336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -19994,7 +20027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-837630672"/>
+        <c:crossAx val="-725160656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21471,8 +21504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="86" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="BZ18" sqref="BZ18"/>
+    <sheetView tabSelected="1" topLeftCell="BI2" zoomScale="93" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BZ4" sqref="BZ4:BZ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21510,11 +21543,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG332"/>
+  <dimension ref="A1:AG333"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J331" sqref="J331"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31667,7 +31700,7 @@
         <v>-53</v>
       </c>
       <c r="E198" s="88">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="F198" s="88">
         <v>-476</v>
@@ -35433,7 +35466,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I332" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I333" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -38903,6 +38936,56 @@
       <c r="AG332" s="110">
         <f t="shared" ref="AG332" si="40">(B332-AF332)/AF332</f>
         <v>-0.25352112676056338</v>
+      </c>
+    </row>
+    <row r="333" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A333" s="37">
+        <v>44665</v>
+      </c>
+      <c r="B333" s="38">
+        <v>77</v>
+      </c>
+      <c r="C333" s="38">
+        <v>19</v>
+      </c>
+      <c r="D333" s="38">
+        <v>-23</v>
+      </c>
+      <c r="E333" s="38">
+        <v>-4</v>
+      </c>
+      <c r="F333" s="38">
+        <v>-188</v>
+      </c>
+      <c r="G333" s="38">
+        <v>-73</v>
+      </c>
+      <c r="H333" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I333" s="39">
+        <f t="shared" si="26"/>
+        <v>80.208333333333343</v>
+      </c>
+      <c r="J333" s="39">
+        <v>2.02</v>
+      </c>
+      <c r="K333" s="39">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T333" s="94">
+        <v>5</v>
+      </c>
+      <c r="U333" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF333" s="109">
+        <f t="shared" ref="AF333" si="41">(B330+B331+B332)/3</f>
+        <v>67.333333333333329</v>
+      </c>
+      <c r="AG333" s="110">
+        <f t="shared" ref="AG333" si="42">(B333-AF333)/AF333</f>
+        <v>0.14356435643564364</v>
       </c>
     </row>
   </sheetData>
@@ -38967,7 +39050,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D1:D327 D330:D1048576 E328</xm:sqref>
+          <xm:sqref>D1:D327 D330:D333 D335:D1048576 E334 E328</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
@@ -38986,7 +39069,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E1:E327 E330:E1048576 F328</xm:sqref>
+          <xm:sqref>E1:E327 E330:E333 E335:E1048576 F334 F328</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
@@ -39005,7 +39088,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F1:F327 F330:F1048576</xm:sqref>
+          <xm:sqref>F1:F327 F330:F333 F335:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">

--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1194,10 +1194,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$332</c:f>
+              <c:f>情绪数据!$A$2:$A$1048576</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="331"/>
+                <c:ptCount val="1048575"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -2190,16 +2190,22 @@
                 </c:pt>
                 <c:pt idx="330">
                   <c:v>44664.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44665.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44666.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$333</c:f>
+              <c:f>情绪数据!$T$2:$T$334</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3194,6 +3200,9 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
                   <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3209,8 +3218,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-725334688"/>
-        <c:axId val="-725332912"/>
+        <c:axId val="-446899584"/>
+        <c:axId val="-447394080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4287,10 +4296,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$333</c:f>
+              <c:f>情绪数据!$U$2:$U$334</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5286,6 +5295,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,8 +5314,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-725334688"/>
-        <c:axId val="-725332912"/>
+        <c:axId val="-446899584"/>
+        <c:axId val="-447394080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6338,10 +6350,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$333</c:f>
+              <c:f>情绪数据!$J$2:$J$334</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7337,6 +7349,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8387,10 +8402,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$333</c:f>
+              <c:f>情绪数据!$K$2:$K$334</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9386,6 +9401,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>-0.07</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9402,11 +9420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-725167216"/>
-        <c:axId val="-725327664"/>
+        <c:axId val="-392064736"/>
+        <c:axId val="-392084912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-725334688"/>
+        <c:axId val="-446899584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9474,7 +9492,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725332912"/>
+        <c:crossAx val="-447394080"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9482,7 +9500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-725332912"/>
+        <c:axId val="-447394080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9533,13 +9551,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725334688"/>
+        <c:crossAx val="-446899584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-725167216"/>
+        <c:axId val="-392064736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9549,7 +9567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-725327664"/>
+        <c:crossAx val="-392084912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9557,7 +9575,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-725327664"/>
+        <c:axId val="-392084912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9594,7 +9612,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725167216"/>
+        <c:crossAx val="-392064736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9698,10 +9716,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$333</c:f>
+              <c:f>情绪数据!$A$2:$A$2000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="1999"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10697,16 +10715,19 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>44665.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44666.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$333</c:f>
+              <c:f>情绪数据!$B$2:$B$334</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11562,85 +11583,85 @@
                 <c:pt idx="284">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="285" formatCode="General">
+                <c:pt idx="285">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="286" formatCode="General">
+                <c:pt idx="286">
                   <c:v>97.0</c:v>
                 </c:pt>
-                <c:pt idx="287" formatCode="General">
+                <c:pt idx="287">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="288" formatCode="General">
+                <c:pt idx="288">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="289" formatCode="General">
+                <c:pt idx="289">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="290" formatCode="General">
+                <c:pt idx="290">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="291" formatCode="General">
+                <c:pt idx="291">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="292" formatCode="General">
+                <c:pt idx="292">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="293" formatCode="General">
+                <c:pt idx="293">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="294" formatCode="General">
+                <c:pt idx="294">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="295" formatCode="General">
+                <c:pt idx="295">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="296" formatCode="General">
+                <c:pt idx="296">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="297" formatCode="General">
+                <c:pt idx="297">
                   <c:v>89.0</c:v>
                 </c:pt>
-                <c:pt idx="298" formatCode="General">
+                <c:pt idx="298">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="299" formatCode="General">
+                <c:pt idx="299">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="300" formatCode="General">
+                <c:pt idx="300">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="301" formatCode="General">
+                <c:pt idx="301">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="302" formatCode="General">
+                <c:pt idx="302">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="303" formatCode="General">
+                <c:pt idx="303">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="304" formatCode="General">
+                <c:pt idx="304">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="305" formatCode="General">
+                <c:pt idx="305">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="306" formatCode="General">
+                <c:pt idx="306">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="307" formatCode="General">
+                <c:pt idx="307">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="308" formatCode="General">
+                <c:pt idx="308">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="309" formatCode="General">
+                <c:pt idx="309">
                   <c:v>69.0</c:v>
                 </c:pt>
-                <c:pt idx="310" formatCode="General">
+                <c:pt idx="310">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="311" formatCode="General">
+                <c:pt idx="311">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -11673,16 +11694,16 @@
                 <c:pt idx="321">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="322" formatCode="General">
+                <c:pt idx="322">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="323" formatCode="General">
+                <c:pt idx="323">
                   <c:v>55.0</c:v>
                 </c:pt>
-                <c:pt idx="324" formatCode="General">
+                <c:pt idx="324">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="325" formatCode="General">
+                <c:pt idx="325">
                   <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -11702,6 +11723,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11735,10 +11759,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$333</c:f>
+              <c:f>情绪数据!$A$2:$A$2000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="1999"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12734,16 +12758,19 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>44665.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44666.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$333</c:f>
+              <c:f>情绪数据!$C$2:$C$334</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13599,85 +13626,85 @@
                 <c:pt idx="284">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="285" formatCode="General">
+                <c:pt idx="285">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="286" formatCode="General">
+                <c:pt idx="286">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="287" formatCode="General">
+                <c:pt idx="287">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="288" formatCode="General">
+                <c:pt idx="288">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="289" formatCode="General">
+                <c:pt idx="289">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="290" formatCode="General">
+                <c:pt idx="290">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="291" formatCode="General">
+                <c:pt idx="291">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="292" formatCode="General">
+                <c:pt idx="292">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="293" formatCode="General">
+                <c:pt idx="293">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="294" formatCode="General">
+                <c:pt idx="294">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="295" formatCode="General">
+                <c:pt idx="295">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="296" formatCode="General">
+                <c:pt idx="296">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="297" formatCode="General">
+                <c:pt idx="297">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="298" formatCode="General">
+                <c:pt idx="298">
                   <c:v>36.0</c:v>
                 </c:pt>
-                <c:pt idx="299" formatCode="General">
+                <c:pt idx="299">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="300" formatCode="General">
+                <c:pt idx="300">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="301" formatCode="General">
+                <c:pt idx="301">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="302" formatCode="General">
+                <c:pt idx="302">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="303" formatCode="General">
+                <c:pt idx="303">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="304" formatCode="General">
+                <c:pt idx="304">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="305" formatCode="General">
+                <c:pt idx="305">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="306" formatCode="General">
+                <c:pt idx="306">
                   <c:v>33.0</c:v>
                 </c:pt>
-                <c:pt idx="307" formatCode="General">
+                <c:pt idx="307">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="308" formatCode="General">
+                <c:pt idx="308">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="309" formatCode="General">
+                <c:pt idx="309">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="310" formatCode="General">
+                <c:pt idx="310">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="311" formatCode="General">
+                <c:pt idx="311">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -13710,16 +13737,16 @@
                 <c:pt idx="321">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="322" formatCode="General">
+                <c:pt idx="322">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="323" formatCode="General">
+                <c:pt idx="323">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="324" formatCode="General">
+                <c:pt idx="324">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="325" formatCode="General">
+                <c:pt idx="325">
                   <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -13739,6 +13766,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13752,8 +13782,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-725361120"/>
-        <c:axId val="-725162976"/>
+        <c:axId val="-607134432"/>
+        <c:axId val="-446716064"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14772,10 +14802,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$333</c:f>
+              <c:f>情绪数据!$D$2:$D$334</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15771,6 +15801,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>-23.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-54.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16791,10 +16824,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$333</c:f>
+              <c:f>情绪数据!$F$2:$F$334</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17790,6 +17823,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>-188.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-807.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17803,8 +17839,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-725160656"/>
-        <c:axId val="-725158336"/>
+        <c:axId val="-447445920"/>
+        <c:axId val="-392098272"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18824,10 +18860,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$333</c:f>
+              <c:f>情绪数据!$AF$2:$AF$334</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="332"/>
+                <c:ptCount val="333"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19823,6 +19859,9 @@
                 </c:pt>
                 <c:pt idx="331">
                   <c:v>67.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>75.33333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19839,11 +19878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-725361120"/>
-        <c:axId val="-725162976"/>
+        <c:axId val="-607134432"/>
+        <c:axId val="-446716064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-725361120"/>
+        <c:axId val="-607134432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19911,7 +19950,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725162976"/>
+        <c:crossAx val="-446716064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19919,7 +19958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-725162976"/>
+        <c:axId val="-446716064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -19968,12 +20007,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725361120"/>
+        <c:crossAx val="-607134432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-725160656"/>
+        <c:axId val="-447445920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19983,7 +20022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-725158336"/>
+        <c:crossAx val="-392098272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19991,7 +20030,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-725158336"/>
+        <c:axId val="-392098272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -20027,7 +20066,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-725160656"/>
+        <c:crossAx val="-447445920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21504,8 +21543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI2" zoomScale="93" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="BZ4" sqref="BZ4:BZ47"/>
+    <sheetView tabSelected="1" topLeftCell="BG8" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BZ39" sqref="BZ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21543,11 +21582,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG333"/>
+  <dimension ref="A1:AG334"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D335" sqref="D335"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F339" sqref="F339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35466,7 +35505,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I333" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I334" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -38986,6 +39025,56 @@
       <c r="AG333" s="110">
         <f t="shared" ref="AG333" si="42">(B333-AF333)/AF333</f>
         <v>0.14356435643564364</v>
+      </c>
+    </row>
+    <row r="334" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A334" s="37">
+        <v>44666</v>
+      </c>
+      <c r="B334" s="38">
+        <v>38</v>
+      </c>
+      <c r="C334" s="38">
+        <v>32</v>
+      </c>
+      <c r="D334" s="38">
+        <v>-54</v>
+      </c>
+      <c r="E334" s="38">
+        <v>-31</v>
+      </c>
+      <c r="F334" s="38">
+        <v>-807</v>
+      </c>
+      <c r="G334" s="38">
+        <v>-442</v>
+      </c>
+      <c r="H334" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I334" s="39">
+        <f t="shared" si="26"/>
+        <v>54.285714285714285</v>
+      </c>
+      <c r="J334" s="39">
+        <v>-0.4</v>
+      </c>
+      <c r="K334" s="39">
+        <v>-0.8</v>
+      </c>
+      <c r="T334" s="94">
+        <v>5</v>
+      </c>
+      <c r="U334" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF334" s="109">
+        <f t="shared" ref="AF334:AF335" si="43">(B331+B332+B333)/3</f>
+        <v>75.333333333333329</v>
+      </c>
+      <c r="AG334" s="110">
+        <f t="shared" ref="AG334:AG335" si="44">(B334-AF334)/AF334</f>
+        <v>-0.49557522123893805</v>
       </c>
     </row>
   </sheetData>

--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="560" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="22320" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
@@ -1194,10 +1194,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$1048576</c:f>
+              <c:f>情绪数据!$A$2:$A$2000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="1048575"/>
+                <c:ptCount val="1999"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -2196,16 +2196,19 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>44666.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44669.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$334</c:f>
+              <c:f>情绪数据!$T$2:$T$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3204,6 +3207,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,8 +3224,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-446899584"/>
-        <c:axId val="-447394080"/>
+        <c:axId val="-847674752"/>
+        <c:axId val="-847451264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4296,10 +4302,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$334</c:f>
+              <c:f>情绪数据!$U$2:$U$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5298,6 +5304,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5314,8 +5323,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-446899584"/>
-        <c:axId val="-447394080"/>
+        <c:axId val="-847674752"/>
+        <c:axId val="-847451264"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6350,10 +6359,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$334</c:f>
+              <c:f>情绪数据!$J$2:$J$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7352,6 +7361,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8402,10 +8414,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$334</c:f>
+              <c:f>情绪数据!$K$2:$K$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9404,6 +9416,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9420,11 +9435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-392064736"/>
-        <c:axId val="-392084912"/>
+        <c:axId val="-847715808"/>
+        <c:axId val="-847714032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-446899584"/>
+        <c:axId val="-847674752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9492,7 +9507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-447394080"/>
+        <c:crossAx val="-847451264"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9500,7 +9515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-447394080"/>
+        <c:axId val="-847451264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9551,13 +9566,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-446899584"/>
+        <c:crossAx val="-847674752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-392064736"/>
+        <c:axId val="-847715808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9567,7 +9582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-392084912"/>
+        <c:crossAx val="-847714032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9575,7 +9590,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392084912"/>
+        <c:axId val="-847714032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9612,7 +9627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392064736"/>
+        <c:crossAx val="-847715808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10719,15 +10734,18 @@
                 <c:pt idx="332">
                   <c:v>44666.0</c:v>
                 </c:pt>
+                <c:pt idx="333">
+                  <c:v>44669.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$334</c:f>
+              <c:f>情绪数据!$B$2:$B$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11726,6 +11744,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12762,15 +12783,18 @@
                 <c:pt idx="332">
                   <c:v>44666.0</c:v>
                 </c:pt>
+                <c:pt idx="333">
+                  <c:v>44669.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$334</c:f>
+              <c:f>情绪数据!$C$2:$C$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13769,6 +13793,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13782,8 +13809,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-607134432"/>
-        <c:axId val="-446716064"/>
+        <c:axId val="-847753744"/>
+        <c:axId val="-847751424"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14802,10 +14829,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$334</c:f>
+              <c:f>情绪数据!$D$2:$D$335</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15804,6 +15831,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>-54.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-55.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16824,10 +16854,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$334</c:f>
+              <c:f>情绪数据!$F$2:$F$335</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="333"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17826,6 +17856,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>-807.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-391.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17839,8 +17872,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-447445920"/>
-        <c:axId val="-392098272"/>
+        <c:axId val="-847749104"/>
+        <c:axId val="-847746784"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18860,10 +18893,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$334</c:f>
+              <c:f>情绪数据!$AF$2:$AF$335</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="333"/>
+                <c:ptCount val="334"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19862,6 +19895,9 @@
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>75.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>56.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19878,11 +19914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-607134432"/>
-        <c:axId val="-446716064"/>
+        <c:axId val="-847753744"/>
+        <c:axId val="-847751424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-607134432"/>
+        <c:axId val="-847753744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19950,7 +19986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-446716064"/>
+        <c:crossAx val="-847751424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19958,7 +19994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-446716064"/>
+        <c:axId val="-847751424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -20007,12 +20043,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-607134432"/>
+        <c:crossAx val="-847753744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-447445920"/>
+        <c:axId val="-847749104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20022,7 +20058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-392098272"/>
+        <c:crossAx val="-847746784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20030,7 +20066,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392098272"/>
+        <c:axId val="-847746784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -20066,7 +20102,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-447445920"/>
+        <c:crossAx val="-847749104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21543,8 +21579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG8" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="BZ39" sqref="BZ39"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="CE25" sqref="CE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21582,11 +21618,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG334"/>
+  <dimension ref="A1:AG335"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F339" sqref="F339"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I337" sqref="I337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35505,7 +35541,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I334" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I335" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -39069,12 +39105,62 @@
         <v>2</v>
       </c>
       <c r="AF334" s="109">
-        <f t="shared" ref="AF334:AF335" si="43">(B331+B332+B333)/3</f>
+        <f t="shared" ref="AF334" si="43">(B331+B332+B333)/3</f>
         <v>75.333333333333329</v>
       </c>
       <c r="AG334" s="110">
-        <f t="shared" ref="AG334:AG335" si="44">(B334-AF334)/AF334</f>
+        <f t="shared" ref="AG334" si="44">(B334-AF334)/AF334</f>
         <v>-0.49557522123893805</v>
+      </c>
+    </row>
+    <row r="335" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A335" s="37">
+        <v>44669</v>
+      </c>
+      <c r="B335" s="38">
+        <v>76</v>
+      </c>
+      <c r="C335" s="38">
+        <v>16</v>
+      </c>
+      <c r="D335" s="38">
+        <v>-55</v>
+      </c>
+      <c r="E335" s="38">
+        <v>-34</v>
+      </c>
+      <c r="F335" s="38">
+        <v>-391</v>
+      </c>
+      <c r="G335" s="38">
+        <v>-121</v>
+      </c>
+      <c r="H335" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I335" s="39">
+        <f t="shared" si="26"/>
+        <v>82.608695652173907</v>
+      </c>
+      <c r="J335" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="K335" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="T335" s="94">
+        <v>6</v>
+      </c>
+      <c r="U335" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF335" s="109">
+        <f t="shared" ref="AF335" si="45">(B332+B333+B334)/3</f>
+        <v>56</v>
+      </c>
+      <c r="AG335" s="110">
+        <f t="shared" ref="AG335" si="46">(B335-AF335)/AF335</f>
+        <v>0.35714285714285715</v>
       </c>
     </row>
   </sheetData>

--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newhope_ghost/Documents/codeDir/github/stockDetailQuery/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="13000" yWindow="0" windowWidth="22320" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
     <sheet name="情绪数据" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -459,12 +454,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -811,7 +806,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,7 +831,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -907,26 +914,26 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,66 +946,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="16" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="16" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1010,53 +1017,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="逗号" xfId="8" builtinId="3"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2200,15 +2211,21 @@
                 <c:pt idx="333">
                   <c:v>44669.0</c:v>
                 </c:pt>
+                <c:pt idx="334">
+                  <c:v>44670.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44671.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$335</c:f>
+              <c:f>情绪数据!$T$2:$T$337</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3210,6 +3227,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,8 +3247,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-847674752"/>
-        <c:axId val="-847451264"/>
+        <c:axId val="2101846808"/>
+        <c:axId val="2100368984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4302,10 +4325,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$335</c:f>
+              <c:f>情绪数据!$U$2:$U$337</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5307,6 +5330,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5323,8 +5352,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-847674752"/>
-        <c:axId val="-847451264"/>
+        <c:axId val="2101846808"/>
+        <c:axId val="2100368984"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6359,10 +6388,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$335</c:f>
+              <c:f>情绪数据!$J$2:$J$337</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7364,6 +7393,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8414,10 +8449,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$335</c:f>
+              <c:f>情绪数据!$K$2:$K$337</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9419,6 +9454,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9435,11 +9476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-847715808"/>
-        <c:axId val="-847714032"/>
+        <c:axId val="2100365608"/>
+        <c:axId val="2100363544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-847674752"/>
+        <c:axId val="2101846808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9507,7 +9548,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847451264"/>
+        <c:crossAx val="2100368984"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9515,7 +9556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-847451264"/>
+        <c:axId val="2100368984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9566,13 +9607,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847674752"/>
+        <c:crossAx val="2101846808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-847715808"/>
+        <c:axId val="2100365608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9582,7 +9623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-847714032"/>
+        <c:crossAx val="2100363544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9590,7 +9631,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-847714032"/>
+        <c:axId val="2100363544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9627,7 +9668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847715808"/>
+        <c:crossAx val="2100365608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10737,15 +10778,21 @@
                 <c:pt idx="333">
                   <c:v>44669.0</c:v>
                 </c:pt>
+                <c:pt idx="334">
+                  <c:v>44670.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44671.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$335</c:f>
+              <c:f>情绪数据!$B$2:$B$337</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11601,85 +11648,85 @@
                 <c:pt idx="284">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="285" formatCode="General">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="286" formatCode="General">
                   <c:v>97.0</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="287" formatCode="General">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="288" formatCode="General">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="289" formatCode="General">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="290" formatCode="General">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="291" formatCode="General">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="292" formatCode="General">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="293" formatCode="General">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="294">
+                <c:pt idx="294" formatCode="General">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="295">
+                <c:pt idx="295" formatCode="General">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="296" formatCode="General">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="297">
+                <c:pt idx="297" formatCode="General">
                   <c:v>89.0</c:v>
                 </c:pt>
-                <c:pt idx="298">
+                <c:pt idx="298" formatCode="General">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="299">
+                <c:pt idx="299" formatCode="General">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="300">
+                <c:pt idx="300" formatCode="General">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="301">
+                <c:pt idx="301" formatCode="General">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="302">
+                <c:pt idx="302" formatCode="General">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="303">
+                <c:pt idx="303" formatCode="General">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="304">
+                <c:pt idx="304" formatCode="General">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="305">
+                <c:pt idx="305" formatCode="General">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="306">
+                <c:pt idx="306" formatCode="General">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="307">
+                <c:pt idx="307" formatCode="General">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="308">
+                <c:pt idx="308" formatCode="General">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="309">
+                <c:pt idx="309" formatCode="General">
                   <c:v>69.0</c:v>
                 </c:pt>
-                <c:pt idx="310">
+                <c:pt idx="310" formatCode="General">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="311">
+                <c:pt idx="311" formatCode="General">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -11712,16 +11759,16 @@
                 <c:pt idx="321">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="322">
+                <c:pt idx="322" formatCode="General">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="323">
+                <c:pt idx="323" formatCode="General">
                   <c:v>55.0</c:v>
                 </c:pt>
-                <c:pt idx="324">
+                <c:pt idx="324" formatCode="General">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="325">
+                <c:pt idx="325" formatCode="General">
                   <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -11747,6 +11794,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>52.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12786,15 +12839,21 @@
                 <c:pt idx="333">
                   <c:v>44669.0</c:v>
                 </c:pt>
+                <c:pt idx="334">
+                  <c:v>44670.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44671.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$335</c:f>
+              <c:f>情绪数据!$C$2:$C$337</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13650,85 +13709,85 @@
                 <c:pt idx="284">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="285" formatCode="General">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="286" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="287" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="288" formatCode="General">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="289" formatCode="General">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="290" formatCode="General">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="291" formatCode="General">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="292" formatCode="General">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="293" formatCode="General">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="294">
+                <c:pt idx="294" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="295">
+                <c:pt idx="295" formatCode="General">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="296" formatCode="General">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="297">
+                <c:pt idx="297" formatCode="General">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="298">
+                <c:pt idx="298" formatCode="General">
                   <c:v>36.0</c:v>
                 </c:pt>
-                <c:pt idx="299">
+                <c:pt idx="299" formatCode="General">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="300">
+                <c:pt idx="300" formatCode="General">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="301">
+                <c:pt idx="301" formatCode="General">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="302">
+                <c:pt idx="302" formatCode="General">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="303">
+                <c:pt idx="303" formatCode="General">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="304">
+                <c:pt idx="304" formatCode="General">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="305">
+                <c:pt idx="305" formatCode="General">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="306">
+                <c:pt idx="306" formatCode="General">
                   <c:v>33.0</c:v>
                 </c:pt>
-                <c:pt idx="307">
+                <c:pt idx="307" formatCode="General">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="308">
+                <c:pt idx="308" formatCode="General">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="309">
+                <c:pt idx="309" formatCode="General">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="310">
+                <c:pt idx="310" formatCode="General">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="311">
+                <c:pt idx="311" formatCode="General">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -13761,16 +13820,16 @@
                 <c:pt idx="321">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="322">
+                <c:pt idx="322" formatCode="General">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="323">
+                <c:pt idx="323" formatCode="General">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="324">
+                <c:pt idx="324" formatCode="General">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="325">
+                <c:pt idx="325" formatCode="General">
                   <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -13795,6 +13854,12 @@
                   <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -13809,8 +13874,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-847753744"/>
-        <c:axId val="-847751424"/>
+        <c:axId val="2099454920"/>
+        <c:axId val="2101936696"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14829,10 +14894,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$335</c:f>
+              <c:f>情绪数据!$D$2:$D$337</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15834,6 +15899,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>-55.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-29.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16854,10 +16925,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$335</c:f>
+              <c:f>情绪数据!$F$2:$F$337</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="334"/>
+                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17859,6 +17930,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>-391.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-197.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-408.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17872,8 +17949,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-847749104"/>
-        <c:axId val="-847746784"/>
+        <c:axId val="2101940424"/>
+        <c:axId val="2101943400"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18893,10 +18970,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$335</c:f>
+              <c:f>情绪数据!$AF$2:$AF$337</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="334"/>
+                <c:ptCount val="336"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19898,6 +19975,12 @@
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>63.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>56.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19914,11 +19997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-847753744"/>
-        <c:axId val="-847751424"/>
+        <c:axId val="2099454920"/>
+        <c:axId val="2101936696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-847753744"/>
+        <c:axId val="2099454920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19938,20 +20021,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -19986,7 +20055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847751424"/>
+        <c:crossAx val="2101936696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -19994,7 +20063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-847751424"/>
+        <c:axId val="2101936696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -20043,12 +20112,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847753744"/>
+        <c:crossAx val="2099454920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-847749104"/>
+        <c:axId val="2101940424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20058,7 +20127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-847746784"/>
+        <c:crossAx val="2101943400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20066,7 +20135,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-847746784"/>
+        <c:axId val="2101943400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -20102,7 +20171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847749104"/>
+        <c:crossAx val="2101940424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21579,31 +21648,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="CE25" sqref="CE25"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="BZ25" sqref="BZ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="33" spans="97:104" x14ac:dyDescent="0.2">
+    <row r="33" spans="97:104">
       <c r="CY33" s="18"/>
     </row>
-    <row r="34" spans="97:104" x14ac:dyDescent="0.2">
+    <row r="34" spans="97:104">
       <c r="CS34" s="18"/>
     </row>
-    <row r="37" spans="97:104" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="97:104" ht="15">
       <c r="CZ37" s="19"/>
     </row>
-    <row r="51" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="51" spans="98:103">
       <c r="CT51" s="18"/>
     </row>
-    <row r="53" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="53" spans="98:103">
       <c r="CT53" s="20"/>
     </row>
-    <row r="60" spans="98:103" x14ac:dyDescent="0.2">
+    <row r="60" spans="98:103">
       <c r="CY60" s="21"/>
     </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="20:20">
       <c r="T70" t="s">
         <v>0</v>
       </c>
@@ -21613,25 +21682,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG335"/>
+  <dimension ref="A1:AG337"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I337" sqref="I337"/>
+      <selection pane="bottomLeft" activeCell="T339" sqref="T339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="37" customWidth="1"/>
     <col min="2" max="3" width="8" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="38" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="38" customWidth="1"/>
     <col min="8" max="8" width="8" style="38" customWidth="1"/>
     <col min="9" max="11" width="8" style="39" customWidth="1"/>
     <col min="12" max="19" width="8" style="39" hidden="1" customWidth="1"/>
@@ -21643,12 +21717,12 @@
     <col min="25" max="29" width="8" style="43" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="8" style="108" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="109" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="110" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" style="110" customWidth="1"/>
     <col min="34" max="34" width="10" style="43" customWidth="1"/>
     <col min="35" max="16384" width="8" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -21739,7 +21813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="15">
       <c r="A2" s="37">
         <v>44165</v>
       </c>
@@ -21789,7 +21863,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="15">
       <c r="A3" s="37">
         <v>44166</v>
       </c>
@@ -21839,7 +21913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15">
       <c r="A4" s="37">
         <v>44167</v>
       </c>
@@ -21889,7 +21963,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15">
       <c r="A5" s="37">
         <v>44168</v>
       </c>
@@ -21939,7 +22013,7 @@
         <v>9.5652173913043412E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15">
       <c r="A6" s="37">
         <v>44169</v>
       </c>
@@ -21989,7 +22063,7 @@
         <v>-0.24427480916030531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="15">
       <c r="A7" s="37">
         <v>44172</v>
       </c>
@@ -22039,7 +22113,7 @@
         <v>-0.21311475409836061</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15">
       <c r="A8" s="37">
         <v>44173</v>
       </c>
@@ -22089,7 +22163,7 @@
         <v>-0.15887850467289713</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15">
       <c r="A9" s="37">
         <v>44174</v>
       </c>
@@ -22139,7 +22213,7 @@
         <v>-5.263157894736846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="15">
       <c r="A10" s="37">
         <v>44175</v>
       </c>
@@ -22189,7 +22263,7 @@
         <v>-8.6956521739130474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15">
       <c r="A11" s="37">
         <v>44176</v>
       </c>
@@ -22239,7 +22313,7 @@
         <v>-0.35227272727272724</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15">
       <c r="A12" s="37">
         <v>44179</v>
       </c>
@@ -22289,7 +22363,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="15">
       <c r="A13" s="37">
         <v>44180</v>
       </c>
@@ -22339,7 +22413,7 @@
         <v>-4.3956043956043918E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="15">
       <c r="A14" s="37">
         <v>44181</v>
       </c>
@@ -22389,7 +22463,7 @@
         <v>-0.28260869565217395</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15">
       <c r="A15" s="37">
         <v>44182</v>
       </c>
@@ -22439,7 +22513,7 @@
         <v>0.42105263157894729</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15">
       <c r="A16" s="37">
         <v>44183</v>
       </c>
@@ -22489,7 +22563,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15">
       <c r="A17" s="37">
         <v>44186</v>
       </c>
@@ -22539,7 +22613,7 @@
         <v>0.4423076923076924</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15">
       <c r="A18" s="37">
         <v>44187</v>
       </c>
@@ -22589,7 +22663,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="15">
       <c r="A19" s="37">
         <v>44188</v>
       </c>
@@ -22639,7 +22713,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="15">
       <c r="A20" s="37">
         <v>44189</v>
       </c>
@@ -22689,7 +22763,7 @@
         <v>-0.19402985074626861</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15">
       <c r="A21" s="37">
         <v>44190</v>
       </c>
@@ -22739,7 +22813,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15">
       <c r="A22" s="37">
         <v>44193</v>
       </c>
@@ -22789,7 +22863,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15">
       <c r="A23" s="37">
         <v>44194</v>
       </c>
@@ -22839,7 +22913,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="15">
       <c r="A24" s="37">
         <v>44195</v>
       </c>
@@ -22889,7 +22963,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="15">
       <c r="A25" s="37">
         <v>44196</v>
       </c>
@@ -22939,7 +23013,7 @@
         <v>-5.5248618784530426E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="15">
       <c r="A26" s="37">
         <v>44200</v>
       </c>
@@ -22989,7 +23063,7 @@
         <v>0.8033707865168539</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15">
       <c r="A27" s="37">
         <v>44201</v>
       </c>
@@ -23039,7 +23113,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15">
       <c r="A28" s="37">
         <v>44202</v>
       </c>
@@ -23089,7 +23163,7 @@
         <v>-0.42738589211618255</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="15">
       <c r="A29" s="37">
         <v>44203</v>
       </c>
@@ -23139,7 +23213,7 @@
         <v>-0.58260869565217399</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="15">
       <c r="A30" s="37">
         <v>44204</v>
       </c>
@@ -23189,7 +23263,7 @@
         <v>-5.161290322580641E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="15">
       <c r="A31" s="37">
         <v>44207</v>
       </c>
@@ -23239,7 +23313,7 @@
         <v>-5.5118110236220527E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="15">
       <c r="A32" s="37">
         <v>44208</v>
       </c>
@@ -23289,7 +23363,7 @@
         <v>0.73553719008264451</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="15">
       <c r="A33" s="37">
         <v>44209</v>
       </c>
@@ -23339,7 +23413,7 @@
         <v>-0.26415094339622641</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="15">
       <c r="A34" s="37">
         <v>44210</v>
       </c>
@@ -23389,7 +23463,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="15">
       <c r="A35" s="37">
         <v>44211</v>
       </c>
@@ -23439,7 +23513,7 @@
         <v>0.31460674157303364</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="15">
       <c r="A36" s="37">
         <v>44214</v>
       </c>
@@ -23489,7 +23563,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="15">
       <c r="A37" s="37">
         <v>44215</v>
       </c>
@@ -23539,7 +23613,7 @@
         <v>-7.2033898305084804E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="15">
       <c r="A38" s="37">
         <v>44216</v>
       </c>
@@ -23589,7 +23663,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="15">
       <c r="A39" s="37">
         <v>44217</v>
       </c>
@@ -23639,7 +23713,7 @@
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="15">
       <c r="A40" s="37">
         <v>44218</v>
       </c>
@@ -23689,7 +23763,7 @@
         <v>-0.34955752212389374</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="15">
       <c r="A41" s="37">
         <v>44221</v>
       </c>
@@ -23739,7 +23813,7 @@
         <v>-0.31683168316831678</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="15">
       <c r="A42" s="37">
         <v>44222</v>
       </c>
@@ -23789,7 +23863,7 @@
         <v>-0.11560693641618494</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="15">
       <c r="A43" s="37">
         <v>44223</v>
       </c>
@@ -23839,7 +23913,7 @@
         <v>0.27397260273972607</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="15">
       <c r="A44" s="37">
         <v>44224</v>
       </c>
@@ -23889,7 +23963,7 @@
         <v>-0.20754716981132076</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="15">
       <c r="A45" s="37">
         <v>44225</v>
       </c>
@@ -23939,7 +24013,7 @@
         <v>-0.38064516129032255</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="15">
       <c r="A46" s="37">
         <v>44228</v>
       </c>
@@ -23989,7 +24063,7 @@
         <v>0.80882352941176461</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="15">
       <c r="A47" s="37">
         <v>44229</v>
       </c>
@@ -24039,7 +24113,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="15">
       <c r="A48" s="37">
         <v>44230</v>
       </c>
@@ -24089,7 +24163,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="15">
       <c r="A49" s="37">
         <v>44231</v>
       </c>
@@ -24139,7 +24213,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="15">
       <c r="A50" s="37">
         <v>44232</v>
       </c>
@@ -24189,7 +24263,7 @@
         <v>-0.11184210526315785</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="15">
       <c r="A51" s="37">
         <v>44235</v>
       </c>
@@ -24239,7 +24313,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="15">
       <c r="A52" s="37">
         <v>44236</v>
       </c>
@@ -24289,7 +24363,7 @@
         <v>0.34482758620689646</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="15">
       <c r="A53" s="37">
         <v>44237</v>
       </c>
@@ -24339,7 +24413,7 @@
         <v>-0.29090909090909089</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="15">
       <c r="A54" s="37">
         <v>44245</v>
       </c>
@@ -24389,7 +24463,7 @@
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="15">
       <c r="A55" s="37">
         <v>44246</v>
       </c>
@@ -24439,7 +24513,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="15">
       <c r="A56" s="37">
         <v>44249</v>
       </c>
@@ -24489,7 +24563,7 @@
         <v>4.1841004184099825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="15">
       <c r="A57" s="37">
         <v>44250</v>
       </c>
@@ -24539,7 +24613,7 @@
         <v>-0.43214285714285711</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="15">
       <c r="A58" s="37">
         <v>44251</v>
       </c>
@@ -24589,7 +24663,7 @@
         <v>-0.45922746781115881</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="15">
       <c r="A59" s="37">
         <v>44252</v>
       </c>
@@ -24639,7 +24713,7 @@
         <v>-0.29714285714285715</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="15">
       <c r="A60" s="37">
         <v>44253</v>
       </c>
@@ -24689,7 +24763,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="15">
       <c r="A61" s="44">
         <v>44256</v>
       </c>
@@ -24757,7 +24831,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="15">
       <c r="A62" s="51">
         <v>44257</v>
       </c>
@@ -24825,7 +24899,7 @@
         <v>-0.32317073170731703</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="15">
       <c r="A63" s="37">
         <v>44258</v>
       </c>
@@ -24875,7 +24949,7 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="15">
       <c r="A64" s="37">
         <v>44259</v>
       </c>
@@ -24925,7 +24999,7 @@
         <v>-0.37623762376237618</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="15">
       <c r="A65" s="37">
         <v>44260</v>
       </c>
@@ -24975,7 +25049,7 @@
         <v>0.14374999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="15">
       <c r="A66" s="37">
         <v>44263</v>
       </c>
@@ -25025,7 +25099,7 @@
         <v>-0.13586956521739132</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="15">
       <c r="A67" s="37">
         <v>44264</v>
       </c>
@@ -25075,7 +25149,7 @@
         <v>-0.34615384615384615</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="15">
       <c r="A68" s="37">
         <v>44265</v>
       </c>
@@ -25125,7 +25199,7 @@
         <v>-0.33108108108108109</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="15">
       <c r="A69" s="37">
         <v>44266</v>
       </c>
@@ -25175,7 +25249,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="15">
       <c r="A70" s="37">
         <v>44267</v>
       </c>
@@ -25225,7 +25299,7 @@
         <v>3.6764705882352887E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="15">
       <c r="A71" s="37">
         <v>44270</v>
       </c>
@@ -25275,7 +25349,7 @@
         <v>-7.3825503355704647E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="15">
       <c r="A72" s="37">
         <v>44271</v>
       </c>
@@ -25325,7 +25399,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="15">
       <c r="A73" s="37">
         <v>44272</v>
       </c>
@@ -25375,7 +25449,7 @@
         <v>7.006369426751588E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="15">
       <c r="A74" s="37">
         <v>44273</v>
       </c>
@@ -25425,7 +25499,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="15">
       <c r="A75" s="37">
         <v>44274</v>
       </c>
@@ -25475,7 +25549,7 @@
         <v>-9.4972067039106114E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="15">
       <c r="A76" s="37">
         <v>44277</v>
       </c>
@@ -25525,7 +25599,7 @@
         <v>0.4201183431952662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="15">
       <c r="A77" s="37">
         <v>44278</v>
       </c>
@@ -25575,7 +25649,7 @@
         <v>-0.26943005181347146</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="15">
       <c r="A78" s="37">
         <v>44279</v>
       </c>
@@ -25625,7 +25699,7 @@
         <v>-7.1823204419889541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="15">
       <c r="A79" s="37">
         <v>44280</v>
       </c>
@@ -25675,7 +25749,7 @@
         <v>-0.29508196721311475</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="15">
       <c r="A80" s="37">
         <v>44281</v>
       </c>
@@ -25725,7 +25799,7 @@
         <v>0.47945205479452063</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="15">
       <c r="A81" s="37">
         <v>44284</v>
       </c>
@@ -25775,7 +25849,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="15">
       <c r="A82" s="37">
         <v>44285</v>
       </c>
@@ -25825,7 +25899,7 @@
         <v>-2.7932960893854709E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="15">
       <c r="A83" s="37">
         <v>44286</v>
       </c>
@@ -25875,7 +25949,7 @@
         <v>0.12886597938144323</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="15">
       <c r="A84" s="37">
         <v>44287</v>
       </c>
@@ -25925,7 +25999,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="15">
       <c r="A85" s="37">
         <v>44288</v>
       </c>
@@ -25975,7 +26049,7 @@
         <v>4.9261083743841663E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="15">
       <c r="A86" s="37">
         <v>44292</v>
       </c>
@@ -26026,7 +26100,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="15">
       <c r="A87" s="37">
         <v>44293</v>
       </c>
@@ -26077,7 +26151,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="15">
       <c r="A88" s="58">
         <v>44294</v>
       </c>
@@ -26146,7 +26220,7 @@
         <v>-0.52564102564102566</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="15">
       <c r="A89" s="37">
         <v>44295</v>
       </c>
@@ -26197,7 +26271,7 @@
         <v>-0.18719211822660103</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="15">
       <c r="A90" s="37">
         <v>44298</v>
       </c>
@@ -26248,7 +26322,7 @@
         <v>5.4945054945054986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="15">
       <c r="A91" s="37">
         <v>44299</v>
       </c>
@@ -26299,7 +26373,7 @@
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="15">
       <c r="A92" s="37">
         <v>44300</v>
       </c>
@@ -26349,7 +26423,7 @@
         <v>0.12941176470588239</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="15">
       <c r="A93" s="58">
         <v>44301</v>
       </c>
@@ -26417,7 +26491,7 @@
         <v>-0.27932960893854747</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="15">
       <c r="A94" s="37">
         <v>44302</v>
       </c>
@@ -26467,7 +26541,7 @@
         <v>0.40506329113924056</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="15">
       <c r="A95" s="37">
         <v>44305</v>
       </c>
@@ -26517,7 +26591,7 @@
         <v>0.27624309392265189</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="15">
       <c r="A96" s="37">
         <v>44306</v>
       </c>
@@ -26567,7 +26641,7 @@
         <v>-0.365979381443299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="15">
       <c r="A97" s="37">
         <v>44307</v>
       </c>
@@ -26617,7 +26691,7 @@
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="15">
       <c r="A98" s="37">
         <v>44308</v>
       </c>
@@ -26667,7 +26741,7 @@
         <v>-0.21052631578947364</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="15">
       <c r="A99" s="37">
         <v>44309</v>
       </c>
@@ -26717,7 +26791,7 @@
         <v>-8.6956521739130488E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="15">
       <c r="A100" s="37">
         <v>44312</v>
       </c>
@@ -26767,7 +26841,7 @@
         <v>0.26605504587155954</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="15">
       <c r="A101" s="65">
         <v>44313</v>
       </c>
@@ -26835,7 +26909,7 @@
         <v>-5.7851239669421545E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="15">
       <c r="A102" s="37">
         <v>44314</v>
       </c>
@@ -26885,7 +26959,7 @@
         <v>0.51260504201680679</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" ht="15">
       <c r="A103" s="37">
         <v>44315</v>
       </c>
@@ -26935,7 +27009,7 @@
         <v>-8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" ht="15">
       <c r="A104" s="37">
         <v>44316</v>
       </c>
@@ -26985,7 +27059,7 @@
         <v>-0.15492957746478878</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" ht="15">
       <c r="A105" s="37">
         <v>44322</v>
       </c>
@@ -27035,7 +27109,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="15">
       <c r="A106" s="37">
         <v>44323</v>
       </c>
@@ -27085,7 +27159,7 @@
         <v>-9.1549295774647932E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="15">
       <c r="A107" s="72">
         <v>44326</v>
       </c>
@@ -27153,7 +27227,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="15">
       <c r="A108" s="37">
         <v>44327</v>
       </c>
@@ -27203,7 +27277,7 @@
         <v>-0.11475409836065574</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="15">
       <c r="A109" s="37">
         <v>44328</v>
       </c>
@@ -27253,7 +27327,7 @@
         <v>-0.2960893854748603</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" ht="15">
       <c r="A110" s="37">
         <v>44329</v>
       </c>
@@ -27303,7 +27377,7 @@
         <v>0.297752808988764</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" ht="15">
       <c r="A111" s="58">
         <v>44333</v>
       </c>
@@ -27371,7 +27445,7 @@
         <v>-0.44508670520231214</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" ht="15">
       <c r="A112" s="37">
         <v>44334</v>
       </c>
@@ -27421,7 +27495,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="15">
       <c r="A113" s="37">
         <v>44335</v>
       </c>
@@ -27471,7 +27545,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="15">
       <c r="A114" s="37">
         <v>44336</v>
       </c>
@@ -27521,7 +27595,7 @@
         <v>-0.10389610389610393</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="15">
       <c r="A115" s="37">
         <v>44337</v>
       </c>
@@ -27571,7 +27645,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="15">
       <c r="A116" s="37">
         <v>44340</v>
       </c>
@@ -27621,7 +27695,7 @@
         <v>4.3478260869565265E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="15">
       <c r="A117" s="37">
         <v>44341</v>
       </c>
@@ -27671,7 +27745,7 @@
         <v>-0.12195121951219508</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="15">
       <c r="A118" s="37">
         <v>44342</v>
       </c>
@@ -27721,7 +27795,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="15">
       <c r="A119" s="37">
         <v>44343</v>
       </c>
@@ -27771,7 +27845,7 @@
         <v>0.19631901840490792</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="15">
       <c r="A120" s="37">
         <v>44344</v>
       </c>
@@ -27821,7 +27895,7 @@
         <v>-0.16279069767441864</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="15">
       <c r="A121" s="37">
         <v>44347</v>
       </c>
@@ -27871,7 +27945,7 @@
         <v>0.48255813953488363</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="15">
       <c r="A122" s="37">
         <v>44348</v>
       </c>
@@ -27925,7 +27999,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="15">
       <c r="A123" s="65">
         <v>44349</v>
       </c>
@@ -27993,7 +28067,7 @@
         <v>-0.19000000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="15">
       <c r="A124" s="37">
         <v>44350</v>
       </c>
@@ -28043,7 +28117,7 @@
         <v>-8.2524271844660255E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="15">
       <c r="A125" s="37">
         <v>44351</v>
       </c>
@@ -28093,7 +28167,7 @@
         <v>-0.20108695652173916</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="15">
       <c r="A126" s="37">
         <v>44354</v>
       </c>
@@ -28143,7 +28217,7 @@
         <v>8.4337349397590314E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="15">
       <c r="A127" s="37">
         <v>44355</v>
       </c>
@@ -28193,7 +28267,7 @@
         <v>-7.5581395348837246E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="15">
       <c r="A128" s="37">
         <v>44356</v>
       </c>
@@ -28243,7 +28317,7 @@
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="15">
       <c r="A129" s="37">
         <v>44357</v>
       </c>
@@ -28293,7 +28367,7 @@
         <v>0.15243902439024395</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="15">
       <c r="A130" s="37">
         <v>44358</v>
       </c>
@@ -28343,7 +28417,7 @@
         <v>7.7844311377245554E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="15">
       <c r="A131" s="65">
         <v>44362</v>
       </c>
@@ -28411,7 +28485,7 @@
         <v>-0.34482758620689657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="15">
       <c r="A132" s="65">
         <v>44363</v>
       </c>
@@ -28461,7 +28535,7 @@
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="15">
       <c r="A133" s="37">
         <v>44364</v>
       </c>
@@ -28511,7 +28585,7 @@
         <v>0.10526315789473678</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="15">
       <c r="A134" s="37">
         <v>44365</v>
       </c>
@@ -28561,7 +28635,7 @@
         <v>0.4262295081967214</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="15">
       <c r="A135" s="37">
         <v>44368</v>
       </c>
@@ -28611,7 +28685,7 @@
         <v>0.45774647887323938</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="15">
       <c r="A136" s="37">
         <v>44369</v>
       </c>
@@ -28661,7 +28735,7 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="15">
       <c r="A137" s="37">
         <v>44370</v>
       </c>
@@ -28711,7 +28785,7 @@
         <v>-0.20725388601036263</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="15">
       <c r="A138" s="37">
         <v>44371</v>
       </c>
@@ -28761,7 +28835,7 @@
         <v>-0.11290322580645161</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="15">
       <c r="A139" s="37">
         <v>44372</v>
       </c>
@@ -28811,7 +28885,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="15">
       <c r="A140" s="37">
         <v>44375</v>
       </c>
@@ -28861,7 +28935,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="15">
       <c r="A141" s="37">
         <v>44376</v>
       </c>
@@ -28911,7 +28985,7 @@
         <v>-0.25433526011560692</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="15">
       <c r="A142" s="37">
         <v>44377</v>
       </c>
@@ -28961,7 +29035,7 @@
         <v>-4.9689440993788775E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="15">
       <c r="A143" s="37">
         <v>44378</v>
       </c>
@@ -29011,7 +29085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="15">
       <c r="A144" s="37">
         <v>44379</v>
       </c>
@@ -29061,7 +29135,7 @@
         <v>-0.26027397260273971</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" ht="15">
       <c r="A145" s="37">
         <v>44382</v>
       </c>
@@ -29111,7 +29185,7 @@
         <v>0.51079136690647475</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="15">
       <c r="A146" s="37">
         <v>44383</v>
       </c>
@@ -29161,7 +29235,7 @@
         <v>-0.27848101265822783</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" ht="15">
       <c r="A147" s="37">
         <v>44384</v>
       </c>
@@ -29211,7 +29285,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" ht="15">
       <c r="A148" s="37">
         <v>44385</v>
       </c>
@@ -29261,7 +29335,7 @@
         <v>-0.19298245614035087</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="15">
       <c r="A149" s="37">
         <v>44386</v>
       </c>
@@ -29311,7 +29385,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" ht="15">
       <c r="A150" s="37">
         <v>44389</v>
       </c>
@@ -29361,7 +29435,7 @@
         <v>0.43930635838150295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" ht="15">
       <c r="A151" s="37">
         <v>44390</v>
       </c>
@@ -29411,7 +29485,7 @@
         <v>-2.0725388601036197E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" ht="15">
       <c r="A152" s="37">
         <v>44391</v>
       </c>
@@ -29461,7 +29535,7 @@
         <v>-0.25714285714285712</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" ht="15">
       <c r="A153" s="37">
         <v>44392</v>
       </c>
@@ -29511,7 +29585,7 @@
         <v>-0.31818181818181818</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" ht="15">
       <c r="A154" s="37">
         <v>44393</v>
       </c>
@@ -29561,7 +29635,7 @@
         <v>-0.34375000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" ht="15">
       <c r="A155" s="37">
         <v>44396</v>
       </c>
@@ -29611,7 +29685,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" ht="15">
       <c r="A156" s="37">
         <v>44397</v>
       </c>
@@ -29661,7 +29735,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" ht="15">
       <c r="A157" s="37">
         <v>44398</v>
       </c>
@@ -29711,7 +29785,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="15">
       <c r="A158" s="37">
         <v>44399</v>
       </c>
@@ -29761,7 +29835,7 @@
         <v>-7.6923076923076886E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" ht="15">
       <c r="A159" s="37">
         <v>44400</v>
       </c>
@@ -29811,7 +29885,7 @@
         <v>-0.24193548387096775</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="15">
       <c r="A160" s="37">
         <v>44403</v>
       </c>
@@ -29861,7 +29935,7 @@
         <v>-0.40641711229946526</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" ht="15">
       <c r="A161" s="37">
         <v>44404</v>
       </c>
@@ -29911,7 +29985,7 @@
         <v>-0.44285714285714284</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" ht="15">
       <c r="A162" s="37">
         <v>44405</v>
       </c>
@@ -29961,7 +30035,7 @@
         <v>9.0909090909091564E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" ht="15">
       <c r="A163" s="37">
         <v>44406</v>
       </c>
@@ -30011,7 +30085,7 @@
         <v>2.4499999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" ht="15">
       <c r="A164" s="37">
         <v>44407</v>
       </c>
@@ -30061,7 +30135,7 @@
         <v>0.36516853932584264</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" ht="15">
       <c r="A165" s="37">
         <v>44410</v>
       </c>
@@ -30111,7 +30185,7 @@
         <v>0.23605150214592266</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" ht="15">
       <c r="A166" s="37">
         <v>44411</v>
       </c>
@@ -30161,7 +30235,7 @@
         <v>-0.45547945205479451</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" ht="15">
       <c r="A167" s="37">
         <v>44412</v>
       </c>
@@ -30211,7 +30285,7 @@
         <v>0.13478260869565212</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" ht="15">
       <c r="A168" s="37">
         <v>44413</v>
       </c>
@@ -30261,7 +30335,7 @@
         <v>-0.36440677966101698</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" ht="15">
       <c r="A169" s="37">
         <v>44414</v>
       </c>
@@ -30311,7 +30385,7 @@
         <v>-6.842105263157898E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" ht="15">
       <c r="A170" s="37">
         <v>44417</v>
       </c>
@@ -30361,7 +30435,7 @@
         <v>0.20918367346938785</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" ht="15">
       <c r="A171" s="37">
         <v>44418</v>
       </c>
@@ -30411,7 +30485,7 @@
         <v>0.11702127659574472</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" ht="15">
       <c r="A172" s="37">
         <v>44419</v>
       </c>
@@ -30461,7 +30535,7 @@
         <v>0.29807692307692318</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" ht="15">
       <c r="A173" s="37">
         <v>44420</v>
       </c>
@@ -30511,7 +30585,7 @@
         <v>-0.17154811715481177</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" ht="15">
       <c r="A174" s="37">
         <v>44423</v>
       </c>
@@ -30561,7 +30635,7 @@
         <v>-0.13716814159292029</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" ht="15">
       <c r="A175" s="37">
         <v>44424</v>
       </c>
@@ -30611,7 +30685,7 @@
         <v>-3.6199095022624493E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" ht="15">
       <c r="A176" s="37">
         <v>44425</v>
       </c>
@@ -30661,7 +30735,7 @@
         <v>-0.59900990099009899</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" ht="15">
       <c r="A177" s="37">
         <v>44426</v>
       </c>
@@ -30711,7 +30785,7 @@
         <v>0.26993865030674841</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" ht="15">
       <c r="A178" s="37">
         <v>44427</v>
       </c>
@@ -30769,7 +30843,7 @@
         <v>-0.1736526946107784</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" ht="15">
       <c r="A179" s="87">
         <v>44428</v>
       </c>
@@ -30837,7 +30911,7 @@
         <v>-2.8169014084507091E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" ht="15">
       <c r="A180" s="37">
         <v>44431</v>
       </c>
@@ -30895,7 +30969,7 @@
         <v>1.2732919254658388</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" ht="15">
       <c r="A181" s="37">
         <v>44432</v>
       </c>
@@ -30953,7 +31027,7 @@
         <v>-7.4766355140186855E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" ht="15">
       <c r="A182" s="37">
         <v>44433</v>
       </c>
@@ -31003,7 +31077,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" ht="15">
       <c r="A183" s="37">
         <v>44434</v>
       </c>
@@ -31053,7 +31127,7 @@
         <v>-0.39776951672862459</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" ht="15">
       <c r="A184" s="37">
         <v>44435</v>
       </c>
@@ -31103,7 +31177,7 @@
         <v>8.9552238805970144E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" ht="15">
       <c r="A185" s="37">
         <v>44438</v>
       </c>
@@ -31153,7 +31227,7 @@
         <v>0.11057692307692316</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" ht="15">
       <c r="A186" s="37">
         <v>44439</v>
       </c>
@@ -31203,7 +31277,7 @@
         <v>0.16176470588235295</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" ht="15">
       <c r="A187" s="37">
         <v>44440</v>
       </c>
@@ -31253,7 +31327,7 @@
         <v>-0.14847161572052398</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" ht="15">
       <c r="A188" s="37">
         <v>44441</v>
       </c>
@@ -31303,7 +31377,7 @@
         <v>0.47963800904977366</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" ht="15">
       <c r="A189" s="37">
         <v>44442</v>
       </c>
@@ -31353,7 +31427,7 @@
         <v>-0.38339920948616596</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" ht="15">
       <c r="A190" s="37">
         <v>44445</v>
       </c>
@@ -31403,7 +31477,7 @@
         <v>4.8672566371681485E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" ht="15">
       <c r="A191" s="37">
         <v>44446</v>
       </c>
@@ -31453,7 +31527,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" ht="15">
       <c r="A192" s="37">
         <v>44447</v>
       </c>
@@ -31503,7 +31577,7 @@
         <v>0.18141592920353991</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" ht="15">
       <c r="A193" s="37">
         <v>44448</v>
       </c>
@@ -31553,7 +31627,7 @@
         <v>-0.19011406844106468</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" ht="15">
       <c r="A194" s="37">
         <v>44449</v>
       </c>
@@ -31603,7 +31677,7 @@
         <v>-0.37647058823529411</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" ht="15">
       <c r="A195" s="37">
         <v>44452</v>
       </c>
@@ -31653,7 +31727,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" ht="15">
       <c r="A196" s="37">
         <v>44453</v>
       </c>
@@ -31703,7 +31777,7 @@
         <v>-9.5693779904306275E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" ht="15">
       <c r="A197" s="37">
         <v>44454</v>
       </c>
@@ -31761,7 +31835,7 @@
         <v>0.34328358208955223</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:33" ht="15">
       <c r="A198" s="87">
         <v>44455</v>
       </c>
@@ -31829,7 +31903,7 @@
         <v>-0.42016806722689071</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:33" ht="15">
       <c r="A199" s="87">
         <v>44456</v>
       </c>
@@ -31897,7 +31971,7 @@
         <v>-0.29145728643216073</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:33" ht="15">
       <c r="A200" s="37">
         <v>44461</v>
       </c>
@@ -31955,7 +32029,7 @@
         <v>0.57377049180327866</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:33" ht="15">
       <c r="A201" s="37">
         <v>44462</v>
       </c>
@@ -32013,7 +32087,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:33" ht="15">
       <c r="A202" s="37">
         <v>44463</v>
       </c>
@@ -32063,7 +32137,7 @@
         <v>-0.419811320754717</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:33" ht="15">
       <c r="A203" s="87">
         <v>44466</v>
       </c>
@@ -32114,7 +32188,7 @@
         <v>-0.41747572815533984</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:33" ht="15">
       <c r="A204" s="37">
         <v>44467</v>
       </c>
@@ -32164,7 +32238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:33" ht="15">
       <c r="A205" s="87">
         <v>44468</v>
       </c>
@@ -32215,7 +32289,7 @@
         <v>-0.64473684210526316</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:33" ht="15">
       <c r="A206" s="37">
         <v>44469</v>
       </c>
@@ -32265,7 +32339,7 @@
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:33" ht="15">
       <c r="A207" s="37">
         <v>44477</v>
       </c>
@@ -32315,7 +32389,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" ht="15">
       <c r="A208" s="37">
         <v>44480</v>
       </c>
@@ -32365,7 +32439,7 @@
         <v>-0.10967741935483867</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:33" ht="15">
       <c r="A209" s="37">
         <v>44481</v>
       </c>
@@ -32415,7 +32489,7 @@
         <v>-0.42622950819672129</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:33" ht="15">
       <c r="A210" s="37">
         <v>44482</v>
       </c>
@@ -32465,7 +32539,7 @@
         <v>0.17931034482758615</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:33" ht="15">
       <c r="A211" s="37">
         <v>44483</v>
       </c>
@@ -32515,7 +32589,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:33" ht="15">
       <c r="A212" s="37">
         <v>44484</v>
       </c>
@@ -32565,7 +32639,7 @@
         <v>-0.47590361445783136</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" ht="15">
       <c r="A213" s="37">
         <v>44487</v>
       </c>
@@ -32615,7 +32689,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:33">
       <c r="A214" s="37">
         <v>44488</v>
       </c>
@@ -32665,7 +32739,7 @@
         <v>0.11235955056179771</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:33">
       <c r="A215" s="37">
         <v>44489</v>
       </c>
@@ -32715,7 +32789,7 @@
         <v>-0.15294117647058819</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33">
       <c r="A216" s="37">
         <v>44490</v>
       </c>
@@ -32765,7 +32839,7 @@
         <v>-0.36507936507936506</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:33">
       <c r="A217" s="37">
         <v>44491</v>
       </c>
@@ -32815,7 +32889,7 @@
         <v>-0.24025974025974028</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:33">
       <c r="A218" s="37">
         <v>44494</v>
       </c>
@@ -32865,7 +32939,7 @@
         <v>0.51181102362204711</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:33">
       <c r="A219" s="37">
         <v>44495</v>
       </c>
@@ -32915,7 +32989,7 @@
         <v>-0.34965034965034963</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:33">
       <c r="A220" s="37">
         <v>44496</v>
       </c>
@@ -32965,7 +33039,7 @@
         <v>-8.2089552238805916E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:33">
       <c r="A221" s="37">
         <v>44497</v>
       </c>
@@ -33015,7 +33089,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33">
       <c r="A222" s="37">
         <v>44498</v>
       </c>
@@ -33065,7 +33139,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33">
       <c r="A223" s="37">
         <v>44501</v>
       </c>
@@ -33115,7 +33189,7 @@
         <v>0.84459459459459452</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33">
       <c r="A224" s="37">
         <v>44502</v>
       </c>
@@ -33165,7 +33239,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:33">
       <c r="A225" s="37">
         <v>44503</v>
       </c>
@@ -33215,7 +33289,7 @@
         <v>-0.30541871921182273</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:33">
       <c r="A226" s="37">
         <v>44504</v>
       </c>
@@ -33265,7 +33339,7 @@
         <v>0.59890109890109899</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:33">
       <c r="A227" s="37">
         <v>44505</v>
       </c>
@@ -33315,7 +33389,7 @@
         <v>-0.20212765957446804</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:33">
       <c r="A228" s="37">
         <v>44508</v>
       </c>
@@ -33365,7 +33439,7 @@
         <v>-0.1185567010309279</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:33">
       <c r="A229" s="37">
         <v>44509</v>
       </c>
@@ -33415,7 +33489,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:33">
       <c r="A230" s="37">
         <v>44510</v>
       </c>
@@ -33465,7 +33539,7 @@
         <v>-0.15568862275449097</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:33">
       <c r="A231" s="37">
         <v>44511</v>
       </c>
@@ -33515,7 +33589,7 @@
         <v>0.29878048780487809</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:33">
       <c r="A232" s="37">
         <v>44512</v>
       </c>
@@ -33565,7 +33639,7 @@
         <v>0.41573033707865165</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:33">
       <c r="A233" s="37">
         <v>44515</v>
       </c>
@@ -33615,7 +33689,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:33">
       <c r="A234" s="37">
         <v>44516</v>
       </c>
@@ -33665,7 +33739,7 @@
         <v>-0.22413793103448271</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:33">
       <c r="A235" s="37">
         <v>44517</v>
       </c>
@@ -33715,7 +33789,7 @@
         <v>0.27601809954751122</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:33">
       <c r="A236" s="37">
         <v>44518</v>
       </c>
@@ -33765,7 +33839,7 @@
         <v>-0.33766233766233766</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:33">
       <c r="A237" s="37">
         <v>44519</v>
       </c>
@@ -33815,7 +33889,7 @@
         <v>9.7560975609756791E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:33">
       <c r="A238" s="37">
         <v>44522</v>
       </c>
@@ -33865,7 +33939,7 @@
         <v>0.21962616822429915</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:33">
       <c r="A239" s="37">
         <v>44523</v>
       </c>
@@ -33915,7 +33989,7 @@
         <v>-0.14492753623188406</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:33">
       <c r="A240" s="37">
         <v>44524</v>
       </c>
@@ -33965,7 +34039,7 @@
         <v>8.8372093023255743E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:33">
       <c r="A241" s="37">
         <v>44525</v>
       </c>
@@ -34015,7 +34089,7 @@
         <v>-0.22321428571428575</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:33">
       <c r="A242" s="37">
         <v>44526</v>
       </c>
@@ -34065,7 +34139,7 @@
         <v>-0.2153846153846154</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:33">
       <c r="A243" s="37">
         <v>44529</v>
       </c>
@@ -34115,7 +34189,7 @@
         <v>0.12299465240641708</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:33">
       <c r="A244" s="37">
         <v>44530</v>
       </c>
@@ -34165,7 +34239,7 @@
         <v>0.17318435754189948</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:33">
       <c r="A245" s="37">
         <v>44531</v>
       </c>
@@ -34215,7 +34289,7 @@
         <v>0.33507853403141369</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:33">
       <c r="A246" s="37">
         <v>44532</v>
       </c>
@@ -34265,7 +34339,7 @@
         <v>-0.30666666666666664</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:33">
       <c r="A247" s="37">
         <v>44533</v>
       </c>
@@ -34315,7 +34389,7 @@
         <v>-0.20289855072463769</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:33">
       <c r="A248" s="37">
         <v>44536</v>
       </c>
@@ -34365,7 +34439,7 @@
         <v>-0.390625</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:33">
       <c r="A249" s="37">
         <v>44537</v>
       </c>
@@ -34415,7 +34489,7 @@
         <v>4.7945205479452108E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:33">
       <c r="A250" s="37">
         <v>44538</v>
       </c>
@@ -34465,7 +34539,7 @@
         <v>0.69655172413793098</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:33">
       <c r="A251" s="37">
         <v>44539</v>
       </c>
@@ -34515,7 +34589,7 @@
         <v>0.18604651162790692</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:33">
       <c r="A252" s="37">
         <v>44540</v>
       </c>
@@ -34565,7 +34639,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:33">
       <c r="A253" s="37">
         <v>44543</v>
       </c>
@@ -34615,7 +34689,7 @@
         <v>8.7155963302752229E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:33">
       <c r="A254" s="37">
         <v>44544</v>
       </c>
@@ -34665,7 +34739,7 @@
         <v>0.2976744186046511</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:33">
       <c r="A255" s="37">
         <v>44545</v>
       </c>
@@ -34715,7 +34789,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:33">
       <c r="A256" s="37">
         <v>44546</v>
       </c>
@@ -34765,7 +34839,7 @@
         <v>5.1792828685258904E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:33">
       <c r="A257" s="37">
         <v>44547</v>
       </c>
@@ -34815,7 +34889,7 @@
         <v>-1.9230769230769284E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:33">
       <c r="A258" s="37">
         <v>44550</v>
       </c>
@@ -34865,7 +34939,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:33">
       <c r="A259" s="37">
         <v>44551</v>
       </c>
@@ -34915,7 +34989,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33">
       <c r="A260" s="37">
         <v>44552</v>
       </c>
@@ -34965,7 +35039,7 @@
         <v>-0.27812500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33">
       <c r="A261" s="37">
         <v>44553</v>
       </c>
@@ -35015,7 +35089,7 @@
         <v>-0.32692307692307693</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33">
       <c r="A262" s="37">
         <v>44554</v>
       </c>
@@ -35065,7 +35139,7 @@
         <v>-0.45936395759717313</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:33">
       <c r="A263" s="37">
         <v>44557</v>
       </c>
@@ -35115,7 +35189,7 @@
         <v>-6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33">
       <c r="A264" s="37">
         <v>44558</v>
       </c>
@@ -35165,7 +35239,7 @@
         <v>-3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33">
       <c r="A265" s="37">
         <v>44559</v>
       </c>
@@ -35215,7 +35289,7 @@
         <v>9.8837209302325535E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33">
       <c r="A266" s="37">
         <v>44560</v>
       </c>
@@ -35265,7 +35339,7 @@
         <v>0.40217391304347822</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33">
       <c r="A267" s="37">
         <v>44561</v>
       </c>
@@ -35315,7 +35389,7 @@
         <v>-0.16346153846153841</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33">
       <c r="A268" s="37">
         <v>44565</v>
       </c>
@@ -35365,7 +35439,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:33">
       <c r="A269" s="37">
         <v>44566</v>
       </c>
@@ -35415,7 +35489,7 @@
         <v>-0.39240506329113922</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:33">
       <c r="A270" s="37">
         <v>44567</v>
       </c>
@@ -35465,7 +35539,7 @@
         <v>0.25125628140703526</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:33">
       <c r="A271" s="37">
         <v>44568</v>
       </c>
@@ -35515,7 +35589,7 @@
         <v>-0.4241071428571429</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:33">
       <c r="A272" s="95">
         <v>44571</v>
       </c>
@@ -35541,7 +35615,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I335" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I337" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -35583,7 +35657,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:33">
       <c r="A273" s="95">
         <v>44572</v>
       </c>
@@ -35651,7 +35725,7 @@
         <v>-0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:33">
       <c r="A274" s="95">
         <v>44573</v>
       </c>
@@ -35701,7 +35775,7 @@
         <v>0.63313609467455612</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:33">
       <c r="A275" s="95">
         <v>44574</v>
       </c>
@@ -35769,7 +35843,7 @@
         <v>-0.22935779816513766</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:33">
       <c r="A276" s="95">
         <v>44575</v>
       </c>
@@ -35837,7 +35911,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:33">
       <c r="A277" s="95">
         <v>44578</v>
       </c>
@@ -35905,7 +35979,7 @@
         <v>0.47297297297297297</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:33">
       <c r="A278" s="37">
         <v>44579</v>
       </c>
@@ -35955,7 +36029,7 @@
         <v>-0.4853556485355649</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:33">
       <c r="A279" s="37">
         <v>44580</v>
       </c>
@@ -36005,7 +36079,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:33">
       <c r="A280" s="37">
         <v>44581</v>
       </c>
@@ -36055,7 +36129,7 @@
         <v>-0.38834951456310685</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:33">
       <c r="A281" s="37">
         <v>44582</v>
       </c>
@@ -36105,7 +36179,7 @@
         <v>3.5971223021582684E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:33">
       <c r="A282" s="37">
         <v>44585</v>
       </c>
@@ -36155,7 +36229,7 @@
         <v>0.10958904109589046</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:33">
       <c r="A283" s="37">
         <v>44586</v>
       </c>
@@ -36205,7 +36279,7 @@
         <v>-0.47916666666666669</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:33">
       <c r="A284" s="37">
         <v>44587</v>
       </c>
@@ -36255,7 +36329,7 @@
         <v>0.20472440944881884</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:33">
       <c r="A285" s="37">
         <v>44588</v>
       </c>
@@ -36305,7 +36379,7 @@
         <v>-0.70000000000000007</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:33">
       <c r="A286" s="37">
         <v>44589</v>
       </c>
@@ -36355,7 +36429,7 @@
         <v>0.88764044943820219</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:33">
       <c r="A287" s="37">
         <v>44599</v>
       </c>
@@ -36405,7 +36479,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:33">
       <c r="A288" s="37">
         <v>44600</v>
       </c>
@@ -36455,7 +36529,7 @@
         <v>0.87741935483870981</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:33">
       <c r="A289" s="37">
         <v>44601</v>
       </c>
@@ -36505,7 +36579,7 @@
         <v>0.20502092050209197</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:33">
       <c r="A290" s="37">
         <v>44602</v>
       </c>
@@ -36555,7 +36629,7 @@
         <v>-0.39784946236559138</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:33">
       <c r="A291" s="37">
         <v>44603</v>
       </c>
@@ -36605,7 +36679,7 @@
         <v>-0.38554216867469882</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:33" ht="18">
       <c r="A292" s="37">
         <v>44606</v>
       </c>
@@ -36665,7 +36739,7 @@
         <v>0.24137931034482749</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:33" ht="18">
       <c r="A293" s="37">
         <v>44607</v>
       </c>
@@ -36725,7 +36799,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:33" ht="18">
       <c r="A294" s="37">
         <v>44608</v>
       </c>
@@ -36785,7 +36859,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:33" ht="18">
       <c r="A295" s="37">
         <v>44609</v>
       </c>
@@ -36845,7 +36919,7 @@
         <v>-0.36320754716981135</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:33" ht="18">
       <c r="A296" s="37">
         <v>44610</v>
       </c>
@@ -36905,7 +36979,7 @@
         <v>-9.826589595375719E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:33" ht="18">
       <c r="A297" s="37">
         <v>44613</v>
       </c>
@@ -36965,7 +37039,7 @@
         <v>0.7751479289940828</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:33" ht="18">
       <c r="A298" s="37">
         <v>44614</v>
       </c>
@@ -37025,7 +37099,7 @@
         <v>-0.22335025380710666</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:33" ht="18">
       <c r="A299" s="37">
         <v>44615</v>
       </c>
@@ -37085,7 +37159,7 @@
         <v>0.31527093596059103</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:33" ht="18">
       <c r="A300" s="37">
         <v>44616</v>
       </c>
@@ -37145,7 +37219,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:33" ht="18">
       <c r="A301" s="37">
         <v>44617</v>
       </c>
@@ -37205,7 +37279,7 @@
         <v>1.1235955056179735E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:33" ht="18">
       <c r="A302" s="37">
         <v>44620</v>
       </c>
@@ -37265,7 +37339,7 @@
         <v>-0.27807486631016043</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:33" ht="18">
       <c r="A303" s="37">
         <v>44621</v>
       </c>
@@ -37325,7 +37399,7 @@
         <v>0.11188811188811194</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:33" ht="18">
       <c r="A304" s="37">
         <v>44622</v>
       </c>
@@ -37385,7 +37459,7 @@
         <v>0.21518987341772158</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:33" ht="18">
       <c r="A305" s="37">
         <v>44623</v>
       </c>
@@ -37445,7 +37519,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:33" ht="18">
       <c r="A306" s="37">
         <v>44624</v>
       </c>
@@ -37505,7 +37579,7 @@
         <v>-0.30051813471502586</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:33" ht="18">
       <c r="A307" s="37">
         <v>44627</v>
       </c>
@@ -37565,7 +37639,7 @@
         <v>-0.15675675675675674</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:33" ht="18">
       <c r="A308" s="37">
         <v>44628</v>
       </c>
@@ -37625,7 +37699,7 @@
         <v>-0.63583815028901736</v>
       </c>
     </row>
-    <row r="309" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:33" s="23" customFormat="1" ht="18">
       <c r="A309" s="22">
         <v>44629</v>
       </c>
@@ -37693,7 +37767,7 @@
         <v>0.16949152542372875</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:33" ht="18">
       <c r="A310" s="37">
         <v>44630</v>
       </c>
@@ -37753,7 +37827,7 @@
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:33" ht="18">
       <c r="A311" s="37">
         <v>44631</v>
       </c>
@@ -37813,7 +37887,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:33" ht="18">
       <c r="A312" s="37">
         <v>44634</v>
       </c>
@@ -37873,7 +37947,7 @@
         <v>-0.35175879396984921</v>
       </c>
     </row>
-    <row r="313" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:33" s="23" customFormat="1" ht="18">
       <c r="A313" s="22">
         <v>44635</v>
       </c>
@@ -37941,7 +38015,7 @@
         <v>-0.54081632653061218</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:33" ht="18">
       <c r="A314" s="37">
         <v>44636</v>
       </c>
@@ -38001,7 +38075,7 @@
         <v>1.7464788732394363</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:33" ht="18">
       <c r="A315" s="37">
         <v>44637</v>
       </c>
@@ -38061,7 +38135,7 @@
         <v>0.46305418719211811</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:33" ht="18">
       <c r="A316" s="37">
         <v>44638</v>
       </c>
@@ -38121,7 +38195,7 @@
         <v>0.22779922779922787</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:33" ht="18">
       <c r="A317" s="37">
         <v>44641</v>
       </c>
@@ -38181,7 +38255,7 @@
         <v>3.8805970149253688E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:33" ht="18">
       <c r="A318" s="37">
         <v>44642</v>
       </c>
@@ -38241,7 +38315,7 @@
         <v>-0.26168224299065418</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:33" ht="18">
       <c r="A319" s="37">
         <v>44643</v>
       </c>
@@ -38301,7 +38375,7 @@
         <v>-0.3122923588039867</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:33" ht="18">
       <c r="A320" s="37">
         <v>44644</v>
       </c>
@@ -38361,7 +38435,7 @@
         <v>-0.28409090909090912</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:33" ht="18">
       <c r="A321" s="37">
         <v>44645</v>
       </c>
@@ -38421,7 +38495,7 @@
         <v>6.6350710900474008E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:33" ht="18">
       <c r="A322" s="37">
         <v>44648</v>
       </c>
@@ -38481,7 +38555,7 @@
         <v>-0.10144927536231885</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:33" ht="18">
       <c r="A323" s="37">
         <v>44649</v>
       </c>
@@ -38541,7 +38615,7 @@
         <v>-0.16000000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:33" ht="18">
       <c r="A324" s="37">
         <v>44650</v>
       </c>
@@ -38601,7 +38675,7 @@
         <v>0.24352331606217625</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:33" ht="18">
       <c r="A325" s="37">
         <v>44651</v>
       </c>
@@ -38661,7 +38735,7 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:33">
       <c r="A326" s="37">
         <v>44652</v>
       </c>
@@ -38713,7 +38787,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="327" spans="1:33" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:33">
       <c r="A327" s="37">
         <v>44657</v>
       </c>
@@ -38763,7 +38837,7 @@
         <v>0.18840579710144928</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:33">
       <c r="A328" s="37">
         <v>44658</v>
       </c>
@@ -38813,7 +38887,7 @@
         <v>-0.54066985645933019</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:33">
       <c r="A329" s="37">
         <v>44659</v>
       </c>
@@ -38863,7 +38937,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:33">
       <c r="A330" s="37">
         <v>44662</v>
       </c>
@@ -38913,7 +38987,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:33">
       <c r="A331" s="37">
         <v>44663</v>
       </c>
@@ -38963,7 +39037,7 @@
         <v>0.93288590604026855</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:33">
       <c r="A332" s="37">
         <v>44664</v>
       </c>
@@ -39013,7 +39087,7 @@
         <v>-0.25352112676056338</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:33">
       <c r="A333" s="37">
         <v>44665</v>
       </c>
@@ -39063,7 +39137,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:33">
       <c r="A334" s="37">
         <v>44666</v>
       </c>
@@ -39113,7 +39187,7 @@
         <v>-0.49557522123893805</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:33">
       <c r="A335" s="37">
         <v>44669</v>
       </c>
@@ -39161,6 +39235,106 @@
       <c r="AG335" s="110">
         <f t="shared" ref="AG335" si="46">(B335-AF335)/AF335</f>
         <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="336" spans="1:33">
+      <c r="A336" s="37">
+        <v>44670</v>
+      </c>
+      <c r="B336" s="38">
+        <v>56</v>
+      </c>
+      <c r="C336" s="38">
+        <v>21</v>
+      </c>
+      <c r="D336" s="38">
+        <v>-29</v>
+      </c>
+      <c r="E336" s="38">
+        <v>-12</v>
+      </c>
+      <c r="F336" s="38">
+        <v>-197</v>
+      </c>
+      <c r="G336" s="38">
+        <v>-92</v>
+      </c>
+      <c r="H336" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I336" s="39">
+        <f t="shared" si="26"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="J336" s="39">
+        <v>1.55</v>
+      </c>
+      <c r="K336" s="39">
+        <v>0.82</v>
+      </c>
+      <c r="T336" s="94">
+        <v>4</v>
+      </c>
+      <c r="U336" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF336" s="109">
+        <f t="shared" ref="AF336" si="47">(B333+B334+B335)/3</f>
+        <v>63.666666666666664</v>
+      </c>
+      <c r="AG336" s="110">
+        <f t="shared" ref="AG336" si="48">(B336-AF336)/AF336</f>
+        <v>-0.12041884816753923</v>
+      </c>
+    </row>
+    <row r="337" spans="1:33">
+      <c r="A337" s="37">
+        <v>44671</v>
+      </c>
+      <c r="B337" s="38">
+        <v>52</v>
+      </c>
+      <c r="C337" s="38">
+        <v>16</v>
+      </c>
+      <c r="D337" s="38">
+        <v>-19</v>
+      </c>
+      <c r="E337" s="38">
+        <v>-7</v>
+      </c>
+      <c r="F337" s="38">
+        <v>-408</v>
+      </c>
+      <c r="G337" s="38">
+        <v>-236</v>
+      </c>
+      <c r="H337" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I337" s="39">
+        <f t="shared" si="26"/>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="J337" s="39">
+        <v>2.14</v>
+      </c>
+      <c r="K337" s="39">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T337" s="94">
+        <v>5</v>
+      </c>
+      <c r="U337" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF337" s="109">
+        <f t="shared" ref="AF337" si="49">(B334+B335+B336)/3</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="AG337" s="110">
+        <f t="shared" ref="AG337" si="50">(B337-AF337)/AF337</f>
+        <v>-8.2352941176470545E-2</v>
       </c>
     </row>
   </sheetData>
@@ -39305,6 +39479,9 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -39317,35 +39494,35 @@
       <selection activeCell="ZA6150" sqref="ZA6150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="7" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="24.85546875" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" customWidth="1"/>
-    <col min="22" max="22" width="22.1640625" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" customWidth="1"/>
-    <col min="24" max="24" width="32.1640625" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" customWidth="1"/>
-    <col min="26" max="26" width="29.5" customWidth="1"/>
-    <col min="27" max="27" width="23.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.140625" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" customWidth="1"/>
+    <col min="27" max="27" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="22">
       <c r="A2" s="1">
         <v>44305</v>
       </c>
@@ -39428,7 +39605,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="27">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -39511,7 +39688,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="27">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>37</v>
@@ -39592,7 +39769,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="27">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -39671,7 +39848,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="27">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -39748,7 +39925,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="27">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -39819,7 +39996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="27">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -39890,7 +40067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="22">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -39935,7 +40112,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="22">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -39982,7 +40159,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="22">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -40029,7 +40206,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="27">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -40082,7 +40259,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="22">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -40133,7 +40310,7 @@
       </c>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="22">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -40182,7 +40359,7 @@
         <v>-5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="22">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -40229,7 +40406,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="22">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -40268,7 +40445,7 @@
         <v>-2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="22">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -40307,7 +40484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="22">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -40347,5 +40524,10 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="0" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="11200" yWindow="0" windowWidth="22320" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
@@ -2217,15 +2217,18 @@
                 <c:pt idx="335">
                   <c:v>44671.0</c:v>
                 </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$337</c:f>
+              <c:f>情绪数据!$T$2:$T$338</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3232,6 +3235,9 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
                   <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3247,8 +3253,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2101846808"/>
-        <c:axId val="2100368984"/>
+        <c:axId val="-2131811416"/>
+        <c:axId val="-2132100104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4325,10 +4331,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$337</c:f>
+              <c:f>情绪数据!$U$2:$U$338</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5335,6 +5341,9 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5352,8 +5361,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101846808"/>
-        <c:axId val="2100368984"/>
+        <c:axId val="-2131811416"/>
+        <c:axId val="-2132100104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6388,10 +6397,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$337</c:f>
+              <c:f>情绪数据!$J$2:$J$338</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7399,6 +7408,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8449,10 +8461,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$337</c:f>
+              <c:f>情绪数据!$K$2:$K$338</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9460,6 +9472,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9476,11 +9491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100365608"/>
-        <c:axId val="2100363544"/>
+        <c:axId val="-2132096376"/>
+        <c:axId val="-2132093432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101846808"/>
+        <c:axId val="-2131811416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9548,7 +9563,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100368984"/>
+        <c:crossAx val="-2132100104"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9556,7 +9571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100368984"/>
+        <c:axId val="-2132100104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9607,13 +9622,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101846808"/>
+        <c:crossAx val="-2131811416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2100365608"/>
+        <c:axId val="-2132096376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9623,7 +9638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100363544"/>
+        <c:crossAx val="-2132093432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9631,7 +9646,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100363544"/>
+        <c:axId val="-2132093432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9668,7 +9683,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100365608"/>
+        <c:crossAx val="-2132096376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10784,15 +10799,18 @@
                 <c:pt idx="335">
                   <c:v>44671.0</c:v>
                 </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$337</c:f>
+              <c:f>情绪数据!$B$2:$B$338</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11800,6 +11818,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12845,15 +12866,18 @@
                 <c:pt idx="335">
                   <c:v>44671.0</c:v>
                 </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$337</c:f>
+              <c:f>情绪数据!$C$2:$C$338</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13861,6 +13885,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13874,8 +13901,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099454920"/>
-        <c:axId val="2101936696"/>
+        <c:axId val="-2134481848"/>
+        <c:axId val="-2134477992"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14894,10 +14921,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$337</c:f>
+              <c:f>情绪数据!$D$2:$D$338</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15905,6 +15932,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>-19.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-90.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16925,10 +16955,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$337</c:f>
+              <c:f>情绪数据!$F$2:$F$338</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17936,6 +17966,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>-408.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1963.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17949,8 +17982,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101940424"/>
-        <c:axId val="2101943400"/>
+        <c:axId val="-2134474264"/>
+        <c:axId val="-2134471288"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18970,10 +19003,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$337</c:f>
+              <c:f>情绪数据!$AF$2:$AF$338</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19981,6 +20014,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>56.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>61.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19997,11 +20033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099454920"/>
-        <c:axId val="2101936696"/>
+        <c:axId val="-2134481848"/>
+        <c:axId val="-2134477992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099454920"/>
+        <c:axId val="-2134481848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20055,7 +20091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101936696"/>
+        <c:crossAx val="-2134477992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20063,7 +20099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101936696"/>
+        <c:axId val="-2134477992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -20112,12 +20148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099454920"/>
+        <c:crossAx val="-2134481848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2101940424"/>
+        <c:axId val="-2134474264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20127,7 +20163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101943400"/>
+        <c:crossAx val="-2134471288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20135,7 +20171,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101943400"/>
+        <c:axId val="-2134471288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -20171,7 +20207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101940424"/>
+        <c:crossAx val="-2134474264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21648,8 +21684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="BZ25" sqref="BZ25"/>
+    <sheetView tabSelected="1" topLeftCell="BL2" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="BZ16" sqref="BZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -21692,11 +21728,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG337"/>
+  <dimension ref="A1:AG338"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T339" sqref="T339"/>
+      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -35615,7 +35651,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I337" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I338" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -39335,6 +39371,56 @@
       <c r="AG337" s="110">
         <f t="shared" ref="AG337" si="50">(B337-AF337)/AF337</f>
         <v>-8.2352941176470545E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:33">
+      <c r="A338" s="37">
+        <v>44672</v>
+      </c>
+      <c r="B338" s="38">
+        <v>32</v>
+      </c>
+      <c r="C338" s="38">
+        <v>15</v>
+      </c>
+      <c r="D338" s="38">
+        <v>-90</v>
+      </c>
+      <c r="E338" s="38">
+        <v>-66</v>
+      </c>
+      <c r="F338" s="38">
+        <v>-1963</v>
+      </c>
+      <c r="G338" s="38">
+        <v>-1344</v>
+      </c>
+      <c r="H338" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I338" s="39">
+        <f t="shared" si="26"/>
+        <v>68.085106382978722</v>
+      </c>
+      <c r="J338" s="39">
+        <v>-0.86</v>
+      </c>
+      <c r="K338" s="39">
+        <v>-1.85</v>
+      </c>
+      <c r="T338" s="94">
+        <v>5</v>
+      </c>
+      <c r="U338" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF338" s="109">
+        <f t="shared" ref="AF338" si="51">(B335+B336+B337)/3</f>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="AG338" s="110">
+        <f t="shared" ref="AG338" si="52">(B338-AF338)/AF338</f>
+        <v>-0.47826086956521741</v>
       </c>
     </row>
   </sheetData>

--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newhope_ghost/Documents/codeDir/github/stockDetailQuery/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="0" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="14800" yWindow="460" windowWidth="20520" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
     <sheet name="情绪数据" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -454,12 +459,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -831,7 +836,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,26 +919,26 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,66 +951,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="16" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1017,57 +1022,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="逗号" xfId="8" builtinId="3"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2217,15 +2222,21 @@
                 <c:pt idx="335">
                   <c:v>44671.0</c:v>
                 </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$337</c:f>
+              <c:f>情绪数据!$T$2:$T$339</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3232,6 +3243,12 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
                   <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3247,8 +3264,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2101846808"/>
-        <c:axId val="2100368984"/>
+        <c:axId val="-849261504"/>
+        <c:axId val="-849259728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4325,10 +4342,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$337</c:f>
+              <c:f>情绪数据!$U$2:$U$339</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5336,6 +5353,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5352,8 +5375,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101846808"/>
-        <c:axId val="2100368984"/>
+        <c:axId val="-849261504"/>
+        <c:axId val="-849259728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6388,10 +6411,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$337</c:f>
+              <c:f>情绪数据!$J$2:$J$339</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7399,6 +7422,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8449,10 +8478,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$337</c:f>
+              <c:f>情绪数据!$K$2:$K$339</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9460,6 +9489,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9476,11 +9511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100365608"/>
-        <c:axId val="2100363544"/>
+        <c:axId val="-849257408"/>
+        <c:axId val="-849255088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101846808"/>
+        <c:axId val="-849261504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9548,7 +9583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100368984"/>
+        <c:crossAx val="-849259728"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9556,7 +9591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100368984"/>
+        <c:axId val="-849259728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9607,13 +9642,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101846808"/>
+        <c:crossAx val="-849261504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2100365608"/>
+        <c:axId val="-849257408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9623,7 +9658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100363544"/>
+        <c:crossAx val="-849255088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9631,7 +9666,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100363544"/>
+        <c:axId val="-849255088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9668,7 +9703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100365608"/>
+        <c:crossAx val="-849257408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10784,15 +10819,21 @@
                 <c:pt idx="335">
                   <c:v>44671.0</c:v>
                 </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$337</c:f>
+              <c:f>情绪数据!$B$2:$B$339</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11648,85 +11689,85 @@
                 <c:pt idx="284">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="285" formatCode="General">
+                <c:pt idx="285">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="286" formatCode="General">
+                <c:pt idx="286">
                   <c:v>97.0</c:v>
                 </c:pt>
-                <c:pt idx="287" formatCode="General">
+                <c:pt idx="287">
                   <c:v>96.0</c:v>
                 </c:pt>
-                <c:pt idx="288" formatCode="General">
+                <c:pt idx="288">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="289" formatCode="General">
+                <c:pt idx="289">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="290" formatCode="General">
+                <c:pt idx="290">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="291" formatCode="General">
+                <c:pt idx="291">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="292" formatCode="General">
+                <c:pt idx="292">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="293" formatCode="General">
+                <c:pt idx="293">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="294" formatCode="General">
+                <c:pt idx="294">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="295" formatCode="General">
+                <c:pt idx="295">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="296" formatCode="General">
+                <c:pt idx="296">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="297" formatCode="General">
+                <c:pt idx="297">
                   <c:v>89.0</c:v>
                 </c:pt>
-                <c:pt idx="298" formatCode="General">
+                <c:pt idx="298">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="299" formatCode="General">
+                <c:pt idx="299">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="300" formatCode="General">
+                <c:pt idx="300">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="301" formatCode="General">
+                <c:pt idx="301">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="302" formatCode="General">
+                <c:pt idx="302">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="303" formatCode="General">
+                <c:pt idx="303">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="304" formatCode="General">
+                <c:pt idx="304">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="305" formatCode="General">
+                <c:pt idx="305">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="306" formatCode="General">
+                <c:pt idx="306">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="307" formatCode="General">
+                <c:pt idx="307">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="308" formatCode="General">
+                <c:pt idx="308">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="309" formatCode="General">
+                <c:pt idx="309">
                   <c:v>69.0</c:v>
                 </c:pt>
-                <c:pt idx="310" formatCode="General">
+                <c:pt idx="310">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="311" formatCode="General">
+                <c:pt idx="311">
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -11759,16 +11800,16 @@
                 <c:pt idx="321">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="322" formatCode="General">
+                <c:pt idx="322">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="323" formatCode="General">
+                <c:pt idx="323">
                   <c:v>55.0</c:v>
                 </c:pt>
-                <c:pt idx="324" formatCode="General">
+                <c:pt idx="324">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="325" formatCode="General">
+                <c:pt idx="325">
                   <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -11800,6 +11841,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>75.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12845,15 +12892,21 @@
                 <c:pt idx="335">
                   <c:v>44671.0</c:v>
                 </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$337</c:f>
+              <c:f>情绪数据!$C$2:$C$339</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13709,85 +13762,85 @@
                 <c:pt idx="284">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="285" formatCode="General">
+                <c:pt idx="285">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="286" formatCode="General">
+                <c:pt idx="286">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="287" formatCode="General">
+                <c:pt idx="287">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="288" formatCode="General">
+                <c:pt idx="288">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="289" formatCode="General">
+                <c:pt idx="289">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="290" formatCode="General">
+                <c:pt idx="290">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="291" formatCode="General">
+                <c:pt idx="291">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="292" formatCode="General">
+                <c:pt idx="292">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="293" formatCode="General">
+                <c:pt idx="293">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="294" formatCode="General">
+                <c:pt idx="294">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="295" formatCode="General">
+                <c:pt idx="295">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="296" formatCode="General">
+                <c:pt idx="296">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="297" formatCode="General">
+                <c:pt idx="297">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="298" formatCode="General">
+                <c:pt idx="298">
                   <c:v>36.0</c:v>
                 </c:pt>
-                <c:pt idx="299" formatCode="General">
+                <c:pt idx="299">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="300" formatCode="General">
+                <c:pt idx="300">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="301" formatCode="General">
+                <c:pt idx="301">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="302" formatCode="General">
+                <c:pt idx="302">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="303" formatCode="General">
+                <c:pt idx="303">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="304" formatCode="General">
+                <c:pt idx="304">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="305" formatCode="General">
+                <c:pt idx="305">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="306" formatCode="General">
+                <c:pt idx="306">
                   <c:v>33.0</c:v>
                 </c:pt>
-                <c:pt idx="307" formatCode="General">
+                <c:pt idx="307">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="308" formatCode="General">
+                <c:pt idx="308">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="309" formatCode="General">
+                <c:pt idx="309">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="310" formatCode="General">
+                <c:pt idx="310">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="311" formatCode="General">
+                <c:pt idx="311">
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
@@ -13820,16 +13873,16 @@
                 <c:pt idx="321">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="322" formatCode="General">
+                <c:pt idx="322">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="323" formatCode="General">
+                <c:pt idx="323">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="324" formatCode="General">
+                <c:pt idx="324">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="325" formatCode="General">
+                <c:pt idx="325">
                   <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
@@ -13861,6 +13914,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13874,8 +13933,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099454920"/>
-        <c:axId val="2101936696"/>
+        <c:axId val="-848938144"/>
+        <c:axId val="-848935824"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -14894,10 +14953,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$337</c:f>
+              <c:f>情绪数据!$D$2:$D$339</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15905,6 +15964,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>-19.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-90.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-85.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16925,10 +16990,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$337</c:f>
+              <c:f>情绪数据!$F$2:$F$339</c:f>
               <c:numCache>
-                <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17936,6 +18001,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>-408.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1963.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-665.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17949,8 +18020,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101940424"/>
-        <c:axId val="2101943400"/>
+        <c:axId val="-848933504"/>
+        <c:axId val="-848931184"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18970,10 +19041,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$337</c:f>
+              <c:f>情绪数据!$AF$2:$AF$339</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -19981,6 +20052,12 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>56.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>61.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>46.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19997,11 +20074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099454920"/>
-        <c:axId val="2101936696"/>
+        <c:axId val="-848938144"/>
+        <c:axId val="-848935824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099454920"/>
+        <c:axId val="-848938144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20055,7 +20132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101936696"/>
+        <c:crossAx val="-848935824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20063,7 +20140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101936696"/>
+        <c:axId val="-848935824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -20112,12 +20189,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099454920"/>
+        <c:crossAx val="-848938144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2101940424"/>
+        <c:axId val="-848933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20127,7 +20204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101943400"/>
+        <c:crossAx val="-848931184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20135,7 +20212,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101943400"/>
+        <c:axId val="-848931184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -20171,7 +20248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101940424"/>
+        <c:crossAx val="-848933504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21648,31 +21725,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="BZ25" sqref="BZ25"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="88" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="CD21" sqref="CD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="33" spans="97:104">
+    <row r="33" spans="97:104" x14ac:dyDescent="0.2">
       <c r="CY33" s="18"/>
     </row>
-    <row r="34" spans="97:104">
+    <row r="34" spans="97:104" x14ac:dyDescent="0.2">
       <c r="CS34" s="18"/>
     </row>
-    <row r="37" spans="97:104" ht="15">
+    <row r="37" spans="97:104" ht="18" x14ac:dyDescent="0.2">
       <c r="CZ37" s="19"/>
     </row>
-    <row r="51" spans="98:103">
+    <row r="51" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT51" s="18"/>
     </row>
-    <row r="53" spans="98:103">
+    <row r="53" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT53" s="20"/>
     </row>
-    <row r="60" spans="98:103">
+    <row r="60" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CY60" s="21"/>
     </row>
-    <row r="70" spans="20:20">
+    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T70" t="s">
         <v>0</v>
       </c>
@@ -21682,30 +21759,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG337"/>
+  <dimension ref="A1:AG339"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T339" sqref="T339"/>
+      <selection pane="bottomLeft" activeCell="T336" sqref="T336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="37" customWidth="1"/>
     <col min="2" max="3" width="8" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="38" customWidth="1"/>
-    <col min="5" max="6" width="9.42578125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="38" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="38" customWidth="1"/>
     <col min="8" max="8" width="8" style="38" customWidth="1"/>
     <col min="9" max="11" width="8" style="39" customWidth="1"/>
     <col min="12" max="19" width="8" style="39" hidden="1" customWidth="1"/>
@@ -21717,12 +21789,12 @@
     <col min="25" max="29" width="8" style="43" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="8" style="108" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="109" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" style="110" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="110" customWidth="1"/>
     <col min="34" max="34" width="10" style="43" customWidth="1"/>
     <col min="35" max="16384" width="8" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1">
+    <row r="1" spans="1:33" s="35" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -21813,7 +21885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="37">
         <v>44165</v>
       </c>
@@ -21863,7 +21935,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="37">
         <v>44166</v>
       </c>
@@ -21913,7 +21985,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="37">
         <v>44167</v>
       </c>
@@ -21963,7 +22035,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="37">
         <v>44168</v>
       </c>
@@ -22013,7 +22085,7 @@
         <v>9.5652173913043412E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>44169</v>
       </c>
@@ -22063,7 +22135,7 @@
         <v>-0.24427480916030531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <v>44172</v>
       </c>
@@ -22113,7 +22185,7 @@
         <v>-0.21311475409836061</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <v>44173</v>
       </c>
@@ -22163,7 +22235,7 @@
         <v>-0.15887850467289713</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <v>44174</v>
       </c>
@@ -22213,7 +22285,7 @@
         <v>-5.263157894736846E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <v>44175</v>
       </c>
@@ -22263,7 +22335,7 @@
         <v>-8.6956521739130474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <v>44176</v>
       </c>
@@ -22313,7 +22385,7 @@
         <v>-0.35227272727272724</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <v>44179</v>
       </c>
@@ -22363,7 +22435,7 @@
         <v>0.71428571428571419</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <v>44180</v>
       </c>
@@ -22413,7 +22485,7 @@
         <v>-4.3956043956043918E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <v>44181</v>
       </c>
@@ -22463,7 +22535,7 @@
         <v>-0.28260869565217395</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <v>44182</v>
       </c>
@@ -22513,7 +22585,7 @@
         <v>0.42105263157894729</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <v>44183</v>
       </c>
@@ -22563,7 +22635,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="37">
         <v>44186</v>
       </c>
@@ -22613,7 +22685,7 @@
         <v>0.4423076923076924</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <v>44187</v>
       </c>
@@ -22663,7 +22735,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="37">
         <v>44188</v>
       </c>
@@ -22713,7 +22785,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="37">
         <v>44189</v>
       </c>
@@ -22763,7 +22835,7 @@
         <v>-0.19402985074626861</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="37">
         <v>44190</v>
       </c>
@@ -22813,7 +22885,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="37">
         <v>44193</v>
       </c>
@@ -22863,7 +22935,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="37">
         <v>44194</v>
       </c>
@@ -22913,7 +22985,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="37">
         <v>44195</v>
       </c>
@@ -22963,7 +23035,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="37">
         <v>44196</v>
       </c>
@@ -23013,7 +23085,7 @@
         <v>-5.5248618784530426E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="37">
         <v>44200</v>
       </c>
@@ -23063,7 +23135,7 @@
         <v>0.8033707865168539</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="37">
         <v>44201</v>
       </c>
@@ -23113,7 +23185,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="37">
         <v>44202</v>
       </c>
@@ -23163,7 +23235,7 @@
         <v>-0.42738589211618255</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="37">
         <v>44203</v>
       </c>
@@ -23213,7 +23285,7 @@
         <v>-0.58260869565217399</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="37">
         <v>44204</v>
       </c>
@@ -23263,7 +23335,7 @@
         <v>-5.161290322580641E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
         <v>44207</v>
       </c>
@@ -23313,7 +23385,7 @@
         <v>-5.5118110236220527E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="37">
         <v>44208</v>
       </c>
@@ -23363,7 +23435,7 @@
         <v>0.73553719008264451</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="37">
         <v>44209</v>
       </c>
@@ -23413,7 +23485,7 @@
         <v>-0.26415094339622641</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="37">
         <v>44210</v>
       </c>
@@ -23463,7 +23535,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="37">
         <v>44211</v>
       </c>
@@ -23513,7 +23585,7 @@
         <v>0.31460674157303364</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="37">
         <v>44214</v>
       </c>
@@ -23563,7 +23635,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="37">
         <v>44215</v>
       </c>
@@ -23613,7 +23685,7 @@
         <v>-7.2033898305084804E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="37">
         <v>44216</v>
       </c>
@@ -23663,7 +23735,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="37">
         <v>44217</v>
       </c>
@@ -23713,7 +23785,7 @@
         <v>-1.2658227848101266E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="37">
         <v>44218</v>
       </c>
@@ -23763,7 +23835,7 @@
         <v>-0.34955752212389374</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="37">
         <v>44221</v>
       </c>
@@ -23813,7 +23885,7 @@
         <v>-0.31683168316831678</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="37">
         <v>44222</v>
       </c>
@@ -23863,7 +23935,7 @@
         <v>-0.11560693641618494</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="37">
         <v>44223</v>
       </c>
@@ -23913,7 +23985,7 @@
         <v>0.27397260273972607</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="37">
         <v>44224</v>
       </c>
@@ -23963,7 +24035,7 @@
         <v>-0.20754716981132076</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
         <v>44225</v>
       </c>
@@ -24013,7 +24085,7 @@
         <v>-0.38064516129032255</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="37">
         <v>44228</v>
       </c>
@@ -24063,7 +24135,7 @@
         <v>0.80882352941176461</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="37">
         <v>44229</v>
       </c>
@@ -24113,7 +24185,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="15">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="37">
         <v>44230</v>
       </c>
@@ -24163,7 +24235,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="37">
         <v>44231</v>
       </c>
@@ -24213,7 +24285,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="37">
         <v>44232</v>
       </c>
@@ -24263,7 +24335,7 @@
         <v>-0.11184210526315785</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="37">
         <v>44235</v>
       </c>
@@ -24313,7 +24385,7 @@
         <v>0.27906976744186046</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="37">
         <v>44236</v>
       </c>
@@ -24363,7 +24435,7 @@
         <v>0.34482758620689646</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="37">
         <v>44237</v>
       </c>
@@ -24413,7 +24485,7 @@
         <v>-0.29090909090909089</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="37">
         <v>44245</v>
       </c>
@@ -24463,7 +24535,7 @@
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="37">
         <v>44246</v>
       </c>
@@ -24513,7 +24585,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="37">
         <v>44249</v>
       </c>
@@ -24563,7 +24635,7 @@
         <v>4.1841004184099825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="37">
         <v>44250</v>
       </c>
@@ -24613,7 +24685,7 @@
         <v>-0.43214285714285711</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="37">
         <v>44251</v>
       </c>
@@ -24663,7 +24735,7 @@
         <v>-0.45922746781115881</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="37">
         <v>44252</v>
       </c>
@@ -24713,7 +24785,7 @@
         <v>-0.29714285714285715</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="37">
         <v>44253</v>
       </c>
@@ -24763,7 +24835,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="44">
         <v>44256</v>
       </c>
@@ -24831,7 +24903,7 @@
         <v>1.0655737704918034</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="51">
         <v>44257</v>
       </c>
@@ -24899,7 +24971,7 @@
         <v>-0.32317073170731703</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="37">
         <v>44258</v>
       </c>
@@ -24949,7 +25021,7 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="37">
         <v>44259</v>
       </c>
@@ -24999,7 +25071,7 @@
         <v>-0.37623762376237618</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="37">
         <v>44260</v>
       </c>
@@ -25049,7 +25121,7 @@
         <v>0.14374999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="37">
         <v>44263</v>
       </c>
@@ -25099,7 +25171,7 @@
         <v>-0.13586956521739132</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="37">
         <v>44264</v>
       </c>
@@ -25149,7 +25221,7 @@
         <v>-0.34615384615384615</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="37">
         <v>44265</v>
       </c>
@@ -25199,7 +25271,7 @@
         <v>-0.33108108108108109</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="37">
         <v>44266</v>
       </c>
@@ -25249,7 +25321,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="37">
         <v>44267</v>
       </c>
@@ -25299,7 +25371,7 @@
         <v>3.6764705882352887E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="37">
         <v>44270</v>
       </c>
@@ -25349,7 +25421,7 @@
         <v>-7.3825503355704647E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="37">
         <v>44271</v>
       </c>
@@ -25399,7 +25471,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="15">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="37">
         <v>44272</v>
       </c>
@@ -25449,7 +25521,7 @@
         <v>7.006369426751588E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="37">
         <v>44273</v>
       </c>
@@ -25499,7 +25571,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="37">
         <v>44274</v>
       </c>
@@ -25549,7 +25621,7 @@
         <v>-9.4972067039106114E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="37">
         <v>44277</v>
       </c>
@@ -25599,7 +25671,7 @@
         <v>0.4201183431952662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="37">
         <v>44278</v>
       </c>
@@ -25649,7 +25721,7 @@
         <v>-0.26943005181347146</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="37">
         <v>44279</v>
       </c>
@@ -25699,7 +25771,7 @@
         <v>-7.1823204419889541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="15">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="37">
         <v>44280</v>
       </c>
@@ -25749,7 +25821,7 @@
         <v>-0.29508196721311475</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="37">
         <v>44281</v>
       </c>
@@ -25799,7 +25871,7 @@
         <v>0.47945205479452063</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="15">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="37">
         <v>44284</v>
       </c>
@@ -25849,7 +25921,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" s="37">
         <v>44285</v>
       </c>
@@ -25899,7 +25971,7 @@
         <v>-2.7932960893854709E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="15">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="37">
         <v>44286</v>
       </c>
@@ -25949,7 +26021,7 @@
         <v>0.12886597938144323</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="15">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="37">
         <v>44287</v>
       </c>
@@ -25999,7 +26071,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="15">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="37">
         <v>44288</v>
       </c>
@@ -26049,7 +26121,7 @@
         <v>4.9261083743841663E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="15">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="37">
         <v>44292</v>
       </c>
@@ -26100,7 +26172,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="15">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="37">
         <v>44293</v>
       </c>
@@ -26151,7 +26223,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="15">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="58">
         <v>44294</v>
       </c>
@@ -26220,7 +26292,7 @@
         <v>-0.52564102564102566</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="15">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="37">
         <v>44295</v>
       </c>
@@ -26271,7 +26343,7 @@
         <v>-0.18719211822660103</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="15">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="37">
         <v>44298</v>
       </c>
@@ -26322,7 +26394,7 @@
         <v>5.4945054945054986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="15">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="37">
         <v>44299</v>
       </c>
@@ -26373,7 +26445,7 @@
         <v>-1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="15">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="37">
         <v>44300</v>
       </c>
@@ -26423,7 +26495,7 @@
         <v>0.12941176470588239</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="15">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="58">
         <v>44301</v>
       </c>
@@ -26491,7 +26563,7 @@
         <v>-0.27932960893854747</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="15">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="37">
         <v>44302</v>
       </c>
@@ -26541,7 +26613,7 @@
         <v>0.40506329113924056</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="15">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="37">
         <v>44305</v>
       </c>
@@ -26591,7 +26663,7 @@
         <v>0.27624309392265189</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="15">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="37">
         <v>44306</v>
       </c>
@@ -26641,7 +26713,7 @@
         <v>-0.365979381443299</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="15">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="37">
         <v>44307</v>
       </c>
@@ -26691,7 +26763,7 @@
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="15">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="37">
         <v>44308</v>
       </c>
@@ -26741,7 +26813,7 @@
         <v>-0.21052631578947364</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="15">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="37">
         <v>44309</v>
       </c>
@@ -26791,7 +26863,7 @@
         <v>-8.6956521739130488E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="15">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" s="37">
         <v>44312</v>
       </c>
@@ -26841,7 +26913,7 @@
         <v>0.26605504587155954</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="15">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" s="65">
         <v>44313</v>
       </c>
@@ -26909,7 +26981,7 @@
         <v>-5.7851239669421545E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="15">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" s="37">
         <v>44314</v>
       </c>
@@ -26959,7 +27031,7 @@
         <v>0.51260504201680679</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="15">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" s="37">
         <v>44315</v>
       </c>
@@ -27009,7 +27081,7 @@
         <v>-8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="15">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" s="37">
         <v>44316</v>
       </c>
@@ -27059,7 +27131,7 @@
         <v>-0.15492957746478878</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="15">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" s="37">
         <v>44322</v>
       </c>
@@ -27109,7 +27181,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="15">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" s="37">
         <v>44323</v>
       </c>
@@ -27159,7 +27231,7 @@
         <v>-9.1549295774647932E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="15">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" s="72">
         <v>44326</v>
       </c>
@@ -27227,7 +27299,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="15">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" s="37">
         <v>44327</v>
       </c>
@@ -27277,7 +27349,7 @@
         <v>-0.11475409836065574</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="15">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" s="37">
         <v>44328</v>
       </c>
@@ -27327,7 +27399,7 @@
         <v>-0.2960893854748603</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="15">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" s="37">
         <v>44329</v>
       </c>
@@ -27377,7 +27449,7 @@
         <v>0.297752808988764</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" s="58">
         <v>44333</v>
       </c>
@@ -27445,7 +27517,7 @@
         <v>-0.44508670520231214</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="15">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" s="37">
         <v>44334</v>
       </c>
@@ -27495,7 +27567,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="15">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" s="37">
         <v>44335</v>
       </c>
@@ -27545,7 +27617,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="15">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" s="37">
         <v>44336</v>
       </c>
@@ -27595,7 +27667,7 @@
         <v>-0.10389610389610393</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="15">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" s="37">
         <v>44337</v>
       </c>
@@ -27645,7 +27717,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="15">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" s="37">
         <v>44340</v>
       </c>
@@ -27695,7 +27767,7 @@
         <v>4.3478260869565265E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="15">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" s="37">
         <v>44341</v>
       </c>
@@ -27745,7 +27817,7 @@
         <v>-0.12195121951219508</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="15">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" s="37">
         <v>44342</v>
       </c>
@@ -27795,7 +27867,7 @@
         <v>6.6265060240963805E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="15">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" s="37">
         <v>44343</v>
       </c>
@@ -27845,7 +27917,7 @@
         <v>0.19631901840490792</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" s="37">
         <v>44344</v>
       </c>
@@ -27895,7 +27967,7 @@
         <v>-0.16279069767441864</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="15">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" s="37">
         <v>44347</v>
       </c>
@@ -27945,7 +28017,7 @@
         <v>0.48255813953488363</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="15">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" s="37">
         <v>44348</v>
       </c>
@@ -27999,7 +28071,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="15">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" s="65">
         <v>44349</v>
       </c>
@@ -28067,7 +28139,7 @@
         <v>-0.19000000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="15">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" s="37">
         <v>44350</v>
       </c>
@@ -28117,7 +28189,7 @@
         <v>-8.2524271844660255E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" s="37">
         <v>44351</v>
       </c>
@@ -28167,7 +28239,7 @@
         <v>-0.20108695652173916</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" s="37">
         <v>44354</v>
       </c>
@@ -28217,7 +28289,7 @@
         <v>8.4337349397590314E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" s="37">
         <v>44355</v>
       </c>
@@ -28267,7 +28339,7 @@
         <v>-7.5581395348837246E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="15">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A128" s="37">
         <v>44356</v>
       </c>
@@ -28317,7 +28389,7 @@
         <v>-5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="15">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" s="37">
         <v>44357</v>
       </c>
@@ -28367,7 +28439,7 @@
         <v>0.15243902439024395</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="15">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" s="37">
         <v>44358</v>
       </c>
@@ -28417,7 +28489,7 @@
         <v>7.7844311377245554E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="15">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" s="65">
         <v>44362</v>
       </c>
@@ -28485,7 +28557,7 @@
         <v>-0.34482758620689657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="15">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" s="65">
         <v>44363</v>
       </c>
@@ -28535,7 +28607,7 @@
         <v>-0.34782608695652173</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="15">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" s="37">
         <v>44364</v>
       </c>
@@ -28585,7 +28657,7 @@
         <v>0.10526315789473678</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="15">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" s="37">
         <v>44365</v>
       </c>
@@ -28635,7 +28707,7 @@
         <v>0.4262295081967214</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="15">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" s="37">
         <v>44368</v>
       </c>
@@ -28685,7 +28757,7 @@
         <v>0.45774647887323938</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="15">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" s="37">
         <v>44369</v>
       </c>
@@ -28735,7 +28807,7 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="15">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" s="37">
         <v>44370</v>
       </c>
@@ -28785,7 +28857,7 @@
         <v>-0.20725388601036263</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="15">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" s="37">
         <v>44371</v>
       </c>
@@ -28835,7 +28907,7 @@
         <v>-0.11290322580645161</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="15">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" s="37">
         <v>44372</v>
       </c>
@@ -28885,7 +28957,7 @@
         <v>-2.3255813953488413E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="15">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" s="37">
         <v>44375</v>
       </c>
@@ -28935,7 +29007,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="15">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" s="37">
         <v>44376</v>
       </c>
@@ -28985,7 +29057,7 @@
         <v>-0.25433526011560692</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="15">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" s="37">
         <v>44377</v>
       </c>
@@ -29035,7 +29107,7 @@
         <v>-4.9689440993788775E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="15">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" s="37">
         <v>44378</v>
       </c>
@@ -29085,7 +29157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="15">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" s="37">
         <v>44379</v>
       </c>
@@ -29135,7 +29207,7 @@
         <v>-0.26027397260273971</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="15">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" s="37">
         <v>44382</v>
       </c>
@@ -29185,7 +29257,7 @@
         <v>0.51079136690647475</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="15">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" s="37">
         <v>44383</v>
       </c>
@@ -29235,7 +29307,7 @@
         <v>-0.27848101265822783</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="15">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" s="37">
         <v>44384</v>
       </c>
@@ -29285,7 +29357,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="15">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" s="37">
         <v>44385</v>
       </c>
@@ -29335,7 +29407,7 @@
         <v>-0.19298245614035087</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="15">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" s="37">
         <v>44386</v>
       </c>
@@ -29385,7 +29457,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="15">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" s="37">
         <v>44389</v>
       </c>
@@ -29435,7 +29507,7 @@
         <v>0.43930635838150295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" ht="15">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" s="37">
         <v>44390</v>
       </c>
@@ -29485,7 +29557,7 @@
         <v>-2.0725388601036197E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="15">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" s="37">
         <v>44391</v>
       </c>
@@ -29535,7 +29607,7 @@
         <v>-0.25714285714285712</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="15">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" s="37">
         <v>44392</v>
       </c>
@@ -29585,7 +29657,7 @@
         <v>-0.31818181818181818</v>
       </c>
     </row>
-    <row r="154" spans="1:33" ht="15">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" s="37">
         <v>44393</v>
       </c>
@@ -29635,7 +29707,7 @@
         <v>-0.34375000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="15">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" s="37">
         <v>44396</v>
       </c>
@@ -29685,7 +29757,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="15">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" s="37">
         <v>44397</v>
       </c>
@@ -29735,7 +29807,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="15">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" s="37">
         <v>44398</v>
       </c>
@@ -29785,7 +29857,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="15">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" s="37">
         <v>44399</v>
       </c>
@@ -29835,7 +29907,7 @@
         <v>-7.6923076923076886E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="15">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" s="37">
         <v>44400</v>
       </c>
@@ -29885,7 +29957,7 @@
         <v>-0.24193548387096775</v>
       </c>
     </row>
-    <row r="160" spans="1:33" ht="15">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" s="37">
         <v>44403</v>
       </c>
@@ -29935,7 +30007,7 @@
         <v>-0.40641711229946526</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="15">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" s="37">
         <v>44404</v>
       </c>
@@ -29985,7 +30057,7 @@
         <v>-0.44285714285714284</v>
       </c>
     </row>
-    <row r="162" spans="1:33" ht="15">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" s="37">
         <v>44405</v>
       </c>
@@ -30035,7 +30107,7 @@
         <v>9.0909090909091564E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="15">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" s="37">
         <v>44406</v>
       </c>
@@ -30085,7 +30157,7 @@
         <v>2.4499999999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="15">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" s="37">
         <v>44407</v>
       </c>
@@ -30135,7 +30207,7 @@
         <v>0.36516853932584264</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="15">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" s="37">
         <v>44410</v>
       </c>
@@ -30185,7 +30257,7 @@
         <v>0.23605150214592266</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="15">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" s="37">
         <v>44411</v>
       </c>
@@ -30235,7 +30307,7 @@
         <v>-0.45547945205479451</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="15">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" s="37">
         <v>44412</v>
       </c>
@@ -30285,7 +30357,7 @@
         <v>0.13478260869565212</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="15">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A168" s="37">
         <v>44413</v>
       </c>
@@ -30335,7 +30407,7 @@
         <v>-0.36440677966101698</v>
       </c>
     </row>
-    <row r="169" spans="1:33" ht="15">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" s="37">
         <v>44414</v>
       </c>
@@ -30385,7 +30457,7 @@
         <v>-6.842105263157898E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:33" ht="15">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" s="37">
         <v>44417</v>
       </c>
@@ -30435,7 +30507,7 @@
         <v>0.20918367346938785</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="15">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" s="37">
         <v>44418</v>
       </c>
@@ -30485,7 +30557,7 @@
         <v>0.11702127659574472</v>
       </c>
     </row>
-    <row r="172" spans="1:33" ht="15">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" s="37">
         <v>44419</v>
       </c>
@@ -30535,7 +30607,7 @@
         <v>0.29807692307692318</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="15">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" s="37">
         <v>44420</v>
       </c>
@@ -30585,7 +30657,7 @@
         <v>-0.17154811715481177</v>
       </c>
     </row>
-    <row r="174" spans="1:33" ht="15">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" s="37">
         <v>44423</v>
       </c>
@@ -30635,7 +30707,7 @@
         <v>-0.13716814159292029</v>
       </c>
     </row>
-    <row r="175" spans="1:33" ht="15">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" s="37">
         <v>44424</v>
       </c>
@@ -30685,7 +30757,7 @@
         <v>-3.6199095022624493E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:33" ht="15">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" s="37">
         <v>44425</v>
       </c>
@@ -30735,7 +30807,7 @@
         <v>-0.59900990099009899</v>
       </c>
     </row>
-    <row r="177" spans="1:33" ht="15">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" s="37">
         <v>44426</v>
       </c>
@@ -30785,7 +30857,7 @@
         <v>0.26993865030674841</v>
       </c>
     </row>
-    <row r="178" spans="1:33" ht="15">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" s="37">
         <v>44427</v>
       </c>
@@ -30843,7 +30915,7 @@
         <v>-0.1736526946107784</v>
       </c>
     </row>
-    <row r="179" spans="1:33" ht="15">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" s="87">
         <v>44428</v>
       </c>
@@ -30911,7 +30983,7 @@
         <v>-2.8169014084507091E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:33" ht="15">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" s="37">
         <v>44431</v>
       </c>
@@ -30969,7 +31041,7 @@
         <v>1.2732919254658388</v>
       </c>
     </row>
-    <row r="181" spans="1:33" ht="15">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" s="37">
         <v>44432</v>
       </c>
@@ -31027,7 +31099,7 @@
         <v>-7.4766355140186855E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:33" ht="15">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" s="37">
         <v>44433</v>
       </c>
@@ -31077,7 +31149,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:33" ht="15">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" s="37">
         <v>44434</v>
       </c>
@@ -31127,7 +31199,7 @@
         <v>-0.39776951672862459</v>
       </c>
     </row>
-    <row r="184" spans="1:33" ht="15">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" s="37">
         <v>44435</v>
       </c>
@@ -31177,7 +31249,7 @@
         <v>8.9552238805970144E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:33" ht="15">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" s="37">
         <v>44438</v>
       </c>
@@ -31227,7 +31299,7 @@
         <v>0.11057692307692316</v>
       </c>
     </row>
-    <row r="186" spans="1:33" ht="15">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" s="37">
         <v>44439</v>
       </c>
@@ -31277,7 +31349,7 @@
         <v>0.16176470588235295</v>
       </c>
     </row>
-    <row r="187" spans="1:33" ht="15">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" s="37">
         <v>44440</v>
       </c>
@@ -31327,7 +31399,7 @@
         <v>-0.14847161572052398</v>
       </c>
     </row>
-    <row r="188" spans="1:33" ht="15">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" s="37">
         <v>44441</v>
       </c>
@@ -31377,7 +31449,7 @@
         <v>0.47963800904977366</v>
       </c>
     </row>
-    <row r="189" spans="1:33" ht="15">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" s="37">
         <v>44442</v>
       </c>
@@ -31427,7 +31499,7 @@
         <v>-0.38339920948616596</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="15">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" s="37">
         <v>44445</v>
       </c>
@@ -31477,7 +31549,7 @@
         <v>4.8672566371681485E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="15">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" s="37">
         <v>44446</v>
       </c>
@@ -31527,7 +31599,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="192" spans="1:33" ht="15">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" s="37">
         <v>44447</v>
       </c>
@@ -31577,7 +31649,7 @@
         <v>0.18141592920353991</v>
       </c>
     </row>
-    <row r="193" spans="1:33" ht="15">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" s="37">
         <v>44448</v>
       </c>
@@ -31627,7 +31699,7 @@
         <v>-0.19011406844106468</v>
       </c>
     </row>
-    <row r="194" spans="1:33" ht="15">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" s="37">
         <v>44449</v>
       </c>
@@ -31677,7 +31749,7 @@
         <v>-0.37647058823529411</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="15">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" s="37">
         <v>44452</v>
       </c>
@@ -31727,7 +31799,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="15">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" s="37">
         <v>44453</v>
       </c>
@@ -31777,7 +31849,7 @@
         <v>-9.5693779904306275E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:33" ht="15">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" s="37">
         <v>44454</v>
       </c>
@@ -31835,7 +31907,7 @@
         <v>0.34328358208955223</v>
       </c>
     </row>
-    <row r="198" spans="1:33" ht="15">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" s="87">
         <v>44455</v>
       </c>
@@ -31903,7 +31975,7 @@
         <v>-0.42016806722689071</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="15">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" s="87">
         <v>44456</v>
       </c>
@@ -31971,7 +32043,7 @@
         <v>-0.29145728643216073</v>
       </c>
     </row>
-    <row r="200" spans="1:33" ht="15">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" s="37">
         <v>44461</v>
       </c>
@@ -32029,7 +32101,7 @@
         <v>0.57377049180327866</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="15">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" s="37">
         <v>44462</v>
       </c>
@@ -32087,7 +32159,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:33" ht="15">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" s="37">
         <v>44463</v>
       </c>
@@ -32137,7 +32209,7 @@
         <v>-0.419811320754717</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="15">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" s="87">
         <v>44466</v>
       </c>
@@ -32188,7 +32260,7 @@
         <v>-0.41747572815533984</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="15">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" s="37">
         <v>44467</v>
       </c>
@@ -32238,7 +32310,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="15">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" s="87">
         <v>44468</v>
       </c>
@@ -32289,7 +32361,7 @@
         <v>-0.64473684210526316</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="15">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" s="37">
         <v>44469</v>
       </c>
@@ -32339,7 +32411,7 @@
         <v>0.69767441860465118</v>
       </c>
     </row>
-    <row r="207" spans="1:33" ht="15">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" s="37">
         <v>44477</v>
       </c>
@@ -32389,7 +32461,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="208" spans="1:33" ht="15">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" s="37">
         <v>44480</v>
       </c>
@@ -32439,7 +32511,7 @@
         <v>-0.10967741935483867</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="15">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" s="37">
         <v>44481</v>
       </c>
@@ -32489,7 +32561,7 @@
         <v>-0.42622950819672129</v>
       </c>
     </row>
-    <row r="210" spans="1:33" ht="15">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A210" s="37">
         <v>44482</v>
       </c>
@@ -32539,7 +32611,7 @@
         <v>0.17931034482758615</v>
       </c>
     </row>
-    <row r="211" spans="1:33" ht="15">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A211" s="37">
         <v>44483</v>
       </c>
@@ -32589,7 +32661,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="212" spans="1:33" ht="15">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" s="37">
         <v>44484</v>
       </c>
@@ -32639,7 +32711,7 @@
         <v>-0.47590361445783136</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="15">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" s="37">
         <v>44487</v>
       </c>
@@ -32689,7 +32761,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:33">
+    <row r="214" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="37">
         <v>44488</v>
       </c>
@@ -32739,7 +32811,7 @@
         <v>0.11235955056179771</v>
       </c>
     </row>
-    <row r="215" spans="1:33">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" s="37">
         <v>44489</v>
       </c>
@@ -32789,7 +32861,7 @@
         <v>-0.15294117647058819</v>
       </c>
     </row>
-    <row r="216" spans="1:33">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" s="37">
         <v>44490</v>
       </c>
@@ -32839,7 +32911,7 @@
         <v>-0.36507936507936506</v>
       </c>
     </row>
-    <row r="217" spans="1:33">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" s="37">
         <v>44491</v>
       </c>
@@ -32889,7 +32961,7 @@
         <v>-0.24025974025974028</v>
       </c>
     </row>
-    <row r="218" spans="1:33">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" s="37">
         <v>44494</v>
       </c>
@@ -32939,7 +33011,7 @@
         <v>0.51181102362204711</v>
       </c>
     </row>
-    <row r="219" spans="1:33">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" s="37">
         <v>44495</v>
       </c>
@@ -32989,7 +33061,7 @@
         <v>-0.34965034965034963</v>
       </c>
     </row>
-    <row r="220" spans="1:33">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" s="37">
         <v>44496</v>
       </c>
@@ -33039,7 +33111,7 @@
         <v>-8.2089552238805916E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" s="37">
         <v>44497</v>
       </c>
@@ -33089,7 +33161,7 @@
         <v>-0.13970588235294124</v>
       </c>
     </row>
-    <row r="222" spans="1:33">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" s="37">
         <v>44498</v>
       </c>
@@ -33139,7 +33211,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="223" spans="1:33">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" s="37">
         <v>44501</v>
       </c>
@@ -33189,7 +33261,7 @@
         <v>0.84459459459459452</v>
       </c>
     </row>
-    <row r="224" spans="1:33">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" s="37">
         <v>44502</v>
       </c>
@@ -33239,7 +33311,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:33">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A225" s="37">
         <v>44503</v>
       </c>
@@ -33289,7 +33361,7 @@
         <v>-0.30541871921182273</v>
       </c>
     </row>
-    <row r="226" spans="1:33">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A226" s="37">
         <v>44504</v>
       </c>
@@ -33339,7 +33411,7 @@
         <v>0.59890109890109899</v>
       </c>
     </row>
-    <row r="227" spans="1:33">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A227" s="37">
         <v>44505</v>
       </c>
@@ -33389,7 +33461,7 @@
         <v>-0.20212765957446804</v>
       </c>
     </row>
-    <row r="228" spans="1:33">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A228" s="37">
         <v>44508</v>
       </c>
@@ -33439,7 +33511,7 @@
         <v>-0.1185567010309279</v>
       </c>
     </row>
-    <row r="229" spans="1:33">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A229" s="37">
         <v>44509</v>
       </c>
@@ -33489,7 +33561,7 @@
         <v>-0.11764705882352941</v>
       </c>
     </row>
-    <row r="230" spans="1:33">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A230" s="37">
         <v>44510</v>
       </c>
@@ -33539,7 +33611,7 @@
         <v>-0.15568862275449097</v>
       </c>
     </row>
-    <row r="231" spans="1:33">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A231" s="37">
         <v>44511</v>
       </c>
@@ -33589,7 +33661,7 @@
         <v>0.29878048780487809</v>
       </c>
     </row>
-    <row r="232" spans="1:33">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A232" s="37">
         <v>44512</v>
       </c>
@@ -33639,7 +33711,7 @@
         <v>0.41573033707865165</v>
       </c>
     </row>
-    <row r="233" spans="1:33">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A233" s="37">
         <v>44515</v>
       </c>
@@ -33689,7 +33761,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="234" spans="1:33">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A234" s="37">
         <v>44516</v>
       </c>
@@ -33739,7 +33811,7 @@
         <v>-0.22413793103448271</v>
       </c>
     </row>
-    <row r="235" spans="1:33">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A235" s="37">
         <v>44517</v>
       </c>
@@ -33789,7 +33861,7 @@
         <v>0.27601809954751122</v>
       </c>
     </row>
-    <row r="236" spans="1:33">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A236" s="37">
         <v>44518</v>
       </c>
@@ -33839,7 +33911,7 @@
         <v>-0.33766233766233766</v>
       </c>
     </row>
-    <row r="237" spans="1:33">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A237" s="37">
         <v>44519</v>
       </c>
@@ -33889,7 +33961,7 @@
         <v>9.7560975609756791E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:33">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A238" s="37">
         <v>44522</v>
       </c>
@@ -33939,7 +34011,7 @@
         <v>0.21962616822429915</v>
       </c>
     </row>
-    <row r="239" spans="1:33">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A239" s="37">
         <v>44523</v>
       </c>
@@ -33989,7 +34061,7 @@
         <v>-0.14492753623188406</v>
       </c>
     </row>
-    <row r="240" spans="1:33">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A240" s="37">
         <v>44524</v>
       </c>
@@ -34039,7 +34111,7 @@
         <v>8.8372093023255743E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:33">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A241" s="37">
         <v>44525</v>
       </c>
@@ -34089,7 +34161,7 @@
         <v>-0.22321428571428575</v>
       </c>
     </row>
-    <row r="242" spans="1:33">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A242" s="37">
         <v>44526</v>
       </c>
@@ -34139,7 +34211,7 @@
         <v>-0.2153846153846154</v>
       </c>
     </row>
-    <row r="243" spans="1:33">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A243" s="37">
         <v>44529</v>
       </c>
@@ -34189,7 +34261,7 @@
         <v>0.12299465240641708</v>
       </c>
     </row>
-    <row r="244" spans="1:33">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A244" s="37">
         <v>44530</v>
       </c>
@@ -34239,7 +34311,7 @@
         <v>0.17318435754189948</v>
       </c>
     </row>
-    <row r="245" spans="1:33">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A245" s="37">
         <v>44531</v>
       </c>
@@ -34289,7 +34361,7 @@
         <v>0.33507853403141369</v>
       </c>
     </row>
-    <row r="246" spans="1:33">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A246" s="37">
         <v>44532</v>
       </c>
@@ -34339,7 +34411,7 @@
         <v>-0.30666666666666664</v>
       </c>
     </row>
-    <row r="247" spans="1:33">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A247" s="37">
         <v>44533</v>
       </c>
@@ -34389,7 +34461,7 @@
         <v>-0.20289855072463769</v>
       </c>
     </row>
-    <row r="248" spans="1:33">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A248" s="37">
         <v>44536</v>
       </c>
@@ -34439,7 +34511,7 @@
         <v>-0.390625</v>
       </c>
     </row>
-    <row r="249" spans="1:33">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A249" s="37">
         <v>44537</v>
       </c>
@@ -34489,7 +34561,7 @@
         <v>4.7945205479452108E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:33">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A250" s="37">
         <v>44538</v>
       </c>
@@ -34539,7 +34611,7 @@
         <v>0.69655172413793098</v>
       </c>
     </row>
-    <row r="251" spans="1:33">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A251" s="37">
         <v>44539</v>
       </c>
@@ -34589,7 +34661,7 @@
         <v>0.18604651162790692</v>
       </c>
     </row>
-    <row r="252" spans="1:33">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A252" s="37">
         <v>44540</v>
       </c>
@@ -34639,7 +34711,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:33">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A253" s="37">
         <v>44543</v>
       </c>
@@ -34689,7 +34761,7 @@
         <v>8.7155963302752229E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:33">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A254" s="37">
         <v>44544</v>
       </c>
@@ -34739,7 +34811,7 @@
         <v>0.2976744186046511</v>
       </c>
     </row>
-    <row r="255" spans="1:33">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A255" s="37">
         <v>44545</v>
       </c>
@@ -34789,7 +34861,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:33">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A256" s="37">
         <v>44546</v>
       </c>
@@ -34839,7 +34911,7 @@
         <v>5.1792828685258904E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:33">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A257" s="37">
         <v>44547</v>
       </c>
@@ -34889,7 +34961,7 @@
         <v>-1.9230769230769284E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:33">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A258" s="37">
         <v>44550</v>
       </c>
@@ -34939,7 +35011,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:33">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" s="37">
         <v>44551</v>
       </c>
@@ -34989,7 +35061,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="260" spans="1:33">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" s="37">
         <v>44552</v>
       </c>
@@ -35039,7 +35111,7 @@
         <v>-0.27812500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:33">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" s="37">
         <v>44553</v>
       </c>
@@ -35089,7 +35161,7 @@
         <v>-0.32692307692307693</v>
       </c>
     </row>
-    <row r="262" spans="1:33">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" s="37">
         <v>44554</v>
       </c>
@@ -35139,7 +35211,7 @@
         <v>-0.45936395759717313</v>
       </c>
     </row>
-    <row r="263" spans="1:33">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" s="37">
         <v>44557</v>
       </c>
@@ -35189,7 +35261,7 @@
         <v>-6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:33">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" s="37">
         <v>44558</v>
       </c>
@@ -35239,7 +35311,7 @@
         <v>-3.2786885245901641E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:33">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" s="37">
         <v>44559</v>
       </c>
@@ -35289,7 +35361,7 @@
         <v>9.8837209302325535E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:33">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" s="37">
         <v>44560</v>
       </c>
@@ -35339,7 +35411,7 @@
         <v>0.40217391304347822</v>
       </c>
     </row>
-    <row r="267" spans="1:33">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" s="37">
         <v>44561</v>
       </c>
@@ -35389,7 +35461,7 @@
         <v>-0.16346153846153841</v>
       </c>
     </row>
-    <row r="268" spans="1:33">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" s="37">
         <v>44565</v>
       </c>
@@ -35439,7 +35511,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="269" spans="1:33">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A269" s="37">
         <v>44566</v>
       </c>
@@ -35489,7 +35561,7 @@
         <v>-0.39240506329113922</v>
       </c>
     </row>
-    <row r="270" spans="1:33">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A270" s="37">
         <v>44567</v>
       </c>
@@ -35539,7 +35611,7 @@
         <v>0.25125628140703526</v>
       </c>
     </row>
-    <row r="271" spans="1:33">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A271" s="37">
         <v>44568</v>
       </c>
@@ -35589,7 +35661,7 @@
         <v>-0.4241071428571429</v>
       </c>
     </row>
-    <row r="272" spans="1:33">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A272" s="95">
         <v>44571</v>
       </c>
@@ -35657,7 +35729,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="273" spans="1:33">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A273" s="95">
         <v>44572</v>
       </c>
@@ -35725,7 +35797,7 @@
         <v>-0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:33">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A274" s="95">
         <v>44573</v>
       </c>
@@ -35775,7 +35847,7 @@
         <v>0.63313609467455612</v>
       </c>
     </row>
-    <row r="275" spans="1:33">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A275" s="95">
         <v>44574</v>
       </c>
@@ -35843,7 +35915,7 @@
         <v>-0.22935779816513766</v>
       </c>
     </row>
-    <row r="276" spans="1:33">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A276" s="95">
         <v>44575</v>
       </c>
@@ -35911,7 +35983,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:33">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A277" s="95">
         <v>44578</v>
       </c>
@@ -35979,7 +36051,7 @@
         <v>0.47297297297297297</v>
       </c>
     </row>
-    <row r="278" spans="1:33">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A278" s="37">
         <v>44579</v>
       </c>
@@ -36029,7 +36101,7 @@
         <v>-0.4853556485355649</v>
       </c>
     </row>
-    <row r="279" spans="1:33">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A279" s="37">
         <v>44580</v>
       </c>
@@ -36079,7 +36151,7 @@
         <v>-0.25000000000000006</v>
       </c>
     </row>
-    <row r="280" spans="1:33">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A280" s="37">
         <v>44581</v>
       </c>
@@ -36129,7 +36201,7 @@
         <v>-0.38834951456310685</v>
       </c>
     </row>
-    <row r="281" spans="1:33">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A281" s="37">
         <v>44582</v>
       </c>
@@ -36179,7 +36251,7 @@
         <v>3.5971223021582684E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:33">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A282" s="37">
         <v>44585</v>
       </c>
@@ -36229,7 +36301,7 @@
         <v>0.10958904109589046</v>
       </c>
     </row>
-    <row r="283" spans="1:33">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A283" s="37">
         <v>44586</v>
       </c>
@@ -36279,7 +36351,7 @@
         <v>-0.47916666666666669</v>
       </c>
     </row>
-    <row r="284" spans="1:33">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A284" s="37">
         <v>44587</v>
       </c>
@@ -36329,7 +36401,7 @@
         <v>0.20472440944881884</v>
       </c>
     </row>
-    <row r="285" spans="1:33">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A285" s="37">
         <v>44588</v>
       </c>
@@ -36379,7 +36451,7 @@
         <v>-0.70000000000000007</v>
       </c>
     </row>
-    <row r="286" spans="1:33">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A286" s="37">
         <v>44589</v>
       </c>
@@ -36429,7 +36501,7 @@
         <v>0.88764044943820219</v>
       </c>
     </row>
-    <row r="287" spans="1:33">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A287" s="37">
         <v>44599</v>
       </c>
@@ -36479,7 +36551,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:33">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A288" s="37">
         <v>44600</v>
       </c>
@@ -36529,7 +36601,7 @@
         <v>0.87741935483870981</v>
       </c>
     </row>
-    <row r="289" spans="1:33">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A289" s="37">
         <v>44601</v>
       </c>
@@ -36579,7 +36651,7 @@
         <v>0.20502092050209197</v>
       </c>
     </row>
-    <row r="290" spans="1:33">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A290" s="37">
         <v>44602</v>
       </c>
@@ -36629,7 +36701,7 @@
         <v>-0.39784946236559138</v>
       </c>
     </row>
-    <row r="291" spans="1:33">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A291" s="37">
         <v>44603</v>
       </c>
@@ -36679,7 +36751,7 @@
         <v>-0.38554216867469882</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="18">
+    <row r="292" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A292" s="37">
         <v>44606</v>
       </c>
@@ -36739,7 +36811,7 @@
         <v>0.24137931034482749</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="18">
+    <row r="293" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A293" s="37">
         <v>44607</v>
       </c>
@@ -36799,7 +36871,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="18">
+    <row r="294" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A294" s="37">
         <v>44608</v>
       </c>
@@ -36859,7 +36931,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="18">
+    <row r="295" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A295" s="37">
         <v>44609</v>
       </c>
@@ -36919,7 +36991,7 @@
         <v>-0.36320754716981135</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="18">
+    <row r="296" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A296" s="37">
         <v>44610</v>
       </c>
@@ -36979,7 +37051,7 @@
         <v>-9.826589595375719E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="18">
+    <row r="297" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A297" s="37">
         <v>44613</v>
       </c>
@@ -37039,7 +37111,7 @@
         <v>0.7751479289940828</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="18">
+    <row r="298" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A298" s="37">
         <v>44614</v>
       </c>
@@ -37099,7 +37171,7 @@
         <v>-0.22335025380710666</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="18">
+    <row r="299" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A299" s="37">
         <v>44615</v>
       </c>
@@ -37159,7 +37231,7 @@
         <v>0.31527093596059103</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="18">
+    <row r="300" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A300" s="37">
         <v>44616</v>
       </c>
@@ -37219,7 +37291,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="18">
+    <row r="301" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A301" s="37">
         <v>44617</v>
       </c>
@@ -37279,7 +37351,7 @@
         <v>1.1235955056179735E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="18">
+    <row r="302" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A302" s="37">
         <v>44620</v>
       </c>
@@ -37339,7 +37411,7 @@
         <v>-0.27807486631016043</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="18">
+    <row r="303" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A303" s="37">
         <v>44621</v>
       </c>
@@ -37399,7 +37471,7 @@
         <v>0.11188811188811194</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="18">
+    <row r="304" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A304" s="37">
         <v>44622</v>
       </c>
@@ -37459,7 +37531,7 @@
         <v>0.21518987341772158</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="18">
+    <row r="305" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A305" s="37">
         <v>44623</v>
       </c>
@@ -37519,7 +37591,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="18">
+    <row r="306" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A306" s="37">
         <v>44624</v>
       </c>
@@ -37579,7 +37651,7 @@
         <v>-0.30051813471502586</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="18">
+    <row r="307" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A307" s="37">
         <v>44627</v>
       </c>
@@ -37639,7 +37711,7 @@
         <v>-0.15675675675675674</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="18">
+    <row r="308" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A308" s="37">
         <v>44628</v>
       </c>
@@ -37699,7 +37771,7 @@
         <v>-0.63583815028901736</v>
       </c>
     </row>
-    <row r="309" spans="1:33" s="23" customFormat="1" ht="18">
+    <row r="309" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A309" s="22">
         <v>44629</v>
       </c>
@@ -37767,7 +37839,7 @@
         <v>0.16949152542372875</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="18">
+    <row r="310" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A310" s="37">
         <v>44630</v>
       </c>
@@ -37827,7 +37899,7 @@
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="18">
+    <row r="311" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A311" s="37">
         <v>44631</v>
       </c>
@@ -37887,7 +37959,7 @@
         <v>0.37086092715231783</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="18">
+    <row r="312" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A312" s="37">
         <v>44634</v>
       </c>
@@ -37947,7 +38019,7 @@
         <v>-0.35175879396984921</v>
       </c>
     </row>
-    <row r="313" spans="1:33" s="23" customFormat="1" ht="18">
+    <row r="313" spans="1:33" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A313" s="22">
         <v>44635</v>
       </c>
@@ -38015,7 +38087,7 @@
         <v>-0.54081632653061218</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="18">
+    <row r="314" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A314" s="37">
         <v>44636</v>
       </c>
@@ -38075,7 +38147,7 @@
         <v>1.7464788732394363</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="18">
+    <row r="315" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A315" s="37">
         <v>44637</v>
       </c>
@@ -38135,7 +38207,7 @@
         <v>0.46305418719211811</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="18">
+    <row r="316" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A316" s="37">
         <v>44638</v>
       </c>
@@ -38195,7 +38267,7 @@
         <v>0.22779922779922787</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="18">
+    <row r="317" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A317" s="37">
         <v>44641</v>
       </c>
@@ -38255,7 +38327,7 @@
         <v>3.8805970149253688E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="18">
+    <row r="318" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A318" s="37">
         <v>44642</v>
       </c>
@@ -38315,7 +38387,7 @@
         <v>-0.26168224299065418</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="18">
+    <row r="319" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A319" s="37">
         <v>44643</v>
       </c>
@@ -38375,7 +38447,7 @@
         <v>-0.3122923588039867</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="18">
+    <row r="320" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A320" s="37">
         <v>44644</v>
       </c>
@@ -38435,7 +38507,7 @@
         <v>-0.28409090909090912</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="18">
+    <row r="321" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A321" s="37">
         <v>44645</v>
       </c>
@@ -38495,7 +38567,7 @@
         <v>6.6350710900474008E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="18">
+    <row r="322" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A322" s="37">
         <v>44648</v>
       </c>
@@ -38555,7 +38627,7 @@
         <v>-0.10144927536231885</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="18">
+    <row r="323" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A323" s="37">
         <v>44649</v>
       </c>
@@ -38615,7 +38687,7 @@
         <v>-0.16000000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="18">
+    <row r="324" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A324" s="37">
         <v>44650</v>
       </c>
@@ -38675,7 +38747,7 @@
         <v>0.24352331606217625</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="18">
+    <row r="325" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A325" s="37">
         <v>44651</v>
       </c>
@@ -38735,7 +38807,7 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="326" spans="1:33">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A326" s="37">
         <v>44652</v>
       </c>
@@ -38787,7 +38859,7 @@
         <v>0.130890052356021</v>
       </c>
     </row>
-    <row r="327" spans="1:33">
+    <row r="327" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="37">
         <v>44657</v>
       </c>
@@ -38837,7 +38909,7 @@
         <v>0.18840579710144928</v>
       </c>
     </row>
-    <row r="328" spans="1:33">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A328" s="37">
         <v>44658</v>
       </c>
@@ -38887,7 +38959,7 @@
         <v>-0.54066985645933019</v>
       </c>
     </row>
-    <row r="329" spans="1:33">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A329" s="37">
         <v>44659</v>
       </c>
@@ -38937,7 +39009,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:33">
+    <row r="330" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A330" s="37">
         <v>44662</v>
       </c>
@@ -38987,7 +39059,7 @@
         <v>-0.1067415730337079</v>
       </c>
     </row>
-    <row r="331" spans="1:33">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A331" s="37">
         <v>44663</v>
       </c>
@@ -39037,7 +39109,7 @@
         <v>0.93288590604026855</v>
       </c>
     </row>
-    <row r="332" spans="1:33">
+    <row r="332" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A332" s="37">
         <v>44664</v>
       </c>
@@ -39087,7 +39159,7 @@
         <v>-0.25352112676056338</v>
       </c>
     </row>
-    <row r="333" spans="1:33">
+    <row r="333" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A333" s="37">
         <v>44665</v>
       </c>
@@ -39137,7 +39209,7 @@
         <v>0.14356435643564364</v>
       </c>
     </row>
-    <row r="334" spans="1:33">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A334" s="37">
         <v>44666</v>
       </c>
@@ -39187,7 +39259,7 @@
         <v>-0.49557522123893805</v>
       </c>
     </row>
-    <row r="335" spans="1:33">
+    <row r="335" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A335" s="37">
         <v>44669</v>
       </c>
@@ -39237,7 +39309,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="336" spans="1:33">
+    <row r="336" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A336" s="37">
         <v>44670</v>
       </c>
@@ -39287,7 +39359,7 @@
         <v>-0.12041884816753923</v>
       </c>
     </row>
-    <row r="337" spans="1:33">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A337" s="37">
         <v>44671</v>
       </c>
@@ -39335,6 +39407,106 @@
       <c r="AG337" s="110">
         <f t="shared" ref="AG337" si="50">(B337-AF337)/AF337</f>
         <v>-8.2352941176470545E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A338" s="37">
+        <v>44672</v>
+      </c>
+      <c r="B338" s="38">
+        <v>32</v>
+      </c>
+      <c r="C338" s="38">
+        <v>15</v>
+      </c>
+      <c r="D338" s="38">
+        <v>-90</v>
+      </c>
+      <c r="E338" s="38">
+        <v>-66</v>
+      </c>
+      <c r="F338" s="38">
+        <v>-1963</v>
+      </c>
+      <c r="G338" s="38">
+        <v>-1344</v>
+      </c>
+      <c r="H338" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I338" s="39">
+        <f t="shared" ref="I338" si="51">B338/(B338+C338)*100</f>
+        <v>68.085106382978722</v>
+      </c>
+      <c r="J338" s="39">
+        <v>-0.86</v>
+      </c>
+      <c r="K338" s="39">
+        <v>-1.85</v>
+      </c>
+      <c r="T338" s="94">
+        <v>5</v>
+      </c>
+      <c r="U338" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF338" s="109">
+        <f t="shared" ref="AF338" si="52">(B335+B336+B337)/3</f>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="AG338" s="110">
+        <f t="shared" ref="AG338" si="53">(B338-AF338)/AF338</f>
+        <v>-0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="339" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A339" s="37">
+        <v>44673</v>
+      </c>
+      <c r="B339" s="38">
+        <v>75</v>
+      </c>
+      <c r="C339" s="38">
+        <v>10</v>
+      </c>
+      <c r="D339" s="38">
+        <v>-85</v>
+      </c>
+      <c r="E339" s="38">
+        <v>-65</v>
+      </c>
+      <c r="F339" s="38">
+        <v>-665</v>
+      </c>
+      <c r="G339" s="38">
+        <v>-383</v>
+      </c>
+      <c r="H339" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I339" s="39">
+        <f t="shared" ref="I339" si="54">B339/(B339+C339)*100</f>
+        <v>88.235294117647058</v>
+      </c>
+      <c r="J339" s="39">
+        <v>2.63</v>
+      </c>
+      <c r="K339" s="39">
+        <v>0.19</v>
+      </c>
+      <c r="T339" s="94">
+        <v>5</v>
+      </c>
+      <c r="U339" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF339" s="109">
+        <f t="shared" ref="AF339" si="55">(B336+B337+B338)/3</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="AG339" s="110">
+        <f t="shared" ref="AG339" si="56">(B339-AF339)/AF339</f>
+        <v>0.60714285714285721</v>
       </c>
     </row>
   </sheetData>
@@ -39345,7 +39517,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{AA3D4853-DFC7-A44C-AAF4-ED502B2966F5}">
+          <x14:cfRule type="iconSet" priority="20" id="{AA3D4853-DFC7-A44C-AAF4-ED502B2966F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39361,10 +39533,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I1:I337 I340:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{5668E6E0-C4AC-C442-9BCB-A9B3CB042970}">
+          <x14:cfRule type="iconSet" priority="19" id="{5668E6E0-C4AC-C442-9BCB-A9B3CB042970}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39380,10 +39552,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B1:B327 B330:B1048576 C328</xm:sqref>
+          <xm:sqref>B1:B327 B330:B337 C328 B340:B1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{CC481063-6BD0-3947-B031-AA136F500496}">
+          <x14:cfRule type="iconSet" priority="17" id="{CC481063-6BD0-3947-B031-AA136F500496}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39399,10 +39571,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D1:D327 D330:D333 D335:D1048576 E334 E328</xm:sqref>
+          <xm:sqref>D1:D327 D330:D333 D335:D337 E334 E328 D340:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
+          <x14:cfRule type="iconSet" priority="16" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39418,10 +39590,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E1:E327 E330:E333 E335:E1048576 F334 F328</xm:sqref>
+          <xm:sqref>E1:E327 E330:E333 E335:E337 F334 F328 E340:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
+          <x14:cfRule type="iconSet" priority="15" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39437,10 +39609,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F1:F327 F330:F333 F335:F1048576</xm:sqref>
+          <xm:sqref>F1:F327 F330:F333 F335:F337 F340:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">
+          <x14:cfRule type="iconSet" priority="14" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39456,10 +39628,10 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G1:G328 G330:G1048576</xm:sqref>
+          <xm:sqref>G1:G328 G330:G337 G340:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{39F9903C-C6F9-E74E-A92D-D03599FF392A}">
+          <x14:cfRule type="iconSet" priority="13" id="{39F9903C-C6F9-E74E-A92D-D03599FF392A}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -39477,10 +39649,235 @@
           </x14:cfRule>
           <xm:sqref>D329:H329</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{32167799-798C-B84B-BD3E-21CC5214DCAE}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I338</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{784BE4FB-D14A-F644-8D12-23AB6ACB7C21}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B338</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{5A51FD30-DEBA-D241-B767-3907EA3D3E90}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-38</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-10</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D338</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{9AB3A5A1-EF05-DF4A-B5EB-7C588B26A041}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E338</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{96DC5578-8FF9-8846-B7AF-6E3AC92E9EC0}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-470</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-200</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F338</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{7BF40097-502A-244B-9B20-FE1D1D77B24F}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-450</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-50</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G338</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{DE518C7D-DEBF-0B44-B3F9-736BC3550BDA}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I339</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{CDBF4A67-DC6D-F54F-AA87-E2FC07B641BE}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B339</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{79D62743-7ECE-4C45-BAFA-B79DB5E11C97}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-38</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-10</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D339</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{4D119ABD-7F94-4F4A-9B70-A83FD73BD20C}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E339</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{FAFF466E-2732-4944-9199-4029121A66B4}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-470</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-200</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F339</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{B83AEE10-19BA-8C40-AAA1-BDC41326DFCE}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-450</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-50</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G339</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -39494,35 +39891,35 @@
       <selection activeCell="ZA6150" sqref="ZA6150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="7" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="24.83203125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" customWidth="1"/>
     <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.140625" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" customWidth="1"/>
+    <col min="24" max="24" width="32.1640625" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" customWidth="1"/>
+    <col min="26" max="26" width="29.5" customWidth="1"/>
+    <col min="27" max="27" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="22">
+    <row r="2" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44305</v>
       </c>
@@ -39605,7 +40002,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="27">
+    <row r="3" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -39688,7 +40085,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="27">
+    <row r="4" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>37</v>
@@ -39769,7 +40166,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="27">
+    <row r="5" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -39848,7 +40245,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="27">
+    <row r="6" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -39925,7 +40322,7 @@
         <v>-2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="27">
+    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -39996,7 +40393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="27">
+    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -40067,7 +40464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="22">
+    <row r="9" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -40112,7 +40509,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="22">
+    <row r="10" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -40159,7 +40556,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="22">
+    <row r="11" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -40206,7 +40603,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="27">
+    <row r="12" spans="1:27" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -40259,7 +40656,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="22">
+    <row r="13" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -40310,7 +40707,7 @@
       </c>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="22">
+    <row r="14" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -40359,7 +40756,7 @@
         <v>-5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="22">
+    <row r="15" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -40406,7 +40803,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="22">
+    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -40445,7 +40842,7 @@
         <v>-2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="22">
+    <row r="17" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -40484,7 +40881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="22">
+    <row r="18" spans="1:27" ht="23" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -40524,10 +40921,5 @@
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/magic_excel.xlsx
+++ b/magic_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="0" windowWidth="22320" windowHeight="19400"/>
+    <workbookView xWindow="15840" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图" sheetId="3" r:id="rId1"/>
@@ -806,7 +806,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +832,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,19 +1072,25 @@
     <xf numFmtId="179" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="逗号" xfId="8" builtinId="3"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,10 +1229,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$2000</c:f>
+              <c:f>情绪数据!$A$2:$A$1998</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="1999"/>
+                <c:ptCount val="1997"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -2219,16 +2243,34 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44676.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44677.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44678.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44679.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$T$2:$T$338</c:f>
+              <c:f>情绪数据!$T$2:$T$344</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3239,6 +3281,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3253,8 +3313,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131811416"/>
-        <c:axId val="-2132100104"/>
+        <c:axId val="2086132344"/>
+        <c:axId val="2086006184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4331,10 +4391,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$U$2:$U$338</c:f>
+              <c:f>情绪数据!$U$2:$U$344</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -5344,6 +5404,24 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5361,8 +5439,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131811416"/>
-        <c:axId val="-2132100104"/>
+        <c:axId val="2086132344"/>
+        <c:axId val="2086006184"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6397,10 +6475,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$J$2:$J$338</c:f>
+              <c:f>情绪数据!$J$2:$J$344</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -7411,6 +7489,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-6.38</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8461,10 +8557,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$K$2:$K$338</c:f>
+              <c:f>情绪数据!$K$2:$K$344</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>-0.54</c:v>
                 </c:pt>
@@ -9475,6 +9571,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-6.12</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-4.02</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9491,11 +9605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132096376"/>
-        <c:axId val="-2132093432"/>
+        <c:axId val="2086029496"/>
+        <c:axId val="2086184664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131811416"/>
+        <c:axId val="2086132344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9563,7 +9677,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132100104"/>
+        <c:crossAx val="2086006184"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9571,7 +9685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132100104"/>
+        <c:axId val="2086006184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9622,13 +9736,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131811416"/>
+        <c:crossAx val="2086132344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2132096376"/>
+        <c:axId val="2086029496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9638,7 +9752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132093432"/>
+        <c:crossAx val="2086184664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9646,7 +9760,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132093432"/>
+        <c:axId val="2086184664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9683,7 +9797,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132096376"/>
+        <c:crossAx val="2086029496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9787,10 +9901,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$2000</c:f>
+              <c:f>情绪数据!$A$2:$A$1998</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="1999"/>
+                <c:ptCount val="1997"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -10801,16 +10915,34 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44676.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44677.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44678.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44679.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$B$2:$B$338</c:f>
+              <c:f>情绪数据!$B$2:$B$344</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -11821,6 +11953,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>214.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11854,10 +12004,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$2000</c:f>
+              <c:f>情绪数据!$A$2:$A$1998</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="1999"/>
+                <c:ptCount val="1997"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -12868,16 +13018,34 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44676.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44677.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44678.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44679.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$C$2:$C$338</c:f>
+              <c:f>情绪数据!$C$2:$C$344</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -13888,6 +14056,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>31.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13901,8 +14087,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134481848"/>
-        <c:axId val="-2134477992"/>
+        <c:axId val="2083331976"/>
+        <c:axId val="2083335896"/>
       </c:areaChart>
       <c:areaChart>
         <c:grouping val="stacked"/>
@@ -13934,10 +14120,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$344</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -14915,16 +15101,67 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44665.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44666.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44669.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44670.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44671.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44676.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44677.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44678.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44679.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$D$2:$D$338</c:f>
+              <c:f>情绪数据!$D$2:$D$344</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>-17.0</c:v>
                 </c:pt>
@@ -15935,6 +16172,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>-90.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-88.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-677.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-272.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-148.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-73.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15968,10 +16223,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>情绪数据!$A$2:$A$327</c:f>
+              <c:f>情绪数据!$A$2:$A$344</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="326"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>44165.0</c:v>
                 </c:pt>
@@ -16949,16 +17204,67 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>44657.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44658.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44659.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44662.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44663.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44664.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44665.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44666.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44669.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44670.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44671.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44672.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44673.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44676.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44677.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44678.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44679.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$F$2:$F$338</c:f>
+              <c:f>情绪数据!$F$2:$F$344</c:f>
               <c:numCache>
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>-158.0</c:v>
                 </c:pt>
@@ -17969,6 +18275,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>-1963.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-665.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-3993.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-2044.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-1271.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-1334.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-185.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17982,8 +18306,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134474264"/>
-        <c:axId val="-2134471288"/>
+        <c:axId val="2083340216"/>
+        <c:axId val="2083343224"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -19003,10 +19327,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>情绪数据!$AF$2:$AF$338</c:f>
+              <c:f>情绪数据!$AF$2:$AF$344</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="343"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -20017,6 +20341,24 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>61.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>46.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>47.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>82.33333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20033,11 +20375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2134481848"/>
-        <c:axId val="-2134477992"/>
+        <c:axId val="2083331976"/>
+        <c:axId val="2083335896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134481848"/>
+        <c:axId val="2083331976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20091,7 +20433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134477992"/>
+        <c:crossAx val="2083335896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20099,7 +20441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134477992"/>
+        <c:axId val="2083335896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -20148,12 +20490,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134481848"/>
+        <c:crossAx val="2083331976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2134474264"/>
+        <c:axId val="2083340216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20163,7 +20505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134471288"/>
+        <c:crossAx val="2083343224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20171,7 +20513,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134471288"/>
+        <c:axId val="2083343224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.0"/>
@@ -20207,7 +20549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134474264"/>
+        <c:crossAx val="2083340216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21684,8 +22026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T33:CZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL2" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="BZ16" sqref="BZ16"/>
+    <sheetView topLeftCell="BQ1" zoomScale="90" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="BZ24" sqref="BZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -21728,11 +22070,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG338"/>
+  <dimension ref="A1:AG344"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F340" sqref="F340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -35651,7 +35993,7 @@
         <v>-250</v>
       </c>
       <c r="I272" s="97">
-        <f t="shared" ref="I272:I338" si="26">B272/(B272+C272)*100</f>
+        <f t="shared" ref="I272:I340" si="26">B272/(B272+C272)*100</f>
         <v>81.395348837209298</v>
       </c>
       <c r="J272" s="97">
@@ -39421,6 +39763,306 @@
       <c r="AG338" s="110">
         <f t="shared" ref="AG338" si="52">(B338-AF338)/AF338</f>
         <v>-0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="339" spans="1:33" ht="16" customHeight="1">
+      <c r="A339" s="37">
+        <v>44673</v>
+      </c>
+      <c r="B339" s="38">
+        <v>75</v>
+      </c>
+      <c r="C339" s="38">
+        <v>10</v>
+      </c>
+      <c r="D339" s="38">
+        <v>-88</v>
+      </c>
+      <c r="E339" s="38">
+        <v>-65</v>
+      </c>
+      <c r="F339" s="38">
+        <v>-665</v>
+      </c>
+      <c r="G339" s="38">
+        <v>-383</v>
+      </c>
+      <c r="H339" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I339" s="39">
+        <f t="shared" si="26"/>
+        <v>88.235294117647058</v>
+      </c>
+      <c r="J339" s="39">
+        <v>-6.38</v>
+      </c>
+      <c r="K339" s="39">
+        <v>-6.12</v>
+      </c>
+      <c r="T339" s="94">
+        <v>5</v>
+      </c>
+      <c r="U339" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF339" s="109">
+        <f t="shared" ref="AF339:AF341" si="53">(B336+B337+B338)/3</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="AG339" s="110">
+        <f t="shared" ref="AG339:AG341" si="54">(B339-AF339)/AF339</f>
+        <v>0.60714285714285721</v>
+      </c>
+    </row>
+    <row r="340" spans="1:33">
+      <c r="A340" s="37">
+        <v>44676</v>
+      </c>
+      <c r="B340" s="38">
+        <v>25</v>
+      </c>
+      <c r="C340" s="38">
+        <v>13</v>
+      </c>
+      <c r="D340" s="38">
+        <v>-677</v>
+      </c>
+      <c r="E340" s="38">
+        <v>-569</v>
+      </c>
+      <c r="F340" s="38">
+        <v>-3993</v>
+      </c>
+      <c r="G340" s="38">
+        <v>-3781</v>
+      </c>
+      <c r="H340" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I340" s="39">
+        <f t="shared" si="26"/>
+        <v>65.789473684210535</v>
+      </c>
+      <c r="J340" s="39">
+        <v>-2.72</v>
+      </c>
+      <c r="K340" s="39">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="T340" s="94">
+        <v>4</v>
+      </c>
+      <c r="U340" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF340" s="109">
+        <f t="shared" si="53"/>
+        <v>53</v>
+      </c>
+      <c r="AG340" s="110">
+        <f t="shared" si="54"/>
+        <v>-0.52830188679245282</v>
+      </c>
+    </row>
+    <row r="341" spans="1:33">
+      <c r="A341" s="37">
+        <v>44677</v>
+      </c>
+      <c r="B341" s="38">
+        <v>42</v>
+      </c>
+      <c r="C341" s="38">
+        <v>41</v>
+      </c>
+      <c r="D341" s="38">
+        <v>-272</v>
+      </c>
+      <c r="E341" s="38">
+        <v>-184</v>
+      </c>
+      <c r="F341" s="38">
+        <v>-2044</v>
+      </c>
+      <c r="G341" s="38">
+        <v>-1506</v>
+      </c>
+      <c r="H341" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I341" s="39">
+        <f t="shared" ref="I341:I344" si="55">B341/(B341+C341)*100</f>
+        <v>50.602409638554214</v>
+      </c>
+      <c r="J341" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="K341" s="39">
+        <v>-0.25</v>
+      </c>
+      <c r="T341" s="94">
+        <v>3</v>
+      </c>
+      <c r="U341" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF341" s="109">
+        <f t="shared" si="53"/>
+        <v>44</v>
+      </c>
+      <c r="AG341" s="110">
+        <f t="shared" si="54"/>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:33">
+      <c r="A342" s="37">
+        <v>44678</v>
+      </c>
+      <c r="B342" s="38">
+        <v>137</v>
+      </c>
+      <c r="C342" s="38">
+        <v>39</v>
+      </c>
+      <c r="D342" s="38">
+        <v>-148</v>
+      </c>
+      <c r="E342" s="38">
+        <v>-20</v>
+      </c>
+      <c r="F342" s="38">
+        <v>-1271</v>
+      </c>
+      <c r="G342" s="38">
+        <v>-154</v>
+      </c>
+      <c r="H342" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I342" s="39">
+        <f t="shared" si="55"/>
+        <v>77.840909090909093</v>
+      </c>
+      <c r="J342" s="39">
+        <v>3.67</v>
+      </c>
+      <c r="K342" s="39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T342" s="94">
+        <v>4</v>
+      </c>
+      <c r="U342" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF342" s="109">
+        <f t="shared" ref="AF342:AF344" si="56">(B339+B340+B341)/3</f>
+        <v>47.333333333333336</v>
+      </c>
+      <c r="AG342" s="110">
+        <f t="shared" ref="AG342:AG344" si="57">(B342-AF342)/AF342</f>
+        <v>1.8943661971830983</v>
+      </c>
+    </row>
+    <row r="343" spans="1:33">
+      <c r="A343" s="37">
+        <v>44679</v>
+      </c>
+      <c r="B343" s="38">
+        <v>68</v>
+      </c>
+      <c r="C343" s="38">
+        <v>21</v>
+      </c>
+      <c r="D343" s="38">
+        <v>-73</v>
+      </c>
+      <c r="E343" s="38">
+        <v>-24</v>
+      </c>
+      <c r="F343" s="38">
+        <v>-1334</v>
+      </c>
+      <c r="G343" s="38">
+        <v>-591</v>
+      </c>
+      <c r="H343" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I343" s="39">
+        <f t="shared" si="55"/>
+        <v>76.404494382022463</v>
+      </c>
+      <c r="J343" s="39">
+        <v>3</v>
+      </c>
+      <c r="K343" s="39">
+        <v>2</v>
+      </c>
+      <c r="T343" s="94">
+        <v>5</v>
+      </c>
+      <c r="U343" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF343" s="109">
+        <f t="shared" si="56"/>
+        <v>68</v>
+      </c>
+      <c r="AG343" s="110">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:33">
+      <c r="A344" s="37">
+        <v>44680</v>
+      </c>
+      <c r="B344" s="38">
+        <v>214</v>
+      </c>
+      <c r="C344" s="38">
+        <v>31</v>
+      </c>
+      <c r="D344" s="38">
+        <v>-18</v>
+      </c>
+      <c r="E344" s="38">
+        <v>0</v>
+      </c>
+      <c r="F344" s="38">
+        <v>-185</v>
+      </c>
+      <c r="G344" s="38">
+        <v>-31</v>
+      </c>
+      <c r="H344" s="38">
+        <v>-250</v>
+      </c>
+      <c r="I344" s="39">
+        <f t="shared" si="55"/>
+        <v>87.34693877551021</v>
+      </c>
+      <c r="J344" s="39">
+        <v>5.59</v>
+      </c>
+      <c r="K344" s="39">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="T344" s="94">
+        <v>6</v>
+      </c>
+      <c r="U344" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF344" s="109">
+        <f t="shared" si="56"/>
+        <v>82.333333333333329</v>
+      </c>
+      <c r="AG344" s="110">
+        <f t="shared" si="57"/>
+        <v>1.59919028340081</v>
       </c>
     </row>
   </sheetData>
@@ -39447,7 +40089,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>J342 I1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{5668E6E0-C4AC-C442-9BCB-A9B3CB042970}">
@@ -39469,82 +40111,6 @@
           <xm:sqref>B1:B327 B330:B1048576 C328</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{CC481063-6BD0-3947-B031-AA136F500496}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-38</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-10</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D1:D327 D330:D333 D335:D1048576 E334 E328</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-20</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E1:E327 E330:E333 E335:E1048576 F334 F328</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-470</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-200</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F1:F327 F330:F333 F335:F1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-450</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>-50</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>G1:G328 G330:G1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{39F9903C-C6F9-E74E-A92D-D03599FF392A}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
@@ -39562,6 +40128,82 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>D329:H329</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{CC481063-6BD0-3947-B031-AA136F500496}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-38</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-10</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D1:D327 D330:D333 E334 E328 D344:D1048576 D335:D342</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{DF774614-C12F-4C4F-9792-6234D19AF46D}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E1:E327 E330:E333 F334 F328 E344:E1048576 E335:E342</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="27" id="{8CB41595-F9EE-3547-A26F-50C5E7A82163}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-470</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-200</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F1:F327 F330:F333 F344:F1048576 F335:F342</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{FF4E5384-FA77-554B-A82C-5F6FE16203A1}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-450</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-50</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G1:G328 G344:G1048576 G330:G342</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
